--- a/Portfolio/scripts/output/201911/全家/全家整体收益估算.xlsx
+++ b/Portfolio/scripts/output/201911/全家/全家整体收益估算.xlsx
@@ -582,17 +582,17 @@
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.6195</v>
+        <v>1.6107</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>-0.0022</v>
+        <v>-0.0076</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>-7.49</v>
+        <v>-26.32</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -651,17 +651,17 @@
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.4443</v>
+        <v>1.4318</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>-0.0032</v>
+        <v>-0.0119</v>
       </c>
       <c r="K3" s="8" t="n">
-        <v>-11.19</v>
+        <v>-40.96</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
@@ -720,17 +720,17 @@
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.4566</v>
+        <v>1.458</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>-0.0078</v>
+        <v>-0.0068</v>
       </c>
       <c r="K4" s="8" t="n">
-        <v>-25.77</v>
+        <v>-22.6</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 09:41</t>
+          <t>2019-11-20 15:04</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
@@ -789,17 +789,17 @@
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.9239000000000001</v>
+        <v>0.9176</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="K5" s="9" t="n">
-        <v>3.15</v>
+        <v>-0.0057</v>
+      </c>
+      <c r="K5" s="8" t="n">
+        <v>-16.71</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 09:40</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
@@ -858,17 +858,17 @@
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.858</v>
+        <v>1.8471</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>-0.0044</v>
+        <v>-0.0103</v>
       </c>
       <c r="K6" s="8" t="n">
-        <v>-10</v>
+        <v>-23.29</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
@@ -927,17 +927,17 @@
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>2.1581</v>
+        <v>2.1461</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>-0.0049</v>
+        <v>-0.0105</v>
       </c>
       <c r="K7" s="8" t="n">
-        <v>-9.49</v>
+        <v>-20.13</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 09:40</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -996,17 +996,17 @@
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.9816</v>
+        <v>0.9761</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>0.0007</v>
-      </c>
-      <c r="K8" s="9" t="n">
-        <v>0.5</v>
+        <v>-0.0048</v>
+      </c>
+      <c r="K8" s="8" t="n">
+        <v>-3.42</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -1065,17 +1065,17 @@
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.9304</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>-0.0025</v>
+        <v>-0.0074</v>
       </c>
       <c r="K9" s="8" t="n">
-        <v>-1.27</v>
+        <v>-3.8</v>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M9" s="6" t="inlineStr">
@@ -1134,17 +1134,17 @@
         </is>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.8112</v>
+        <v>0.8126</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>-0.0003</v>
-      </c>
-      <c r="K10" s="8" t="n">
-        <v>-0.11</v>
+        <v>0.0015</v>
+      </c>
+      <c r="K10" s="9" t="n">
+        <v>0.64</v>
       </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M10" s="6" t="inlineStr">
@@ -1203,17 +1203,17 @@
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1.3334</v>
+        <v>1.3293</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>-0.0049</v>
+        <v>-0.008</v>
       </c>
       <c r="K11" s="8" t="n">
-        <v>-1.64</v>
+        <v>-2.65</v>
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M11" s="6" t="inlineStr">
@@ -1272,17 +1272,17 @@
         </is>
       </c>
       <c r="I12" s="4" t="n">
-        <v>1.4536</v>
+        <v>1.4411</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>-0.0033</v>
+        <v>-0.0119</v>
       </c>
       <c r="K12" s="8" t="n">
-        <v>-0.29</v>
+        <v>-1.05</v>
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M12" s="6" t="inlineStr">
@@ -1341,17 +1341,17 @@
         </is>
       </c>
       <c r="I13" s="12" t="n">
-        <v>0.5421</v>
+        <v>0.5384</v>
       </c>
       <c r="J13" s="15" t="n">
-        <v>-0.0014</v>
+        <v>-0.008399999999999999</v>
       </c>
       <c r="K13" s="8" t="n">
-        <v>-13.39</v>
+        <v>-75.29000000000001</v>
       </c>
       <c r="L13" s="14" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M13" s="14" t="inlineStr">
@@ -1410,17 +1410,17 @@
         </is>
       </c>
       <c r="I14" s="18" t="n">
-        <v>3.037</v>
+        <v>3.013</v>
       </c>
       <c r="J14" s="21" t="n">
-        <v>-0.003</v>
+        <v>-0.0108</v>
       </c>
       <c r="K14" s="8" t="n">
-        <v>-24.3</v>
+        <v>-89.09999999999999</v>
       </c>
       <c r="L14" s="20" t="inlineStr">
         <is>
-          <t>2019-11-20 09:41</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M14" s="20" t="inlineStr">
@@ -1479,17 +1479,17 @@
         </is>
       </c>
       <c r="I15" s="18" t="n">
-        <v>4.001</v>
+        <v>3.97</v>
       </c>
       <c r="J15" s="21" t="n">
-        <v>-0.0025</v>
+        <v>-0.0102</v>
       </c>
       <c r="K15" s="8" t="n">
-        <v>-91</v>
+        <v>-373.1</v>
       </c>
       <c r="L15" s="20" t="inlineStr">
         <is>
-          <t>2019-11-20 09:41</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M15" s="20" t="inlineStr">
@@ -1548,17 +1548,17 @@
         </is>
       </c>
       <c r="I16" s="18" t="n">
-        <v>5.375</v>
+        <v>5.337</v>
       </c>
       <c r="J16" s="21" t="n">
-        <v>0.0007</v>
-      </c>
-      <c r="K16" s="9" t="n">
-        <v>155.2</v>
+        <v>-0.0063</v>
+      </c>
+      <c r="K16" s="8" t="n">
+        <v>-1319.2</v>
       </c>
       <c r="L16" s="20" t="inlineStr">
         <is>
-          <t>2019-11-20 09:41</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M16" s="20" t="inlineStr">
@@ -1617,17 +1617,17 @@
         </is>
       </c>
       <c r="I17" s="18" t="n">
-        <v>0.72</v>
+        <v>0.716</v>
       </c>
       <c r="J17" s="21" t="n">
-        <v>-0.0014</v>
+        <v>-0.0069</v>
       </c>
       <c r="K17" s="8" t="n">
-        <v>-33.8</v>
+        <v>-169</v>
       </c>
       <c r="L17" s="20" t="inlineStr">
         <is>
-          <t>2019-11-20 09:40</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M17" s="20" t="inlineStr">
@@ -1686,17 +1686,17 @@
         </is>
       </c>
       <c r="I18" s="18" t="n">
-        <v>0.912</v>
+        <v>0.9</v>
       </c>
       <c r="J18" s="21" t="n">
-        <v>-0.0022</v>
+        <v>-0.0153</v>
       </c>
       <c r="K18" s="8" t="n">
-        <v>-65.40000000000001</v>
+        <v>-457.8</v>
       </c>
       <c r="L18" s="20" t="inlineStr">
         <is>
-          <t>2019-11-20 09:41</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M18" s="20" t="inlineStr">
@@ -1755,17 +1755,17 @@
         </is>
       </c>
       <c r="I19" s="18" t="n">
-        <v>0.784</v>
+        <v>0.768</v>
       </c>
       <c r="J19" s="21" t="n">
-        <v>0.0129</v>
-      </c>
-      <c r="K19" s="9" t="n">
-        <v>341</v>
+        <v>-0.0078</v>
+      </c>
+      <c r="K19" s="8" t="n">
+        <v>-204.6</v>
       </c>
       <c r="L19" s="20" t="inlineStr">
         <is>
-          <t>2019-11-20 09:41</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M19" s="20" t="inlineStr">
@@ -1824,17 +1824,17 @@
         </is>
       </c>
       <c r="I20" s="18" t="n">
-        <v>3.298</v>
+        <v>3.301</v>
       </c>
       <c r="J20" s="21" t="n">
-        <v>0.0024</v>
+        <v>0.0033</v>
       </c>
       <c r="K20" s="9" t="n">
-        <v>36</v>
+        <v>49.5</v>
       </c>
       <c r="L20" s="20" t="inlineStr">
         <is>
-          <t>2019-11-20 09:41</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M20" s="20" t="inlineStr">
@@ -1893,17 +1893,17 @@
         </is>
       </c>
       <c r="I21" s="18" t="n">
-        <v>1.67</v>
+        <v>1.655</v>
       </c>
       <c r="J21" s="21" t="n">
-        <v>0.0024</v>
-      </c>
-      <c r="K21" s="9" t="n">
-        <v>36.8</v>
+        <v>-0.0066</v>
+      </c>
+      <c r="K21" s="8" t="n">
+        <v>-101.2</v>
       </c>
       <c r="L21" s="20" t="inlineStr">
         <is>
-          <t>2019-11-20 09:41</t>
+          <t>2019-11-20 15:03</t>
         </is>
       </c>
       <c r="M21" s="20" t="inlineStr">
@@ -1962,17 +1962,17 @@
         </is>
       </c>
       <c r="I22" s="18" t="n">
-        <v>1.434</v>
+        <v>1.431</v>
       </c>
       <c r="J22" s="21" t="n">
-        <v>0.0007</v>
-      </c>
-      <c r="K22" s="9" t="n">
-        <v>14.4</v>
+        <v>-0.0014</v>
+      </c>
+      <c r="K22" s="8" t="n">
+        <v>-28.8</v>
       </c>
       <c r="L22" s="20" t="inlineStr">
         <is>
-          <t>2019-11-20 09:41</t>
+          <t>2019-11-20 15:03</t>
         </is>
       </c>
       <c r="M22" s="20" t="inlineStr">
@@ -2031,17 +2031,17 @@
         </is>
       </c>
       <c r="I23" s="24" t="n">
-        <v>1.9624</v>
+        <v>1.9522</v>
       </c>
       <c r="J23" s="27" t="n">
-        <v>-0.0003</v>
+        <v>-0.0055</v>
       </c>
       <c r="K23" s="8" t="n">
-        <v>-2.29</v>
+        <v>-41.19</v>
       </c>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M23" s="26" t="inlineStr">
@@ -2100,17 +2100,17 @@
         </is>
       </c>
       <c r="I24" s="24" t="n">
-        <v>0.5421</v>
+        <v>0.5384</v>
       </c>
       <c r="J24" s="27" t="n">
-        <v>-0.0014</v>
+        <v>-0.008399999999999999</v>
       </c>
       <c r="K24" s="8" t="n">
-        <v>-7.78</v>
+        <v>-43.75</v>
       </c>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M24" s="26" t="inlineStr">
@@ -2169,17 +2169,17 @@
         </is>
       </c>
       <c r="I25" s="24" t="n">
-        <v>0.9816</v>
+        <v>0.9761</v>
       </c>
       <c r="J25" s="27" t="n">
-        <v>0.0007</v>
-      </c>
-      <c r="K25" s="9" t="n">
-        <v>3.46</v>
+        <v>-0.0048</v>
+      </c>
+      <c r="K25" s="8" t="n">
+        <v>-23.73</v>
       </c>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M25" s="26" t="inlineStr">
@@ -2238,17 +2238,17 @@
         </is>
       </c>
       <c r="I26" s="24" t="n">
-        <v>0.5528</v>
+        <v>0.55</v>
       </c>
       <c r="J26" s="27" t="n">
-        <v>-0.0003</v>
+        <v>-0.0055</v>
       </c>
       <c r="K26" s="8" t="n">
-        <v>-1.48</v>
+        <v>-22.14</v>
       </c>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M26" s="26" t="inlineStr">
@@ -2307,17 +2307,17 @@
         </is>
       </c>
       <c r="I27" s="24" t="n">
-        <v>1.1016</v>
+        <v>1.0956</v>
       </c>
       <c r="J27" s="27" t="n">
-        <v>-0.0022</v>
+        <v>-0.0076</v>
       </c>
       <c r="K27" s="8" t="n">
-        <v>-8.800000000000001</v>
+        <v>-30.79</v>
       </c>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M27" s="26" t="inlineStr">
@@ -2376,17 +2376,17 @@
         </is>
       </c>
       <c r="I28" s="24" t="n">
-        <v>0.7861</v>
+        <v>0.7725</v>
       </c>
       <c r="J28" s="27" t="n">
-        <v>0.0098</v>
-      </c>
-      <c r="K28" s="9" t="n">
-        <v>34.58</v>
+        <v>-0.0077</v>
+      </c>
+      <c r="K28" s="8" t="n">
+        <v>-27.3</v>
       </c>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M28" s="26" t="inlineStr">
@@ -2445,17 +2445,17 @@
         </is>
       </c>
       <c r="I29" s="24" t="n">
-        <v>1.7913</v>
+        <v>1.7787</v>
       </c>
       <c r="J29" s="27" t="n">
-        <v>0.0019</v>
-      </c>
-      <c r="K29" s="9" t="n">
-        <v>1.36</v>
+        <v>-0.0051</v>
+      </c>
+      <c r="K29" s="8" t="n">
+        <v>-3.69</v>
       </c>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M29" s="26" t="inlineStr">
@@ -2514,17 +2514,17 @@
         </is>
       </c>
       <c r="I30" s="24" t="n">
-        <v>0.9739</v>
+        <v>0.9665</v>
       </c>
       <c r="J30" s="27" t="n">
-        <v>0.0025</v>
-      </c>
-      <c r="K30" s="9" t="n">
-        <v>1.77</v>
+        <v>-0.0051</v>
+      </c>
+      <c r="K30" s="8" t="n">
+        <v>-3.68</v>
       </c>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M30" s="26" t="inlineStr">
@@ -2583,17 +2583,17 @@
         </is>
       </c>
       <c r="I31" s="24" t="n">
-        <v>0.9796</v>
+        <v>0.9666</v>
       </c>
       <c r="J31" s="27" t="n">
-        <v>-0.0021</v>
+        <v>-0.0154</v>
       </c>
       <c r="K31" s="8" t="n">
-        <v>-0.79</v>
+        <v>-5.7</v>
       </c>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M31" s="26" t="inlineStr">
@@ -2644,21 +2644,21 @@
         <v>2.38</v>
       </c>
       <c r="G32" s="24" t="n">
-        <v>0.389</v>
+        <v>0.378</v>
       </c>
       <c r="H32" s="26" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I32" s="24" t="n">
-        <v>0.3876</v>
+        <v>0.3767</v>
       </c>
       <c r="J32" s="27" t="n">
         <v>-0.0035</v>
       </c>
       <c r="K32" s="8" t="n">
-        <v>-7.42</v>
+        <v>-6.89</v>
       </c>
       <c r="L32" s="26" t="inlineStr">
         <is>
@@ -2713,15 +2713,15 @@
         <v>69</v>
       </c>
       <c r="G33" s="24" t="n">
-        <v>1.283</v>
+        <v>1.276</v>
       </c>
       <c r="H33" s="26" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I33" s="24" t="n">
-        <v>1.2797</v>
+        <v>1.2727</v>
       </c>
       <c r="J33" s="27" t="n">
         <v>-0.0026</v>
@@ -2790,17 +2790,17 @@
         </is>
       </c>
       <c r="I34" s="24" t="n">
-        <v>1.499</v>
+        <v>1.5009</v>
       </c>
       <c r="J34" s="27" t="n">
-        <v>-0.007900000000000001</v>
+        <v>-0.0067</v>
       </c>
       <c r="K34" s="8" t="n">
-        <v>-5.52</v>
+        <v>-4.64</v>
       </c>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 09:40</t>
+          <t>2019-11-20 15:03</t>
         </is>
       </c>
       <c r="M34" s="26" t="inlineStr">
@@ -2928,17 +2928,17 @@
         </is>
       </c>
       <c r="I36" s="24" t="n">
-        <v>1.9624</v>
+        <v>1.9522</v>
       </c>
       <c r="J36" s="27" t="n">
-        <v>-0.0003</v>
+        <v>-0.0055</v>
       </c>
       <c r="K36" s="8" t="n">
-        <v>-0.63</v>
+        <v>-11.3</v>
       </c>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M36" s="26" t="inlineStr">
@@ -2997,17 +2997,17 @@
         </is>
       </c>
       <c r="I37" s="24" t="n">
-        <v>1.1016</v>
+        <v>1.0956</v>
       </c>
       <c r="J37" s="27" t="n">
-        <v>-0.0022</v>
+        <v>-0.0076</v>
       </c>
       <c r="K37" s="8" t="n">
-        <v>-4.38</v>
+        <v>-15.34</v>
       </c>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M37" s="26" t="inlineStr">
@@ -3066,17 +3066,17 @@
         </is>
       </c>
       <c r="I38" s="24" t="n">
-        <v>1.0241</v>
+        <v>1.0164</v>
       </c>
       <c r="J38" s="27" t="n">
-        <v>-0.0029</v>
+        <v>-0.0104</v>
       </c>
       <c r="K38" s="8" t="n">
-        <v>-3.07</v>
+        <v>-11.23</v>
       </c>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M38" s="26" t="inlineStr">
@@ -3135,17 +3135,17 @@
         </is>
       </c>
       <c r="I39" s="24" t="n">
-        <v>0.5528</v>
+        <v>0.55</v>
       </c>
       <c r="J39" s="27" t="n">
-        <v>-0.0003</v>
+        <v>-0.0055</v>
       </c>
       <c r="K39" s="8" t="n">
-        <v>-0.36</v>
+        <v>-5.44</v>
       </c>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M39" s="26" t="inlineStr">
@@ -3204,17 +3204,17 @@
         </is>
       </c>
       <c r="I40" s="24" t="n">
-        <v>0.7861</v>
+        <v>0.7725</v>
       </c>
       <c r="J40" s="27" t="n">
-        <v>0.0098</v>
-      </c>
-      <c r="K40" s="9" t="n">
-        <v>9.33</v>
+        <v>-0.0077</v>
+      </c>
+      <c r="K40" s="8" t="n">
+        <v>-7.36</v>
       </c>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M40" s="26" t="inlineStr">
@@ -3273,17 +3273,17 @@
         </is>
       </c>
       <c r="I41" s="24" t="n">
-        <v>1.2214</v>
+        <v>1.2227</v>
       </c>
       <c r="J41" s="27" t="n">
-        <v>0.004</v>
+        <v>0.0051</v>
       </c>
       <c r="K41" s="9" t="n">
-        <v>8.99</v>
+        <v>11.37</v>
       </c>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 09:40</t>
+          <t>2019-11-20 15:03</t>
         </is>
       </c>
       <c r="M41" s="26" t="inlineStr">
@@ -3334,15 +3334,15 @@
         <v>148.17</v>
       </c>
       <c r="G42" s="24" t="n">
-        <v>1.283</v>
+        <v>1.276</v>
       </c>
       <c r="H42" s="26" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I42" s="24" t="n">
-        <v>1.2797</v>
+        <v>1.2727</v>
       </c>
       <c r="J42" s="27" t="n">
         <v>-0.0026</v>
@@ -3411,17 +3411,17 @@
         </is>
       </c>
       <c r="I43" s="24" t="n">
-        <v>1.499</v>
+        <v>1.5009</v>
       </c>
       <c r="J43" s="27" t="n">
-        <v>-0.007900000000000001</v>
+        <v>-0.0067</v>
       </c>
       <c r="K43" s="8" t="n">
-        <v>-8.27</v>
+        <v>-6.96</v>
       </c>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 09:40</t>
+          <t>2019-11-20 15:03</t>
         </is>
       </c>
       <c r="M43" s="26" t="inlineStr">
@@ -3472,21 +3472,21 @@
         <v>-201.51</v>
       </c>
       <c r="G44" s="24" t="n">
-        <v>0.389</v>
+        <v>0.378</v>
       </c>
       <c r="H44" s="26" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I44" s="24" t="n">
-        <v>0.3876</v>
+        <v>0.3767</v>
       </c>
       <c r="J44" s="27" t="n">
         <v>-0.0035</v>
       </c>
       <c r="K44" s="8" t="n">
-        <v>-6.66</v>
+        <v>-6.19</v>
       </c>
       <c r="L44" s="26" t="inlineStr">
         <is>
@@ -3618,17 +3618,17 @@
         </is>
       </c>
       <c r="I46" s="30" t="n">
-        <v>1.1016</v>
+        <v>1.0956</v>
       </c>
       <c r="J46" s="33" t="n">
-        <v>-0.0022</v>
+        <v>-0.0076</v>
       </c>
       <c r="K46" s="8" t="n">
-        <v>-156.15</v>
+        <v>-546.54</v>
       </c>
       <c r="L46" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M46" s="32" t="inlineStr">
@@ -3687,17 +3687,17 @@
         </is>
       </c>
       <c r="I47" s="30" t="n">
-        <v>0.9816</v>
+        <v>0.9761</v>
       </c>
       <c r="J47" s="33" t="n">
-        <v>0.0007</v>
-      </c>
-      <c r="K47" s="9" t="n">
-        <v>44.44</v>
+        <v>-0.0048</v>
+      </c>
+      <c r="K47" s="8" t="n">
+        <v>-304.75</v>
       </c>
       <c r="L47" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M47" s="32" t="inlineStr">
@@ -3756,17 +3756,17 @@
         </is>
       </c>
       <c r="I48" s="30" t="n">
-        <v>1.1554</v>
+        <v>1.1535</v>
       </c>
       <c r="J48" s="33" t="n">
-        <v>-0.0005</v>
+        <v>-0.0022</v>
       </c>
       <c r="K48" s="8" t="n">
-        <v>-19.42</v>
+        <v>-80.93000000000001</v>
       </c>
       <c r="L48" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M48" s="32" t="inlineStr">
@@ -3825,17 +3825,17 @@
         </is>
       </c>
       <c r="I49" s="30" t="n">
-        <v>0.891</v>
+        <v>0.8902</v>
       </c>
       <c r="J49" s="33" t="n">
-        <v>-0.0001</v>
+        <v>-0.001</v>
       </c>
       <c r="K49" s="8" t="n">
-        <v>-4.1</v>
+        <v>-36.91</v>
       </c>
       <c r="L49" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M49" s="32" t="inlineStr">
@@ -3894,17 +3894,17 @@
         </is>
       </c>
       <c r="I50" s="30" t="n">
-        <v>1.6976</v>
+        <v>1.6944</v>
       </c>
       <c r="J50" s="33" t="n">
-        <v>-0.0003</v>
+        <v>-0.0021</v>
       </c>
       <c r="K50" s="8" t="n">
-        <v>-8.029999999999999</v>
+        <v>-72.31</v>
       </c>
       <c r="L50" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M50" s="32" t="inlineStr">
@@ -4032,17 +4032,17 @@
         </is>
       </c>
       <c r="I52" s="30" t="n">
-        <v>1.6457</v>
+        <v>1.6335</v>
       </c>
       <c r="J52" s="33" t="n">
-        <v>-0.002</v>
+        <v>-0.0094</v>
       </c>
       <c r="K52" s="8" t="n">
-        <v>-48.26</v>
+        <v>-226.68</v>
       </c>
       <c r="L52" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 09:40</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M52" s="32" t="inlineStr">
@@ -4101,17 +4101,17 @@
         </is>
       </c>
       <c r="I53" s="30" t="n">
-        <v>1.0983</v>
+        <v>1.0858</v>
       </c>
       <c r="J53" s="33" t="n">
-        <v>-0.003</v>
+        <v>-0.0143</v>
       </c>
       <c r="K53" s="8" t="n">
-        <v>-69.84</v>
+        <v>-334.39</v>
       </c>
       <c r="L53" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M53" s="32" t="inlineStr">
@@ -4162,15 +4162,15 @@
         <v>2209.32</v>
       </c>
       <c r="G54" s="30" t="n">
-        <v>1.283</v>
+        <v>1.276</v>
       </c>
       <c r="H54" s="32" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I54" s="30" t="n">
-        <v>1.2797</v>
+        <v>1.2727</v>
       </c>
       <c r="J54" s="33" t="n">
         <v>-0.0026</v>
@@ -4239,17 +4239,17 @@
         </is>
       </c>
       <c r="I55" s="30" t="n">
-        <v>1.6135</v>
+        <v>1.6051</v>
       </c>
       <c r="J55" s="33" t="n">
-        <v>-0.0003</v>
+        <v>-0.0055</v>
       </c>
       <c r="K55" s="8" t="n">
-        <v>-4.76</v>
+        <v>-84.81999999999999</v>
       </c>
       <c r="L55" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M55" s="32" t="inlineStr">
@@ -4300,21 +4300,21 @@
         <v>-5112.91</v>
       </c>
       <c r="G56" s="30" t="n">
-        <v>0.389</v>
+        <v>0.378</v>
       </c>
       <c r="H56" s="32" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I56" s="30" t="n">
-        <v>0.3876</v>
+        <v>0.3767</v>
       </c>
       <c r="J56" s="33" t="n">
         <v>-0.0035</v>
       </c>
       <c r="K56" s="8" t="n">
-        <v>-52.17</v>
+        <v>-48.45</v>
       </c>
       <c r="L56" s="32" t="inlineStr">
         <is>
@@ -4377,17 +4377,17 @@
         </is>
       </c>
       <c r="I57" s="30" t="n">
-        <v>1.499</v>
+        <v>1.5009</v>
       </c>
       <c r="J57" s="33" t="n">
-        <v>-0.007900000000000001</v>
+        <v>-0.0067</v>
       </c>
       <c r="K57" s="8" t="n">
-        <v>-81.58</v>
+        <v>-68.67</v>
       </c>
       <c r="L57" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 09:40</t>
+          <t>2019-11-20 15:03</t>
         </is>
       </c>
       <c r="M57" s="32" t="inlineStr">
@@ -4446,17 +4446,17 @@
         </is>
       </c>
       <c r="I58" s="30" t="n">
-        <v>1.7913</v>
+        <v>1.7787</v>
       </c>
       <c r="J58" s="33" t="n">
-        <v>0.0019</v>
-      </c>
-      <c r="K58" s="9" t="n">
-        <v>16.29</v>
+        <v>-0.0051</v>
+      </c>
+      <c r="K58" s="8" t="n">
+        <v>-44.08</v>
       </c>
       <c r="L58" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M58" s="32" t="inlineStr">
@@ -4584,17 +4584,17 @@
         </is>
       </c>
       <c r="I60" s="30" t="n">
-        <v>0.5421</v>
+        <v>0.5384</v>
       </c>
       <c r="J60" s="33" t="n">
-        <v>-0.0014</v>
+        <v>-0.008399999999999999</v>
       </c>
       <c r="K60" s="8" t="n">
-        <v>-10.72</v>
+        <v>-60.32</v>
       </c>
       <c r="L60" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M60" s="32" t="inlineStr">
@@ -4653,17 +4653,17 @@
         </is>
       </c>
       <c r="I61" s="30" t="n">
-        <v>1.364</v>
+        <v>1.3604</v>
       </c>
       <c r="J61" s="33" t="n">
-        <v>-0.0005</v>
+        <v>-0.0032</v>
       </c>
       <c r="K61" s="8" t="n">
-        <v>-3.73</v>
+        <v>-22.91</v>
       </c>
       <c r="L61" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 09:40</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M61" s="32" t="inlineStr">
@@ -4722,17 +4722,17 @@
         </is>
       </c>
       <c r="I62" s="30" t="n">
-        <v>0.8738</v>
+        <v>0.8686</v>
       </c>
       <c r="J62" s="33" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="K62" s="9" t="n">
-        <v>3.11</v>
+        <v>-0.0055</v>
+      </c>
+      <c r="K62" s="8" t="n">
+        <v>-37.34</v>
       </c>
       <c r="L62" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 09:40</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M62" s="32" t="inlineStr">
@@ -4791,17 +4791,17 @@
         </is>
       </c>
       <c r="I63" s="30" t="n">
-        <v>0.7861</v>
+        <v>0.7725</v>
       </c>
       <c r="J63" s="33" t="n">
-        <v>0.0098</v>
-      </c>
-      <c r="K63" s="9" t="n">
-        <v>59.68</v>
+        <v>-0.0077</v>
+      </c>
+      <c r="K63" s="8" t="n">
+        <v>-47.12</v>
       </c>
       <c r="L63" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M63" s="32" t="inlineStr">
@@ -4860,17 +4860,17 @@
         </is>
       </c>
       <c r="I64" s="30" t="n">
-        <v>0.9469</v>
+        <v>0.9435</v>
       </c>
       <c r="J64" s="33" t="n">
-        <v>-0.0011</v>
+        <v>-0.0048</v>
       </c>
       <c r="K64" s="8" t="n">
-        <v>-3.94</v>
+        <v>-16.11</v>
       </c>
       <c r="L64" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M64" s="32" t="inlineStr">
@@ -4929,17 +4929,17 @@
         </is>
       </c>
       <c r="I65" s="4" t="n">
-        <v>1.4443</v>
+        <v>1.4318</v>
       </c>
       <c r="J65" s="7" t="n">
-        <v>-0.0032</v>
+        <v>-0.0119</v>
       </c>
       <c r="K65" s="8" t="n">
-        <v>-4.61</v>
+        <v>-16.88</v>
       </c>
       <c r="L65" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M65" s="6" t="inlineStr">
@@ -4998,17 +4998,17 @@
         </is>
       </c>
       <c r="I66" s="4" t="n">
-        <v>1.6195</v>
+        <v>1.6107</v>
       </c>
       <c r="J66" s="7" t="n">
-        <v>-0.0022</v>
+        <v>-0.0076</v>
       </c>
       <c r="K66" s="8" t="n">
-        <v>-2.91</v>
+        <v>-10.23</v>
       </c>
       <c r="L66" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M66" s="6" t="inlineStr">
@@ -5067,17 +5067,17 @@
         </is>
       </c>
       <c r="I67" s="4" t="n">
-        <v>1.4566</v>
+        <v>1.458</v>
       </c>
       <c r="J67" s="7" t="n">
-        <v>-0.0078</v>
+        <v>-0.0068</v>
       </c>
       <c r="K67" s="8" t="n">
-        <v>-10.24</v>
+        <v>-8.98</v>
       </c>
       <c r="L67" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 09:41</t>
+          <t>2019-11-20 15:04</t>
         </is>
       </c>
       <c r="M67" s="6" t="inlineStr">
@@ -5136,17 +5136,17 @@
         </is>
       </c>
       <c r="I68" s="4" t="n">
-        <v>0.9239000000000001</v>
+        <v>0.9176</v>
       </c>
       <c r="J68" s="7" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="K68" s="9" t="n">
-        <v>1.27</v>
+        <v>-0.0057</v>
+      </c>
+      <c r="K68" s="8" t="n">
+        <v>-6.7</v>
       </c>
       <c r="L68" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 09:40</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M68" s="6" t="inlineStr">
@@ -5205,17 +5205,17 @@
         </is>
       </c>
       <c r="I69" s="4" t="n">
-        <v>1.858</v>
+        <v>1.8471</v>
       </c>
       <c r="J69" s="7" t="n">
-        <v>-0.0044</v>
+        <v>-0.0103</v>
       </c>
       <c r="K69" s="8" t="n">
-        <v>-3.8</v>
+        <v>-8.859999999999999</v>
       </c>
       <c r="L69" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M69" s="6" t="inlineStr">
@@ -5274,17 +5274,17 @@
         </is>
       </c>
       <c r="I70" s="4" t="n">
-        <v>2.1581</v>
+        <v>2.1461</v>
       </c>
       <c r="J70" s="7" t="n">
-        <v>-0.0049</v>
+        <v>-0.0105</v>
       </c>
       <c r="K70" s="8" t="n">
-        <v>-3.99</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="L70" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 09:40</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M70" s="6" t="inlineStr">
@@ -5343,17 +5343,17 @@
         </is>
       </c>
       <c r="I71" s="4" t="n">
-        <v>0.9816</v>
+        <v>0.9761</v>
       </c>
       <c r="J71" s="7" t="n">
-        <v>0.0007</v>
-      </c>
-      <c r="K71" s="9" t="n">
-        <v>0.22</v>
+        <v>-0.0048</v>
+      </c>
+      <c r="K71" s="8" t="n">
+        <v>-1.54</v>
       </c>
       <c r="L71" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M71" s="6" t="inlineStr">
@@ -5412,17 +5412,17 @@
         </is>
       </c>
       <c r="I72" s="4" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.9304</v>
       </c>
       <c r="J72" s="7" t="n">
-        <v>-0.0025</v>
+        <v>-0.0074</v>
       </c>
       <c r="K72" s="8" t="n">
-        <v>-0.49</v>
+        <v>-1.48</v>
       </c>
       <c r="L72" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M72" s="6" t="inlineStr">
@@ -5481,17 +5481,17 @@
         </is>
       </c>
       <c r="I73" s="4" t="n">
-        <v>0.8112</v>
+        <v>0.8126</v>
       </c>
       <c r="J73" s="7" t="n">
-        <v>-0.0003</v>
-      </c>
-      <c r="K73" s="8" t="n">
-        <v>-0.04</v>
+        <v>0.0015</v>
+      </c>
+      <c r="K73" s="9" t="n">
+        <v>0.26</v>
       </c>
       <c r="L73" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M73" s="6" t="inlineStr">
@@ -5550,17 +5550,17 @@
         </is>
       </c>
       <c r="I74" s="4" t="n">
-        <v>1.3334</v>
+        <v>1.3293</v>
       </c>
       <c r="J74" s="7" t="n">
-        <v>-0.0049</v>
+        <v>-0.008</v>
       </c>
       <c r="K74" s="8" t="n">
-        <v>-0.41</v>
+        <v>-0.66</v>
       </c>
       <c r="L74" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M74" s="6" t="inlineStr">
@@ -5619,17 +5619,17 @@
         </is>
       </c>
       <c r="I75" s="4" t="n">
-        <v>1.4536</v>
+        <v>1.4411</v>
       </c>
       <c r="J75" s="7" t="n">
-        <v>-0.0033</v>
+        <v>-0.0119</v>
       </c>
       <c r="K75" s="8" t="n">
-        <v>-0.12</v>
+        <v>-0.42</v>
       </c>
       <c r="L75" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M75" s="6" t="inlineStr">
@@ -5688,17 +5688,17 @@
         </is>
       </c>
       <c r="I76" s="4" t="n">
-        <v>1.6195</v>
+        <v>1.6107</v>
       </c>
       <c r="J76" s="7" t="n">
-        <v>-0.0022</v>
+        <v>-0.0076</v>
       </c>
       <c r="K76" s="8" t="n">
-        <v>-3.02</v>
+        <v>-10.6</v>
       </c>
       <c r="L76" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M76" s="6" t="inlineStr">
@@ -5757,17 +5757,17 @@
         </is>
       </c>
       <c r="I77" s="4" t="n">
-        <v>1.4443</v>
+        <v>1.4318</v>
       </c>
       <c r="J77" s="7" t="n">
-        <v>-0.0032</v>
+        <v>-0.0119</v>
       </c>
       <c r="K77" s="8" t="n">
-        <v>-4.37</v>
+        <v>-16</v>
       </c>
       <c r="L77" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M77" s="6" t="inlineStr">
@@ -5826,17 +5826,17 @@
         </is>
       </c>
       <c r="I78" s="4" t="n">
-        <v>1.4566</v>
+        <v>1.458</v>
       </c>
       <c r="J78" s="7" t="n">
-        <v>-0.0078</v>
+        <v>-0.0068</v>
       </c>
       <c r="K78" s="8" t="n">
-        <v>-10.44</v>
+        <v>-9.16</v>
       </c>
       <c r="L78" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 09:41</t>
+          <t>2019-11-20 15:04</t>
         </is>
       </c>
       <c r="M78" s="6" t="inlineStr">
@@ -5895,17 +5895,17 @@
         </is>
       </c>
       <c r="I79" s="4" t="n">
-        <v>0.9239000000000001</v>
+        <v>0.9176</v>
       </c>
       <c r="J79" s="7" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="K79" s="9" t="n">
-        <v>1.23</v>
+        <v>-0.0057</v>
+      </c>
+      <c r="K79" s="8" t="n">
+        <v>-6.49</v>
       </c>
       <c r="L79" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 09:40</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M79" s="6" t="inlineStr">
@@ -5964,17 +5964,17 @@
         </is>
       </c>
       <c r="I80" s="4" t="n">
-        <v>1.858</v>
+        <v>1.8471</v>
       </c>
       <c r="J80" s="7" t="n">
-        <v>-0.0044</v>
+        <v>-0.0103</v>
       </c>
       <c r="K80" s="8" t="n">
-        <v>-3.86</v>
+        <v>-9</v>
       </c>
       <c r="L80" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M80" s="6" t="inlineStr">
@@ -6033,17 +6033,17 @@
         </is>
       </c>
       <c r="I81" s="4" t="n">
-        <v>2.1581</v>
+        <v>2.1461</v>
       </c>
       <c r="J81" s="7" t="n">
-        <v>-0.0049</v>
+        <v>-0.0105</v>
       </c>
       <c r="K81" s="8" t="n">
-        <v>-3.62</v>
+        <v>-7.67</v>
       </c>
       <c r="L81" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 09:40</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M81" s="6" t="inlineStr">
@@ -6102,17 +6102,17 @@
         </is>
       </c>
       <c r="I82" s="4" t="n">
-        <v>0.9816</v>
+        <v>0.9761</v>
       </c>
       <c r="J82" s="7" t="n">
-        <v>0.0007</v>
-      </c>
-      <c r="K82" s="9" t="n">
-        <v>0.2</v>
+        <v>-0.0048</v>
+      </c>
+      <c r="K82" s="8" t="n">
+        <v>-1.37</v>
       </c>
       <c r="L82" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M82" s="6" t="inlineStr">
@@ -6171,17 +6171,17 @@
         </is>
       </c>
       <c r="I83" s="4" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.9304</v>
       </c>
       <c r="J83" s="7" t="n">
-        <v>-0.0025</v>
+        <v>-0.0074</v>
       </c>
       <c r="K83" s="8" t="n">
-        <v>-0.52</v>
+        <v>-1.57</v>
       </c>
       <c r="L83" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M83" s="6" t="inlineStr">
@@ -6240,17 +6240,17 @@
         </is>
       </c>
       <c r="I84" s="4" t="n">
-        <v>1.3334</v>
+        <v>1.3293</v>
       </c>
       <c r="J84" s="7" t="n">
-        <v>-0.0049</v>
+        <v>-0.008</v>
       </c>
       <c r="K84" s="8" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-1.52</v>
       </c>
       <c r="L84" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M84" s="6" t="inlineStr">
@@ -6309,17 +6309,17 @@
         </is>
       </c>
       <c r="I85" s="4" t="n">
-        <v>0.8112</v>
+        <v>0.8126</v>
       </c>
       <c r="J85" s="7" t="n">
-        <v>-0.0003</v>
-      </c>
-      <c r="K85" s="8" t="n">
-        <v>-0.04</v>
+        <v>0.0015</v>
+      </c>
+      <c r="K85" s="9" t="n">
+        <v>0.26</v>
       </c>
       <c r="L85" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M85" s="6" t="inlineStr">
@@ -6378,17 +6378,17 @@
         </is>
       </c>
       <c r="I86" s="4" t="n">
-        <v>1.4536</v>
+        <v>1.4411</v>
       </c>
       <c r="J86" s="7" t="n">
-        <v>-0.0033</v>
+        <v>-0.0119</v>
       </c>
       <c r="K86" s="8" t="n">
-        <v>-0.12</v>
+        <v>-0.42</v>
       </c>
       <c r="L86" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M86" s="6" t="inlineStr">
@@ -6447,17 +6447,17 @@
         </is>
       </c>
       <c r="I87" s="30" t="n">
-        <v>1.0936</v>
+        <v>1.0871</v>
       </c>
       <c r="J87" s="33" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="K87" s="9" t="n">
-        <v>4.85</v>
+        <v>-0.0055</v>
+      </c>
+      <c r="K87" s="8" t="n">
+        <v>-58.19</v>
       </c>
       <c r="L87" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 09:40</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M87" s="32" t="inlineStr">
@@ -6516,17 +6516,17 @@
         </is>
       </c>
       <c r="I88" s="30" t="n">
-        <v>1.1016</v>
+        <v>1.0956</v>
       </c>
       <c r="J88" s="33" t="n">
-        <v>-0.0022</v>
+        <v>-0.0076</v>
       </c>
       <c r="K88" s="8" t="n">
-        <v>-20.83</v>
+        <v>-72.89</v>
       </c>
       <c r="L88" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M88" s="32" t="inlineStr">
@@ -6585,17 +6585,17 @@
         </is>
       </c>
       <c r="I89" s="30" t="n">
-        <v>0.891</v>
+        <v>0.8902</v>
       </c>
       <c r="J89" s="33" t="n">
-        <v>-0.0001</v>
+        <v>-0.001</v>
       </c>
       <c r="K89" s="8" t="n">
-        <v>-0.68</v>
+        <v>-6.08</v>
       </c>
       <c r="L89" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M89" s="32" t="inlineStr">
@@ -6654,17 +6654,17 @@
         </is>
       </c>
       <c r="I90" s="30" t="n">
-        <v>0.9816</v>
+        <v>0.9761</v>
       </c>
       <c r="J90" s="33" t="n">
-        <v>0.0007</v>
-      </c>
-      <c r="K90" s="9" t="n">
-        <v>4.27</v>
+        <v>-0.0048</v>
+      </c>
+      <c r="K90" s="8" t="n">
+        <v>-29.26</v>
       </c>
       <c r="L90" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M90" s="32" t="inlineStr">
@@ -6723,17 +6723,17 @@
         </is>
       </c>
       <c r="I91" s="30" t="n">
-        <v>1.6457</v>
+        <v>1.6335</v>
       </c>
       <c r="J91" s="33" t="n">
-        <v>-0.002</v>
+        <v>-0.0094</v>
       </c>
       <c r="K91" s="8" t="n">
-        <v>-9.109999999999999</v>
+        <v>-42.78</v>
       </c>
       <c r="L91" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 09:40</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M91" s="32" t="inlineStr">
@@ -6792,17 +6792,17 @@
         </is>
       </c>
       <c r="I92" s="30" t="n">
-        <v>0.7861</v>
+        <v>0.7725</v>
       </c>
       <c r="J92" s="33" t="n">
-        <v>0.0098</v>
-      </c>
-      <c r="K92" s="9" t="n">
-        <v>33.62</v>
+        <v>-0.0077</v>
+      </c>
+      <c r="K92" s="8" t="n">
+        <v>-26.54</v>
       </c>
       <c r="L92" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M92" s="32" t="inlineStr">
@@ -6861,17 +6861,17 @@
         </is>
       </c>
       <c r="I93" s="30" t="n">
-        <v>1.6135</v>
+        <v>1.6051</v>
       </c>
       <c r="J93" s="33" t="n">
-        <v>-0.0003</v>
+        <v>-0.0055</v>
       </c>
       <c r="K93" s="8" t="n">
-        <v>-1.02</v>
+        <v>-18.22</v>
       </c>
       <c r="L93" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M93" s="32" t="inlineStr">
@@ -6930,17 +6930,17 @@
         </is>
       </c>
       <c r="I94" s="30" t="n">
-        <v>0.5421</v>
+        <v>0.5384</v>
       </c>
       <c r="J94" s="33" t="n">
-        <v>-0.0014</v>
+        <v>-0.008399999999999999</v>
       </c>
       <c r="K94" s="8" t="n">
-        <v>-4.76</v>
+        <v>-26.77</v>
       </c>
       <c r="L94" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M94" s="32" t="inlineStr">
@@ -6999,17 +6999,17 @@
         </is>
       </c>
       <c r="I95" s="30" t="n">
-        <v>1.6976</v>
+        <v>1.6944</v>
       </c>
       <c r="J95" s="33" t="n">
-        <v>-0.0003</v>
+        <v>-0.0021</v>
       </c>
       <c r="K95" s="8" t="n">
-        <v>-0.7</v>
+        <v>-6.28</v>
       </c>
       <c r="L95" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M95" s="32" t="inlineStr">
@@ -7137,17 +7137,17 @@
         </is>
       </c>
       <c r="I97" s="30" t="n">
-        <v>1.7913</v>
+        <v>1.7787</v>
       </c>
       <c r="J97" s="33" t="n">
-        <v>0.0019</v>
-      </c>
-      <c r="K97" s="9" t="n">
-        <v>4.12</v>
+        <v>-0.0051</v>
+      </c>
+      <c r="K97" s="8" t="n">
+        <v>-11.16</v>
       </c>
       <c r="L97" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M97" s="32" t="inlineStr">
@@ -7206,17 +7206,17 @@
         </is>
       </c>
       <c r="I98" s="30" t="n">
-        <v>1.1554</v>
+        <v>1.1535</v>
       </c>
       <c r="J98" s="33" t="n">
-        <v>-0.0005</v>
+        <v>-0.0022</v>
       </c>
       <c r="K98" s="8" t="n">
-        <v>-0.98</v>
+        <v>-4.08</v>
       </c>
       <c r="L98" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M98" s="32" t="inlineStr">
@@ -7267,15 +7267,15 @@
         <v>195.7</v>
       </c>
       <c r="G99" s="30" t="n">
-        <v>1.283</v>
+        <v>1.276</v>
       </c>
       <c r="H99" s="32" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I99" s="30" t="n">
-        <v>1.2797</v>
+        <v>1.2727</v>
       </c>
       <c r="J99" s="33" t="n">
         <v>-0.0026</v>
@@ -7344,17 +7344,17 @@
         </is>
       </c>
       <c r="I100" s="30" t="n">
-        <v>1.0241</v>
+        <v>1.0164</v>
       </c>
       <c r="J100" s="33" t="n">
-        <v>-0.0029</v>
+        <v>-0.0104</v>
       </c>
       <c r="K100" s="8" t="n">
-        <v>-3.88</v>
+        <v>-14.19</v>
       </c>
       <c r="L100" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M100" s="32" t="inlineStr">
@@ -7405,21 +7405,21 @@
         <v>-333.44</v>
       </c>
       <c r="G101" s="30" t="n">
-        <v>0.389</v>
+        <v>0.378</v>
       </c>
       <c r="H101" s="32" t="inlineStr">
         <is>
-          <t>2019-11-15</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="I101" s="30" t="n">
-        <v>0.3876</v>
+        <v>0.3767</v>
       </c>
       <c r="J101" s="33" t="n">
         <v>-0.0035</v>
       </c>
       <c r="K101" s="8" t="n">
-        <v>-4.69</v>
+        <v>-4.36</v>
       </c>
       <c r="L101" s="32" t="inlineStr">
         <is>
@@ -7482,17 +7482,17 @@
         </is>
       </c>
       <c r="I102" s="30" t="n">
-        <v>0.8102</v>
+        <v>0.8067</v>
       </c>
       <c r="J102" s="33" t="n">
-        <v>-0.0005</v>
+        <v>-0.0048</v>
       </c>
       <c r="K102" s="8" t="n">
-        <v>-0.6</v>
+        <v>-5.83</v>
       </c>
       <c r="L102" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 09:40</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M102" s="32" t="inlineStr">
@@ -7551,17 +7551,17 @@
         </is>
       </c>
       <c r="I103" s="30" t="n">
-        <v>1.0983</v>
+        <v>1.0858</v>
       </c>
       <c r="J103" s="33" t="n">
-        <v>-0.003</v>
+        <v>-0.0143</v>
       </c>
       <c r="K103" s="8" t="n">
-        <v>-2.97</v>
+        <v>-14.23</v>
       </c>
       <c r="L103" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M103" s="32" t="inlineStr">
@@ -7620,17 +7620,17 @@
         </is>
       </c>
       <c r="I104" s="30" t="n">
-        <v>1.2214</v>
+        <v>1.2227</v>
       </c>
       <c r="J104" s="33" t="n">
-        <v>0.004</v>
+        <v>0.0051</v>
       </c>
       <c r="K104" s="9" t="n">
-        <v>3.6</v>
+        <v>4.55</v>
       </c>
       <c r="L104" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 09:40</t>
+          <t>2019-11-20 15:03</t>
         </is>
       </c>
       <c r="M104" s="32" t="inlineStr">
@@ -7689,17 +7689,17 @@
         </is>
       </c>
       <c r="I105" s="30" t="n">
-        <v>0.9796</v>
+        <v>0.9666</v>
       </c>
       <c r="J105" s="33" t="n">
-        <v>-0.0021</v>
+        <v>-0.0154</v>
       </c>
       <c r="K105" s="8" t="n">
-        <v>-1.04</v>
+        <v>-7.49</v>
       </c>
       <c r="L105" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M105" s="32" t="inlineStr">
@@ -7758,17 +7758,17 @@
         </is>
       </c>
       <c r="I106" s="30" t="n">
-        <v>0.9739</v>
+        <v>0.9665</v>
       </c>
       <c r="J106" s="33" t="n">
-        <v>0.0025</v>
-      </c>
-      <c r="K106" s="9" t="n">
-        <v>1.18</v>
+        <v>-0.0051</v>
+      </c>
+      <c r="K106" s="8" t="n">
+        <v>-2.46</v>
       </c>
       <c r="L106" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M106" s="32" t="inlineStr">
@@ -7827,17 +7827,17 @@
         </is>
       </c>
       <c r="I107" s="30" t="n">
-        <v>1.364</v>
+        <v>1.3604</v>
       </c>
       <c r="J107" s="33" t="n">
-        <v>-0.0005</v>
+        <v>-0.0032</v>
       </c>
       <c r="K107" s="8" t="n">
-        <v>-0.23</v>
+        <v>-1.43</v>
       </c>
       <c r="L107" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 09:40</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M107" s="32" t="inlineStr">
@@ -7896,17 +7896,17 @@
         </is>
       </c>
       <c r="I108" s="30" t="n">
-        <v>1.3191</v>
+        <v>1.3096</v>
       </c>
       <c r="J108" s="33" t="n">
-        <v>-0.0022</v>
+        <v>-0.0094</v>
       </c>
       <c r="K108" s="8" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-4.04</v>
       </c>
       <c r="L108" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 09:39</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M108" s="32" t="inlineStr">
@@ -7965,17 +7965,17 @@
         </is>
       </c>
       <c r="I109" s="30" t="n">
-        <v>1.499</v>
+        <v>1.5009</v>
       </c>
       <c r="J109" s="33" t="n">
-        <v>-0.007900000000000001</v>
+        <v>-0.0067</v>
       </c>
       <c r="K109" s="8" t="n">
-        <v>-3.31</v>
+        <v>-2.78</v>
       </c>
       <c r="L109" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 09:40</t>
+          <t>2019-11-20 15:03</t>
         </is>
       </c>
       <c r="M109" s="32" t="inlineStr">
@@ -8034,17 +8034,17 @@
         </is>
       </c>
       <c r="I110" s="30" t="n">
-        <v>0.8738</v>
+        <v>0.8686</v>
       </c>
       <c r="J110" s="33" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="K110" s="9" t="n">
-        <v>0.11</v>
+        <v>-0.0055</v>
+      </c>
+      <c r="K110" s="8" t="n">
+        <v>-1.32</v>
       </c>
       <c r="L110" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 09:40</t>
+          <t>2019-11-20 15:00</t>
         </is>
       </c>
       <c r="M110" s="32" t="inlineStr">

--- a/Portfolio/scripts/output/201911/全家/全家整体收益估算.xlsx
+++ b/Portfolio/scripts/output/201911/全家/全家整体收益估算.xlsx
@@ -562,16 +562,16 @@
         <v>90010</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.6544</v>
+        <v>1.6535</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>2139.86</v>
+        <v>2211.21</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>3588.93</v>
+        <v>3588.79</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>-67.26000000000001</v>
+        <v>-67.40000000000001</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>1.623</v>
@@ -588,7 +588,7 @@
         <v>-0.0076</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>-26.32</v>
+        <v>-27.2</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
@@ -631,16 +631,16 @@
         <v>519671</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.425</v>
+        <v>1.4258</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>2381.52</v>
+        <v>2462.53</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>3568.34</v>
+        <v>3568.21</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>57.2</v>
+        <v>57.07</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>1.449</v>
@@ -657,7 +657,7 @@
         <v>-0.0119</v>
       </c>
       <c r="K3" s="8" t="n">
-        <v>-40.96</v>
+        <v>-42.36</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
@@ -720,17 +720,17 @@
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.458</v>
+        <v>1.4576</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>-0.0068</v>
+        <v>-0.0071</v>
       </c>
       <c r="K4" s="8" t="n">
-        <v>-22.6</v>
+        <v>-23.51</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:04</t>
+          <t>2019-11-20 16:00</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
@@ -769,16 +769,16 @@
         <v>3318</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.9348</v>
+        <v>0.9344</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3153.28</v>
+        <v>3272.2</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3020.05</v>
+        <v>3019.91</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-37.51</v>
+        <v>-37.65</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>0.9229000000000001</v>
@@ -795,7 +795,7 @@
         <v>-0.0057</v>
       </c>
       <c r="K5" s="8" t="n">
-        <v>-16.71</v>
+        <v>-17.34</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
@@ -838,16 +838,16 @@
         <v>70023</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.7912</v>
+        <v>1.7941</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1219.16</v>
+        <v>1266.95</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2364.49</v>
+        <v>2364.38</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>91.41</v>
+        <v>91.3</v>
       </c>
       <c r="G6" s="4" t="n">
         <v>1.8662</v>
@@ -864,7 +864,7 @@
         <v>-0.0103</v>
       </c>
       <c r="K6" s="8" t="n">
-        <v>-23.29</v>
+        <v>-24.2</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
@@ -907,16 +907,16 @@
         <v>530015</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>2.1171</v>
+        <v>2.1197</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>886.95</v>
+        <v>930.7</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2018.65</v>
+        <v>2018.5</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45.89</v>
+        <v>45.74</v>
       </c>
       <c r="G7" s="4" t="n">
         <v>2.1688</v>
@@ -933,7 +933,7 @@
         <v>-0.0105</v>
       </c>
       <c r="K7" s="8" t="n">
-        <v>-20.13</v>
+        <v>-21.13</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
@@ -976,16 +976,16 @@
         <v>968</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>0.9583</v>
+        <v>0.9608</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>712.84</v>
+        <v>797.84</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>782.7</v>
+        <v>782.6</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16.13</v>
+        <v>16.03</v>
       </c>
       <c r="G8" s="4" t="n">
         <v>0.9809</v>
@@ -1002,7 +1002,7 @@
         <v>-0.0048</v>
       </c>
       <c r="K8" s="8" t="n">
-        <v>-3.42</v>
+        <v>-3.83</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>531.87</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>431.56</v>
+        <v>432.2</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>74.78</v>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="L21" s="20" t="inlineStr">
         <is>
-          <t>2019-11-20 15:03</t>
+          <t>2019-11-20 15:04</t>
         </is>
       </c>
       <c r="M21" s="20" t="inlineStr">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="L22" s="20" t="inlineStr">
         <is>
-          <t>2019-11-20 15:03</t>
+          <t>2019-11-20 15:04</t>
         </is>
       </c>
       <c r="M22" s="20" t="inlineStr">
@@ -2790,17 +2790,17 @@
         </is>
       </c>
       <c r="I34" s="24" t="n">
-        <v>1.5009</v>
+        <v>1.5002</v>
       </c>
       <c r="J34" s="27" t="n">
-        <v>-0.0067</v>
+        <v>-0.0072</v>
       </c>
       <c r="K34" s="8" t="n">
-        <v>-4.64</v>
+        <v>-4.96</v>
       </c>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 15:03</t>
+          <t>2019-11-20 16:00</t>
         </is>
       </c>
       <c r="M34" s="26" t="inlineStr">
@@ -3273,17 +3273,17 @@
         </is>
       </c>
       <c r="I41" s="24" t="n">
-        <v>1.2227</v>
+        <v>1.2207</v>
       </c>
       <c r="J41" s="27" t="n">
-        <v>0.0051</v>
+        <v>0.0035</v>
       </c>
       <c r="K41" s="9" t="n">
-        <v>11.37</v>
+        <v>7.7</v>
       </c>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 15:03</t>
+          <t>2019-11-20 15:30</t>
         </is>
       </c>
       <c r="M41" s="26" t="inlineStr">
@@ -3411,17 +3411,17 @@
         </is>
       </c>
       <c r="I43" s="24" t="n">
-        <v>1.5009</v>
+        <v>1.5002</v>
       </c>
       <c r="J43" s="27" t="n">
-        <v>-0.0067</v>
+        <v>-0.0072</v>
       </c>
       <c r="K43" s="8" t="n">
-        <v>-6.96</v>
+        <v>-7.44</v>
       </c>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 15:03</t>
+          <t>2019-11-20 16:00</t>
         </is>
       </c>
       <c r="M43" s="26" t="inlineStr">
@@ -4377,17 +4377,17 @@
         </is>
       </c>
       <c r="I57" s="30" t="n">
-        <v>1.5009</v>
+        <v>1.5002</v>
       </c>
       <c r="J57" s="33" t="n">
-        <v>-0.0067</v>
+        <v>-0.0072</v>
       </c>
       <c r="K57" s="8" t="n">
-        <v>-68.67</v>
+        <v>-73.42</v>
       </c>
       <c r="L57" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 15:03</t>
+          <t>2019-11-20 16:00</t>
         </is>
       </c>
       <c r="M57" s="32" t="inlineStr">
@@ -5067,17 +5067,17 @@
         </is>
       </c>
       <c r="I67" s="4" t="n">
-        <v>1.458</v>
+        <v>1.4576</v>
       </c>
       <c r="J67" s="7" t="n">
-        <v>-0.0068</v>
+        <v>-0.0071</v>
       </c>
       <c r="K67" s="8" t="n">
-        <v>-8.98</v>
+        <v>-9.34</v>
       </c>
       <c r="L67" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:04</t>
+          <t>2019-11-20 16:00</t>
         </is>
       </c>
       <c r="M67" s="6" t="inlineStr">
@@ -5826,17 +5826,17 @@
         </is>
       </c>
       <c r="I78" s="4" t="n">
-        <v>1.458</v>
+        <v>1.4576</v>
       </c>
       <c r="J78" s="7" t="n">
-        <v>-0.0068</v>
+        <v>-0.0071</v>
       </c>
       <c r="K78" s="8" t="n">
-        <v>-9.16</v>
+        <v>-9.529999999999999</v>
       </c>
       <c r="L78" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:04</t>
+          <t>2019-11-20 16:00</t>
         </is>
       </c>
       <c r="M78" s="6" t="inlineStr">
@@ -7620,17 +7620,17 @@
         </is>
       </c>
       <c r="I104" s="30" t="n">
-        <v>1.2227</v>
+        <v>1.2207</v>
       </c>
       <c r="J104" s="33" t="n">
-        <v>0.0051</v>
+        <v>0.0035</v>
       </c>
       <c r="K104" s="9" t="n">
-        <v>4.55</v>
+        <v>3.08</v>
       </c>
       <c r="L104" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 15:03</t>
+          <t>2019-11-20 15:30</t>
         </is>
       </c>
       <c r="M104" s="32" t="inlineStr">
@@ -7965,17 +7965,17 @@
         </is>
       </c>
       <c r="I109" s="30" t="n">
-        <v>1.5009</v>
+        <v>1.5002</v>
       </c>
       <c r="J109" s="33" t="n">
-        <v>-0.0067</v>
+        <v>-0.0072</v>
       </c>
       <c r="K109" s="8" t="n">
-        <v>-2.78</v>
+        <v>-2.98</v>
       </c>
       <c r="L109" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 15:03</t>
+          <t>2019-11-20 16:00</t>
         </is>
       </c>
       <c r="M109" s="32" t="inlineStr">

--- a/Portfolio/scripts/output/201911/全家/全家整体收益估算.xlsx
+++ b/Portfolio/scripts/output/201911/全家/全家整体收益估算.xlsx
@@ -568,10 +568,10 @@
         <v>2211.21</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>3588.79</v>
+        <v>3562.26</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>-67.40000000000001</v>
+        <v>-93.93000000000001</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>1.623</v>
@@ -637,10 +637,10 @@
         <v>2462.53</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>3568.21</v>
+        <v>3526.34</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>57.07</v>
+        <v>15.2</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>1.449</v>
@@ -706,10 +706,10 @@
         <v>2260.14</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3317.89</v>
+        <v>3297.09</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>270.95</v>
+        <v>250.15</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>1.468</v>
@@ -775,10 +775,10 @@
         <v>3272.2</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3019.91</v>
+        <v>3003.23</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-37.65</v>
+        <v>-54.33</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>0.9229000000000001</v>
@@ -844,10 +844,10 @@
         <v>1266.95</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2364.38</v>
+        <v>2340.18</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>91.3</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="G6" s="4" t="n">
         <v>1.8662</v>
@@ -913,10 +913,10 @@
         <v>930.7</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2018.5</v>
+        <v>1998.03</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45.74</v>
+        <v>25.27</v>
       </c>
       <c r="G7" s="4" t="n">
         <v>2.1688</v>
@@ -982,10 +982,10 @@
         <v>797.84</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>782.6</v>
+        <v>778.77</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16.03</v>
+        <v>12.2</v>
       </c>
       <c r="G8" s="4" t="n">
         <v>0.9809</v>
@@ -1051,10 +1051,10 @@
         <v>550.4</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>515.89</v>
+        <v>513.08</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-25</v>
+        <v>-27.81</v>
       </c>
       <c r="G9" s="4" t="n">
         <v>0.9373</v>
@@ -1123,7 +1123,7 @@
         <v>432.2</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>74.78</v>
+        <v>75.42</v>
       </c>
       <c r="G10" s="4" t="n">
         <v>0.8114</v>
@@ -1189,10 +1189,10 @@
         <v>247.91</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>332.2</v>
+        <v>329.72</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>18.94</v>
+        <v>16.46</v>
       </c>
       <c r="G11" s="4" t="n">
         <v>1.34</v>
@@ -1258,10 +1258,10 @@
         <v>60.61</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>88.39</v>
+        <v>87.38</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-4.32</v>
+        <v>-5.33</v>
       </c>
       <c r="G12" s="4" t="n">
         <v>1.4584</v>
@@ -1327,10 +1327,10 @@
         <v>16731.88</v>
       </c>
       <c r="E13" s="13" t="n">
-        <v>9083.73</v>
+        <v>9016.809999999999</v>
       </c>
       <c r="F13" s="13" t="n">
-        <v>-2916.26</v>
+        <v>-2983.19</v>
       </c>
       <c r="G13" s="12" t="n">
         <v>0.5429</v>
@@ -1396,10 +1396,10 @@
         <v>2700</v>
       </c>
       <c r="E14" s="19" t="n">
-        <v>8224.200000000001</v>
+        <v>8135.1</v>
       </c>
       <c r="F14" s="19" t="n">
-        <v>1914.3</v>
+        <v>1825.2</v>
       </c>
       <c r="G14" s="18" t="n">
         <v>3.046</v>
@@ -1465,10 +1465,10 @@
         <v>9100</v>
       </c>
       <c r="E15" s="19" t="n">
-        <v>36500.1</v>
+        <v>36127</v>
       </c>
       <c r="F15" s="19" t="n">
-        <v>5132.4</v>
+        <v>4759.3</v>
       </c>
       <c r="G15" s="18" t="n">
         <v>4.011</v>
@@ -1534,17 +1534,17 @@
         <v>38800</v>
       </c>
       <c r="E16" s="19" t="n">
-        <v>208394.8</v>
+        <v>207075.6</v>
       </c>
       <c r="F16" s="19" t="n">
-        <v>-8924</v>
+        <v>-10243.2</v>
       </c>
       <c r="G16" s="18" t="n">
         <v>5.371</v>
       </c>
       <c r="H16" s="20" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I16" s="18" t="n">
@@ -1603,17 +1603,17 @@
         <v>33800</v>
       </c>
       <c r="E17" s="19" t="n">
-        <v>24369.8</v>
+        <v>24200.8</v>
       </c>
       <c r="F17" s="19" t="n">
-        <v>-5272.8</v>
+        <v>-5441.8</v>
       </c>
       <c r="G17" s="18" t="n">
         <v>0.721</v>
       </c>
       <c r="H17" s="20" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I17" s="18" t="n">
@@ -1672,10 +1672,10 @@
         <v>32700</v>
       </c>
       <c r="E18" s="19" t="n">
-        <v>29887.8</v>
+        <v>29430</v>
       </c>
       <c r="F18" s="19" t="n">
-        <v>4283.7</v>
+        <v>3825.9</v>
       </c>
       <c r="G18" s="18" t="n">
         <v>0.914</v>
@@ -1741,17 +1741,17 @@
         <v>34100</v>
       </c>
       <c r="E19" s="19" t="n">
-        <v>26393.4</v>
+        <v>26188.8</v>
       </c>
       <c r="F19" s="19" t="n">
-        <v>-3239.5</v>
+        <v>-3444.1</v>
       </c>
       <c r="G19" s="18" t="n">
         <v>0.774</v>
       </c>
       <c r="H19" s="20" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I19" s="18" t="n">
@@ -1810,17 +1810,17 @@
         <v>4500</v>
       </c>
       <c r="E20" s="19" t="n">
-        <v>14805</v>
+        <v>14854.5</v>
       </c>
       <c r="F20" s="19" t="n">
-        <v>1953</v>
+        <v>2002.5</v>
       </c>
       <c r="G20" s="18" t="n">
         <v>3.29</v>
       </c>
       <c r="H20" s="20" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I20" s="18" t="n">
@@ -1879,17 +1879,17 @@
         <v>9200</v>
       </c>
       <c r="E21" s="19" t="n">
-        <v>15327.2</v>
+        <v>15226</v>
       </c>
       <c r="F21" s="19" t="n">
-        <v>2456.4</v>
+        <v>2355.2</v>
       </c>
       <c r="G21" s="18" t="n">
         <v>1.666</v>
       </c>
       <c r="H21" s="20" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I21" s="18" t="n">
@@ -1948,17 +1948,17 @@
         <v>14400</v>
       </c>
       <c r="E22" s="19" t="n">
-        <v>20635.2</v>
+        <v>20606.4</v>
       </c>
       <c r="F22" s="19" t="n">
-        <v>2332.8</v>
+        <v>2304</v>
       </c>
       <c r="G22" s="18" t="n">
         <v>1.433</v>
       </c>
       <c r="H22" s="20" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I22" s="18" t="n">
@@ -2017,10 +2017,10 @@
         <v>3813.64</v>
       </c>
       <c r="E23" s="25" t="n">
-        <v>7486.18</v>
+        <v>7443.84</v>
       </c>
       <c r="F23" s="25" t="n">
-        <v>149.18</v>
+        <v>106.84</v>
       </c>
       <c r="G23" s="24" t="n">
         <v>1.963</v>
@@ -2086,10 +2086,10 @@
         <v>9722</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>5278.07</v>
+        <v>5239.19</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>-57.93</v>
+        <v>-96.81</v>
       </c>
       <c r="G24" s="24" t="n">
         <v>0.5429</v>
@@ -2155,10 +2155,10 @@
         <v>4943.96</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>4849.53</v>
+        <v>4825.8</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>180.53</v>
+        <v>156.8</v>
       </c>
       <c r="G25" s="24" t="n">
         <v>0.9809</v>
@@ -2224,10 +2224,10 @@
         <v>7379.54</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>4080.89</v>
+        <v>4058.75</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>78.89</v>
+        <v>56.75</v>
       </c>
       <c r="G26" s="24" t="n">
         <v>0.553</v>
@@ -2293,10 +2293,10 @@
         <v>3665.01</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>4046.17</v>
+        <v>4013.19</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>44.17</v>
+        <v>11.19</v>
       </c>
       <c r="G27" s="24" t="n">
         <v>1.104</v>
@@ -2362,10 +2362,10 @@
         <v>4550.55</v>
       </c>
       <c r="E28" s="25" t="n">
-        <v>3542.6</v>
+        <v>3516.21</v>
       </c>
       <c r="F28" s="25" t="n">
-        <v>207.6</v>
+        <v>181.21</v>
       </c>
       <c r="G28" s="24" t="n">
         <v>0.7785</v>
@@ -2431,10 +2431,10 @@
         <v>400.63</v>
       </c>
       <c r="E29" s="25" t="n">
-        <v>716.29</v>
+        <v>712.6</v>
       </c>
       <c r="F29" s="25" t="n">
-        <v>49.29</v>
+        <v>45.6</v>
       </c>
       <c r="G29" s="24" t="n">
         <v>1.7879</v>
@@ -2500,10 +2500,10 @@
         <v>736.3</v>
       </c>
       <c r="E30" s="25" t="n">
-        <v>715.3200000000001</v>
+        <v>711.49</v>
       </c>
       <c r="F30" s="25" t="n">
-        <v>48.32</v>
+        <v>44.49</v>
       </c>
       <c r="G30" s="24" t="n">
         <v>0.9715</v>
@@ -2569,10 +2569,10 @@
         <v>377.37</v>
       </c>
       <c r="E31" s="25" t="n">
-        <v>370.46</v>
+        <v>364.88</v>
       </c>
       <c r="F31" s="25" t="n">
-        <v>-3.06</v>
+        <v>-8.640000000000001</v>
       </c>
       <c r="G31" s="24" t="n">
         <v>0.9817</v>
@@ -2638,10 +2638,10 @@
         <v>5299.96</v>
       </c>
       <c r="E32" s="25" t="n">
-        <v>2003.38</v>
+        <v>1945.09</v>
       </c>
       <c r="F32" s="25" t="n">
-        <v>2.38</v>
+        <v>-55.91</v>
       </c>
       <c r="G32" s="24" t="n">
         <v>0.378</v>
@@ -2652,17 +2652,17 @@
         </is>
       </c>
       <c r="I32" s="24" t="n">
-        <v>0.3767</v>
+        <v>0.3764</v>
       </c>
       <c r="J32" s="27" t="n">
-        <v>-0.0035</v>
+        <v>-0.0043</v>
       </c>
       <c r="K32" s="8" t="n">
-        <v>-6.89</v>
+        <v>-8.48</v>
       </c>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 05:00</t>
+          <t>2019-11-21 05:00</t>
         </is>
       </c>
       <c r="M32" s="26" t="inlineStr">
@@ -2721,17 +2721,17 @@
         </is>
       </c>
       <c r="I33" s="24" t="n">
-        <v>1.2727</v>
+        <v>1.2719</v>
       </c>
       <c r="J33" s="27" t="n">
-        <v>-0.0026</v>
+        <v>-0.0032</v>
       </c>
       <c r="K33" s="8" t="n">
-        <v>-1.9</v>
+        <v>-2.36</v>
       </c>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 05:00</t>
+          <t>2019-11-21 05:00</t>
         </is>
       </c>
       <c r="M33" s="26" t="inlineStr">
@@ -2776,10 +2776,10 @@
         <v>459.67</v>
       </c>
       <c r="E34" s="25" t="n">
-        <v>694.5599999999999</v>
+        <v>690.15</v>
       </c>
       <c r="F34" s="25" t="n">
-        <v>27.56</v>
+        <v>23.15</v>
       </c>
       <c r="G34" s="24" t="n">
         <v>1.511</v>
@@ -2845,10 +2845,10 @@
         <v>611.75</v>
       </c>
       <c r="E35" s="25" t="n">
-        <v>734.71</v>
+        <v>737.16</v>
       </c>
       <c r="F35" s="25" t="n">
-        <v>67.70999999999999</v>
+        <v>70.16</v>
       </c>
       <c r="G35" s="24" t="n">
         <v>0</v>
@@ -2914,10 +2914,10 @@
         <v>1046.73</v>
       </c>
       <c r="E36" s="25" t="n">
-        <v>2054.73</v>
+        <v>2043.11</v>
       </c>
       <c r="F36" s="25" t="n">
-        <v>54.73</v>
+        <v>43.11</v>
       </c>
       <c r="G36" s="24" t="n">
         <v>1.963</v>
@@ -2983,10 +2983,10 @@
         <v>1825.9</v>
       </c>
       <c r="E37" s="25" t="n">
-        <v>2015.79</v>
+        <v>1999.36</v>
       </c>
       <c r="F37" s="25" t="n">
-        <v>15.79</v>
+        <v>-0.64</v>
       </c>
       <c r="G37" s="24" t="n">
         <v>1.104</v>
@@ -3052,10 +3052,10 @@
         <v>1059.17</v>
       </c>
       <c r="E38" s="25" t="n">
-        <v>1087.77</v>
+        <v>1076.12</v>
       </c>
       <c r="F38" s="25" t="n">
-        <v>87.77</v>
+        <v>76.12</v>
       </c>
       <c r="G38" s="24" t="n">
         <v>1.027</v>
@@ -3121,10 +3121,10 @@
         <v>1812.7</v>
       </c>
       <c r="E39" s="25" t="n">
-        <v>1002.42</v>
+        <v>996.99</v>
       </c>
       <c r="F39" s="25" t="n">
-        <v>2.42</v>
+        <v>-3.02</v>
       </c>
       <c r="G39" s="24" t="n">
         <v>0.553</v>
@@ -3190,10 +3190,10 @@
         <v>1227.03</v>
       </c>
       <c r="E40" s="25" t="n">
-        <v>955.24</v>
+        <v>948.13</v>
       </c>
       <c r="F40" s="25" t="n">
-        <v>-44.76</v>
+        <v>-51.87</v>
       </c>
       <c r="G40" s="24" t="n">
         <v>0.7785</v>
@@ -3259,10 +3259,10 @@
         <v>1834.47</v>
       </c>
       <c r="E41" s="25" t="n">
-        <v>2231.63</v>
+        <v>2239.34</v>
       </c>
       <c r="F41" s="25" t="n">
-        <v>231.63</v>
+        <v>239.34</v>
       </c>
       <c r="G41" s="24" t="n">
         <v>1.2165</v>
@@ -3273,17 +3273,17 @@
         </is>
       </c>
       <c r="I41" s="24" t="n">
-        <v>1.2207</v>
+        <v>1.2137</v>
       </c>
       <c r="J41" s="27" t="n">
-        <v>0.0035</v>
-      </c>
-      <c r="K41" s="9" t="n">
-        <v>7.7</v>
+        <v>-0.0023</v>
+      </c>
+      <c r="K41" s="8" t="n">
+        <v>-5.14</v>
       </c>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 15:30</t>
+          <t>2019-11-21 02:30</t>
         </is>
       </c>
       <c r="M41" s="26" t="inlineStr">
@@ -3342,17 +3342,17 @@
         </is>
       </c>
       <c r="I42" s="24" t="n">
-        <v>1.2727</v>
+        <v>1.2719</v>
       </c>
       <c r="J42" s="27" t="n">
-        <v>-0.0026</v>
+        <v>-0.0032</v>
       </c>
       <c r="K42" s="8" t="n">
-        <v>-2.97</v>
+        <v>-3.69</v>
       </c>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 05:00</t>
+          <t>2019-11-21 05:00</t>
         </is>
       </c>
       <c r="M42" s="26" t="inlineStr">
@@ -3397,10 +3397,10 @@
         <v>689.02</v>
       </c>
       <c r="E43" s="25" t="n">
-        <v>1041.11</v>
+        <v>1034.49</v>
       </c>
       <c r="F43" s="25" t="n">
-        <v>41.11</v>
+        <v>34.49</v>
       </c>
       <c r="G43" s="24" t="n">
         <v>1.511</v>
@@ -3466,10 +3466,10 @@
         <v>4757.9</v>
       </c>
       <c r="E44" s="25" t="n">
-        <v>1798.49</v>
+        <v>1746.15</v>
       </c>
       <c r="F44" s="25" t="n">
-        <v>-201.51</v>
+        <v>-253.85</v>
       </c>
       <c r="G44" s="24" t="n">
         <v>0.378</v>
@@ -3480,17 +3480,17 @@
         </is>
       </c>
       <c r="I44" s="24" t="n">
-        <v>0.3767</v>
+        <v>0.3764</v>
       </c>
       <c r="J44" s="27" t="n">
-        <v>-0.0035</v>
+        <v>-0.0043</v>
       </c>
       <c r="K44" s="8" t="n">
-        <v>-6.19</v>
+        <v>-7.61</v>
       </c>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 05:00</t>
+          <t>2019-11-21 05:00</t>
         </is>
       </c>
       <c r="M44" s="26" t="inlineStr">
@@ -3535,10 +3535,10 @@
         <v>953.96</v>
       </c>
       <c r="E45" s="25" t="n">
-        <v>1145.71</v>
+        <v>1149.52</v>
       </c>
       <c r="F45" s="25" t="n">
-        <v>145.71</v>
+        <v>149.52</v>
       </c>
       <c r="G45" s="24" t="n">
         <v>0</v>
@@ -3604,10 +3604,10 @@
         <v>65064.33</v>
       </c>
       <c r="E46" s="31" t="n">
-        <v>71831.02</v>
+        <v>71245.44</v>
       </c>
       <c r="F46" s="31" t="n">
-        <v>5511.02</v>
+        <v>4925.44</v>
       </c>
       <c r="G46" s="30" t="n">
         <v>1.104</v>
@@ -3673,10 +3673,10 @@
         <v>63490</v>
       </c>
       <c r="E47" s="31" t="n">
-        <v>62277.34</v>
+        <v>61972.58</v>
       </c>
       <c r="F47" s="31" t="n">
-        <v>4077.34</v>
+        <v>3772.58</v>
       </c>
       <c r="G47" s="30" t="n">
         <v>0.9809</v>
@@ -3742,10 +3742,10 @@
         <v>32370.29</v>
       </c>
       <c r="E48" s="31" t="n">
-        <v>37420.05</v>
+        <v>37297.04</v>
       </c>
       <c r="F48" s="31" t="n">
-        <v>5420.05</v>
+        <v>5297.04</v>
       </c>
       <c r="G48" s="30" t="n">
         <v>1.156</v>
@@ -3811,10 +3811,10 @@
         <v>41014.88</v>
       </c>
       <c r="E49" s="31" t="n">
-        <v>36548.35</v>
+        <v>36507.34</v>
       </c>
       <c r="F49" s="31" t="n">
-        <v>5988.35</v>
+        <v>5947.34</v>
       </c>
       <c r="G49" s="30" t="n">
         <v>0.8911</v>
@@ -3880,10 +3880,10 @@
         <v>20086.63</v>
       </c>
       <c r="E50" s="31" t="n">
-        <v>34107.09</v>
+        <v>34006.66</v>
       </c>
       <c r="F50" s="31" t="n">
-        <v>2107.09</v>
+        <v>2006.66</v>
       </c>
       <c r="G50" s="30" t="n">
         <v>1.698</v>
@@ -3949,10 +3949,10 @@
         <v>20716.63</v>
       </c>
       <c r="E51" s="31" t="n">
-        <v>24880.67</v>
+        <v>24963.53</v>
       </c>
       <c r="F51" s="31" t="n">
-        <v>2280.67</v>
+        <v>2363.53</v>
       </c>
       <c r="G51" s="30" t="n">
         <v>0</v>
@@ -4018,10 +4018,10 @@
         <v>14624.61</v>
       </c>
       <c r="E52" s="31" t="n">
-        <v>24115.98</v>
+        <v>23867.36</v>
       </c>
       <c r="F52" s="31" t="n">
-        <v>4915.98</v>
+        <v>4667.36</v>
       </c>
       <c r="G52" s="30" t="n">
         <v>1.649</v>
@@ -4087,10 +4087,10 @@
         <v>21163.93</v>
       </c>
       <c r="E53" s="31" t="n">
-        <v>23314.18</v>
+        <v>22992.49</v>
       </c>
       <c r="F53" s="31" t="n">
-        <v>4114.18</v>
+        <v>3792.49</v>
       </c>
       <c r="G53" s="30" t="n">
         <v>1.1016</v>
@@ -4170,17 +4170,17 @@
         </is>
       </c>
       <c r="I54" s="30" t="n">
-        <v>1.2727</v>
+        <v>1.2719</v>
       </c>
       <c r="J54" s="33" t="n">
-        <v>-0.0026</v>
+        <v>-0.0032</v>
       </c>
       <c r="K54" s="8" t="n">
-        <v>-55.37</v>
+        <v>-68.79000000000001</v>
       </c>
       <c r="L54" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 05:00</t>
+          <t>2019-11-21 05:00</t>
         </is>
       </c>
       <c r="M54" s="32" t="inlineStr">
@@ -4225,10 +4225,10 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E55" s="31" t="n">
-        <v>15381.11</v>
+        <v>15295.34</v>
       </c>
       <c r="F55" s="31" t="n">
-        <v>2581.11</v>
+        <v>2495.34</v>
       </c>
       <c r="G55" s="30" t="n">
         <v>1.614</v>
@@ -4294,10 +4294,10 @@
         <v>37267.45</v>
       </c>
       <c r="E56" s="31" t="n">
-        <v>14087.09</v>
+        <v>13677.15</v>
       </c>
       <c r="F56" s="31" t="n">
-        <v>-5112.91</v>
+        <v>-5522.85</v>
       </c>
       <c r="G56" s="30" t="n">
         <v>0.378</v>
@@ -4308,17 +4308,17 @@
         </is>
       </c>
       <c r="I56" s="30" t="n">
-        <v>0.3767</v>
+        <v>0.3764</v>
       </c>
       <c r="J56" s="33" t="n">
-        <v>-0.0035</v>
+        <v>-0.0043</v>
       </c>
       <c r="K56" s="8" t="n">
-        <v>-48.45</v>
+        <v>-59.63</v>
       </c>
       <c r="L56" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 05:00</t>
+          <t>2019-11-21 05:00</t>
         </is>
       </c>
       <c r="M56" s="32" t="inlineStr">
@@ -4363,10 +4363,10 @@
         <v>6798.52</v>
       </c>
       <c r="E57" s="31" t="n">
-        <v>10272.56</v>
+        <v>10207.29</v>
       </c>
       <c r="F57" s="31" t="n">
-        <v>372.56</v>
+        <v>307.29</v>
       </c>
       <c r="G57" s="30" t="n">
         <v>1.511</v>
@@ -4432,10 +4432,10 @@
         <v>4791.13</v>
       </c>
       <c r="E58" s="31" t="n">
-        <v>8566.059999999999</v>
+        <v>8521.98</v>
       </c>
       <c r="F58" s="31" t="n">
-        <v>2166.06</v>
+        <v>2121.98</v>
       </c>
       <c r="G58" s="30" t="n">
         <v>1.7879</v>
@@ -4501,10 +4501,10 @@
         <v>5609.79</v>
       </c>
       <c r="E59" s="31" t="n">
-        <v>7522.72</v>
+        <v>7517.11</v>
       </c>
       <c r="F59" s="31" t="n">
-        <v>2377.6</v>
+        <v>2371.99</v>
       </c>
       <c r="G59" s="30" t="n">
         <v>0</v>
@@ -4557,26 +4557,26 @@
     <row r="60">
       <c r="A60" s="28" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>长信可转债债券A</t>
         </is>
       </c>
       <c r="B60" s="29" t="n">
-        <v>1064</v>
+        <v>519977</v>
       </c>
       <c r="C60" s="30" t="n">
-        <v>0.4775</v>
+        <v>1.2011</v>
       </c>
       <c r="D60" s="31" t="n">
-        <v>13403.92</v>
+        <v>5328.62</v>
       </c>
       <c r="E60" s="31" t="n">
-        <v>7276.98</v>
+        <v>7255.98</v>
       </c>
       <c r="F60" s="31" t="n">
-        <v>876.98</v>
+        <v>855.98</v>
       </c>
       <c r="G60" s="30" t="n">
-        <v>0.5429</v>
+        <v>1.3647</v>
       </c>
       <c r="H60" s="32" t="inlineStr">
         <is>
@@ -4584,13 +4584,13 @@
         </is>
       </c>
       <c r="I60" s="30" t="n">
-        <v>0.5384</v>
+        <v>1.3604</v>
       </c>
       <c r="J60" s="33" t="n">
-        <v>-0.008399999999999999</v>
+        <v>-0.0032</v>
       </c>
       <c r="K60" s="8" t="n">
-        <v>-60.32</v>
+        <v>-22.91</v>
       </c>
       <c r="L60" s="32" t="inlineStr">
         <is>
@@ -4599,22 +4599,22 @@
       </c>
       <c r="M60" s="32" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="N60" s="32" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="O60" s="32" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="P60" s="32" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>411</t>
         </is>
       </c>
       <c r="Q60" s="32" t="inlineStr">
@@ -4626,26 +4626,26 @@
     <row r="61">
       <c r="A61" s="28" t="inlineStr">
         <is>
-          <t>长信可转债债券A</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B61" s="29" t="n">
-        <v>519977</v>
+        <v>1064</v>
       </c>
       <c r="C61" s="30" t="n">
-        <v>1.2011</v>
+        <v>0.4775</v>
       </c>
       <c r="D61" s="31" t="n">
-        <v>5328.62</v>
+        <v>13403.92</v>
       </c>
       <c r="E61" s="31" t="n">
-        <v>7271.96</v>
+        <v>7223.37</v>
       </c>
       <c r="F61" s="31" t="n">
-        <v>871.96</v>
+        <v>823.37</v>
       </c>
       <c r="G61" s="30" t="n">
-        <v>1.3647</v>
+        <v>0.5429</v>
       </c>
       <c r="H61" s="32" t="inlineStr">
         <is>
@@ -4653,13 +4653,13 @@
         </is>
       </c>
       <c r="I61" s="30" t="n">
-        <v>1.3604</v>
+        <v>0.5384</v>
       </c>
       <c r="J61" s="33" t="n">
-        <v>-0.0032</v>
+        <v>-0.008399999999999999</v>
       </c>
       <c r="K61" s="8" t="n">
-        <v>-22.91</v>
+        <v>-60.32</v>
       </c>
       <c r="L61" s="32" t="inlineStr">
         <is>
@@ -4668,22 +4668,22 @@
       </c>
       <c r="M61" s="32" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N61" s="32" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O61" s="32" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="P61" s="32" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>143</t>
         </is>
       </c>
       <c r="Q61" s="32" t="inlineStr">
@@ -4708,10 +4708,10 @@
         <v>7778.64</v>
       </c>
       <c r="E62" s="31" t="n">
-        <v>6793.86</v>
+        <v>6757.3</v>
       </c>
       <c r="F62" s="31" t="n">
-        <v>-206.14</v>
+        <v>-242.7</v>
       </c>
       <c r="G62" s="30" t="n">
         <v>0.8734</v>
@@ -4777,10 +4777,10 @@
         <v>7852.99</v>
       </c>
       <c r="E63" s="31" t="n">
-        <v>6113.55</v>
+        <v>6068</v>
       </c>
       <c r="F63" s="31" t="n">
-        <v>-286.45</v>
+        <v>-332</v>
       </c>
       <c r="G63" s="30" t="n">
         <v>0.7785</v>
@@ -4846,10 +4846,10 @@
         <v>3580.2</v>
       </c>
       <c r="E64" s="31" t="n">
-        <v>3394.02</v>
+        <v>3373.62</v>
       </c>
       <c r="F64" s="31" t="n">
-        <v>-105.98</v>
+        <v>-126.38</v>
       </c>
       <c r="G64" s="30" t="n">
         <v>0.948</v>
@@ -4909,16 +4909,16 @@
         <v>519671</v>
       </c>
       <c r="C65" s="4" t="n">
-        <v>1.4255</v>
+        <v>1.4259</v>
       </c>
       <c r="D65" s="5" t="n">
-        <v>981.52</v>
+        <v>997.72</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>1445.72</v>
+        <v>1428.74</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>23.07</v>
+        <v>6.08</v>
       </c>
       <c r="G65" s="4" t="n">
         <v>1.449</v>
@@ -4935,7 +4935,7 @@
         <v>-0.0119</v>
       </c>
       <c r="K65" s="8" t="n">
-        <v>-16.88</v>
+        <v>-17.16</v>
       </c>
       <c r="L65" s="6" t="inlineStr">
         <is>
@@ -4978,16 +4978,16 @@
         <v>90010</v>
       </c>
       <c r="C66" s="4" t="n">
-        <v>1.6538</v>
+        <v>1.6533</v>
       </c>
       <c r="D66" s="5" t="n">
-        <v>831.6799999999999</v>
+        <v>845.95</v>
       </c>
       <c r="E66" s="5" t="n">
-        <v>1373.01</v>
+        <v>1362.83</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>-25.59</v>
+        <v>-35.77</v>
       </c>
       <c r="G66" s="4" t="n">
         <v>1.623</v>
@@ -5004,7 +5004,7 @@
         <v>-0.0076</v>
       </c>
       <c r="K66" s="8" t="n">
-        <v>-10.23</v>
+        <v>-10.41</v>
       </c>
       <c r="L66" s="6" t="inlineStr">
         <is>
@@ -5053,10 +5053,10 @@
         <v>898.04</v>
       </c>
       <c r="E67" s="5" t="n">
-        <v>1318.32</v>
+        <v>1310.06</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>107.35</v>
+        <v>99.09</v>
       </c>
       <c r="G67" s="4" t="n">
         <v>1.468</v>
@@ -5116,16 +5116,16 @@
         <v>3318</v>
       </c>
       <c r="C68" s="4" t="n">
-        <v>0.9337</v>
+        <v>0.9335</v>
       </c>
       <c r="D68" s="5" t="n">
-        <v>1265.09</v>
+        <v>1288.86</v>
       </c>
       <c r="E68" s="5" t="n">
-        <v>1189.52</v>
+        <v>1182.92</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>-13.62</v>
+        <v>-20.22</v>
       </c>
       <c r="G68" s="4" t="n">
         <v>0.9229000000000001</v>
@@ -5142,7 +5142,7 @@
         <v>-0.0057</v>
       </c>
       <c r="K68" s="8" t="n">
-        <v>-6.7</v>
+        <v>-6.83</v>
       </c>
       <c r="L68" s="6" t="inlineStr">
         <is>
@@ -5185,16 +5185,16 @@
         <v>70023</v>
       </c>
       <c r="C69" s="4" t="n">
-        <v>1.7925</v>
+        <v>1.794</v>
       </c>
       <c r="D69" s="5" t="n">
-        <v>463.76</v>
+        <v>473.31</v>
       </c>
       <c r="E69" s="5" t="n">
-        <v>883.33</v>
+        <v>874.25</v>
       </c>
       <c r="F69" s="5" t="n">
-        <v>34.19</v>
+        <v>25.11</v>
       </c>
       <c r="G69" s="4" t="n">
         <v>1.8662</v>
@@ -5211,7 +5211,7 @@
         <v>-0.0103</v>
       </c>
       <c r="K69" s="8" t="n">
-        <v>-8.859999999999999</v>
+        <v>-9.039999999999999</v>
       </c>
       <c r="L69" s="6" t="inlineStr">
         <is>
@@ -5254,16 +5254,16 @@
         <v>530015</v>
       </c>
       <c r="C70" s="4" t="n">
-        <v>2.1175</v>
+        <v>2.1188</v>
       </c>
       <c r="D70" s="5" t="n">
-        <v>372.46</v>
+        <v>381.21</v>
       </c>
       <c r="E70" s="5" t="n">
-        <v>826.8</v>
+        <v>818.38</v>
       </c>
       <c r="F70" s="5" t="n">
-        <v>19.11</v>
+        <v>10.69</v>
       </c>
       <c r="G70" s="4" t="n">
         <v>2.1688</v>
@@ -5280,7 +5280,7 @@
         <v>-0.0105</v>
       </c>
       <c r="K70" s="8" t="n">
-        <v>-8.449999999999999</v>
+        <v>-8.65</v>
       </c>
       <c r="L70" s="6" t="inlineStr">
         <is>
@@ -5323,16 +5323,16 @@
         <v>968</v>
       </c>
       <c r="C71" s="4" t="n">
-        <v>0.9599</v>
+        <v>0.961</v>
       </c>
       <c r="D71" s="5" t="n">
-        <v>319.9</v>
+        <v>336.9</v>
       </c>
       <c r="E71" s="5" t="n">
-        <v>330.49</v>
+        <v>328.85</v>
       </c>
       <c r="F71" s="5" t="n">
-        <v>6.73</v>
+        <v>5.09</v>
       </c>
       <c r="G71" s="4" t="n">
         <v>0.9809</v>
@@ -5349,7 +5349,7 @@
         <v>-0.0048</v>
       </c>
       <c r="K71" s="8" t="n">
-        <v>-1.54</v>
+        <v>-1.62</v>
       </c>
       <c r="L71" s="6" t="inlineStr">
         <is>
@@ -5398,10 +5398,10 @@
         <v>214.89</v>
       </c>
       <c r="E72" s="5" t="n">
-        <v>201.42</v>
+        <v>200.32</v>
       </c>
       <c r="F72" s="5" t="n">
-        <v>-9.800000000000001</v>
+        <v>-10.9</v>
       </c>
       <c r="G72" s="4" t="n">
         <v>0.9373</v>
@@ -5467,10 +5467,10 @@
         <v>212.74</v>
       </c>
       <c r="E73" s="5" t="n">
-        <v>172.62</v>
+        <v>172.87</v>
       </c>
       <c r="F73" s="5" t="n">
-        <v>29.92</v>
+        <v>30.17</v>
       </c>
       <c r="G73" s="4" t="n">
         <v>0.8114</v>
@@ -5536,10 +5536,10 @@
         <v>62.09</v>
       </c>
       <c r="E74" s="5" t="n">
-        <v>83.2</v>
+        <v>82.58</v>
       </c>
       <c r="F74" s="5" t="n">
-        <v>3.16</v>
+        <v>2.54</v>
       </c>
       <c r="G74" s="4" t="n">
         <v>1.34</v>
@@ -5605,10 +5605,10 @@
         <v>24.24</v>
       </c>
       <c r="E75" s="5" t="n">
-        <v>35.35</v>
+        <v>34.95</v>
       </c>
       <c r="F75" s="5" t="n">
-        <v>-1.73</v>
+        <v>-2.13</v>
       </c>
       <c r="G75" s="4" t="n">
         <v>1.4584</v>
@@ -5668,16 +5668,16 @@
         <v>90010</v>
       </c>
       <c r="C76" s="4" t="n">
-        <v>1.6604</v>
+        <v>1.6593</v>
       </c>
       <c r="D76" s="5" t="n">
-        <v>861.49</v>
+        <v>890.02</v>
       </c>
       <c r="E76" s="5" t="n">
-        <v>1444.57</v>
+        <v>1433.82</v>
       </c>
       <c r="F76" s="5" t="n">
-        <v>-32.2</v>
+        <v>-42.95</v>
       </c>
       <c r="G76" s="4" t="n">
         <v>1.623</v>
@@ -5694,7 +5694,7 @@
         <v>-0.0076</v>
       </c>
       <c r="K76" s="8" t="n">
-        <v>-10.6</v>
+        <v>-10.95</v>
       </c>
       <c r="L76" s="6" t="inlineStr">
         <is>
@@ -5737,16 +5737,16 @@
         <v>519671</v>
       </c>
       <c r="C77" s="4" t="n">
-        <v>1.4229</v>
+        <v>1.4239</v>
       </c>
       <c r="D77" s="5" t="n">
-        <v>930.05</v>
+        <v>962.45</v>
       </c>
       <c r="E77" s="5" t="n">
-        <v>1394.65</v>
+        <v>1378.23</v>
       </c>
       <c r="F77" s="5" t="n">
-        <v>24.24</v>
+        <v>7.82</v>
       </c>
       <c r="G77" s="4" t="n">
         <v>1.449</v>
@@ -5763,7 +5763,7 @@
         <v>-0.0119</v>
       </c>
       <c r="K77" s="8" t="n">
-        <v>-16</v>
+        <v>-16.55</v>
       </c>
       <c r="L77" s="6" t="inlineStr">
         <is>
@@ -5812,10 +5812,10 @@
         <v>915.97</v>
       </c>
       <c r="E78" s="5" t="n">
-        <v>1344.64</v>
+        <v>1336.22</v>
       </c>
       <c r="F78" s="5" t="n">
-        <v>106.8</v>
+        <v>98.38</v>
       </c>
       <c r="G78" s="4" t="n">
         <v>1.468</v>
@@ -5875,16 +5875,16 @@
         <v>3318</v>
       </c>
       <c r="C79" s="4" t="n">
-        <v>0.9352</v>
+        <v>0.9348</v>
       </c>
       <c r="D79" s="5" t="n">
-        <v>1225.39</v>
+        <v>1272.96</v>
       </c>
       <c r="E79" s="5" t="n">
-        <v>1174.87</v>
+        <v>1168.32</v>
       </c>
       <c r="F79" s="5" t="n">
-        <v>-15.1</v>
+        <v>-21.65</v>
       </c>
       <c r="G79" s="4" t="n">
         <v>0.9229000000000001</v>
@@ -5901,7 +5901,7 @@
         <v>-0.0057</v>
       </c>
       <c r="K79" s="8" t="n">
-        <v>-6.49</v>
+        <v>-6.75</v>
       </c>
       <c r="L79" s="6" t="inlineStr">
         <is>
@@ -5944,16 +5944,16 @@
         <v>70023</v>
       </c>
       <c r="C80" s="4" t="n">
-        <v>1.7915</v>
+        <v>1.7945</v>
       </c>
       <c r="D80" s="5" t="n">
-        <v>471.32</v>
+        <v>490.43</v>
       </c>
       <c r="E80" s="5" t="n">
-        <v>915.3</v>
+        <v>905.87</v>
       </c>
       <c r="F80" s="5" t="n">
-        <v>35.23</v>
+        <v>25.8</v>
       </c>
       <c r="G80" s="4" t="n">
         <v>1.8662</v>
@@ -5970,7 +5970,7 @@
         <v>-0.0103</v>
       </c>
       <c r="K80" s="8" t="n">
-        <v>-9</v>
+        <v>-9.369999999999999</v>
       </c>
       <c r="L80" s="6" t="inlineStr">
         <is>
@@ -6013,16 +6013,16 @@
         <v>530015</v>
       </c>
       <c r="C81" s="4" t="n">
-        <v>2.1157</v>
+        <v>2.1185</v>
       </c>
       <c r="D81" s="5" t="n">
-        <v>337.88</v>
+        <v>355.38</v>
       </c>
       <c r="E81" s="5" t="n">
-        <v>770.8</v>
+        <v>762.9299999999999</v>
       </c>
       <c r="F81" s="5" t="n">
-        <v>17.94</v>
+        <v>10.07</v>
       </c>
       <c r="G81" s="4" t="n">
         <v>2.1688</v>
@@ -6039,7 +6039,7 @@
         <v>-0.0105</v>
       </c>
       <c r="K81" s="8" t="n">
-        <v>-7.67</v>
+        <v>-8.07</v>
       </c>
       <c r="L81" s="6" t="inlineStr">
         <is>
@@ -6082,16 +6082,16 @@
         <v>968</v>
       </c>
       <c r="C82" s="4" t="n">
-        <v>0.9582000000000001</v>
+        <v>0.9608</v>
       </c>
       <c r="D82" s="5" t="n">
-        <v>285.14</v>
+        <v>319.14</v>
       </c>
       <c r="E82" s="5" t="n">
-        <v>313.08</v>
+        <v>311.51</v>
       </c>
       <c r="F82" s="5" t="n">
-        <v>6.46</v>
+        <v>4.89</v>
       </c>
       <c r="G82" s="4" t="n">
         <v>0.9809</v>
@@ -6108,7 +6108,7 @@
         <v>-0.0048</v>
       </c>
       <c r="K82" s="8" t="n">
-        <v>-1.37</v>
+        <v>-1.53</v>
       </c>
       <c r="L82" s="6" t="inlineStr">
         <is>
@@ -6157,10 +6157,10 @@
         <v>227.52</v>
       </c>
       <c r="E83" s="5" t="n">
-        <v>213.25</v>
+        <v>212.09</v>
       </c>
       <c r="F83" s="5" t="n">
-        <v>-10.26</v>
+        <v>-11.42</v>
       </c>
       <c r="G83" s="4" t="n">
         <v>0.9373</v>
@@ -6226,10 +6226,10 @@
         <v>142.1</v>
       </c>
       <c r="E84" s="5" t="n">
-        <v>190.41</v>
+        <v>188.99</v>
       </c>
       <c r="F84" s="5" t="n">
-        <v>7.96</v>
+        <v>6.54</v>
       </c>
       <c r="G84" s="4" t="n">
         <v>1.34</v>
@@ -6295,10 +6295,10 @@
         <v>212.74</v>
       </c>
       <c r="E85" s="5" t="n">
-        <v>172.62</v>
+        <v>172.87</v>
       </c>
       <c r="F85" s="5" t="n">
-        <v>29.92</v>
+        <v>30.17</v>
       </c>
       <c r="G85" s="4" t="n">
         <v>0.8114</v>
@@ -6364,10 +6364,10 @@
         <v>24.24</v>
       </c>
       <c r="E86" s="5" t="n">
-        <v>35.35</v>
+        <v>34.95</v>
       </c>
       <c r="F86" s="5" t="n">
-        <v>-1.73</v>
+        <v>-2.13</v>
       </c>
       <c r="G86" s="4" t="n">
         <v>1.4584</v>
@@ -6433,10 +6433,10 @@
         <v>9697.57</v>
       </c>
       <c r="E87" s="31" t="n">
-        <v>10600.41</v>
+        <v>10544.16</v>
       </c>
       <c r="F87" s="31" t="n">
-        <v>400.41</v>
+        <v>344.16</v>
       </c>
       <c r="G87" s="30" t="n">
         <v>1.0931</v>
@@ -6502,10 +6502,10 @@
         <v>8677.6</v>
       </c>
       <c r="E88" s="31" t="n">
-        <v>9580.07</v>
+        <v>9501.969999999999</v>
       </c>
       <c r="F88" s="31" t="n">
-        <v>780.0700000000001</v>
+        <v>701.97</v>
       </c>
       <c r="G88" s="30" t="n">
         <v>1.104</v>
@@ -6571,10 +6571,10 @@
         <v>6750.28</v>
       </c>
       <c r="E89" s="31" t="n">
-        <v>6015.17</v>
+        <v>6008.42</v>
       </c>
       <c r="F89" s="31" t="n">
-        <v>1215.17</v>
+        <v>1208.42</v>
       </c>
       <c r="G89" s="30" t="n">
         <v>0.8911</v>
@@ -6640,10 +6640,10 @@
         <v>6096.21</v>
       </c>
       <c r="E90" s="31" t="n">
-        <v>5979.77</v>
+        <v>5950.51</v>
       </c>
       <c r="F90" s="31" t="n">
-        <v>779.77</v>
+        <v>750.51</v>
       </c>
       <c r="G90" s="30" t="n">
         <v>0.9809</v>
@@ -6709,10 +6709,10 @@
         <v>2760.12</v>
       </c>
       <c r="E91" s="31" t="n">
-        <v>4551.43</v>
+        <v>4504.51</v>
       </c>
       <c r="F91" s="31" t="n">
-        <v>951.4299999999999</v>
+        <v>904.51</v>
       </c>
       <c r="G91" s="30" t="n">
         <v>1.649</v>
@@ -6778,10 +6778,10 @@
         <v>4423.48</v>
       </c>
       <c r="E92" s="31" t="n">
-        <v>3443.67</v>
+        <v>3418.02</v>
       </c>
       <c r="F92" s="31" t="n">
-        <v>243.67</v>
+        <v>218.02</v>
       </c>
       <c r="G92" s="30" t="n">
         <v>0.7785</v>
@@ -6847,10 +6847,10 @@
         <v>2046.97</v>
       </c>
       <c r="E93" s="31" t="n">
-        <v>3303.8</v>
+        <v>3285.38</v>
       </c>
       <c r="F93" s="31" t="n">
-        <v>591.6900000000001</v>
+        <v>573.27</v>
       </c>
       <c r="G93" s="30" t="n">
         <v>1.614</v>
@@ -6916,10 +6916,10 @@
         <v>5949.77</v>
       </c>
       <c r="E94" s="31" t="n">
-        <v>3230.13</v>
+        <v>3206.33</v>
       </c>
       <c r="F94" s="31" t="n">
-        <v>30.13</v>
+        <v>6.33</v>
       </c>
       <c r="G94" s="30" t="n">
         <v>0.5429</v>
@@ -6985,10 +6985,10 @@
         <v>1743.65</v>
       </c>
       <c r="E95" s="31" t="n">
-        <v>2960.71</v>
+        <v>2951.99</v>
       </c>
       <c r="F95" s="31" t="n">
-        <v>169.71</v>
+        <v>160.99</v>
       </c>
       <c r="G95" s="30" t="n">
         <v>1.698</v>
@@ -7054,10 +7054,10 @@
         <v>1884.74</v>
       </c>
       <c r="E96" s="31" t="n">
-        <v>2263.57</v>
+        <v>2271.11</v>
       </c>
       <c r="F96" s="31" t="n">
-        <v>263.57</v>
+        <v>271.11</v>
       </c>
       <c r="G96" s="30" t="n">
         <v>0</v>
@@ -7123,10 +7123,10 @@
         <v>1213.09</v>
       </c>
       <c r="E97" s="31" t="n">
-        <v>2168.88</v>
+        <v>2157.72</v>
       </c>
       <c r="F97" s="31" t="n">
-        <v>568.88</v>
+        <v>557.72</v>
       </c>
       <c r="G97" s="30" t="n">
         <v>1.7879</v>
@@ -7192,10 +7192,10 @@
         <v>1630.08</v>
       </c>
       <c r="E98" s="31" t="n">
-        <v>1884.37</v>
+        <v>1878.17</v>
       </c>
       <c r="F98" s="31" t="n">
-        <v>284.37</v>
+        <v>278.17</v>
       </c>
       <c r="G98" s="30" t="n">
         <v>1.156</v>
@@ -7275,17 +7275,17 @@
         </is>
       </c>
       <c r="I99" s="30" t="n">
-        <v>1.2727</v>
+        <v>1.2719</v>
       </c>
       <c r="J99" s="33" t="n">
-        <v>-0.0026</v>
+        <v>-0.0032</v>
       </c>
       <c r="K99" s="8" t="n">
-        <v>-4.64</v>
+        <v>-5.77</v>
       </c>
       <c r="L99" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 05:00</t>
+          <t>2019-11-21 05:00</t>
         </is>
       </c>
       <c r="M99" s="32" t="inlineStr">
@@ -7330,10 +7330,10 @@
         <v>1338.46</v>
       </c>
       <c r="E100" s="31" t="n">
-        <v>1374.59</v>
+        <v>1359.87</v>
       </c>
       <c r="F100" s="31" t="n">
-        <v>174.59</v>
+        <v>159.87</v>
       </c>
       <c r="G100" s="30" t="n">
         <v>1.027</v>
@@ -7399,10 +7399,10 @@
         <v>3350.7</v>
       </c>
       <c r="E101" s="31" t="n">
-        <v>1266.56</v>
+        <v>1229.7</v>
       </c>
       <c r="F101" s="31" t="n">
-        <v>-333.44</v>
+        <v>-370.3</v>
       </c>
       <c r="G101" s="30" t="n">
         <v>0.378</v>
@@ -7413,17 +7413,17 @@
         </is>
       </c>
       <c r="I101" s="30" t="n">
-        <v>0.3767</v>
+        <v>0.3764</v>
       </c>
       <c r="J101" s="33" t="n">
-        <v>-0.0035</v>
+        <v>-0.0043</v>
       </c>
       <c r="K101" s="8" t="n">
-        <v>-4.36</v>
+        <v>-5.36</v>
       </c>
       <c r="L101" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 05:00</t>
+          <t>2019-11-21 05:00</t>
         </is>
       </c>
       <c r="M101" s="32" t="inlineStr">
@@ -7468,10 +7468,10 @@
         <v>1495.03</v>
       </c>
       <c r="E102" s="31" t="n">
-        <v>1211.87</v>
+        <v>1206.33</v>
       </c>
       <c r="F102" s="31" t="n">
-        <v>11.87</v>
+        <v>6.33</v>
       </c>
       <c r="G102" s="30" t="n">
         <v>0.8106</v>
@@ -7537,10 +7537,10 @@
         <v>900.35</v>
       </c>
       <c r="E103" s="31" t="n">
-        <v>991.8200000000001</v>
+        <v>978.14</v>
       </c>
       <c r="F103" s="31" t="n">
-        <v>191.82</v>
+        <v>178.14</v>
       </c>
       <c r="G103" s="30" t="n">
         <v>1.1016</v>
@@ -7606,10 +7606,10 @@
         <v>733.79</v>
       </c>
       <c r="E104" s="31" t="n">
-        <v>892.65</v>
+        <v>895.73</v>
       </c>
       <c r="F104" s="31" t="n">
-        <v>92.65000000000001</v>
+        <v>95.73</v>
       </c>
       <c r="G104" s="30" t="n">
         <v>1.2165</v>
@@ -7620,17 +7620,17 @@
         </is>
       </c>
       <c r="I104" s="30" t="n">
-        <v>1.2207</v>
+        <v>1.2137</v>
       </c>
       <c r="J104" s="33" t="n">
-        <v>0.0035</v>
-      </c>
-      <c r="K104" s="9" t="n">
-        <v>3.08</v>
+        <v>-0.0023</v>
+      </c>
+      <c r="K104" s="8" t="n">
+        <v>-2.05</v>
       </c>
       <c r="L104" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 15:30</t>
+          <t>2019-11-21 02:30</t>
         </is>
       </c>
       <c r="M104" s="32" t="inlineStr">
@@ -7675,10 +7675,10 @@
         <v>496.13</v>
       </c>
       <c r="E105" s="31" t="n">
-        <v>487.05</v>
+        <v>479.7</v>
       </c>
       <c r="F105" s="31" t="n">
-        <v>87.05</v>
+        <v>79.7</v>
       </c>
       <c r="G105" s="30" t="n">
         <v>0.9817</v>
@@ -7744,10 +7744,10 @@
         <v>492.57</v>
       </c>
       <c r="E106" s="31" t="n">
-        <v>478.53</v>
+        <v>475.97</v>
       </c>
       <c r="F106" s="31" t="n">
-        <v>78.53</v>
+        <v>75.97</v>
       </c>
       <c r="G106" s="30" t="n">
         <v>0.9715</v>
@@ -7813,10 +7813,10 @@
         <v>333.04</v>
       </c>
       <c r="E107" s="31" t="n">
-        <v>454.49</v>
+        <v>453.5</v>
       </c>
       <c r="F107" s="31" t="n">
-        <v>54.49</v>
+        <v>53.5</v>
       </c>
       <c r="G107" s="30" t="n">
         <v>1.3647</v>
@@ -7882,10 +7882,10 @@
         <v>325.61</v>
       </c>
       <c r="E108" s="31" t="n">
-        <v>430.45</v>
+        <v>426.22</v>
       </c>
       <c r="F108" s="31" t="n">
-        <v>30.45</v>
+        <v>26.22</v>
       </c>
       <c r="G108" s="30" t="n">
         <v>1.322</v>
@@ -7951,10 +7951,10 @@
         <v>275.49</v>
       </c>
       <c r="E109" s="31" t="n">
-        <v>416.26</v>
+        <v>413.62</v>
       </c>
       <c r="F109" s="31" t="n">
-        <v>16.26</v>
+        <v>13.62</v>
       </c>
       <c r="G109" s="30" t="n">
         <v>1.511</v>
@@ -8020,10 +8020,10 @@
         <v>275.96</v>
       </c>
       <c r="E110" s="31" t="n">
-        <v>241.02</v>
+        <v>239.72</v>
       </c>
       <c r="F110" s="31" t="n">
-        <v>12.26</v>
+        <v>10.96</v>
       </c>
       <c r="G110" s="30" t="n">
         <v>0.8734</v>

--- a/Portfolio/scripts/output/201911/全家/全家整体收益估算.xlsx
+++ b/Portfolio/scripts/output/201911/全家/全家整体收益估算.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="基金估算情况" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="000000" numFmtId="164"/>
-    <numFmt formatCode="0.0000" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -93,60 +93,60 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -447,22 +447,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="29.25"/>
-    <col customWidth="1" max="2" min="2" width="9.600000000000001"/>
-    <col customWidth="1" max="3" min="3" width="9.600000000000001"/>
-    <col customWidth="1" max="4" min="4" width="9.600000000000001"/>
-    <col customWidth="1" max="5" min="5" width="9.600000000000001"/>
-    <col customWidth="1" max="6" min="6" width="9.600000000000001"/>
-    <col customWidth="1" max="7" min="7" width="9.600000000000001"/>
-    <col customWidth="1" max="8" min="8" width="9.600000000000001"/>
-    <col customWidth="1" max="9" min="9" width="9.600000000000001"/>
-    <col customWidth="1" max="10" min="10" width="12"/>
-    <col customWidth="1" max="11" min="11" width="12"/>
-    <col customWidth="1" max="12" min="12" width="12.8"/>
-    <col customWidth="1" max="13" min="13" width="9.600000000000001"/>
-    <col customWidth="1" max="14" min="14" width="9.600000000000001"/>
-    <col customWidth="1" max="15" min="15" width="12"/>
-    <col customWidth="1" max="17" min="17" width="16"/>
+    <col width="29.25" customWidth="1" min="1" max="1"/>
+    <col width="9.600000000000001" customWidth="1" min="2" max="2"/>
+    <col width="9.600000000000001" customWidth="1" min="3" max="3"/>
+    <col width="9.600000000000001" customWidth="1" min="4" max="4"/>
+    <col width="9.600000000000001" customWidth="1" min="5" max="5"/>
+    <col width="9.600000000000001" customWidth="1" min="6" max="6"/>
+    <col width="9.600000000000001" customWidth="1" min="7" max="7"/>
+    <col width="9.600000000000001" customWidth="1" min="8" max="8"/>
+    <col width="9.600000000000001" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12.8" customWidth="1" min="12" max="12"/>
+    <col width="9.600000000000001" customWidth="1" min="13" max="13"/>
+    <col width="9.600000000000001" customWidth="1" min="14" max="14"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="16" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -574,25 +574,25 @@
         <v>-93.93000000000001</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.623</v>
+        <v>1.611</v>
       </c>
       <c r="H2" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.6107</v>
+        <v>1.6098</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>-0.0076</v>
+        <v>-0.0008</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>-27.2</v>
+        <v>-2.65</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -643,25 +643,25 @@
         <v>15.2</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.449</v>
+        <v>1.432</v>
       </c>
       <c r="H3" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.4318</v>
+        <v>1.4262</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>-0.0119</v>
+        <v>-0.0041</v>
       </c>
       <c r="K3" s="8" t="n">
-        <v>-42.36</v>
+        <v>-14.28</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
@@ -712,25 +712,25 @@
         <v>250.15</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.468</v>
+        <v>1.4588</v>
       </c>
       <c r="H4" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.4576</v>
+        <v>1.4373</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>-0.0071</v>
+        <v>-0.0147</v>
       </c>
       <c r="K4" s="8" t="n">
-        <v>-23.51</v>
+        <v>-48.59</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 16:00</t>
+          <t>2019-11-21 16:00</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
@@ -781,25 +781,25 @@
         <v>-54.33</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.9229000000000001</v>
+        <v>0.9177999999999999</v>
       </c>
       <c r="H5" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.9176</v>
+        <v>0.9183</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>-0.0057</v>
-      </c>
-      <c r="K5" s="8" t="n">
-        <v>-17.34</v>
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="K5" s="9" t="n">
+        <v>1.64</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
@@ -850,25 +850,25 @@
         <v>67.09999999999999</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.8662</v>
+        <v>1.8471</v>
       </c>
       <c r="H6" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.8471</v>
+        <v>1.8422</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>-0.0103</v>
+        <v>-0.0027</v>
       </c>
       <c r="K6" s="8" t="n">
-        <v>-24.2</v>
+        <v>-6.21</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
@@ -919,25 +919,25 @@
         <v>25.27</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>2.1688</v>
+        <v>2.1468</v>
       </c>
       <c r="H7" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>2.1461</v>
+        <v>2.1376</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>-0.0105</v>
+        <v>-0.0043</v>
       </c>
       <c r="K7" s="8" t="n">
-        <v>-21.13</v>
+        <v>-8.56</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -988,25 +988,25 @@
         <v>12.2</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>0.9809</v>
+        <v>0.9761</v>
       </c>
       <c r="H8" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.9761</v>
+        <v>0.9705</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>-0.0048</v>
+        <v>-0.0057</v>
       </c>
       <c r="K8" s="8" t="n">
-        <v>-3.83</v>
+        <v>-4.47</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -1057,25 +1057,25 @@
         <v>-27.81</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>0.9373</v>
+        <v>0.9322</v>
       </c>
       <c r="H9" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.9304</v>
+        <v>0.93</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>-0.0074</v>
+        <v>-0.0024</v>
       </c>
       <c r="K9" s="8" t="n">
-        <v>-3.8</v>
+        <v>-1.21</v>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M9" s="6" t="inlineStr">
@@ -1126,25 +1126,25 @@
         <v>75.42</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>0.8114</v>
+        <v>0.8126</v>
       </c>
       <c r="H10" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.8126</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="K10" s="9" t="n">
-        <v>0.64</v>
+        <v>-0.0068</v>
+      </c>
+      <c r="K10" s="8" t="n">
+        <v>-2.98</v>
       </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M10" s="6" t="inlineStr">
@@ -1195,25 +1195,25 @@
         <v>16.46</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="H11" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1.3293</v>
+        <v>1.3188</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>-0.008</v>
+        <v>-0.008500000000000001</v>
       </c>
       <c r="K11" s="8" t="n">
-        <v>-2.65</v>
+        <v>-2.78</v>
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M11" s="6" t="inlineStr">
@@ -1264,25 +1264,25 @@
         <v>-5.33</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>1.4584</v>
+        <v>1.4417</v>
       </c>
       <c r="H12" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I12" s="4" t="n">
-        <v>1.4411</v>
+        <v>1.4358</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>-0.0119</v>
+        <v>-0.0041</v>
       </c>
       <c r="K12" s="8" t="n">
-        <v>-1.05</v>
+        <v>-0.36</v>
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M12" s="6" t="inlineStr">
@@ -1333,25 +1333,25 @@
         <v>-2983.19</v>
       </c>
       <c r="G13" s="12" t="n">
-        <v>0.5429</v>
+        <v>0.5389</v>
       </c>
       <c r="H13" s="14" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I13" s="12" t="n">
-        <v>0.5384</v>
+        <v>0.5392</v>
       </c>
       <c r="J13" s="15" t="n">
-        <v>-0.008399999999999999</v>
-      </c>
-      <c r="K13" s="8" t="n">
-        <v>-75.29000000000001</v>
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="K13" s="9" t="n">
+        <v>5.02</v>
       </c>
       <c r="L13" s="14" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M13" s="14" t="inlineStr">
@@ -1396,31 +1396,31 @@
         <v>2700</v>
       </c>
       <c r="E14" s="19" t="n">
-        <v>8135.1</v>
+        <v>8086.5</v>
       </c>
       <c r="F14" s="19" t="n">
-        <v>1825.2</v>
+        <v>1776.6</v>
       </c>
       <c r="G14" s="18" t="n">
-        <v>3.046</v>
+        <v>3.013</v>
       </c>
       <c r="H14" s="20" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I14" s="18" t="n">
-        <v>3.013</v>
+        <v>2.995</v>
       </c>
       <c r="J14" s="21" t="n">
-        <v>-0.0108</v>
+        <v>-0.006</v>
       </c>
       <c r="K14" s="8" t="n">
-        <v>-89.09999999999999</v>
+        <v>-48.6</v>
       </c>
       <c r="L14" s="20" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M14" s="20" t="inlineStr">
@@ -1465,31 +1465,31 @@
         <v>9100</v>
       </c>
       <c r="E15" s="19" t="n">
-        <v>36127</v>
+        <v>35945</v>
       </c>
       <c r="F15" s="19" t="n">
-        <v>4759.3</v>
+        <v>4577.3</v>
       </c>
       <c r="G15" s="18" t="n">
-        <v>4.011</v>
+        <v>3.97</v>
       </c>
       <c r="H15" s="20" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I15" s="18" t="n">
-        <v>3.97</v>
+        <v>3.95</v>
       </c>
       <c r="J15" s="21" t="n">
-        <v>-0.0102</v>
+        <v>-0.005</v>
       </c>
       <c r="K15" s="8" t="n">
-        <v>-373.1</v>
+        <v>-182</v>
       </c>
       <c r="L15" s="20" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M15" s="20" t="inlineStr">
@@ -1534,13 +1534,13 @@
         <v>38800</v>
       </c>
       <c r="E16" s="19" t="n">
-        <v>207075.6</v>
+        <v>207386</v>
       </c>
       <c r="F16" s="19" t="n">
-        <v>-10243.2</v>
+        <v>-9932.799999999999</v>
       </c>
       <c r="G16" s="18" t="n">
-        <v>5.371</v>
+        <v>5.337</v>
       </c>
       <c r="H16" s="20" t="inlineStr">
         <is>
@@ -1548,17 +1548,17 @@
         </is>
       </c>
       <c r="I16" s="18" t="n">
-        <v>5.337</v>
+        <v>5.345</v>
       </c>
       <c r="J16" s="21" t="n">
-        <v>-0.0063</v>
-      </c>
-      <c r="K16" s="8" t="n">
-        <v>-1319.2</v>
+        <v>0.0015</v>
+      </c>
+      <c r="K16" s="9" t="n">
+        <v>310.4</v>
       </c>
       <c r="L16" s="20" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M16" s="20" t="inlineStr">
@@ -1609,7 +1609,7 @@
         <v>-5441.8</v>
       </c>
       <c r="G17" s="18" t="n">
-        <v>0.721</v>
+        <v>0.716</v>
       </c>
       <c r="H17" s="20" t="inlineStr">
         <is>
@@ -1620,14 +1620,14 @@
         <v>0.716</v>
       </c>
       <c r="J17" s="21" t="n">
-        <v>-0.0069</v>
-      </c>
-      <c r="K17" s="8" t="n">
-        <v>-169</v>
+        <v>0</v>
+      </c>
+      <c r="K17" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="L17" s="20" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M17" s="20" t="inlineStr">
@@ -1678,25 +1678,25 @@
         <v>3825.9</v>
       </c>
       <c r="G18" s="18" t="n">
-        <v>0.914</v>
+        <v>0.9</v>
       </c>
       <c r="H18" s="20" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I18" s="18" t="n">
         <v>0.9</v>
       </c>
       <c r="J18" s="21" t="n">
-        <v>-0.0153</v>
-      </c>
-      <c r="K18" s="8" t="n">
-        <v>-457.8</v>
+        <v>0</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="L18" s="20" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M18" s="20" t="inlineStr">
@@ -1747,7 +1747,7 @@
         <v>-3444.1</v>
       </c>
       <c r="G19" s="18" t="n">
-        <v>0.774</v>
+        <v>0.768</v>
       </c>
       <c r="H19" s="20" t="inlineStr">
         <is>
@@ -1758,14 +1758,14 @@
         <v>0.768</v>
       </c>
       <c r="J19" s="21" t="n">
-        <v>-0.0078</v>
-      </c>
-      <c r="K19" s="8" t="n">
-        <v>-204.6</v>
+        <v>0</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="L19" s="20" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M19" s="20" t="inlineStr">
@@ -1810,13 +1810,13 @@
         <v>4500</v>
       </c>
       <c r="E20" s="19" t="n">
-        <v>14854.5</v>
+        <v>14823</v>
       </c>
       <c r="F20" s="19" t="n">
-        <v>2002.5</v>
+        <v>1971</v>
       </c>
       <c r="G20" s="18" t="n">
-        <v>3.29</v>
+        <v>3.301</v>
       </c>
       <c r="H20" s="20" t="inlineStr">
         <is>
@@ -1824,17 +1824,17 @@
         </is>
       </c>
       <c r="I20" s="18" t="n">
-        <v>3.301</v>
+        <v>3.294</v>
       </c>
       <c r="J20" s="21" t="n">
-        <v>0.0033</v>
-      </c>
-      <c r="K20" s="9" t="n">
-        <v>49.5</v>
+        <v>-0.0021</v>
+      </c>
+      <c r="K20" s="8" t="n">
+        <v>-31.5</v>
       </c>
       <c r="L20" s="20" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M20" s="20" t="inlineStr">
@@ -1879,13 +1879,13 @@
         <v>9200</v>
       </c>
       <c r="E21" s="19" t="n">
-        <v>15226</v>
+        <v>15180</v>
       </c>
       <c r="F21" s="19" t="n">
-        <v>2355.2</v>
+        <v>2309.2</v>
       </c>
       <c r="G21" s="18" t="n">
-        <v>1.666</v>
+        <v>1.655</v>
       </c>
       <c r="H21" s="20" t="inlineStr">
         <is>
@@ -1893,17 +1893,17 @@
         </is>
       </c>
       <c r="I21" s="18" t="n">
-        <v>1.655</v>
+        <v>1.65</v>
       </c>
       <c r="J21" s="21" t="n">
-        <v>-0.0066</v>
+        <v>-0.003</v>
       </c>
       <c r="K21" s="8" t="n">
-        <v>-101.2</v>
+        <v>-46</v>
       </c>
       <c r="L21" s="20" t="inlineStr">
         <is>
-          <t>2019-11-20 15:04</t>
+          <t>2019-11-21 15:04</t>
         </is>
       </c>
       <c r="M21" s="20" t="inlineStr">
@@ -1948,13 +1948,13 @@
         <v>14400</v>
       </c>
       <c r="E22" s="19" t="n">
-        <v>20606.4</v>
+        <v>20361.6</v>
       </c>
       <c r="F22" s="19" t="n">
-        <v>2304</v>
+        <v>2059.2</v>
       </c>
       <c r="G22" s="18" t="n">
-        <v>1.433</v>
+        <v>1.431</v>
       </c>
       <c r="H22" s="20" t="inlineStr">
         <is>
@@ -1962,17 +1962,17 @@
         </is>
       </c>
       <c r="I22" s="18" t="n">
-        <v>1.431</v>
+        <v>1.414</v>
       </c>
       <c r="J22" s="21" t="n">
-        <v>-0.0014</v>
+        <v>-0.0119</v>
       </c>
       <c r="K22" s="8" t="n">
-        <v>-28.8</v>
+        <v>-244.8</v>
       </c>
       <c r="L22" s="20" t="inlineStr">
         <is>
-          <t>2019-11-20 15:04</t>
+          <t>2019-11-21 15:04</t>
         </is>
       </c>
       <c r="M22" s="20" t="inlineStr">
@@ -2023,25 +2023,25 @@
         <v>106.84</v>
       </c>
       <c r="G23" s="24" t="n">
-        <v>1.963</v>
+        <v>1.9519</v>
       </c>
       <c r="H23" s="26" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I23" s="24" t="n">
-        <v>1.9522</v>
+        <v>1.9517</v>
       </c>
       <c r="J23" s="27" t="n">
-        <v>-0.0055</v>
+        <v>-0.0001</v>
       </c>
       <c r="K23" s="8" t="n">
-        <v>-41.19</v>
+        <v>-0.76</v>
       </c>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M23" s="26" t="inlineStr">
@@ -2092,25 +2092,25 @@
         <v>-96.81</v>
       </c>
       <c r="G24" s="24" t="n">
-        <v>0.5429</v>
+        <v>0.5389</v>
       </c>
       <c r="H24" s="26" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I24" s="24" t="n">
-        <v>0.5384</v>
+        <v>0.5392</v>
       </c>
       <c r="J24" s="27" t="n">
-        <v>-0.008399999999999999</v>
-      </c>
-      <c r="K24" s="8" t="n">
-        <v>-43.75</v>
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>2.92</v>
       </c>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M24" s="26" t="inlineStr">
@@ -2161,25 +2161,25 @@
         <v>156.8</v>
       </c>
       <c r="G25" s="24" t="n">
-        <v>0.9809</v>
+        <v>0.9761</v>
       </c>
       <c r="H25" s="26" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I25" s="24" t="n">
-        <v>0.9761</v>
+        <v>0.9705</v>
       </c>
       <c r="J25" s="27" t="n">
-        <v>-0.0048</v>
+        <v>-0.0057</v>
       </c>
       <c r="K25" s="8" t="n">
-        <v>-23.73</v>
+        <v>-27.69</v>
       </c>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M25" s="26" t="inlineStr">
@@ -2230,25 +2230,25 @@
         <v>56.75</v>
       </c>
       <c r="G26" s="24" t="n">
-        <v>0.553</v>
+        <v>0.55</v>
       </c>
       <c r="H26" s="26" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I26" s="24" t="n">
-        <v>0.55</v>
+        <v>0.5499000000000001</v>
       </c>
       <c r="J26" s="27" t="n">
-        <v>-0.0055</v>
+        <v>-0.0001</v>
       </c>
       <c r="K26" s="8" t="n">
-        <v>-22.14</v>
+        <v>-0.74</v>
       </c>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M26" s="26" t="inlineStr">
@@ -2299,25 +2299,25 @@
         <v>11.19</v>
       </c>
       <c r="G27" s="24" t="n">
-        <v>1.104</v>
+        <v>1.095</v>
       </c>
       <c r="H27" s="26" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I27" s="24" t="n">
-        <v>1.0956</v>
+        <v>1.0942</v>
       </c>
       <c r="J27" s="27" t="n">
-        <v>-0.0076</v>
+        <v>-0.0008</v>
       </c>
       <c r="K27" s="8" t="n">
-        <v>-30.79</v>
+        <v>-2.93</v>
       </c>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M27" s="26" t="inlineStr">
@@ -2368,25 +2368,25 @@
         <v>181.21</v>
       </c>
       <c r="G28" s="24" t="n">
-        <v>0.7785</v>
+        <v>0.7727000000000001</v>
       </c>
       <c r="H28" s="26" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I28" s="24" t="n">
-        <v>0.7725</v>
+        <v>0.7719</v>
       </c>
       <c r="J28" s="27" t="n">
-        <v>-0.0077</v>
+        <v>-0.001</v>
       </c>
       <c r="K28" s="8" t="n">
-        <v>-27.3</v>
+        <v>-3.64</v>
       </c>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M28" s="26" t="inlineStr">
@@ -2437,25 +2437,25 @@
         <v>45.6</v>
       </c>
       <c r="G29" s="24" t="n">
-        <v>1.7879</v>
+        <v>1.7787</v>
       </c>
       <c r="H29" s="26" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I29" s="24" t="n">
-        <v>1.7787</v>
+        <v>1.7723</v>
       </c>
       <c r="J29" s="27" t="n">
-        <v>-0.0051</v>
+        <v>-0.0036</v>
       </c>
       <c r="K29" s="8" t="n">
-        <v>-3.69</v>
+        <v>-2.56</v>
       </c>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M29" s="26" t="inlineStr">
@@ -2506,25 +2506,25 @@
         <v>44.49</v>
       </c>
       <c r="G30" s="24" t="n">
-        <v>0.9715</v>
+        <v>0.9663</v>
       </c>
       <c r="H30" s="26" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I30" s="24" t="n">
-        <v>0.9665</v>
+        <v>0.9628</v>
       </c>
       <c r="J30" s="27" t="n">
-        <v>-0.0051</v>
+        <v>-0.0036</v>
       </c>
       <c r="K30" s="8" t="n">
-        <v>-3.68</v>
+        <v>-2.58</v>
       </c>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M30" s="26" t="inlineStr">
@@ -2563,37 +2563,37 @@
         <v>502010</v>
       </c>
       <c r="C31" s="24" t="n">
-        <v>0.9898</v>
+        <v>0.9853</v>
       </c>
       <c r="D31" s="25" t="n">
-        <v>377.37</v>
+        <v>473.85</v>
       </c>
       <c r="E31" s="25" t="n">
-        <v>364.88</v>
+        <v>458.17</v>
       </c>
       <c r="F31" s="25" t="n">
-        <v>-8.640000000000001</v>
+        <v>-8.73</v>
       </c>
       <c r="G31" s="24" t="n">
-        <v>0.9817</v>
+        <v>0.9669</v>
       </c>
       <c r="H31" s="26" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I31" s="24" t="n">
-        <v>0.9666</v>
+        <v>0.9674</v>
       </c>
       <c r="J31" s="27" t="n">
-        <v>-0.0154</v>
-      </c>
-      <c r="K31" s="8" t="n">
-        <v>-5.7</v>
+        <v>0.0005</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>0.24</v>
       </c>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M31" s="26" t="inlineStr">
@@ -2644,15 +2644,15 @@
         <v>-55.91</v>
       </c>
       <c r="G32" s="24" t="n">
-        <v>0.378</v>
+        <v>0.367</v>
       </c>
       <c r="H32" s="26" t="inlineStr">
         <is>
-          <t>2019-11-18</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="I32" s="24" t="n">
-        <v>0.3764</v>
+        <v>0.3654</v>
       </c>
       <c r="J32" s="27" t="n">
         <v>-0.0043</v>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="H33" s="26" t="inlineStr">
         <is>
-          <t>2019-11-18</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="I33" s="24" t="n">
@@ -2782,25 +2782,25 @@
         <v>23.15</v>
       </c>
       <c r="G34" s="24" t="n">
-        <v>1.511</v>
+        <v>1.5014</v>
       </c>
       <c r="H34" s="26" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I34" s="24" t="n">
-        <v>1.5002</v>
+        <v>1.479</v>
       </c>
       <c r="J34" s="27" t="n">
-        <v>-0.0072</v>
+        <v>-0.0149</v>
       </c>
       <c r="K34" s="8" t="n">
-        <v>-4.96</v>
+        <v>-10.3</v>
       </c>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 16:00</t>
+          <t>2019-11-21 16:00</t>
         </is>
       </c>
       <c r="M34" s="26" t="inlineStr">
@@ -2920,25 +2920,25 @@
         <v>43.11</v>
       </c>
       <c r="G36" s="24" t="n">
-        <v>1.963</v>
+        <v>1.9519</v>
       </c>
       <c r="H36" s="26" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I36" s="24" t="n">
-        <v>1.9522</v>
+        <v>1.9517</v>
       </c>
       <c r="J36" s="27" t="n">
-        <v>-0.0055</v>
+        <v>-0.0001</v>
       </c>
       <c r="K36" s="8" t="n">
-        <v>-11.3</v>
+        <v>-0.21</v>
       </c>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M36" s="26" t="inlineStr">
@@ -2989,25 +2989,25 @@
         <v>-0.64</v>
       </c>
       <c r="G37" s="24" t="n">
-        <v>1.104</v>
+        <v>1.095</v>
       </c>
       <c r="H37" s="26" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I37" s="24" t="n">
-        <v>1.0956</v>
+        <v>1.0942</v>
       </c>
       <c r="J37" s="27" t="n">
-        <v>-0.0076</v>
+        <v>-0.0008</v>
       </c>
       <c r="K37" s="8" t="n">
-        <v>-15.34</v>
+        <v>-1.46</v>
       </c>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M37" s="26" t="inlineStr">
@@ -3058,25 +3058,25 @@
         <v>76.12</v>
       </c>
       <c r="G38" s="24" t="n">
-        <v>1.027</v>
+        <v>1.016</v>
       </c>
       <c r="H38" s="26" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I38" s="24" t="n">
-        <v>1.0164</v>
+        <v>1.0099</v>
       </c>
       <c r="J38" s="27" t="n">
-        <v>-0.0104</v>
+        <v>-0.006</v>
       </c>
       <c r="K38" s="8" t="n">
-        <v>-11.23</v>
+        <v>-6.46</v>
       </c>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M38" s="26" t="inlineStr">
@@ -3127,25 +3127,25 @@
         <v>-3.02</v>
       </c>
       <c r="G39" s="24" t="n">
-        <v>0.553</v>
+        <v>0.55</v>
       </c>
       <c r="H39" s="26" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I39" s="24" t="n">
-        <v>0.55</v>
+        <v>0.5499000000000001</v>
       </c>
       <c r="J39" s="27" t="n">
-        <v>-0.0055</v>
+        <v>-0.0001</v>
       </c>
       <c r="K39" s="8" t="n">
-        <v>-5.44</v>
+        <v>-0.18</v>
       </c>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M39" s="26" t="inlineStr">
@@ -3196,25 +3196,25 @@
         <v>-51.87</v>
       </c>
       <c r="G40" s="24" t="n">
-        <v>0.7785</v>
+        <v>0.7727000000000001</v>
       </c>
       <c r="H40" s="26" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I40" s="24" t="n">
-        <v>0.7725</v>
+        <v>0.7719</v>
       </c>
       <c r="J40" s="27" t="n">
-        <v>-0.0077</v>
+        <v>-0.001</v>
       </c>
       <c r="K40" s="8" t="n">
-        <v>-7.36</v>
+        <v>-0.98</v>
       </c>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M40" s="26" t="inlineStr">
@@ -3265,25 +3265,25 @@
         <v>239.34</v>
       </c>
       <c r="G41" s="24" t="n">
-        <v>1.2165</v>
+        <v>1.2207</v>
       </c>
       <c r="H41" s="26" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I41" s="24" t="n">
-        <v>1.2137</v>
+        <v>1.2201</v>
       </c>
       <c r="J41" s="27" t="n">
-        <v>-0.0023</v>
+        <v>-0.0005</v>
       </c>
       <c r="K41" s="8" t="n">
-        <v>-5.14</v>
+        <v>-1.1</v>
       </c>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21 02:30</t>
+          <t>2019-11-21 15:30</t>
         </is>
       </c>
       <c r="M41" s="26" t="inlineStr">
@@ -3338,7 +3338,7 @@
       </c>
       <c r="H42" s="26" t="inlineStr">
         <is>
-          <t>2019-11-18</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="I42" s="24" t="n">
@@ -3403,25 +3403,25 @@
         <v>34.49</v>
       </c>
       <c r="G43" s="24" t="n">
-        <v>1.511</v>
+        <v>1.5014</v>
       </c>
       <c r="H43" s="26" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I43" s="24" t="n">
-        <v>1.5002</v>
+        <v>1.479</v>
       </c>
       <c r="J43" s="27" t="n">
-        <v>-0.0072</v>
+        <v>-0.0149</v>
       </c>
       <c r="K43" s="8" t="n">
-        <v>-7.44</v>
+        <v>-15.43</v>
       </c>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20 16:00</t>
+          <t>2019-11-21 16:00</t>
         </is>
       </c>
       <c r="M43" s="26" t="inlineStr">
@@ -3472,15 +3472,15 @@
         <v>-253.85</v>
       </c>
       <c r="G44" s="24" t="n">
-        <v>0.378</v>
+        <v>0.367</v>
       </c>
       <c r="H44" s="26" t="inlineStr">
         <is>
-          <t>2019-11-18</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="I44" s="24" t="n">
-        <v>0.3764</v>
+        <v>0.3654</v>
       </c>
       <c r="J44" s="27" t="n">
         <v>-0.0043</v>
@@ -3610,25 +3610,25 @@
         <v>4925.44</v>
       </c>
       <c r="G46" s="30" t="n">
-        <v>1.104</v>
+        <v>1.095</v>
       </c>
       <c r="H46" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I46" s="30" t="n">
-        <v>1.0956</v>
+        <v>1.0942</v>
       </c>
       <c r="J46" s="33" t="n">
-        <v>-0.0076</v>
+        <v>-0.0008</v>
       </c>
       <c r="K46" s="8" t="n">
-        <v>-546.54</v>
+        <v>-52.05</v>
       </c>
       <c r="L46" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M46" s="32" t="inlineStr">
@@ -3679,25 +3679,25 @@
         <v>3772.58</v>
       </c>
       <c r="G47" s="30" t="n">
-        <v>0.9809</v>
+        <v>0.9761</v>
       </c>
       <c r="H47" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I47" s="30" t="n">
-        <v>0.9761</v>
+        <v>0.9705</v>
       </c>
       <c r="J47" s="33" t="n">
-        <v>-0.0048</v>
+        <v>-0.0057</v>
       </c>
       <c r="K47" s="8" t="n">
-        <v>-304.75</v>
+        <v>-355.54</v>
       </c>
       <c r="L47" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M47" s="32" t="inlineStr">
@@ -3748,25 +3748,25 @@
         <v>5297.04</v>
       </c>
       <c r="G48" s="30" t="n">
-        <v>1.156</v>
+        <v>1.1522</v>
       </c>
       <c r="H48" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I48" s="30" t="n">
-        <v>1.1535</v>
+        <v>1.1504</v>
       </c>
       <c r="J48" s="33" t="n">
-        <v>-0.0022</v>
+        <v>-0.0016</v>
       </c>
       <c r="K48" s="8" t="n">
-        <v>-80.93000000000001</v>
+        <v>-58.27</v>
       </c>
       <c r="L48" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M48" s="32" t="inlineStr">
@@ -3817,25 +3817,25 @@
         <v>5947.34</v>
       </c>
       <c r="G49" s="30" t="n">
-        <v>0.8911</v>
+        <v>0.8901</v>
       </c>
       <c r="H49" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I49" s="30" t="n">
-        <v>0.8902</v>
+        <v>0.8802</v>
       </c>
       <c r="J49" s="33" t="n">
-        <v>-0.001</v>
+        <v>-0.0111</v>
       </c>
       <c r="K49" s="8" t="n">
-        <v>-36.91</v>
+        <v>-406.05</v>
       </c>
       <c r="L49" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M49" s="32" t="inlineStr">
@@ -3886,25 +3886,25 @@
         <v>2006.66</v>
       </c>
       <c r="G50" s="30" t="n">
-        <v>1.698</v>
+        <v>1.693</v>
       </c>
       <c r="H50" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I50" s="30" t="n">
-        <v>1.6944</v>
+        <v>1.6893</v>
       </c>
       <c r="J50" s="33" t="n">
-        <v>-0.0021</v>
+        <v>-0.0022</v>
       </c>
       <c r="K50" s="8" t="n">
-        <v>-72.31</v>
+        <v>-74.31999999999999</v>
       </c>
       <c r="L50" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M50" s="32" t="inlineStr">
@@ -4024,25 +4024,25 @@
         <v>4667.36</v>
       </c>
       <c r="G52" s="30" t="n">
-        <v>1.649</v>
+        <v>1.632</v>
       </c>
       <c r="H52" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I52" s="30" t="n">
-        <v>1.6335</v>
+        <v>1.6247</v>
       </c>
       <c r="J52" s="33" t="n">
-        <v>-0.0094</v>
+        <v>-0.0045</v>
       </c>
       <c r="K52" s="8" t="n">
-        <v>-226.68</v>
+        <v>-106.76</v>
       </c>
       <c r="L52" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M52" s="32" t="inlineStr">
@@ -4093,25 +4093,25 @@
         <v>3792.49</v>
       </c>
       <c r="G53" s="30" t="n">
-        <v>1.1016</v>
+        <v>1.0864</v>
       </c>
       <c r="H53" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I53" s="30" t="n">
-        <v>1.0858</v>
+        <v>1.0824</v>
       </c>
       <c r="J53" s="33" t="n">
-        <v>-0.0143</v>
+        <v>-0.0037</v>
       </c>
       <c r="K53" s="8" t="n">
-        <v>-334.39</v>
+        <v>-84.66</v>
       </c>
       <c r="L53" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M53" s="32" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="H54" s="32" t="inlineStr">
         <is>
-          <t>2019-11-18</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="I54" s="30" t="n">
@@ -4231,25 +4231,25 @@
         <v>2495.34</v>
       </c>
       <c r="G55" s="30" t="n">
-        <v>1.614</v>
+        <v>1.605</v>
       </c>
       <c r="H55" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I55" s="30" t="n">
-        <v>1.6051</v>
+        <v>1.6048</v>
       </c>
       <c r="J55" s="33" t="n">
-        <v>-0.0055</v>
+        <v>-0.0001</v>
       </c>
       <c r="K55" s="8" t="n">
-        <v>-84.81999999999999</v>
+        <v>-1.91</v>
       </c>
       <c r="L55" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M55" s="32" t="inlineStr">
@@ -4300,15 +4300,15 @@
         <v>-5522.85</v>
       </c>
       <c r="G56" s="30" t="n">
-        <v>0.378</v>
+        <v>0.367</v>
       </c>
       <c r="H56" s="32" t="inlineStr">
         <is>
-          <t>2019-11-18</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="I56" s="30" t="n">
-        <v>0.3764</v>
+        <v>0.3654</v>
       </c>
       <c r="J56" s="33" t="n">
         <v>-0.0043</v>
@@ -4369,25 +4369,25 @@
         <v>307.29</v>
       </c>
       <c r="G57" s="30" t="n">
-        <v>1.511</v>
+        <v>1.5014</v>
       </c>
       <c r="H57" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I57" s="30" t="n">
-        <v>1.5002</v>
+        <v>1.479</v>
       </c>
       <c r="J57" s="33" t="n">
-        <v>-0.0072</v>
+        <v>-0.0149</v>
       </c>
       <c r="K57" s="8" t="n">
-        <v>-73.42</v>
+        <v>-152.29</v>
       </c>
       <c r="L57" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 16:00</t>
+          <t>2019-11-21 16:00</t>
         </is>
       </c>
       <c r="M57" s="32" t="inlineStr">
@@ -4438,25 +4438,25 @@
         <v>2121.98</v>
       </c>
       <c r="G58" s="30" t="n">
-        <v>1.7879</v>
+        <v>1.7787</v>
       </c>
       <c r="H58" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I58" s="30" t="n">
-        <v>1.7787</v>
+        <v>1.7723</v>
       </c>
       <c r="J58" s="33" t="n">
-        <v>-0.0051</v>
+        <v>-0.0036</v>
       </c>
       <c r="K58" s="8" t="n">
-        <v>-44.08</v>
+        <v>-30.66</v>
       </c>
       <c r="L58" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M58" s="32" t="inlineStr">
@@ -4576,25 +4576,25 @@
         <v>855.98</v>
       </c>
       <c r="G60" s="30" t="n">
-        <v>1.3647</v>
+        <v>1.3617</v>
       </c>
       <c r="H60" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I60" s="30" t="n">
-        <v>1.3604</v>
+        <v>1.3578</v>
       </c>
       <c r="J60" s="33" t="n">
-        <v>-0.0032</v>
+        <v>-0.0028</v>
       </c>
       <c r="K60" s="8" t="n">
-        <v>-22.91</v>
+        <v>-20.78</v>
       </c>
       <c r="L60" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M60" s="32" t="inlineStr">
@@ -4645,25 +4645,25 @@
         <v>823.37</v>
       </c>
       <c r="G61" s="30" t="n">
-        <v>0.5429</v>
+        <v>0.5389</v>
       </c>
       <c r="H61" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I61" s="30" t="n">
-        <v>0.5384</v>
+        <v>0.5392</v>
       </c>
       <c r="J61" s="33" t="n">
-        <v>-0.008399999999999999</v>
-      </c>
-      <c r="K61" s="8" t="n">
-        <v>-60.32</v>
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>4.02</v>
       </c>
       <c r="L61" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M61" s="32" t="inlineStr">
@@ -4714,25 +4714,25 @@
         <v>-242.7</v>
       </c>
       <c r="G62" s="30" t="n">
-        <v>0.8734</v>
+        <v>0.8687</v>
       </c>
       <c r="H62" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I62" s="30" t="n">
         <v>0.8686</v>
       </c>
       <c r="J62" s="33" t="n">
-        <v>-0.0055</v>
+        <v>-0.0001</v>
       </c>
       <c r="K62" s="8" t="n">
-        <v>-37.34</v>
+        <v>-0.78</v>
       </c>
       <c r="L62" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M62" s="32" t="inlineStr">
@@ -4783,25 +4783,25 @@
         <v>-332</v>
       </c>
       <c r="G63" s="30" t="n">
-        <v>0.7785</v>
+        <v>0.7727000000000001</v>
       </c>
       <c r="H63" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I63" s="30" t="n">
-        <v>0.7725</v>
+        <v>0.7719</v>
       </c>
       <c r="J63" s="33" t="n">
-        <v>-0.0077</v>
+        <v>-0.001</v>
       </c>
       <c r="K63" s="8" t="n">
-        <v>-47.12</v>
+        <v>-6.28</v>
       </c>
       <c r="L63" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M63" s="32" t="inlineStr">
@@ -4852,25 +4852,25 @@
         <v>-126.38</v>
       </c>
       <c r="G64" s="30" t="n">
-        <v>0.948</v>
+        <v>0.9423</v>
       </c>
       <c r="H64" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I64" s="30" t="n">
-        <v>0.9435</v>
+        <v>0.9408</v>
       </c>
       <c r="J64" s="33" t="n">
-        <v>-0.0048</v>
+        <v>-0.0016</v>
       </c>
       <c r="K64" s="8" t="n">
-        <v>-16.11</v>
+        <v>-5.37</v>
       </c>
       <c r="L64" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M64" s="32" t="inlineStr">
@@ -4921,25 +4921,25 @@
         <v>6.08</v>
       </c>
       <c r="G65" s="4" t="n">
-        <v>1.449</v>
+        <v>1.432</v>
       </c>
       <c r="H65" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I65" s="4" t="n">
-        <v>1.4318</v>
+        <v>1.4262</v>
       </c>
       <c r="J65" s="7" t="n">
-        <v>-0.0119</v>
+        <v>-0.0041</v>
       </c>
       <c r="K65" s="8" t="n">
-        <v>-17.16</v>
+        <v>-5.79</v>
       </c>
       <c r="L65" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M65" s="6" t="inlineStr">
@@ -4990,25 +4990,25 @@
         <v>-35.77</v>
       </c>
       <c r="G66" s="4" t="n">
-        <v>1.623</v>
+        <v>1.611</v>
       </c>
       <c r="H66" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I66" s="4" t="n">
-        <v>1.6107</v>
+        <v>1.6098</v>
       </c>
       <c r="J66" s="7" t="n">
-        <v>-0.0076</v>
+        <v>-0.0008</v>
       </c>
       <c r="K66" s="8" t="n">
-        <v>-10.41</v>
+        <v>-1.02</v>
       </c>
       <c r="L66" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M66" s="6" t="inlineStr">
@@ -5059,25 +5059,25 @@
         <v>99.09</v>
       </c>
       <c r="G67" s="4" t="n">
-        <v>1.468</v>
+        <v>1.4588</v>
       </c>
       <c r="H67" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I67" s="4" t="n">
-        <v>1.4576</v>
+        <v>1.4373</v>
       </c>
       <c r="J67" s="7" t="n">
-        <v>-0.0071</v>
+        <v>-0.0147</v>
       </c>
       <c r="K67" s="8" t="n">
-        <v>-9.34</v>
+        <v>-19.31</v>
       </c>
       <c r="L67" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 16:00</t>
+          <t>2019-11-21 16:00</t>
         </is>
       </c>
       <c r="M67" s="6" t="inlineStr">
@@ -5128,25 +5128,25 @@
         <v>-20.22</v>
       </c>
       <c r="G68" s="4" t="n">
-        <v>0.9229000000000001</v>
+        <v>0.9177999999999999</v>
       </c>
       <c r="H68" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I68" s="4" t="n">
-        <v>0.9176</v>
+        <v>0.9183</v>
       </c>
       <c r="J68" s="7" t="n">
-        <v>-0.0057</v>
-      </c>
-      <c r="K68" s="8" t="n">
-        <v>-6.83</v>
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="K68" s="9" t="n">
+        <v>0.64</v>
       </c>
       <c r="L68" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M68" s="6" t="inlineStr">
@@ -5197,25 +5197,25 @@
         <v>25.11</v>
       </c>
       <c r="G69" s="4" t="n">
-        <v>1.8662</v>
+        <v>1.8471</v>
       </c>
       <c r="H69" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I69" s="4" t="n">
-        <v>1.8471</v>
+        <v>1.8422</v>
       </c>
       <c r="J69" s="7" t="n">
-        <v>-0.0103</v>
+        <v>-0.0027</v>
       </c>
       <c r="K69" s="8" t="n">
-        <v>-9.039999999999999</v>
+        <v>-2.32</v>
       </c>
       <c r="L69" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M69" s="6" t="inlineStr">
@@ -5266,25 +5266,25 @@
         <v>10.69</v>
       </c>
       <c r="G70" s="4" t="n">
-        <v>2.1688</v>
+        <v>2.1468</v>
       </c>
       <c r="H70" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I70" s="4" t="n">
-        <v>2.1461</v>
+        <v>2.1376</v>
       </c>
       <c r="J70" s="7" t="n">
-        <v>-0.0105</v>
+        <v>-0.0043</v>
       </c>
       <c r="K70" s="8" t="n">
-        <v>-8.65</v>
+        <v>-3.51</v>
       </c>
       <c r="L70" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M70" s="6" t="inlineStr">
@@ -5335,25 +5335,25 @@
         <v>5.09</v>
       </c>
       <c r="G71" s="4" t="n">
-        <v>0.9809</v>
+        <v>0.9761</v>
       </c>
       <c r="H71" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I71" s="4" t="n">
-        <v>0.9761</v>
+        <v>0.9705</v>
       </c>
       <c r="J71" s="7" t="n">
-        <v>-0.0048</v>
+        <v>-0.0057</v>
       </c>
       <c r="K71" s="8" t="n">
-        <v>-1.62</v>
+        <v>-1.89</v>
       </c>
       <c r="L71" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M71" s="6" t="inlineStr">
@@ -5404,25 +5404,25 @@
         <v>-10.9</v>
       </c>
       <c r="G72" s="4" t="n">
-        <v>0.9373</v>
+        <v>0.9322</v>
       </c>
       <c r="H72" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I72" s="4" t="n">
-        <v>0.9304</v>
+        <v>0.93</v>
       </c>
       <c r="J72" s="7" t="n">
-        <v>-0.0074</v>
+        <v>-0.0024</v>
       </c>
       <c r="K72" s="8" t="n">
-        <v>-1.48</v>
+        <v>-0.47</v>
       </c>
       <c r="L72" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M72" s="6" t="inlineStr">
@@ -5473,25 +5473,25 @@
         <v>30.17</v>
       </c>
       <c r="G73" s="4" t="n">
-        <v>0.8114</v>
+        <v>0.8126</v>
       </c>
       <c r="H73" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I73" s="4" t="n">
-        <v>0.8126</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="J73" s="7" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="K73" s="9" t="n">
-        <v>0.26</v>
+        <v>-0.0068</v>
+      </c>
+      <c r="K73" s="8" t="n">
+        <v>-1.19</v>
       </c>
       <c r="L73" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M73" s="6" t="inlineStr">
@@ -5542,25 +5542,25 @@
         <v>2.54</v>
       </c>
       <c r="G74" s="4" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="H74" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I74" s="4" t="n">
-        <v>1.3293</v>
+        <v>1.3188</v>
       </c>
       <c r="J74" s="7" t="n">
-        <v>-0.008</v>
+        <v>-0.008500000000000001</v>
       </c>
       <c r="K74" s="8" t="n">
-        <v>-0.66</v>
+        <v>-0.7</v>
       </c>
       <c r="L74" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M74" s="6" t="inlineStr">
@@ -5611,25 +5611,25 @@
         <v>-2.13</v>
       </c>
       <c r="G75" s="4" t="n">
-        <v>1.4584</v>
+        <v>1.4417</v>
       </c>
       <c r="H75" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I75" s="4" t="n">
-        <v>1.4411</v>
+        <v>1.4358</v>
       </c>
       <c r="J75" s="7" t="n">
-        <v>-0.0119</v>
+        <v>-0.0041</v>
       </c>
       <c r="K75" s="8" t="n">
-        <v>-0.42</v>
+        <v>-0.14</v>
       </c>
       <c r="L75" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M75" s="6" t="inlineStr">
@@ -5680,25 +5680,25 @@
         <v>-42.95</v>
       </c>
       <c r="G76" s="4" t="n">
-        <v>1.623</v>
+        <v>1.611</v>
       </c>
       <c r="H76" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I76" s="4" t="n">
-        <v>1.6107</v>
+        <v>1.6098</v>
       </c>
       <c r="J76" s="7" t="n">
-        <v>-0.0076</v>
+        <v>-0.0008</v>
       </c>
       <c r="K76" s="8" t="n">
-        <v>-10.95</v>
+        <v>-1.07</v>
       </c>
       <c r="L76" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M76" s="6" t="inlineStr">
@@ -5749,25 +5749,25 @@
         <v>7.82</v>
       </c>
       <c r="G77" s="4" t="n">
-        <v>1.449</v>
+        <v>1.432</v>
       </c>
       <c r="H77" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I77" s="4" t="n">
-        <v>1.4318</v>
+        <v>1.4262</v>
       </c>
       <c r="J77" s="7" t="n">
-        <v>-0.0119</v>
+        <v>-0.0041</v>
       </c>
       <c r="K77" s="8" t="n">
-        <v>-16.55</v>
+        <v>-5.58</v>
       </c>
       <c r="L77" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M77" s="6" t="inlineStr">
@@ -5818,25 +5818,25 @@
         <v>98.38</v>
       </c>
       <c r="G78" s="4" t="n">
-        <v>1.468</v>
+        <v>1.4588</v>
       </c>
       <c r="H78" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I78" s="4" t="n">
-        <v>1.4576</v>
+        <v>1.4373</v>
       </c>
       <c r="J78" s="7" t="n">
-        <v>-0.0071</v>
+        <v>-0.0147</v>
       </c>
       <c r="K78" s="8" t="n">
-        <v>-9.529999999999999</v>
+        <v>-19.69</v>
       </c>
       <c r="L78" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 16:00</t>
+          <t>2019-11-21 16:00</t>
         </is>
       </c>
       <c r="M78" s="6" t="inlineStr">
@@ -5887,25 +5887,25 @@
         <v>-21.65</v>
       </c>
       <c r="G79" s="4" t="n">
-        <v>0.9229000000000001</v>
+        <v>0.9177999999999999</v>
       </c>
       <c r="H79" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I79" s="4" t="n">
-        <v>0.9176</v>
+        <v>0.9183</v>
       </c>
       <c r="J79" s="7" t="n">
-        <v>-0.0057</v>
-      </c>
-      <c r="K79" s="8" t="n">
-        <v>-6.75</v>
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="K79" s="9" t="n">
+        <v>0.64</v>
       </c>
       <c r="L79" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M79" s="6" t="inlineStr">
@@ -5956,25 +5956,25 @@
         <v>25.8</v>
       </c>
       <c r="G80" s="4" t="n">
-        <v>1.8662</v>
+        <v>1.8471</v>
       </c>
       <c r="H80" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I80" s="4" t="n">
-        <v>1.8471</v>
+        <v>1.8422</v>
       </c>
       <c r="J80" s="7" t="n">
-        <v>-0.0103</v>
+        <v>-0.0027</v>
       </c>
       <c r="K80" s="8" t="n">
-        <v>-9.369999999999999</v>
+        <v>-2.4</v>
       </c>
       <c r="L80" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M80" s="6" t="inlineStr">
@@ -6025,25 +6025,25 @@
         <v>10.07</v>
       </c>
       <c r="G81" s="4" t="n">
-        <v>2.1688</v>
+        <v>2.1468</v>
       </c>
       <c r="H81" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I81" s="4" t="n">
-        <v>2.1461</v>
+        <v>2.1376</v>
       </c>
       <c r="J81" s="7" t="n">
-        <v>-0.0105</v>
+        <v>-0.0043</v>
       </c>
       <c r="K81" s="8" t="n">
-        <v>-8.07</v>
+        <v>-3.27</v>
       </c>
       <c r="L81" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M81" s="6" t="inlineStr">
@@ -6094,25 +6094,25 @@
         <v>4.89</v>
       </c>
       <c r="G82" s="4" t="n">
-        <v>0.9809</v>
+        <v>0.9761</v>
       </c>
       <c r="H82" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I82" s="4" t="n">
-        <v>0.9761</v>
+        <v>0.9705</v>
       </c>
       <c r="J82" s="7" t="n">
-        <v>-0.0048</v>
+        <v>-0.0057</v>
       </c>
       <c r="K82" s="8" t="n">
-        <v>-1.53</v>
+        <v>-1.79</v>
       </c>
       <c r="L82" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M82" s="6" t="inlineStr">
@@ -6163,25 +6163,25 @@
         <v>-11.42</v>
       </c>
       <c r="G83" s="4" t="n">
-        <v>0.9373</v>
+        <v>0.9322</v>
       </c>
       <c r="H83" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I83" s="4" t="n">
-        <v>0.9304</v>
+        <v>0.93</v>
       </c>
       <c r="J83" s="7" t="n">
-        <v>-0.0074</v>
+        <v>-0.0024</v>
       </c>
       <c r="K83" s="8" t="n">
-        <v>-1.57</v>
+        <v>-0.5</v>
       </c>
       <c r="L83" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M83" s="6" t="inlineStr">
@@ -6232,25 +6232,25 @@
         <v>6.54</v>
       </c>
       <c r="G84" s="4" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="H84" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I84" s="4" t="n">
-        <v>1.3293</v>
+        <v>1.3188</v>
       </c>
       <c r="J84" s="7" t="n">
-        <v>-0.008</v>
+        <v>-0.008500000000000001</v>
       </c>
       <c r="K84" s="8" t="n">
-        <v>-1.52</v>
+        <v>-1.59</v>
       </c>
       <c r="L84" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M84" s="6" t="inlineStr">
@@ -6301,25 +6301,25 @@
         <v>30.17</v>
       </c>
       <c r="G85" s="4" t="n">
-        <v>0.8114</v>
+        <v>0.8126</v>
       </c>
       <c r="H85" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I85" s="4" t="n">
-        <v>0.8126</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="J85" s="7" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="K85" s="9" t="n">
-        <v>0.26</v>
+        <v>-0.0068</v>
+      </c>
+      <c r="K85" s="8" t="n">
+        <v>-1.19</v>
       </c>
       <c r="L85" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M85" s="6" t="inlineStr">
@@ -6370,25 +6370,25 @@
         <v>-2.13</v>
       </c>
       <c r="G86" s="4" t="n">
-        <v>1.4584</v>
+        <v>1.4417</v>
       </c>
       <c r="H86" s="6" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I86" s="4" t="n">
-        <v>1.4411</v>
+        <v>1.4358</v>
       </c>
       <c r="J86" s="7" t="n">
-        <v>-0.0119</v>
+        <v>-0.0041</v>
       </c>
       <c r="K86" s="8" t="n">
-        <v>-0.42</v>
+        <v>-0.14</v>
       </c>
       <c r="L86" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M86" s="6" t="inlineStr">
@@ -6439,25 +6439,25 @@
         <v>344.16</v>
       </c>
       <c r="G87" s="30" t="n">
-        <v>1.0931</v>
+        <v>1.0873</v>
       </c>
       <c r="H87" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I87" s="30" t="n">
-        <v>1.0871</v>
+        <v>1.0872</v>
       </c>
       <c r="J87" s="33" t="n">
-        <v>-0.0055</v>
+        <v>-0.0001</v>
       </c>
       <c r="K87" s="8" t="n">
-        <v>-58.19</v>
+        <v>-0.97</v>
       </c>
       <c r="L87" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M87" s="32" t="inlineStr">
@@ -6508,25 +6508,25 @@
         <v>701.97</v>
       </c>
       <c r="G88" s="30" t="n">
-        <v>1.104</v>
+        <v>1.095</v>
       </c>
       <c r="H88" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I88" s="30" t="n">
-        <v>1.0956</v>
+        <v>1.0942</v>
       </c>
       <c r="J88" s="33" t="n">
-        <v>-0.0076</v>
+        <v>-0.0008</v>
       </c>
       <c r="K88" s="8" t="n">
-        <v>-72.89</v>
+        <v>-6.94</v>
       </c>
       <c r="L88" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M88" s="32" t="inlineStr">
@@ -6577,25 +6577,25 @@
         <v>1208.42</v>
       </c>
       <c r="G89" s="30" t="n">
-        <v>0.8911</v>
+        <v>0.8901</v>
       </c>
       <c r="H89" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I89" s="30" t="n">
-        <v>0.8902</v>
+        <v>0.8802</v>
       </c>
       <c r="J89" s="33" t="n">
-        <v>-0.001</v>
+        <v>-0.0111</v>
       </c>
       <c r="K89" s="8" t="n">
-        <v>-6.08</v>
+        <v>-66.83</v>
       </c>
       <c r="L89" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M89" s="32" t="inlineStr">
@@ -6646,25 +6646,25 @@
         <v>750.51</v>
       </c>
       <c r="G90" s="30" t="n">
-        <v>0.9809</v>
+        <v>0.9761</v>
       </c>
       <c r="H90" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I90" s="30" t="n">
-        <v>0.9761</v>
+        <v>0.9705</v>
       </c>
       <c r="J90" s="33" t="n">
-        <v>-0.0048</v>
+        <v>-0.0057</v>
       </c>
       <c r="K90" s="8" t="n">
-        <v>-29.26</v>
+        <v>-34.14</v>
       </c>
       <c r="L90" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M90" s="32" t="inlineStr">
@@ -6715,25 +6715,25 @@
         <v>904.51</v>
       </c>
       <c r="G91" s="30" t="n">
-        <v>1.649</v>
+        <v>1.632</v>
       </c>
       <c r="H91" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I91" s="30" t="n">
-        <v>1.6335</v>
+        <v>1.6247</v>
       </c>
       <c r="J91" s="33" t="n">
-        <v>-0.0094</v>
+        <v>-0.0045</v>
       </c>
       <c r="K91" s="8" t="n">
-        <v>-42.78</v>
+        <v>-20.15</v>
       </c>
       <c r="L91" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M91" s="32" t="inlineStr">
@@ -6784,25 +6784,25 @@
         <v>218.02</v>
       </c>
       <c r="G92" s="30" t="n">
-        <v>0.7785</v>
+        <v>0.7727000000000001</v>
       </c>
       <c r="H92" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I92" s="30" t="n">
-        <v>0.7725</v>
+        <v>0.7719</v>
       </c>
       <c r="J92" s="33" t="n">
-        <v>-0.0077</v>
+        <v>-0.001</v>
       </c>
       <c r="K92" s="8" t="n">
-        <v>-26.54</v>
+        <v>-3.54</v>
       </c>
       <c r="L92" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M92" s="32" t="inlineStr">
@@ -6853,25 +6853,25 @@
         <v>573.27</v>
       </c>
       <c r="G93" s="30" t="n">
-        <v>1.614</v>
+        <v>1.605</v>
       </c>
       <c r="H93" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I93" s="30" t="n">
-        <v>1.6051</v>
+        <v>1.6048</v>
       </c>
       <c r="J93" s="33" t="n">
-        <v>-0.0055</v>
+        <v>-0.0001</v>
       </c>
       <c r="K93" s="8" t="n">
-        <v>-18.22</v>
+        <v>-0.41</v>
       </c>
       <c r="L93" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M93" s="32" t="inlineStr">
@@ -6922,25 +6922,25 @@
         <v>6.33</v>
       </c>
       <c r="G94" s="30" t="n">
-        <v>0.5429</v>
+        <v>0.5389</v>
       </c>
       <c r="H94" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I94" s="30" t="n">
-        <v>0.5384</v>
+        <v>0.5392</v>
       </c>
       <c r="J94" s="33" t="n">
-        <v>-0.008399999999999999</v>
-      </c>
-      <c r="K94" s="8" t="n">
-        <v>-26.77</v>
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="K94" s="9" t="n">
+        <v>1.78</v>
       </c>
       <c r="L94" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M94" s="32" t="inlineStr">
@@ -6991,25 +6991,25 @@
         <v>160.99</v>
       </c>
       <c r="G95" s="30" t="n">
-        <v>1.698</v>
+        <v>1.693</v>
       </c>
       <c r="H95" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I95" s="30" t="n">
-        <v>1.6944</v>
+        <v>1.6893</v>
       </c>
       <c r="J95" s="33" t="n">
-        <v>-0.0021</v>
+        <v>-0.0022</v>
       </c>
       <c r="K95" s="8" t="n">
-        <v>-6.28</v>
+        <v>-6.45</v>
       </c>
       <c r="L95" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M95" s="32" t="inlineStr">
@@ -7129,25 +7129,25 @@
         <v>557.72</v>
       </c>
       <c r="G97" s="30" t="n">
-        <v>1.7879</v>
+        <v>1.7787</v>
       </c>
       <c r="H97" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I97" s="30" t="n">
-        <v>1.7787</v>
+        <v>1.7723</v>
       </c>
       <c r="J97" s="33" t="n">
-        <v>-0.0051</v>
+        <v>-0.0036</v>
       </c>
       <c r="K97" s="8" t="n">
-        <v>-11.16</v>
+        <v>-7.76</v>
       </c>
       <c r="L97" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M97" s="32" t="inlineStr">
@@ -7198,25 +7198,25 @@
         <v>278.17</v>
       </c>
       <c r="G98" s="30" t="n">
-        <v>1.156</v>
+        <v>1.1522</v>
       </c>
       <c r="H98" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I98" s="30" t="n">
-        <v>1.1535</v>
+        <v>1.1504</v>
       </c>
       <c r="J98" s="33" t="n">
-        <v>-0.0022</v>
+        <v>-0.0016</v>
       </c>
       <c r="K98" s="8" t="n">
-        <v>-4.08</v>
+        <v>-2.93</v>
       </c>
       <c r="L98" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M98" s="32" t="inlineStr">
@@ -7271,7 +7271,7 @@
       </c>
       <c r="H99" s="32" t="inlineStr">
         <is>
-          <t>2019-11-18</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="I99" s="30" t="n">
@@ -7336,25 +7336,25 @@
         <v>159.87</v>
       </c>
       <c r="G100" s="30" t="n">
-        <v>1.027</v>
+        <v>1.016</v>
       </c>
       <c r="H100" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I100" s="30" t="n">
-        <v>1.0164</v>
+        <v>1.0099</v>
       </c>
       <c r="J100" s="33" t="n">
-        <v>-0.0104</v>
+        <v>-0.006</v>
       </c>
       <c r="K100" s="8" t="n">
-        <v>-14.19</v>
+        <v>-8.16</v>
       </c>
       <c r="L100" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M100" s="32" t="inlineStr">
@@ -7405,15 +7405,15 @@
         <v>-370.3</v>
       </c>
       <c r="G101" s="30" t="n">
-        <v>0.378</v>
+        <v>0.367</v>
       </c>
       <c r="H101" s="32" t="inlineStr">
         <is>
-          <t>2019-11-18</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="I101" s="30" t="n">
-        <v>0.3764</v>
+        <v>0.3654</v>
       </c>
       <c r="J101" s="33" t="n">
         <v>-0.0043</v>
@@ -7474,25 +7474,25 @@
         <v>6.33</v>
       </c>
       <c r="G102" s="30" t="n">
-        <v>0.8106</v>
+        <v>0.8069</v>
       </c>
       <c r="H102" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I102" s="30" t="n">
-        <v>0.8067</v>
+        <v>0.8056</v>
       </c>
       <c r="J102" s="33" t="n">
-        <v>-0.0048</v>
+        <v>-0.0016</v>
       </c>
       <c r="K102" s="8" t="n">
-        <v>-5.83</v>
+        <v>-1.94</v>
       </c>
       <c r="L102" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M102" s="32" t="inlineStr">
@@ -7543,25 +7543,25 @@
         <v>178.14</v>
       </c>
       <c r="G103" s="30" t="n">
-        <v>1.1016</v>
+        <v>1.0864</v>
       </c>
       <c r="H103" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I103" s="30" t="n">
-        <v>1.0858</v>
+        <v>1.0824</v>
       </c>
       <c r="J103" s="33" t="n">
-        <v>-0.0143</v>
+        <v>-0.0037</v>
       </c>
       <c r="K103" s="8" t="n">
-        <v>-14.23</v>
+        <v>-3.6</v>
       </c>
       <c r="L103" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M103" s="32" t="inlineStr">
@@ -7612,25 +7612,25 @@
         <v>95.73</v>
       </c>
       <c r="G104" s="30" t="n">
-        <v>1.2165</v>
+        <v>1.2207</v>
       </c>
       <c r="H104" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I104" s="30" t="n">
-        <v>1.2137</v>
+        <v>1.2201</v>
       </c>
       <c r="J104" s="33" t="n">
-        <v>-0.0023</v>
+        <v>-0.0005</v>
       </c>
       <c r="K104" s="8" t="n">
-        <v>-2.05</v>
+        <v>-0.44</v>
       </c>
       <c r="L104" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 02:30</t>
+          <t>2019-11-21 15:30</t>
         </is>
       </c>
       <c r="M104" s="32" t="inlineStr">
@@ -7681,25 +7681,25 @@
         <v>79.7</v>
       </c>
       <c r="G105" s="30" t="n">
-        <v>0.9817</v>
+        <v>0.9669</v>
       </c>
       <c r="H105" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I105" s="30" t="n">
-        <v>0.9666</v>
+        <v>0.9674</v>
       </c>
       <c r="J105" s="33" t="n">
-        <v>-0.0154</v>
-      </c>
-      <c r="K105" s="8" t="n">
-        <v>-7.49</v>
+        <v>0.0005</v>
+      </c>
+      <c r="K105" s="9" t="n">
+        <v>0.25</v>
       </c>
       <c r="L105" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M105" s="32" t="inlineStr">
@@ -7750,25 +7750,25 @@
         <v>75.97</v>
       </c>
       <c r="G106" s="30" t="n">
-        <v>0.9715</v>
+        <v>0.9663</v>
       </c>
       <c r="H106" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I106" s="30" t="n">
-        <v>0.9665</v>
+        <v>0.9628</v>
       </c>
       <c r="J106" s="33" t="n">
-        <v>-0.0051</v>
+        <v>-0.0036</v>
       </c>
       <c r="K106" s="8" t="n">
-        <v>-2.46</v>
+        <v>-1.72</v>
       </c>
       <c r="L106" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M106" s="32" t="inlineStr">
@@ -7819,25 +7819,25 @@
         <v>53.5</v>
       </c>
       <c r="G107" s="30" t="n">
-        <v>1.3647</v>
+        <v>1.3617</v>
       </c>
       <c r="H107" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I107" s="30" t="n">
-        <v>1.3604</v>
+        <v>1.3578</v>
       </c>
       <c r="J107" s="33" t="n">
-        <v>-0.0032</v>
+        <v>-0.0028</v>
       </c>
       <c r="K107" s="8" t="n">
-        <v>-1.43</v>
+        <v>-1.3</v>
       </c>
       <c r="L107" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M107" s="32" t="inlineStr">
@@ -7888,25 +7888,25 @@
         <v>26.22</v>
       </c>
       <c r="G108" s="30" t="n">
-        <v>1.322</v>
+        <v>1.309</v>
       </c>
       <c r="H108" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I108" s="30" t="n">
-        <v>1.3096</v>
+        <v>1.3032</v>
       </c>
       <c r="J108" s="33" t="n">
-        <v>-0.0094</v>
+        <v>-0.0045</v>
       </c>
       <c r="K108" s="8" t="n">
-        <v>-4.04</v>
+        <v>-1.89</v>
       </c>
       <c r="L108" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M108" s="32" t="inlineStr">
@@ -7957,25 +7957,25 @@
         <v>13.62</v>
       </c>
       <c r="G109" s="30" t="n">
-        <v>1.511</v>
+        <v>1.5014</v>
       </c>
       <c r="H109" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I109" s="30" t="n">
-        <v>1.5002</v>
+        <v>1.479</v>
       </c>
       <c r="J109" s="33" t="n">
-        <v>-0.0072</v>
+        <v>-0.0149</v>
       </c>
       <c r="K109" s="8" t="n">
-        <v>-2.98</v>
+        <v>-6.17</v>
       </c>
       <c r="L109" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 16:00</t>
+          <t>2019-11-21 16:00</t>
         </is>
       </c>
       <c r="M109" s="32" t="inlineStr">
@@ -8026,25 +8026,25 @@
         <v>10.96</v>
       </c>
       <c r="G110" s="30" t="n">
-        <v>0.8734</v>
+        <v>0.8687</v>
       </c>
       <c r="H110" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="I110" s="30" t="n">
         <v>0.8686</v>
       </c>
       <c r="J110" s="33" t="n">
-        <v>-0.0055</v>
+        <v>-0.0001</v>
       </c>
       <c r="K110" s="8" t="n">
-        <v>-1.32</v>
+        <v>-0.03</v>
       </c>
       <c r="L110" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20 15:00</t>
+          <t>2019-11-21 15:00</t>
         </is>
       </c>
       <c r="M110" s="32" t="inlineStr">
@@ -8074,6 +8074,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Portfolio/scripts/output/201911/全家/全家整体收益估算.xlsx
+++ b/Portfolio/scripts/output/201911/全家/全家整体收益估算.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="基金估算情况" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="000000"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt formatCode="000000" numFmtId="164"/>
+    <numFmt formatCode="0.0000" numFmtId="165"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -93,60 +93,60 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -447,22 +447,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="29.25" customWidth="1" min="1" max="1"/>
-    <col width="9.600000000000001" customWidth="1" min="2" max="2"/>
-    <col width="9.600000000000001" customWidth="1" min="3" max="3"/>
-    <col width="9.600000000000001" customWidth="1" min="4" max="4"/>
-    <col width="9.600000000000001" customWidth="1" min="5" max="5"/>
-    <col width="9.600000000000001" customWidth="1" min="6" max="6"/>
-    <col width="9.600000000000001" customWidth="1" min="7" max="7"/>
-    <col width="9.600000000000001" customWidth="1" min="8" max="8"/>
-    <col width="9.600000000000001" customWidth="1" min="9" max="9"/>
-    <col width="12" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="12.8" customWidth="1" min="12" max="12"/>
-    <col width="9.600000000000001" customWidth="1" min="13" max="13"/>
-    <col width="9.600000000000001" customWidth="1" min="14" max="14"/>
-    <col width="12" customWidth="1" min="15" max="15"/>
-    <col width="16" customWidth="1" min="17" max="17"/>
+    <col customWidth="1" max="1" min="1" width="29.25"/>
+    <col customWidth="1" max="2" min="2" width="9.600000000000001"/>
+    <col customWidth="1" max="3" min="3" width="9.600000000000001"/>
+    <col customWidth="1" max="4" min="4" width="9.600000000000001"/>
+    <col customWidth="1" max="5" min="5" width="9.600000000000001"/>
+    <col customWidth="1" max="6" min="6" width="9.600000000000001"/>
+    <col customWidth="1" max="7" min="7" width="9.600000000000001"/>
+    <col customWidth="1" max="8" min="8" width="9.600000000000001"/>
+    <col customWidth="1" max="9" min="9" width="9.600000000000001"/>
+    <col customWidth="1" max="10" min="10" width="12"/>
+    <col customWidth="1" max="11" min="11" width="12"/>
+    <col customWidth="1" max="12" min="12" width="12.8"/>
+    <col customWidth="1" max="13" min="13" width="9.600000000000001"/>
+    <col customWidth="1" max="14" min="14" width="9.600000000000001"/>
+    <col customWidth="1" max="15" min="15" width="12"/>
+    <col customWidth="1" max="17" min="17" width="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -568,31 +568,31 @@
         <v>2211.21</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>3562.26</v>
+        <v>3546.78</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>-93.93000000000001</v>
+        <v>-109.41</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.611</v>
+        <v>1.61</v>
       </c>
       <c r="H2" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.6098</v>
+        <v>1.6043</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>-0.0008</v>
+        <v>-0.0035</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>-2.65</v>
+        <v>-12.6</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -637,31 +637,31 @@
         <v>2462.53</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>3526.34</v>
+        <v>3499.26</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>15.2</v>
+        <v>-11.88</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.432</v>
+        <v>1.425</v>
       </c>
       <c r="H3" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.4262</v>
+        <v>1.4212</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>-0.0041</v>
+        <v>-0.0027</v>
       </c>
       <c r="K3" s="8" t="n">
-        <v>-14.28</v>
+        <v>-9.359999999999999</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
@@ -706,31 +706,31 @@
         <v>2260.14</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3297.09</v>
+        <v>3269.52</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>250.15</v>
+        <v>222.58</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.4588</v>
+        <v>1.4466</v>
       </c>
       <c r="H4" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.4373</v>
+        <v>1.4532</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>-0.0147</v>
-      </c>
-      <c r="K4" s="8" t="n">
-        <v>-48.59</v>
+        <v>0.0045</v>
+      </c>
+      <c r="K4" s="9" t="n">
+        <v>14.92</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21 16:00</t>
+          <t>2019-11-22 16:00</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
@@ -775,31 +775,31 @@
         <v>3272.2</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3003.23</v>
+        <v>2985.56</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-54.33</v>
+        <v>-72</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.9177999999999999</v>
+        <v>0.9183</v>
       </c>
       <c r="H5" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.9183</v>
+        <v>0.9124</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="K5" s="9" t="n">
-        <v>1.64</v>
+        <v>-0.0065</v>
+      </c>
+      <c r="K5" s="8" t="n">
+        <v>-19.31</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
@@ -844,31 +844,31 @@
         <v>1266.95</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2340.18</v>
+        <v>2311.93</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>67.09999999999999</v>
+        <v>38.85</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.8471</v>
+        <v>1.8422</v>
       </c>
       <c r="H6" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.8422</v>
+        <v>1.8247</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>-0.0027</v>
+        <v>-0.0095</v>
       </c>
       <c r="K6" s="8" t="n">
-        <v>-6.21</v>
+        <v>-22.17</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
@@ -913,31 +913,31 @@
         <v>930.7</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1998.03</v>
+        <v>1973.83</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25.27</v>
+        <v>1.07</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>2.1468</v>
+        <v>2.1379</v>
       </c>
       <c r="H7" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>2.1376</v>
+        <v>2.1202</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>-0.0043</v>
+        <v>-0.0083</v>
       </c>
       <c r="K7" s="8" t="n">
-        <v>-8.56</v>
+        <v>-16.47</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -982,31 +982,31 @@
         <v>797.84</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>778.77</v>
+        <v>762.58</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12.2</v>
+        <v>-3.99</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>0.9761</v>
+        <v>0.9702</v>
       </c>
       <c r="H8" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.9705</v>
+        <v>0.9556</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>-0.0057</v>
+        <v>-0.015</v>
       </c>
       <c r="K8" s="8" t="n">
-        <v>-4.47</v>
+        <v>-11.65</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -1051,31 +1051,31 @@
         <v>550.4</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>513.08</v>
+        <v>512.48</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-27.81</v>
+        <v>-28.41</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>0.9322</v>
+        <v>0.9334</v>
       </c>
       <c r="H9" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.93</v>
+        <v>0.9278</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>-0.0024</v>
+        <v>-0.006</v>
       </c>
       <c r="K9" s="8" t="n">
-        <v>-1.21</v>
+        <v>-3.08</v>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M9" s="6" t="inlineStr">
@@ -1120,31 +1120,31 @@
         <v>531.87</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>432.2</v>
+        <v>415.39</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>75.42</v>
+        <v>58.61</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>0.8126</v>
+        <v>0.8068</v>
       </c>
       <c r="H10" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.7812</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>-0.0068</v>
+        <v>-0.0317</v>
       </c>
       <c r="K10" s="8" t="n">
-        <v>-2.98</v>
+        <v>-13.62</v>
       </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M10" s="6" t="inlineStr">
@@ -1189,31 +1189,31 @@
         <v>247.91</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>329.72</v>
+        <v>325.75</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>16.46</v>
+        <v>12.49</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="H11" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1.3188</v>
+        <v>1.311</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>-0.008500000000000001</v>
+        <v>-0.0068</v>
       </c>
       <c r="K11" s="8" t="n">
-        <v>-2.78</v>
+        <v>-2.23</v>
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M11" s="6" t="inlineStr">
@@ -1258,31 +1258,31 @@
         <v>60.61</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>87.38</v>
+        <v>86.81</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-5.33</v>
+        <v>-5.9</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>1.4417</v>
+        <v>1.4361</v>
       </c>
       <c r="H12" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I12" s="4" t="n">
-        <v>1.4358</v>
+        <v>1.4323</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>-0.0041</v>
+        <v>-0.0027</v>
       </c>
       <c r="K12" s="8" t="n">
-        <v>-0.36</v>
+        <v>-0.23</v>
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M12" s="6" t="inlineStr">
@@ -1327,31 +1327,31 @@
         <v>16731.88</v>
       </c>
       <c r="E13" s="13" t="n">
-        <v>9016.809999999999</v>
+        <v>9011.790000000001</v>
       </c>
       <c r="F13" s="13" t="n">
-        <v>-2983.19</v>
+        <v>-2988.21</v>
       </c>
       <c r="G13" s="12" t="n">
         <v>0.5389</v>
       </c>
       <c r="H13" s="14" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I13" s="12" t="n">
-        <v>0.5392</v>
+        <v>0.5386</v>
       </c>
       <c r="J13" s="15" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="K13" s="9" t="n">
-        <v>5.02</v>
+        <v>-0.0005999999999999999</v>
+      </c>
+      <c r="K13" s="8" t="n">
+        <v>-5.02</v>
       </c>
       <c r="L13" s="14" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M13" s="14" t="inlineStr">
@@ -1396,31 +1396,31 @@
         <v>2700</v>
       </c>
       <c r="E14" s="19" t="n">
-        <v>8086.5</v>
+        <v>8010.9</v>
       </c>
       <c r="F14" s="19" t="n">
-        <v>1776.6</v>
+        <v>1701</v>
       </c>
       <c r="G14" s="18" t="n">
-        <v>3.013</v>
+        <v>2.995</v>
       </c>
       <c r="H14" s="20" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="I14" s="18" t="n">
-        <v>2.995</v>
+        <v>2.967</v>
       </c>
       <c r="J14" s="21" t="n">
-        <v>-0.006</v>
+        <v>-0.009299999999999999</v>
       </c>
       <c r="K14" s="8" t="n">
-        <v>-48.6</v>
+        <v>-75.59999999999999</v>
       </c>
       <c r="L14" s="20" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M14" s="20" t="inlineStr">
@@ -1465,31 +1465,31 @@
         <v>9100</v>
       </c>
       <c r="E15" s="19" t="n">
-        <v>35945</v>
+        <v>35562.8</v>
       </c>
       <c r="F15" s="19" t="n">
-        <v>4577.3</v>
+        <v>4195.1</v>
       </c>
       <c r="G15" s="18" t="n">
-        <v>3.97</v>
+        <v>3.95</v>
       </c>
       <c r="H15" s="20" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="I15" s="18" t="n">
-        <v>3.95</v>
+        <v>3.908</v>
       </c>
       <c r="J15" s="21" t="n">
-        <v>-0.005</v>
+        <v>-0.0106</v>
       </c>
       <c r="K15" s="8" t="n">
-        <v>-182</v>
+        <v>-382.2</v>
       </c>
       <c r="L15" s="20" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M15" s="20" t="inlineStr">
@@ -1534,31 +1534,31 @@
         <v>38800</v>
       </c>
       <c r="E16" s="19" t="n">
-        <v>207386</v>
+        <v>205252</v>
       </c>
       <c r="F16" s="19" t="n">
-        <v>-9932.799999999999</v>
+        <v>-12066.8</v>
       </c>
       <c r="G16" s="18" t="n">
-        <v>5.337</v>
+        <v>5.345</v>
       </c>
       <c r="H16" s="20" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="I16" s="18" t="n">
-        <v>5.345</v>
+        <v>5.29</v>
       </c>
       <c r="J16" s="21" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="K16" s="9" t="n">
-        <v>310.4</v>
+        <v>-0.0103</v>
+      </c>
+      <c r="K16" s="8" t="n">
+        <v>-2134</v>
       </c>
       <c r="L16" s="20" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M16" s="20" t="inlineStr">
@@ -1603,31 +1603,31 @@
         <v>33800</v>
       </c>
       <c r="E17" s="19" t="n">
-        <v>24200.8</v>
+        <v>24167</v>
       </c>
       <c r="F17" s="19" t="n">
-        <v>-5441.8</v>
+        <v>-5475.6</v>
       </c>
       <c r="G17" s="18" t="n">
         <v>0.716</v>
       </c>
       <c r="H17" s="20" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="I17" s="18" t="n">
-        <v>0.716</v>
+        <v>0.715</v>
       </c>
       <c r="J17" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="9" t="n">
-        <v>0</v>
+        <v>-0.0014</v>
+      </c>
+      <c r="K17" s="8" t="n">
+        <v>-33.8</v>
       </c>
       <c r="L17" s="20" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M17" s="20" t="inlineStr">
@@ -1672,31 +1672,31 @@
         <v>32700</v>
       </c>
       <c r="E18" s="19" t="n">
-        <v>29430</v>
+        <v>29397.3</v>
       </c>
       <c r="F18" s="19" t="n">
-        <v>3825.9</v>
+        <v>3793.2</v>
       </c>
       <c r="G18" s="18" t="n">
         <v>0.9</v>
       </c>
       <c r="H18" s="20" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="I18" s="18" t="n">
-        <v>0.9</v>
+        <v>0.899</v>
       </c>
       <c r="J18" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="9" t="n">
-        <v>0</v>
+        <v>-0.0011</v>
+      </c>
+      <c r="K18" s="8" t="n">
+        <v>-32.7</v>
       </c>
       <c r="L18" s="20" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M18" s="20" t="inlineStr">
@@ -1741,31 +1741,31 @@
         <v>34100</v>
       </c>
       <c r="E19" s="19" t="n">
-        <v>26188.8</v>
+        <v>26052.4</v>
       </c>
       <c r="F19" s="19" t="n">
-        <v>-3444.1</v>
+        <v>-3580.5</v>
       </c>
       <c r="G19" s="18" t="n">
         <v>0.768</v>
       </c>
       <c r="H19" s="20" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="I19" s="18" t="n">
-        <v>0.768</v>
+        <v>0.764</v>
       </c>
       <c r="J19" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="9" t="n">
-        <v>0</v>
+        <v>-0.0052</v>
+      </c>
+      <c r="K19" s="8" t="n">
+        <v>-136.4</v>
       </c>
       <c r="L19" s="20" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M19" s="20" t="inlineStr">
@@ -1810,21 +1810,21 @@
         <v>4500</v>
       </c>
       <c r="E20" s="19" t="n">
-        <v>14823</v>
+        <v>14791.5</v>
       </c>
       <c r="F20" s="19" t="n">
-        <v>1971</v>
+        <v>1939.5</v>
       </c>
       <c r="G20" s="18" t="n">
-        <v>3.301</v>
+        <v>3.294</v>
       </c>
       <c r="H20" s="20" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="I20" s="18" t="n">
-        <v>3.294</v>
+        <v>3.287</v>
       </c>
       <c r="J20" s="21" t="n">
         <v>-0.0021</v>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="L20" s="20" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M20" s="20" t="inlineStr">
@@ -1879,31 +1879,31 @@
         <v>9200</v>
       </c>
       <c r="E21" s="19" t="n">
-        <v>15180</v>
+        <v>14848.8</v>
       </c>
       <c r="F21" s="19" t="n">
-        <v>2309.2</v>
+        <v>1978</v>
       </c>
       <c r="G21" s="18" t="n">
-        <v>1.655</v>
+        <v>1.65</v>
       </c>
       <c r="H21" s="20" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="I21" s="18" t="n">
-        <v>1.65</v>
+        <v>1.614</v>
       </c>
       <c r="J21" s="21" t="n">
-        <v>-0.003</v>
+        <v>-0.0218</v>
       </c>
       <c r="K21" s="8" t="n">
-        <v>-46</v>
+        <v>-331.2</v>
       </c>
       <c r="L21" s="20" t="inlineStr">
         <is>
-          <t>2019-11-21 15:04</t>
+          <t>2019-11-22 15:04</t>
         </is>
       </c>
       <c r="M21" s="20" t="inlineStr">
@@ -1948,31 +1948,31 @@
         <v>14400</v>
       </c>
       <c r="E22" s="19" t="n">
-        <v>20361.6</v>
+        <v>19713.6</v>
       </c>
       <c r="F22" s="19" t="n">
-        <v>2059.2</v>
+        <v>1411.2</v>
       </c>
       <c r="G22" s="18" t="n">
-        <v>1.431</v>
+        <v>1.414</v>
       </c>
       <c r="H22" s="20" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="I22" s="18" t="n">
-        <v>1.414</v>
+        <v>1.369</v>
       </c>
       <c r="J22" s="21" t="n">
-        <v>-0.0119</v>
+        <v>-0.0318</v>
       </c>
       <c r="K22" s="8" t="n">
-        <v>-244.8</v>
+        <v>-648</v>
       </c>
       <c r="L22" s="20" t="inlineStr">
         <is>
-          <t>2019-11-21 15:04</t>
+          <t>2019-11-22 15:04</t>
         </is>
       </c>
       <c r="M22" s="20" t="inlineStr">
@@ -2017,31 +2017,31 @@
         <v>3813.64</v>
       </c>
       <c r="E23" s="25" t="n">
-        <v>7443.84</v>
+        <v>7382.44</v>
       </c>
       <c r="F23" s="25" t="n">
-        <v>106.84</v>
+        <v>45.44</v>
       </c>
       <c r="G23" s="24" t="n">
         <v>1.9519</v>
       </c>
       <c r="H23" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I23" s="24" t="n">
-        <v>1.9517</v>
+        <v>1.9363</v>
       </c>
       <c r="J23" s="27" t="n">
-        <v>-0.0001</v>
+        <v>-0.008</v>
       </c>
       <c r="K23" s="8" t="n">
-        <v>-0.76</v>
+        <v>-59.49</v>
       </c>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M23" s="26" t="inlineStr">
@@ -2086,31 +2086,31 @@
         <v>9722</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>5239.19</v>
+        <v>5236.27</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>-96.81</v>
+        <v>-99.73</v>
       </c>
       <c r="G24" s="24" t="n">
         <v>0.5389</v>
       </c>
       <c r="H24" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I24" s="24" t="n">
-        <v>0.5392</v>
+        <v>0.5386</v>
       </c>
       <c r="J24" s="27" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="K24" s="9" t="n">
-        <v>2.92</v>
+        <v>-0.0005999999999999999</v>
+      </c>
+      <c r="K24" s="8" t="n">
+        <v>-2.92</v>
       </c>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M24" s="26" t="inlineStr">
@@ -2155,31 +2155,31 @@
         <v>4943.96</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>4825.8</v>
+        <v>4725.44</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>156.8</v>
+        <v>56.44</v>
       </c>
       <c r="G25" s="24" t="n">
-        <v>0.9761</v>
+        <v>0.9702</v>
       </c>
       <c r="H25" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I25" s="24" t="n">
-        <v>0.9705</v>
+        <v>0.9556</v>
       </c>
       <c r="J25" s="27" t="n">
-        <v>-0.0057</v>
+        <v>-0.015</v>
       </c>
       <c r="K25" s="8" t="n">
-        <v>-27.69</v>
+        <v>-72.18000000000001</v>
       </c>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M25" s="26" t="inlineStr">
@@ -2224,31 +2224,31 @@
         <v>7379.54</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>4058.75</v>
+        <v>4021.85</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>56.75</v>
+        <v>19.85</v>
       </c>
       <c r="G26" s="24" t="n">
         <v>0.55</v>
       </c>
       <c r="H26" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I26" s="24" t="n">
-        <v>0.5499000000000001</v>
+        <v>0.5456</v>
       </c>
       <c r="J26" s="27" t="n">
-        <v>-0.0001</v>
+        <v>-0.008</v>
       </c>
       <c r="K26" s="8" t="n">
-        <v>-0.74</v>
+        <v>-32.47</v>
       </c>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M26" s="26" t="inlineStr">
@@ -2293,31 +2293,31 @@
         <v>3665.01</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>4013.19</v>
+        <v>3991.2</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>11.19</v>
+        <v>-10.8</v>
       </c>
       <c r="G27" s="24" t="n">
         <v>1.095</v>
       </c>
       <c r="H27" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I27" s="24" t="n">
-        <v>1.0942</v>
+        <v>1.0912</v>
       </c>
       <c r="J27" s="27" t="n">
-        <v>-0.0008</v>
+        <v>-0.0035</v>
       </c>
       <c r="K27" s="8" t="n">
-        <v>-2.93</v>
+        <v>-13.93</v>
       </c>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M27" s="26" t="inlineStr">
@@ -2362,31 +2362,31 @@
         <v>4550.55</v>
       </c>
       <c r="E28" s="25" t="n">
-        <v>3516.21</v>
+        <v>3477.99</v>
       </c>
       <c r="F28" s="25" t="n">
-        <v>181.21</v>
+        <v>142.99</v>
       </c>
       <c r="G28" s="24" t="n">
-        <v>0.7727000000000001</v>
+        <v>0.772</v>
       </c>
       <c r="H28" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I28" s="24" t="n">
-        <v>0.7719</v>
+        <v>0.7643</v>
       </c>
       <c r="J28" s="27" t="n">
-        <v>-0.001</v>
+        <v>-0.01</v>
       </c>
       <c r="K28" s="8" t="n">
-        <v>-3.64</v>
+        <v>-35.04</v>
       </c>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M28" s="26" t="inlineStr">
@@ -2431,31 +2431,31 @@
         <v>400.63</v>
       </c>
       <c r="E29" s="25" t="n">
-        <v>712.6</v>
+        <v>696.98</v>
       </c>
       <c r="F29" s="25" t="n">
-        <v>45.6</v>
+        <v>29.98</v>
       </c>
       <c r="G29" s="24" t="n">
-        <v>1.7787</v>
+        <v>1.7723</v>
       </c>
       <c r="H29" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I29" s="24" t="n">
-        <v>1.7723</v>
+        <v>1.7395</v>
       </c>
       <c r="J29" s="27" t="n">
-        <v>-0.0036</v>
+        <v>-0.0185</v>
       </c>
       <c r="K29" s="8" t="n">
-        <v>-2.56</v>
+        <v>-13.14</v>
       </c>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M29" s="26" t="inlineStr">
@@ -2500,31 +2500,31 @@
         <v>736.3</v>
       </c>
       <c r="E30" s="25" t="n">
-        <v>711.49</v>
+        <v>696.25</v>
       </c>
       <c r="F30" s="25" t="n">
-        <v>44.49</v>
+        <v>29.25</v>
       </c>
       <c r="G30" s="24" t="n">
-        <v>0.9663</v>
+        <v>0.9631</v>
       </c>
       <c r="H30" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I30" s="24" t="n">
-        <v>0.9628</v>
+        <v>0.9453</v>
       </c>
       <c r="J30" s="27" t="n">
-        <v>-0.0036</v>
+        <v>-0.0185</v>
       </c>
       <c r="K30" s="8" t="n">
-        <v>-2.58</v>
+        <v>-13.11</v>
       </c>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M30" s="26" t="inlineStr">
@@ -2569,31 +2569,31 @@
         <v>473.85</v>
       </c>
       <c r="E31" s="25" t="n">
-        <v>458.17</v>
+        <v>456.79</v>
       </c>
       <c r="F31" s="25" t="n">
-        <v>-8.73</v>
+        <v>-10.11</v>
       </c>
       <c r="G31" s="24" t="n">
-        <v>0.9669</v>
+        <v>0.9671999999999999</v>
       </c>
       <c r="H31" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I31" s="24" t="n">
-        <v>0.9674</v>
+        <v>0.9643</v>
       </c>
       <c r="J31" s="27" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="K31" s="9" t="n">
-        <v>0.24</v>
+        <v>-0.003</v>
+      </c>
+      <c r="K31" s="8" t="n">
+        <v>-1.37</v>
       </c>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M31" s="26" t="inlineStr">
@@ -2638,31 +2638,31 @@
         <v>5299.96</v>
       </c>
       <c r="E32" s="25" t="n">
-        <v>1945.09</v>
+        <v>1982.18</v>
       </c>
       <c r="F32" s="25" t="n">
-        <v>-55.91</v>
+        <v>-18.81</v>
       </c>
       <c r="G32" s="24" t="n">
-        <v>0.367</v>
+        <v>0.374</v>
       </c>
       <c r="H32" s="26" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I32" s="24" t="n">
-        <v>0.3654</v>
+        <v>0.3753</v>
       </c>
       <c r="J32" s="27" t="n">
-        <v>-0.0043</v>
-      </c>
-      <c r="K32" s="8" t="n">
-        <v>-8.48</v>
+        <v>0.0035</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>6.89</v>
       </c>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21 05:00</t>
+          <t>2019-11-23 05:00</t>
         </is>
       </c>
       <c r="M32" s="26" t="inlineStr">
@@ -2707,31 +2707,31 @@
         <v>576.8</v>
       </c>
       <c r="E33" s="25" t="n">
-        <v>736</v>
+        <v>718.12</v>
       </c>
       <c r="F33" s="25" t="n">
-        <v>69</v>
+        <v>51.12</v>
       </c>
       <c r="G33" s="24" t="n">
-        <v>1.276</v>
+        <v>1.245</v>
       </c>
       <c r="H33" s="26" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I33" s="24" t="n">
-        <v>1.2719</v>
+        <v>1.2482</v>
       </c>
       <c r="J33" s="27" t="n">
-        <v>-0.0032</v>
-      </c>
-      <c r="K33" s="8" t="n">
-        <v>-2.36</v>
+        <v>0.0026</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>1.85</v>
       </c>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21 05:00</t>
+          <t>2019-11-23 05:00</t>
         </is>
       </c>
       <c r="M33" s="26" t="inlineStr">
@@ -2776,31 +2776,31 @@
         <v>459.67</v>
       </c>
       <c r="E34" s="25" t="n">
-        <v>690.15</v>
+        <v>685.46</v>
       </c>
       <c r="F34" s="25" t="n">
-        <v>23.15</v>
+        <v>18.46</v>
       </c>
       <c r="G34" s="24" t="n">
-        <v>1.5014</v>
+        <v>1.4912</v>
       </c>
       <c r="H34" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="I34" s="24" t="n">
-        <v>1.479</v>
+        <v>1.4981</v>
       </c>
       <c r="J34" s="27" t="n">
-        <v>-0.0149</v>
-      </c>
-      <c r="K34" s="8" t="n">
-        <v>-10.3</v>
+        <v>0.0046</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>3.17</v>
       </c>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21 16:00</t>
+          <t>2019-11-22 16:00</t>
         </is>
       </c>
       <c r="M34" s="26" t="inlineStr">
@@ -2845,10 +2845,10 @@
         <v>611.75</v>
       </c>
       <c r="E35" s="25" t="n">
-        <v>737.16</v>
+        <v>734.71</v>
       </c>
       <c r="F35" s="25" t="n">
-        <v>70.16</v>
+        <v>67.70999999999999</v>
       </c>
       <c r="G35" s="24" t="n">
         <v>0</v>
@@ -2914,31 +2914,31 @@
         <v>1046.73</v>
       </c>
       <c r="E36" s="25" t="n">
-        <v>2043.11</v>
+        <v>2026.26</v>
       </c>
       <c r="F36" s="25" t="n">
-        <v>43.11</v>
+        <v>26.26</v>
       </c>
       <c r="G36" s="24" t="n">
         <v>1.9519</v>
       </c>
       <c r="H36" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I36" s="24" t="n">
-        <v>1.9517</v>
+        <v>1.9363</v>
       </c>
       <c r="J36" s="27" t="n">
-        <v>-0.0001</v>
+        <v>-0.008</v>
       </c>
       <c r="K36" s="8" t="n">
-        <v>-0.21</v>
+        <v>-16.33</v>
       </c>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M36" s="26" t="inlineStr">
@@ -2983,31 +2983,31 @@
         <v>1825.9</v>
       </c>
       <c r="E37" s="25" t="n">
-        <v>1999.36</v>
+        <v>1988.41</v>
       </c>
       <c r="F37" s="25" t="n">
-        <v>-0.64</v>
+        <v>-11.59</v>
       </c>
       <c r="G37" s="24" t="n">
         <v>1.095</v>
       </c>
       <c r="H37" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I37" s="24" t="n">
-        <v>1.0942</v>
+        <v>1.0912</v>
       </c>
       <c r="J37" s="27" t="n">
-        <v>-0.0008</v>
+        <v>-0.0035</v>
       </c>
       <c r="K37" s="8" t="n">
-        <v>-1.46</v>
+        <v>-6.94</v>
       </c>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M37" s="26" t="inlineStr">
@@ -3052,31 +3052,31 @@
         <v>1059.17</v>
       </c>
       <c r="E38" s="25" t="n">
-        <v>1076.12</v>
+        <v>1060.23</v>
       </c>
       <c r="F38" s="25" t="n">
-        <v>76.12</v>
+        <v>60.23</v>
       </c>
       <c r="G38" s="24" t="n">
-        <v>1.016</v>
+        <v>1.01</v>
       </c>
       <c r="H38" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I38" s="24" t="n">
-        <v>1.0099</v>
+        <v>1.0012</v>
       </c>
       <c r="J38" s="27" t="n">
-        <v>-0.006</v>
+        <v>-0.008699999999999999</v>
       </c>
       <c r="K38" s="8" t="n">
-        <v>-6.46</v>
+        <v>-9.32</v>
       </c>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M38" s="26" t="inlineStr">
@@ -3121,31 +3121,31 @@
         <v>1812.7</v>
       </c>
       <c r="E39" s="25" t="n">
-        <v>996.99</v>
+        <v>987.92</v>
       </c>
       <c r="F39" s="25" t="n">
-        <v>-3.02</v>
+        <v>-12.08</v>
       </c>
       <c r="G39" s="24" t="n">
         <v>0.55</v>
       </c>
       <c r="H39" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I39" s="24" t="n">
-        <v>0.5499000000000001</v>
+        <v>0.5456</v>
       </c>
       <c r="J39" s="27" t="n">
-        <v>-0.0001</v>
+        <v>-0.008</v>
       </c>
       <c r="K39" s="8" t="n">
-        <v>-0.18</v>
+        <v>-7.98</v>
       </c>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M39" s="26" t="inlineStr">
@@ -3190,31 +3190,31 @@
         <v>1227.03</v>
       </c>
       <c r="E40" s="25" t="n">
-        <v>948.13</v>
+        <v>937.8200000000001</v>
       </c>
       <c r="F40" s="25" t="n">
-        <v>-51.87</v>
+        <v>-62.18</v>
       </c>
       <c r="G40" s="24" t="n">
-        <v>0.7727000000000001</v>
+        <v>0.772</v>
       </c>
       <c r="H40" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I40" s="24" t="n">
-        <v>0.7719</v>
+        <v>0.7643</v>
       </c>
       <c r="J40" s="27" t="n">
-        <v>-0.001</v>
+        <v>-0.01</v>
       </c>
       <c r="K40" s="8" t="n">
-        <v>-0.98</v>
+        <v>-9.449999999999999</v>
       </c>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M40" s="26" t="inlineStr">
@@ -3259,31 +3259,31 @@
         <v>1834.47</v>
       </c>
       <c r="E41" s="25" t="n">
-        <v>2239.34</v>
+        <v>2240.44</v>
       </c>
       <c r="F41" s="25" t="n">
-        <v>239.34</v>
+        <v>240.44</v>
       </c>
       <c r="G41" s="24" t="n">
-        <v>1.2207</v>
+        <v>1.2202</v>
       </c>
       <c r="H41" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I41" s="24" t="n">
-        <v>1.2201</v>
+        <v>1.2219</v>
       </c>
       <c r="J41" s="27" t="n">
-        <v>-0.0005</v>
-      </c>
-      <c r="K41" s="8" t="n">
-        <v>-1.1</v>
+        <v>0.0014</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>3.12</v>
       </c>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21 15:30</t>
+          <t>2019-11-22 15:30</t>
         </is>
       </c>
       <c r="M41" s="26" t="inlineStr">
@@ -3328,31 +3328,31 @@
         <v>899.8200000000001</v>
       </c>
       <c r="E42" s="25" t="n">
-        <v>1148.17</v>
+        <v>1120.28</v>
       </c>
       <c r="F42" s="25" t="n">
-        <v>148.17</v>
+        <v>120.28</v>
       </c>
       <c r="G42" s="24" t="n">
-        <v>1.276</v>
+        <v>1.245</v>
       </c>
       <c r="H42" s="26" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I42" s="24" t="n">
-        <v>1.2719</v>
+        <v>1.2482</v>
       </c>
       <c r="J42" s="27" t="n">
-        <v>-0.0032</v>
-      </c>
-      <c r="K42" s="8" t="n">
-        <v>-3.69</v>
+        <v>0.0026</v>
+      </c>
+      <c r="K42" s="9" t="n">
+        <v>2.88</v>
       </c>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21 05:00</t>
+          <t>2019-11-23 05:00</t>
         </is>
       </c>
       <c r="M42" s="26" t="inlineStr">
@@ -3397,31 +3397,31 @@
         <v>689.02</v>
       </c>
       <c r="E43" s="25" t="n">
-        <v>1034.49</v>
+        <v>1027.47</v>
       </c>
       <c r="F43" s="25" t="n">
-        <v>34.49</v>
+        <v>27.47</v>
       </c>
       <c r="G43" s="24" t="n">
-        <v>1.5014</v>
+        <v>1.4912</v>
       </c>
       <c r="H43" s="26" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="I43" s="24" t="n">
-        <v>1.479</v>
+        <v>1.4981</v>
       </c>
       <c r="J43" s="27" t="n">
-        <v>-0.0149</v>
-      </c>
-      <c r="K43" s="8" t="n">
-        <v>-15.43</v>
+        <v>0.0046</v>
+      </c>
+      <c r="K43" s="9" t="n">
+        <v>4.75</v>
       </c>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21 16:00</t>
+          <t>2019-11-22 16:00</t>
         </is>
       </c>
       <c r="M43" s="26" t="inlineStr">
@@ -3466,31 +3466,31 @@
         <v>4757.9</v>
       </c>
       <c r="E44" s="25" t="n">
-        <v>1746.15</v>
+        <v>1779.45</v>
       </c>
       <c r="F44" s="25" t="n">
-        <v>-253.85</v>
+        <v>-220.55</v>
       </c>
       <c r="G44" s="24" t="n">
-        <v>0.367</v>
+        <v>0.374</v>
       </c>
       <c r="H44" s="26" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I44" s="24" t="n">
-        <v>0.3654</v>
+        <v>0.3753</v>
       </c>
       <c r="J44" s="27" t="n">
-        <v>-0.0043</v>
-      </c>
-      <c r="K44" s="8" t="n">
-        <v>-7.61</v>
+        <v>0.0035</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>6.19</v>
       </c>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21 05:00</t>
+          <t>2019-11-23 05:00</t>
         </is>
       </c>
       <c r="M44" s="26" t="inlineStr">
@@ -3535,10 +3535,10 @@
         <v>953.96</v>
       </c>
       <c r="E45" s="25" t="n">
-        <v>1149.52</v>
+        <v>1145.71</v>
       </c>
       <c r="F45" s="25" t="n">
-        <v>149.52</v>
+        <v>145.71</v>
       </c>
       <c r="G45" s="24" t="n">
         <v>0</v>
@@ -3604,31 +3604,31 @@
         <v>65064.33</v>
       </c>
       <c r="E46" s="31" t="n">
-        <v>71245.44</v>
+        <v>70855.05</v>
       </c>
       <c r="F46" s="31" t="n">
-        <v>4925.44</v>
+        <v>4535.05</v>
       </c>
       <c r="G46" s="30" t="n">
         <v>1.095</v>
       </c>
       <c r="H46" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I46" s="30" t="n">
-        <v>1.0942</v>
+        <v>1.0912</v>
       </c>
       <c r="J46" s="33" t="n">
-        <v>-0.0008</v>
+        <v>-0.0035</v>
       </c>
       <c r="K46" s="8" t="n">
-        <v>-52.05</v>
+        <v>-247.24</v>
       </c>
       <c r="L46" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M46" s="32" t="inlineStr">
@@ -3673,31 +3673,31 @@
         <v>63490</v>
       </c>
       <c r="E47" s="31" t="n">
-        <v>61972.58</v>
+        <v>60683.74</v>
       </c>
       <c r="F47" s="31" t="n">
-        <v>3772.58</v>
+        <v>2483.74</v>
       </c>
       <c r="G47" s="30" t="n">
-        <v>0.9761</v>
+        <v>0.9702</v>
       </c>
       <c r="H47" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I47" s="30" t="n">
-        <v>0.9705</v>
+        <v>0.9556</v>
       </c>
       <c r="J47" s="33" t="n">
-        <v>-0.0057</v>
+        <v>-0.015</v>
       </c>
       <c r="K47" s="8" t="n">
-        <v>-355.54</v>
+        <v>-926.95</v>
       </c>
       <c r="L47" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M47" s="32" t="inlineStr">
@@ -3742,31 +3742,31 @@
         <v>32370.29</v>
       </c>
       <c r="E48" s="31" t="n">
-        <v>37297.04</v>
+        <v>37054.27</v>
       </c>
       <c r="F48" s="31" t="n">
-        <v>5297.04</v>
+        <v>5054.27</v>
       </c>
       <c r="G48" s="30" t="n">
-        <v>1.1522</v>
+        <v>1.1484</v>
       </c>
       <c r="H48" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I48" s="30" t="n">
-        <v>1.1504</v>
+        <v>1.1459</v>
       </c>
       <c r="J48" s="33" t="n">
-        <v>-0.0016</v>
+        <v>-0.0022</v>
       </c>
       <c r="K48" s="8" t="n">
-        <v>-58.27</v>
+        <v>-80.93000000000001</v>
       </c>
       <c r="L48" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M48" s="32" t="inlineStr">
@@ -3811,31 +3811,31 @@
         <v>41014.88</v>
       </c>
       <c r="E49" s="31" t="n">
-        <v>36507.34</v>
+        <v>35051.31</v>
       </c>
       <c r="F49" s="31" t="n">
-        <v>5947.34</v>
+        <v>4491.31</v>
       </c>
       <c r="G49" s="30" t="n">
-        <v>0.8901</v>
+        <v>0.8803</v>
       </c>
       <c r="H49" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I49" s="30" t="n">
-        <v>0.8802</v>
+        <v>0.8542999999999999</v>
       </c>
       <c r="J49" s="33" t="n">
-        <v>-0.0111</v>
+        <v>-0.0295</v>
       </c>
       <c r="K49" s="8" t="n">
-        <v>-406.05</v>
+        <v>-1066.39</v>
       </c>
       <c r="L49" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M49" s="32" t="inlineStr">
@@ -3880,31 +3880,31 @@
         <v>20086.63</v>
       </c>
       <c r="E50" s="31" t="n">
-        <v>34006.66</v>
+        <v>33765.62</v>
       </c>
       <c r="F50" s="31" t="n">
-        <v>2006.66</v>
+        <v>1765.62</v>
       </c>
       <c r="G50" s="30" t="n">
-        <v>1.693</v>
+        <v>1.688</v>
       </c>
       <c r="H50" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I50" s="30" t="n">
-        <v>1.6893</v>
+        <v>1.6841</v>
       </c>
       <c r="J50" s="33" t="n">
-        <v>-0.0022</v>
+        <v>-0.0023</v>
       </c>
       <c r="K50" s="8" t="n">
-        <v>-74.31999999999999</v>
+        <v>-78.34</v>
       </c>
       <c r="L50" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M50" s="32" t="inlineStr">
@@ -3949,10 +3949,10 @@
         <v>20716.63</v>
       </c>
       <c r="E51" s="31" t="n">
-        <v>24963.53</v>
+        <v>24880.67</v>
       </c>
       <c r="F51" s="31" t="n">
-        <v>2363.53</v>
+        <v>2280.67</v>
       </c>
       <c r="G51" s="30" t="n">
         <v>0</v>
@@ -4018,31 +4018,31 @@
         <v>14624.61</v>
       </c>
       <c r="E52" s="31" t="n">
-        <v>23867.36</v>
+        <v>23501.74</v>
       </c>
       <c r="F52" s="31" t="n">
-        <v>4667.36</v>
+        <v>4301.74</v>
       </c>
       <c r="G52" s="30" t="n">
-        <v>1.632</v>
+        <v>1.626</v>
       </c>
       <c r="H52" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I52" s="30" t="n">
-        <v>1.6247</v>
+        <v>1.6102</v>
       </c>
       <c r="J52" s="33" t="n">
-        <v>-0.0045</v>
+        <v>-0.0097</v>
       </c>
       <c r="K52" s="8" t="n">
-        <v>-106.76</v>
+        <v>-231.07</v>
       </c>
       <c r="L52" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M52" s="32" t="inlineStr">
@@ -4087,31 +4087,31 @@
         <v>21163.93</v>
       </c>
       <c r="E53" s="31" t="n">
-        <v>22992.49</v>
+        <v>22810.48</v>
       </c>
       <c r="F53" s="31" t="n">
-        <v>3792.49</v>
+        <v>3610.48</v>
       </c>
       <c r="G53" s="30" t="n">
-        <v>1.0864</v>
+        <v>1.0826</v>
       </c>
       <c r="H53" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I53" s="30" t="n">
-        <v>1.0824</v>
+        <v>1.0777</v>
       </c>
       <c r="J53" s="33" t="n">
-        <v>-0.0037</v>
+        <v>-0.0046</v>
       </c>
       <c r="K53" s="8" t="n">
-        <v>-84.66</v>
+        <v>-103.7</v>
       </c>
       <c r="L53" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M53" s="32" t="inlineStr">
@@ -4156,31 +4156,31 @@
         <v>16778.47</v>
       </c>
       <c r="E54" s="31" t="n">
-        <v>21409.32</v>
+        <v>20889.19</v>
       </c>
       <c r="F54" s="31" t="n">
-        <v>2209.32</v>
+        <v>1689.19</v>
       </c>
       <c r="G54" s="30" t="n">
-        <v>1.276</v>
+        <v>1.245</v>
       </c>
       <c r="H54" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I54" s="30" t="n">
-        <v>1.2719</v>
+        <v>1.2482</v>
       </c>
       <c r="J54" s="33" t="n">
-        <v>-0.0032</v>
-      </c>
-      <c r="K54" s="8" t="n">
-        <v>-68.79000000000001</v>
+        <v>0.0026</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>53.69</v>
       </c>
       <c r="L54" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 05:00</t>
+          <t>2019-11-23 05:00</t>
         </is>
       </c>
       <c r="M54" s="32" t="inlineStr">
@@ -4225,31 +4225,31 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E55" s="31" t="n">
-        <v>15295.34</v>
+        <v>15133.33</v>
       </c>
       <c r="F55" s="31" t="n">
-        <v>2495.34</v>
+        <v>2333.33</v>
       </c>
       <c r="G55" s="30" t="n">
         <v>1.605</v>
       </c>
       <c r="H55" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I55" s="30" t="n">
-        <v>1.6048</v>
+        <v>1.5922</v>
       </c>
       <c r="J55" s="33" t="n">
-        <v>-0.0001</v>
+        <v>-0.008</v>
       </c>
       <c r="K55" s="8" t="n">
-        <v>-1.91</v>
+        <v>-121.98</v>
       </c>
       <c r="L55" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M55" s="32" t="inlineStr">
@@ -4294,31 +4294,31 @@
         <v>37267.45</v>
       </c>
       <c r="E56" s="31" t="n">
-        <v>13677.15</v>
+        <v>13938.02</v>
       </c>
       <c r="F56" s="31" t="n">
-        <v>-5522.85</v>
+        <v>-5261.98</v>
       </c>
       <c r="G56" s="30" t="n">
-        <v>0.367</v>
+        <v>0.374</v>
       </c>
       <c r="H56" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I56" s="30" t="n">
-        <v>0.3654</v>
+        <v>0.3753</v>
       </c>
       <c r="J56" s="33" t="n">
-        <v>-0.0043</v>
-      </c>
-      <c r="K56" s="8" t="n">
-        <v>-59.63</v>
+        <v>0.0035</v>
+      </c>
+      <c r="K56" s="9" t="n">
+        <v>48.45</v>
       </c>
       <c r="L56" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 05:00</t>
+          <t>2019-11-23 05:00</t>
         </is>
       </c>
       <c r="M56" s="32" t="inlineStr">
@@ -4363,31 +4363,31 @@
         <v>6798.52</v>
       </c>
       <c r="E57" s="31" t="n">
-        <v>10207.29</v>
+        <v>10137.95</v>
       </c>
       <c r="F57" s="31" t="n">
-        <v>307.29</v>
+        <v>237.95</v>
       </c>
       <c r="G57" s="30" t="n">
-        <v>1.5014</v>
+        <v>1.4912</v>
       </c>
       <c r="H57" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="I57" s="30" t="n">
-        <v>1.479</v>
+        <v>1.4981</v>
       </c>
       <c r="J57" s="33" t="n">
-        <v>-0.0149</v>
-      </c>
-      <c r="K57" s="8" t="n">
-        <v>-152.29</v>
+        <v>0.0046</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>46.91</v>
       </c>
       <c r="L57" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 16:00</t>
+          <t>2019-11-22 16:00</t>
         </is>
       </c>
       <c r="M57" s="32" t="inlineStr">
@@ -4432,31 +4432,31 @@
         <v>4791.13</v>
       </c>
       <c r="E58" s="31" t="n">
-        <v>8521.98</v>
+        <v>8335.120000000001</v>
       </c>
       <c r="F58" s="31" t="n">
-        <v>2121.98</v>
+        <v>1935.12</v>
       </c>
       <c r="G58" s="30" t="n">
-        <v>1.7787</v>
+        <v>1.7723</v>
       </c>
       <c r="H58" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I58" s="30" t="n">
-        <v>1.7723</v>
+        <v>1.7395</v>
       </c>
       <c r="J58" s="33" t="n">
-        <v>-0.0036</v>
+        <v>-0.0185</v>
       </c>
       <c r="K58" s="8" t="n">
-        <v>-30.66</v>
+        <v>-157.15</v>
       </c>
       <c r="L58" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M58" s="32" t="inlineStr">
@@ -4501,10 +4501,10 @@
         <v>5609.79</v>
       </c>
       <c r="E59" s="31" t="n">
-        <v>7517.11</v>
+        <v>7533.94</v>
       </c>
       <c r="F59" s="31" t="n">
-        <v>2371.99</v>
+        <v>2388.82</v>
       </c>
       <c r="G59" s="30" t="n">
         <v>0</v>
@@ -4570,31 +4570,31 @@
         <v>5328.62</v>
       </c>
       <c r="E60" s="31" t="n">
-        <v>7255.98</v>
+        <v>7232</v>
       </c>
       <c r="F60" s="31" t="n">
-        <v>855.98</v>
+        <v>832</v>
       </c>
       <c r="G60" s="30" t="n">
-        <v>1.3617</v>
+        <v>1.3595</v>
       </c>
       <c r="H60" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I60" s="30" t="n">
-        <v>1.3578</v>
+        <v>1.3566</v>
       </c>
       <c r="J60" s="33" t="n">
-        <v>-0.0028</v>
+        <v>-0.0021</v>
       </c>
       <c r="K60" s="8" t="n">
-        <v>-20.78</v>
+        <v>-15.45</v>
       </c>
       <c r="L60" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M60" s="32" t="inlineStr">
@@ -4639,31 +4639,31 @@
         <v>13403.92</v>
       </c>
       <c r="E61" s="31" t="n">
-        <v>7223.37</v>
+        <v>7219.35</v>
       </c>
       <c r="F61" s="31" t="n">
-        <v>823.37</v>
+        <v>819.35</v>
       </c>
       <c r="G61" s="30" t="n">
         <v>0.5389</v>
       </c>
       <c r="H61" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I61" s="30" t="n">
-        <v>0.5392</v>
+        <v>0.5386</v>
       </c>
       <c r="J61" s="33" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="K61" s="9" t="n">
-        <v>4.02</v>
+        <v>-0.0005999999999999999</v>
+      </c>
+      <c r="K61" s="8" t="n">
+        <v>-4.02</v>
       </c>
       <c r="L61" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M61" s="32" t="inlineStr">
@@ -4708,31 +4708,31 @@
         <v>7778.64</v>
       </c>
       <c r="E62" s="31" t="n">
-        <v>6757.3</v>
+        <v>6700.52</v>
       </c>
       <c r="F62" s="31" t="n">
-        <v>-242.7</v>
+        <v>-299.48</v>
       </c>
       <c r="G62" s="30" t="n">
-        <v>0.8687</v>
+        <v>0.8683999999999999</v>
       </c>
       <c r="H62" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I62" s="30" t="n">
-        <v>0.8686</v>
+        <v>0.8615</v>
       </c>
       <c r="J62" s="33" t="n">
-        <v>-0.0001</v>
+        <v>-0.008</v>
       </c>
       <c r="K62" s="8" t="n">
-        <v>-0.78</v>
+        <v>-53.67</v>
       </c>
       <c r="L62" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M62" s="32" t="inlineStr">
@@ -4777,31 +4777,31 @@
         <v>7852.99</v>
       </c>
       <c r="E63" s="31" t="n">
-        <v>6068</v>
+        <v>6002.04</v>
       </c>
       <c r="F63" s="31" t="n">
-        <v>-332</v>
+        <v>-397.96</v>
       </c>
       <c r="G63" s="30" t="n">
-        <v>0.7727000000000001</v>
+        <v>0.772</v>
       </c>
       <c r="H63" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I63" s="30" t="n">
-        <v>0.7719</v>
+        <v>0.7643</v>
       </c>
       <c r="J63" s="33" t="n">
-        <v>-0.001</v>
+        <v>-0.01</v>
       </c>
       <c r="K63" s="8" t="n">
-        <v>-6.28</v>
+        <v>-60.47</v>
       </c>
       <c r="L63" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M63" s="32" t="inlineStr">
@@ -4846,31 +4846,31 @@
         <v>3580.2</v>
       </c>
       <c r="E64" s="31" t="n">
-        <v>3373.62</v>
+        <v>3327.79</v>
       </c>
       <c r="F64" s="31" t="n">
-        <v>-126.38</v>
+        <v>-172.21</v>
       </c>
       <c r="G64" s="30" t="n">
-        <v>0.9423</v>
+        <v>0.9407</v>
       </c>
       <c r="H64" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I64" s="30" t="n">
-        <v>0.9408</v>
+        <v>0.9288999999999999</v>
       </c>
       <c r="J64" s="33" t="n">
-        <v>-0.0016</v>
+        <v>-0.0125</v>
       </c>
       <c r="K64" s="8" t="n">
-        <v>-5.37</v>
+        <v>-42.25</v>
       </c>
       <c r="L64" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M64" s="32" t="inlineStr">
@@ -4915,31 +4915,31 @@
         <v>997.72</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>1428.74</v>
+        <v>1417.76</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>6.08</v>
+        <v>-4.89</v>
       </c>
       <c r="G65" s="4" t="n">
-        <v>1.432</v>
+        <v>1.425</v>
       </c>
       <c r="H65" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I65" s="4" t="n">
-        <v>1.4262</v>
+        <v>1.4212</v>
       </c>
       <c r="J65" s="7" t="n">
-        <v>-0.0041</v>
+        <v>-0.0027</v>
       </c>
       <c r="K65" s="8" t="n">
-        <v>-5.79</v>
+        <v>-3.79</v>
       </c>
       <c r="L65" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M65" s="6" t="inlineStr">
@@ -4984,31 +4984,31 @@
         <v>845.95</v>
       </c>
       <c r="E66" s="5" t="n">
-        <v>1362.83</v>
+        <v>1356.9</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>-35.77</v>
+        <v>-41.7</v>
       </c>
       <c r="G66" s="4" t="n">
-        <v>1.611</v>
+        <v>1.61</v>
       </c>
       <c r="H66" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I66" s="4" t="n">
-        <v>1.6098</v>
+        <v>1.6043</v>
       </c>
       <c r="J66" s="7" t="n">
-        <v>-0.0008</v>
+        <v>-0.0035</v>
       </c>
       <c r="K66" s="8" t="n">
-        <v>-1.02</v>
+        <v>-4.82</v>
       </c>
       <c r="L66" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M66" s="6" t="inlineStr">
@@ -5053,31 +5053,31 @@
         <v>898.04</v>
       </c>
       <c r="E67" s="5" t="n">
-        <v>1310.06</v>
+        <v>1299.1</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>99.09</v>
+        <v>88.13</v>
       </c>
       <c r="G67" s="4" t="n">
-        <v>1.4588</v>
+        <v>1.4466</v>
       </c>
       <c r="H67" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="I67" s="4" t="n">
-        <v>1.4373</v>
+        <v>1.4532</v>
       </c>
       <c r="J67" s="7" t="n">
-        <v>-0.0147</v>
-      </c>
-      <c r="K67" s="8" t="n">
-        <v>-19.31</v>
+        <v>0.0045</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>5.93</v>
       </c>
       <c r="L67" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21 16:00</t>
+          <t>2019-11-22 16:00</t>
         </is>
       </c>
       <c r="M67" s="6" t="inlineStr">
@@ -5122,31 +5122,31 @@
         <v>1288.86</v>
       </c>
       <c r="E68" s="5" t="n">
-        <v>1182.92</v>
+        <v>1175.96</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>-20.22</v>
+        <v>-27.18</v>
       </c>
       <c r="G68" s="4" t="n">
-        <v>0.9177999999999999</v>
+        <v>0.9183</v>
       </c>
       <c r="H68" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I68" s="4" t="n">
-        <v>0.9183</v>
+        <v>0.9124</v>
       </c>
       <c r="J68" s="7" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="K68" s="9" t="n">
-        <v>0.64</v>
+        <v>-0.0065</v>
+      </c>
+      <c r="K68" s="8" t="n">
+        <v>-7.6</v>
       </c>
       <c r="L68" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M68" s="6" t="inlineStr">
@@ -5191,31 +5191,31 @@
         <v>473.31</v>
       </c>
       <c r="E69" s="5" t="n">
-        <v>874.25</v>
+        <v>863.7</v>
       </c>
       <c r="F69" s="5" t="n">
-        <v>25.11</v>
+        <v>14.56</v>
       </c>
       <c r="G69" s="4" t="n">
-        <v>1.8471</v>
+        <v>1.8422</v>
       </c>
       <c r="H69" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I69" s="4" t="n">
-        <v>1.8422</v>
+        <v>1.8247</v>
       </c>
       <c r="J69" s="7" t="n">
-        <v>-0.0027</v>
+        <v>-0.0095</v>
       </c>
       <c r="K69" s="8" t="n">
-        <v>-2.32</v>
+        <v>-8.279999999999999</v>
       </c>
       <c r="L69" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M69" s="6" t="inlineStr">
@@ -5260,31 +5260,31 @@
         <v>381.21</v>
       </c>
       <c r="E70" s="5" t="n">
-        <v>818.38</v>
+        <v>808.47</v>
       </c>
       <c r="F70" s="5" t="n">
-        <v>10.69</v>
+        <v>0.78</v>
       </c>
       <c r="G70" s="4" t="n">
-        <v>2.1468</v>
+        <v>2.1379</v>
       </c>
       <c r="H70" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I70" s="4" t="n">
-        <v>2.1376</v>
+        <v>2.1202</v>
       </c>
       <c r="J70" s="7" t="n">
-        <v>-0.0043</v>
+        <v>-0.0083</v>
       </c>
       <c r="K70" s="8" t="n">
-        <v>-3.51</v>
+        <v>-6.75</v>
       </c>
       <c r="L70" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M70" s="6" t="inlineStr">
@@ -5329,31 +5329,31 @@
         <v>336.9</v>
       </c>
       <c r="E71" s="5" t="n">
-        <v>328.85</v>
+        <v>322.01</v>
       </c>
       <c r="F71" s="5" t="n">
-        <v>5.09</v>
+        <v>-1.75</v>
       </c>
       <c r="G71" s="4" t="n">
-        <v>0.9761</v>
+        <v>0.9702</v>
       </c>
       <c r="H71" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I71" s="4" t="n">
-        <v>0.9705</v>
+        <v>0.9556</v>
       </c>
       <c r="J71" s="7" t="n">
-        <v>-0.0057</v>
+        <v>-0.015</v>
       </c>
       <c r="K71" s="8" t="n">
-        <v>-1.89</v>
+        <v>-4.92</v>
       </c>
       <c r="L71" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M71" s="6" t="inlineStr">
@@ -5398,31 +5398,31 @@
         <v>214.89</v>
       </c>
       <c r="E72" s="5" t="n">
-        <v>200.32</v>
+        <v>200.08</v>
       </c>
       <c r="F72" s="5" t="n">
-        <v>-10.9</v>
+        <v>-11.14</v>
       </c>
       <c r="G72" s="4" t="n">
-        <v>0.9322</v>
+        <v>0.9334</v>
       </c>
       <c r="H72" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I72" s="4" t="n">
-        <v>0.93</v>
+        <v>0.9278</v>
       </c>
       <c r="J72" s="7" t="n">
-        <v>-0.0024</v>
+        <v>-0.006</v>
       </c>
       <c r="K72" s="8" t="n">
-        <v>-0.47</v>
+        <v>-1.2</v>
       </c>
       <c r="L72" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M72" s="6" t="inlineStr">
@@ -5467,31 +5467,31 @@
         <v>212.74</v>
       </c>
       <c r="E73" s="5" t="n">
-        <v>172.87</v>
+        <v>166.15</v>
       </c>
       <c r="F73" s="5" t="n">
-        <v>30.17</v>
+        <v>23.45</v>
       </c>
       <c r="G73" s="4" t="n">
-        <v>0.8126</v>
+        <v>0.8068</v>
       </c>
       <c r="H73" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I73" s="4" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.7812</v>
       </c>
       <c r="J73" s="7" t="n">
-        <v>-0.0068</v>
+        <v>-0.0317</v>
       </c>
       <c r="K73" s="8" t="n">
-        <v>-1.19</v>
+        <v>-5.45</v>
       </c>
       <c r="L73" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M73" s="6" t="inlineStr">
@@ -5536,31 +5536,31 @@
         <v>62.09</v>
       </c>
       <c r="E74" s="5" t="n">
-        <v>82.58</v>
+        <v>81.59</v>
       </c>
       <c r="F74" s="5" t="n">
-        <v>2.54</v>
+        <v>1.55</v>
       </c>
       <c r="G74" s="4" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="H74" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I74" s="4" t="n">
-        <v>1.3188</v>
+        <v>1.311</v>
       </c>
       <c r="J74" s="7" t="n">
-        <v>-0.008500000000000001</v>
+        <v>-0.0068</v>
       </c>
       <c r="K74" s="8" t="n">
-        <v>-0.7</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="L74" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M74" s="6" t="inlineStr">
@@ -5605,31 +5605,31 @@
         <v>24.24</v>
       </c>
       <c r="E75" s="5" t="n">
-        <v>34.95</v>
+        <v>34.72</v>
       </c>
       <c r="F75" s="5" t="n">
-        <v>-2.13</v>
+        <v>-2.36</v>
       </c>
       <c r="G75" s="4" t="n">
-        <v>1.4417</v>
+        <v>1.4361</v>
       </c>
       <c r="H75" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I75" s="4" t="n">
-        <v>1.4358</v>
+        <v>1.4323</v>
       </c>
       <c r="J75" s="7" t="n">
-        <v>-0.0041</v>
+        <v>-0.0027</v>
       </c>
       <c r="K75" s="8" t="n">
-        <v>-0.14</v>
+        <v>-0.09</v>
       </c>
       <c r="L75" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M75" s="6" t="inlineStr">
@@ -5674,31 +5674,31 @@
         <v>890.02</v>
       </c>
       <c r="E76" s="5" t="n">
-        <v>1433.82</v>
+        <v>1427.59</v>
       </c>
       <c r="F76" s="5" t="n">
-        <v>-42.95</v>
+        <v>-49.18</v>
       </c>
       <c r="G76" s="4" t="n">
-        <v>1.611</v>
+        <v>1.61</v>
       </c>
       <c r="H76" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I76" s="4" t="n">
-        <v>1.6098</v>
+        <v>1.6043</v>
       </c>
       <c r="J76" s="7" t="n">
-        <v>-0.0008</v>
+        <v>-0.0035</v>
       </c>
       <c r="K76" s="8" t="n">
-        <v>-1.07</v>
+        <v>-5.07</v>
       </c>
       <c r="L76" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M76" s="6" t="inlineStr">
@@ -5743,31 +5743,31 @@
         <v>962.45</v>
       </c>
       <c r="E77" s="5" t="n">
-        <v>1378.23</v>
+        <v>1367.64</v>
       </c>
       <c r="F77" s="5" t="n">
-        <v>7.82</v>
+        <v>-2.77</v>
       </c>
       <c r="G77" s="4" t="n">
-        <v>1.432</v>
+        <v>1.425</v>
       </c>
       <c r="H77" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I77" s="4" t="n">
-        <v>1.4262</v>
+        <v>1.4212</v>
       </c>
       <c r="J77" s="7" t="n">
-        <v>-0.0041</v>
+        <v>-0.0027</v>
       </c>
       <c r="K77" s="8" t="n">
-        <v>-5.58</v>
+        <v>-3.66</v>
       </c>
       <c r="L77" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M77" s="6" t="inlineStr">
@@ -5812,31 +5812,31 @@
         <v>915.97</v>
       </c>
       <c r="E78" s="5" t="n">
-        <v>1336.22</v>
+        <v>1325.04</v>
       </c>
       <c r="F78" s="5" t="n">
-        <v>98.38</v>
+        <v>87.2</v>
       </c>
       <c r="G78" s="4" t="n">
-        <v>1.4588</v>
+        <v>1.4466</v>
       </c>
       <c r="H78" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="I78" s="4" t="n">
-        <v>1.4373</v>
+        <v>1.4532</v>
       </c>
       <c r="J78" s="7" t="n">
-        <v>-0.0147</v>
-      </c>
-      <c r="K78" s="8" t="n">
-        <v>-19.69</v>
+        <v>0.0045</v>
+      </c>
+      <c r="K78" s="9" t="n">
+        <v>6.05</v>
       </c>
       <c r="L78" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21 16:00</t>
+          <t>2019-11-22 16:00</t>
         </is>
       </c>
       <c r="M78" s="6" t="inlineStr">
@@ -5881,31 +5881,31 @@
         <v>1272.96</v>
       </c>
       <c r="E79" s="5" t="n">
-        <v>1168.32</v>
+        <v>1161.45</v>
       </c>
       <c r="F79" s="5" t="n">
-        <v>-21.65</v>
+        <v>-28.52</v>
       </c>
       <c r="G79" s="4" t="n">
-        <v>0.9177999999999999</v>
+        <v>0.9183</v>
       </c>
       <c r="H79" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I79" s="4" t="n">
-        <v>0.9183</v>
+        <v>0.9124</v>
       </c>
       <c r="J79" s="7" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="K79" s="9" t="n">
-        <v>0.64</v>
+        <v>-0.0065</v>
+      </c>
+      <c r="K79" s="8" t="n">
+        <v>-7.51</v>
       </c>
       <c r="L79" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M79" s="6" t="inlineStr">
@@ -5950,31 +5950,31 @@
         <v>490.43</v>
       </c>
       <c r="E80" s="5" t="n">
-        <v>905.87</v>
+        <v>894.9400000000001</v>
       </c>
       <c r="F80" s="5" t="n">
-        <v>25.8</v>
+        <v>14.87</v>
       </c>
       <c r="G80" s="4" t="n">
-        <v>1.8471</v>
+        <v>1.8422</v>
       </c>
       <c r="H80" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I80" s="4" t="n">
-        <v>1.8422</v>
+        <v>1.8247</v>
       </c>
       <c r="J80" s="7" t="n">
-        <v>-0.0027</v>
+        <v>-0.0095</v>
       </c>
       <c r="K80" s="8" t="n">
-        <v>-2.4</v>
+        <v>-8.58</v>
       </c>
       <c r="L80" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M80" s="6" t="inlineStr">
@@ -6019,31 +6019,31 @@
         <v>355.38</v>
       </c>
       <c r="E81" s="5" t="n">
-        <v>762.9299999999999</v>
+        <v>753.6900000000001</v>
       </c>
       <c r="F81" s="5" t="n">
-        <v>10.07</v>
+        <v>0.83</v>
       </c>
       <c r="G81" s="4" t="n">
-        <v>2.1468</v>
+        <v>2.1379</v>
       </c>
       <c r="H81" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I81" s="4" t="n">
-        <v>2.1376</v>
+        <v>2.1202</v>
       </c>
       <c r="J81" s="7" t="n">
-        <v>-0.0043</v>
+        <v>-0.0083</v>
       </c>
       <c r="K81" s="8" t="n">
-        <v>-3.27</v>
+        <v>-6.29</v>
       </c>
       <c r="L81" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M81" s="6" t="inlineStr">
@@ -6088,31 +6088,31 @@
         <v>319.14</v>
       </c>
       <c r="E82" s="5" t="n">
-        <v>311.51</v>
+        <v>305.03</v>
       </c>
       <c r="F82" s="5" t="n">
-        <v>4.89</v>
+        <v>-1.59</v>
       </c>
       <c r="G82" s="4" t="n">
-        <v>0.9761</v>
+        <v>0.9702</v>
       </c>
       <c r="H82" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I82" s="4" t="n">
-        <v>0.9705</v>
+        <v>0.9556</v>
       </c>
       <c r="J82" s="7" t="n">
-        <v>-0.0057</v>
+        <v>-0.015</v>
       </c>
       <c r="K82" s="8" t="n">
-        <v>-1.79</v>
+        <v>-4.66</v>
       </c>
       <c r="L82" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M82" s="6" t="inlineStr">
@@ -6157,31 +6157,31 @@
         <v>227.52</v>
       </c>
       <c r="E83" s="5" t="n">
-        <v>212.09</v>
+        <v>211.84</v>
       </c>
       <c r="F83" s="5" t="n">
-        <v>-11.42</v>
+        <v>-11.67</v>
       </c>
       <c r="G83" s="4" t="n">
-        <v>0.9322</v>
+        <v>0.9334</v>
       </c>
       <c r="H83" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I83" s="4" t="n">
-        <v>0.93</v>
+        <v>0.9278</v>
       </c>
       <c r="J83" s="7" t="n">
-        <v>-0.0024</v>
+        <v>-0.006</v>
       </c>
       <c r="K83" s="8" t="n">
-        <v>-0.5</v>
+        <v>-1.27</v>
       </c>
       <c r="L83" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M83" s="6" t="inlineStr">
@@ -6226,31 +6226,31 @@
         <v>142.1</v>
       </c>
       <c r="E84" s="5" t="n">
-        <v>188.99</v>
+        <v>186.72</v>
       </c>
       <c r="F84" s="5" t="n">
-        <v>6.54</v>
+        <v>4.27</v>
       </c>
       <c r="G84" s="4" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="H84" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I84" s="4" t="n">
-        <v>1.3188</v>
+        <v>1.311</v>
       </c>
       <c r="J84" s="7" t="n">
-        <v>-0.008500000000000001</v>
+        <v>-0.0068</v>
       </c>
       <c r="K84" s="8" t="n">
-        <v>-1.59</v>
+        <v>-1.28</v>
       </c>
       <c r="L84" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M84" s="6" t="inlineStr">
@@ -6295,31 +6295,31 @@
         <v>212.74</v>
       </c>
       <c r="E85" s="5" t="n">
-        <v>172.87</v>
+        <v>166.15</v>
       </c>
       <c r="F85" s="5" t="n">
-        <v>30.17</v>
+        <v>23.45</v>
       </c>
       <c r="G85" s="4" t="n">
-        <v>0.8126</v>
+        <v>0.8068</v>
       </c>
       <c r="H85" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I85" s="4" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.7812</v>
       </c>
       <c r="J85" s="7" t="n">
-        <v>-0.0068</v>
+        <v>-0.0317</v>
       </c>
       <c r="K85" s="8" t="n">
-        <v>-1.19</v>
+        <v>-5.45</v>
       </c>
       <c r="L85" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M85" s="6" t="inlineStr">
@@ -6364,31 +6364,31 @@
         <v>24.24</v>
       </c>
       <c r="E86" s="5" t="n">
-        <v>34.95</v>
+        <v>34.72</v>
       </c>
       <c r="F86" s="5" t="n">
-        <v>-2.13</v>
+        <v>-2.36</v>
       </c>
       <c r="G86" s="4" t="n">
-        <v>1.4417</v>
+        <v>1.4361</v>
       </c>
       <c r="H86" s="6" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I86" s="4" t="n">
-        <v>1.4358</v>
+        <v>1.4323</v>
       </c>
       <c r="J86" s="7" t="n">
-        <v>-0.0041</v>
+        <v>-0.0027</v>
       </c>
       <c r="K86" s="8" t="n">
-        <v>-0.14</v>
+        <v>-0.09</v>
       </c>
       <c r="L86" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M86" s="6" t="inlineStr">
@@ -6433,31 +6433,31 @@
         <v>9697.57</v>
       </c>
       <c r="E87" s="31" t="n">
-        <v>10544.16</v>
+        <v>10454.95</v>
       </c>
       <c r="F87" s="31" t="n">
-        <v>344.16</v>
+        <v>254.95</v>
       </c>
       <c r="G87" s="30" t="n">
-        <v>1.0873</v>
+        <v>1.0869</v>
       </c>
       <c r="H87" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I87" s="30" t="n">
-        <v>1.0872</v>
+        <v>1.0782</v>
       </c>
       <c r="J87" s="33" t="n">
-        <v>-0.0001</v>
+        <v>-0.008</v>
       </c>
       <c r="K87" s="8" t="n">
-        <v>-0.97</v>
+        <v>-84.37</v>
       </c>
       <c r="L87" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M87" s="32" t="inlineStr">
@@ -6502,31 +6502,31 @@
         <v>8677.6</v>
       </c>
       <c r="E88" s="31" t="n">
-        <v>9501.969999999999</v>
+        <v>9449.9</v>
       </c>
       <c r="F88" s="31" t="n">
-        <v>701.97</v>
+        <v>649.9</v>
       </c>
       <c r="G88" s="30" t="n">
         <v>1.095</v>
       </c>
       <c r="H88" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I88" s="30" t="n">
-        <v>1.0942</v>
+        <v>1.0912</v>
       </c>
       <c r="J88" s="33" t="n">
-        <v>-0.0008</v>
+        <v>-0.0035</v>
       </c>
       <c r="K88" s="8" t="n">
-        <v>-6.94</v>
+        <v>-32.97</v>
       </c>
       <c r="L88" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M88" s="32" t="inlineStr">
@@ -6558,44 +6558,44 @@
     <row r="89">
       <c r="A89" s="28" t="inlineStr">
         <is>
-          <t>广发医药卫生联接A</t>
+          <t>广发养老指数A</t>
         </is>
       </c>
       <c r="B89" s="29" t="n">
-        <v>1180</v>
+        <v>968</v>
       </c>
       <c r="C89" s="30" t="n">
-        <v>0.7111</v>
+        <v>0.853</v>
       </c>
       <c r="D89" s="31" t="n">
-        <v>6750.28</v>
+        <v>6096.21</v>
       </c>
       <c r="E89" s="31" t="n">
-        <v>6008.42</v>
+        <v>5826.75</v>
       </c>
       <c r="F89" s="31" t="n">
-        <v>1208.42</v>
+        <v>626.75</v>
       </c>
       <c r="G89" s="30" t="n">
-        <v>0.8901</v>
+        <v>0.9702</v>
       </c>
       <c r="H89" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I89" s="30" t="n">
-        <v>0.8802</v>
+        <v>0.9556</v>
       </c>
       <c r="J89" s="33" t="n">
-        <v>-0.0111</v>
+        <v>-0.015</v>
       </c>
       <c r="K89" s="8" t="n">
-        <v>-66.83</v>
+        <v>-89</v>
       </c>
       <c r="L89" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M89" s="32" t="inlineStr">
@@ -6610,12 +6610,12 @@
       </c>
       <c r="O89" s="32" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="P89" s="32" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>141</t>
         </is>
       </c>
       <c r="Q89" s="32" t="inlineStr">
@@ -6627,44 +6627,44 @@
     <row r="90">
       <c r="A90" s="28" t="inlineStr">
         <is>
-          <t>广发养老指数A</t>
+          <t>广发医药卫生联接A</t>
         </is>
       </c>
       <c r="B90" s="29" t="n">
-        <v>968</v>
+        <v>1180</v>
       </c>
       <c r="C90" s="30" t="n">
-        <v>0.853</v>
+        <v>0.7111</v>
       </c>
       <c r="D90" s="31" t="n">
-        <v>6096.21</v>
+        <v>6750.28</v>
       </c>
       <c r="E90" s="31" t="n">
-        <v>5950.51</v>
+        <v>5768.78</v>
       </c>
       <c r="F90" s="31" t="n">
-        <v>750.51</v>
+        <v>968.78</v>
       </c>
       <c r="G90" s="30" t="n">
-        <v>0.9761</v>
+        <v>0.8803</v>
       </c>
       <c r="H90" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I90" s="30" t="n">
-        <v>0.9705</v>
+        <v>0.8542999999999999</v>
       </c>
       <c r="J90" s="33" t="n">
-        <v>-0.0057</v>
+        <v>-0.0295</v>
       </c>
       <c r="K90" s="8" t="n">
-        <v>-34.14</v>
+        <v>-175.51</v>
       </c>
       <c r="L90" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M90" s="32" t="inlineStr">
@@ -6679,12 +6679,12 @@
       </c>
       <c r="O90" s="32" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="P90" s="32" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>142</t>
         </is>
       </c>
       <c r="Q90" s="32" t="inlineStr">
@@ -6709,31 +6709,31 @@
         <v>2760.12</v>
       </c>
       <c r="E91" s="31" t="n">
-        <v>4504.51</v>
+        <v>4435.51</v>
       </c>
       <c r="F91" s="31" t="n">
-        <v>904.51</v>
+        <v>835.51</v>
       </c>
       <c r="G91" s="30" t="n">
-        <v>1.632</v>
+        <v>1.626</v>
       </c>
       <c r="H91" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I91" s="30" t="n">
-        <v>1.6247</v>
+        <v>1.6102</v>
       </c>
       <c r="J91" s="33" t="n">
-        <v>-0.0045</v>
+        <v>-0.0097</v>
       </c>
       <c r="K91" s="8" t="n">
-        <v>-20.15</v>
+        <v>-43.61</v>
       </c>
       <c r="L91" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M91" s="32" t="inlineStr">
@@ -6778,31 +6778,31 @@
         <v>4423.48</v>
       </c>
       <c r="E92" s="31" t="n">
-        <v>3418.02</v>
+        <v>3380.86</v>
       </c>
       <c r="F92" s="31" t="n">
-        <v>218.02</v>
+        <v>180.86</v>
       </c>
       <c r="G92" s="30" t="n">
-        <v>0.7727000000000001</v>
+        <v>0.772</v>
       </c>
       <c r="H92" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I92" s="30" t="n">
-        <v>0.7719</v>
+        <v>0.7643</v>
       </c>
       <c r="J92" s="33" t="n">
-        <v>-0.001</v>
+        <v>-0.01</v>
       </c>
       <c r="K92" s="8" t="n">
-        <v>-3.54</v>
+        <v>-34.06</v>
       </c>
       <c r="L92" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M92" s="32" t="inlineStr">
@@ -6847,31 +6847,31 @@
         <v>2046.97</v>
       </c>
       <c r="E93" s="31" t="n">
-        <v>3285.38</v>
+        <v>3250.58</v>
       </c>
       <c r="F93" s="31" t="n">
-        <v>573.27</v>
+        <v>538.47</v>
       </c>
       <c r="G93" s="30" t="n">
         <v>1.605</v>
       </c>
       <c r="H93" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I93" s="30" t="n">
-        <v>1.6048</v>
+        <v>1.5922</v>
       </c>
       <c r="J93" s="33" t="n">
-        <v>-0.0001</v>
+        <v>-0.008</v>
       </c>
       <c r="K93" s="8" t="n">
-        <v>-0.41</v>
+        <v>-26.2</v>
       </c>
       <c r="L93" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M93" s="32" t="inlineStr">
@@ -6916,31 +6916,31 @@
         <v>5949.77</v>
       </c>
       <c r="E94" s="31" t="n">
-        <v>3206.33</v>
+        <v>3204.54</v>
       </c>
       <c r="F94" s="31" t="n">
-        <v>6.33</v>
+        <v>4.54</v>
       </c>
       <c r="G94" s="30" t="n">
         <v>0.5389</v>
       </c>
       <c r="H94" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I94" s="30" t="n">
-        <v>0.5392</v>
+        <v>0.5386</v>
       </c>
       <c r="J94" s="33" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="K94" s="9" t="n">
-        <v>1.78</v>
+        <v>-0.0005999999999999999</v>
+      </c>
+      <c r="K94" s="8" t="n">
+        <v>-1.78</v>
       </c>
       <c r="L94" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M94" s="32" t="inlineStr">
@@ -6985,31 +6985,31 @@
         <v>1743.65</v>
       </c>
       <c r="E95" s="31" t="n">
-        <v>2951.99</v>
+        <v>2931.07</v>
       </c>
       <c r="F95" s="31" t="n">
-        <v>160.99</v>
+        <v>140.07</v>
       </c>
       <c r="G95" s="30" t="n">
-        <v>1.693</v>
+        <v>1.688</v>
       </c>
       <c r="H95" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I95" s="30" t="n">
-        <v>1.6893</v>
+        <v>1.6841</v>
       </c>
       <c r="J95" s="33" t="n">
-        <v>-0.0022</v>
+        <v>-0.0023</v>
       </c>
       <c r="K95" s="8" t="n">
-        <v>-6.45</v>
+        <v>-6.8</v>
       </c>
       <c r="L95" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M95" s="32" t="inlineStr">
@@ -7054,10 +7054,10 @@
         <v>1884.74</v>
       </c>
       <c r="E96" s="31" t="n">
-        <v>2271.11</v>
+        <v>2263.57</v>
       </c>
       <c r="F96" s="31" t="n">
-        <v>271.11</v>
+        <v>263.57</v>
       </c>
       <c r="G96" s="30" t="n">
         <v>0</v>
@@ -7123,31 +7123,31 @@
         <v>1213.09</v>
       </c>
       <c r="E97" s="31" t="n">
-        <v>2157.72</v>
+        <v>2110.41</v>
       </c>
       <c r="F97" s="31" t="n">
-        <v>557.72</v>
+        <v>510.41</v>
       </c>
       <c r="G97" s="30" t="n">
-        <v>1.7787</v>
+        <v>1.7723</v>
       </c>
       <c r="H97" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I97" s="30" t="n">
-        <v>1.7723</v>
+        <v>1.7395</v>
       </c>
       <c r="J97" s="33" t="n">
-        <v>-0.0036</v>
+        <v>-0.0185</v>
       </c>
       <c r="K97" s="8" t="n">
-        <v>-7.76</v>
+        <v>-39.79</v>
       </c>
       <c r="L97" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M97" s="32" t="inlineStr">
@@ -7192,31 +7192,31 @@
         <v>1630.08</v>
       </c>
       <c r="E98" s="31" t="n">
-        <v>1878.17</v>
+        <v>1865.95</v>
       </c>
       <c r="F98" s="31" t="n">
-        <v>278.17</v>
+        <v>265.95</v>
       </c>
       <c r="G98" s="30" t="n">
-        <v>1.1522</v>
+        <v>1.1484</v>
       </c>
       <c r="H98" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I98" s="30" t="n">
-        <v>1.1504</v>
+        <v>1.1459</v>
       </c>
       <c r="J98" s="33" t="n">
-        <v>-0.0016</v>
+        <v>-0.0022</v>
       </c>
       <c r="K98" s="8" t="n">
-        <v>-2.93</v>
+        <v>-4.08</v>
       </c>
       <c r="L98" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M98" s="32" t="inlineStr">
@@ -7261,31 +7261,31 @@
         <v>1407.29</v>
       </c>
       <c r="E99" s="31" t="n">
-        <v>1795.7</v>
+        <v>1752.07</v>
       </c>
       <c r="F99" s="31" t="n">
-        <v>195.7</v>
+        <v>152.07</v>
       </c>
       <c r="G99" s="30" t="n">
-        <v>1.276</v>
+        <v>1.245</v>
       </c>
       <c r="H99" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I99" s="30" t="n">
-        <v>1.2719</v>
+        <v>1.2482</v>
       </c>
       <c r="J99" s="33" t="n">
-        <v>-0.0032</v>
-      </c>
-      <c r="K99" s="8" t="n">
-        <v>-5.77</v>
+        <v>0.0026</v>
+      </c>
+      <c r="K99" s="9" t="n">
+        <v>4.5</v>
       </c>
       <c r="L99" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 05:00</t>
+          <t>2019-11-23 05:00</t>
         </is>
       </c>
       <c r="M99" s="32" t="inlineStr">
@@ -7330,31 +7330,31 @@
         <v>1338.46</v>
       </c>
       <c r="E100" s="31" t="n">
-        <v>1359.87</v>
+        <v>1339.79</v>
       </c>
       <c r="F100" s="31" t="n">
-        <v>159.87</v>
+        <v>139.79</v>
       </c>
       <c r="G100" s="30" t="n">
-        <v>1.016</v>
+        <v>1.01</v>
       </c>
       <c r="H100" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I100" s="30" t="n">
-        <v>1.0099</v>
+        <v>1.0012</v>
       </c>
       <c r="J100" s="33" t="n">
-        <v>-0.006</v>
+        <v>-0.008699999999999999</v>
       </c>
       <c r="K100" s="8" t="n">
-        <v>-8.16</v>
+        <v>-11.78</v>
       </c>
       <c r="L100" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M100" s="32" t="inlineStr">
@@ -7399,31 +7399,31 @@
         <v>3350.7</v>
       </c>
       <c r="E101" s="31" t="n">
-        <v>1229.7</v>
+        <v>1253.16</v>
       </c>
       <c r="F101" s="31" t="n">
-        <v>-370.3</v>
+        <v>-346.84</v>
       </c>
       <c r="G101" s="30" t="n">
-        <v>0.367</v>
+        <v>0.374</v>
       </c>
       <c r="H101" s="32" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I101" s="30" t="n">
-        <v>0.3654</v>
+        <v>0.3753</v>
       </c>
       <c r="J101" s="33" t="n">
-        <v>-0.0043</v>
-      </c>
-      <c r="K101" s="8" t="n">
-        <v>-5.36</v>
+        <v>0.0035</v>
+      </c>
+      <c r="K101" s="9" t="n">
+        <v>4.36</v>
       </c>
       <c r="L101" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 05:00</t>
+          <t>2019-11-23 05:00</t>
         </is>
       </c>
       <c r="M101" s="32" t="inlineStr">
@@ -7468,31 +7468,31 @@
         <v>1495.03</v>
       </c>
       <c r="E102" s="31" t="n">
-        <v>1206.33</v>
+        <v>1190.19</v>
       </c>
       <c r="F102" s="31" t="n">
-        <v>6.33</v>
+        <v>-9.81</v>
       </c>
       <c r="G102" s="30" t="n">
-        <v>0.8069</v>
+        <v>0.8058999999999999</v>
       </c>
       <c r="H102" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I102" s="30" t="n">
-        <v>0.8056</v>
+        <v>0.7958</v>
       </c>
       <c r="J102" s="33" t="n">
-        <v>-0.0016</v>
+        <v>-0.0125</v>
       </c>
       <c r="K102" s="8" t="n">
-        <v>-1.94</v>
+        <v>-15.1</v>
       </c>
       <c r="L102" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M102" s="32" t="inlineStr">
@@ -7537,31 +7537,31 @@
         <v>900.35</v>
       </c>
       <c r="E103" s="31" t="n">
-        <v>978.14</v>
+        <v>970.39</v>
       </c>
       <c r="F103" s="31" t="n">
-        <v>178.14</v>
+        <v>170.39</v>
       </c>
       <c r="G103" s="30" t="n">
-        <v>1.0864</v>
+        <v>1.0826</v>
       </c>
       <c r="H103" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I103" s="30" t="n">
-        <v>1.0824</v>
+        <v>1.0777</v>
       </c>
       <c r="J103" s="33" t="n">
-        <v>-0.0037</v>
+        <v>-0.0046</v>
       </c>
       <c r="K103" s="8" t="n">
-        <v>-3.6</v>
+        <v>-4.41</v>
       </c>
       <c r="L103" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M103" s="32" t="inlineStr">
@@ -7606,31 +7606,31 @@
         <v>733.79</v>
       </c>
       <c r="E104" s="31" t="n">
-        <v>895.73</v>
+        <v>896.17</v>
       </c>
       <c r="F104" s="31" t="n">
-        <v>95.73</v>
+        <v>96.17</v>
       </c>
       <c r="G104" s="30" t="n">
-        <v>1.2207</v>
+        <v>1.2202</v>
       </c>
       <c r="H104" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I104" s="30" t="n">
-        <v>1.2201</v>
+        <v>1.2219</v>
       </c>
       <c r="J104" s="33" t="n">
-        <v>-0.0005</v>
-      </c>
-      <c r="K104" s="8" t="n">
-        <v>-0.44</v>
+        <v>0.0014</v>
+      </c>
+      <c r="K104" s="9" t="n">
+        <v>1.25</v>
       </c>
       <c r="L104" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 15:30</t>
+          <t>2019-11-22 15:30</t>
         </is>
       </c>
       <c r="M104" s="32" t="inlineStr">
@@ -7675,31 +7675,31 @@
         <v>496.13</v>
       </c>
       <c r="E105" s="31" t="n">
-        <v>479.7</v>
+        <v>478.26</v>
       </c>
       <c r="F105" s="31" t="n">
-        <v>79.7</v>
+        <v>78.26000000000001</v>
       </c>
       <c r="G105" s="30" t="n">
-        <v>0.9669</v>
+        <v>0.9671999999999999</v>
       </c>
       <c r="H105" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I105" s="30" t="n">
-        <v>0.9674</v>
+        <v>0.9643</v>
       </c>
       <c r="J105" s="33" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="K105" s="9" t="n">
-        <v>0.25</v>
+        <v>-0.003</v>
+      </c>
+      <c r="K105" s="8" t="n">
+        <v>-1.44</v>
       </c>
       <c r="L105" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M105" s="32" t="inlineStr">
@@ -7744,31 +7744,31 @@
         <v>492.57</v>
       </c>
       <c r="E106" s="31" t="n">
-        <v>475.97</v>
+        <v>465.77</v>
       </c>
       <c r="F106" s="31" t="n">
-        <v>75.97</v>
+        <v>65.77</v>
       </c>
       <c r="G106" s="30" t="n">
-        <v>0.9663</v>
+        <v>0.9631</v>
       </c>
       <c r="H106" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I106" s="30" t="n">
-        <v>0.9628</v>
+        <v>0.9453</v>
       </c>
       <c r="J106" s="33" t="n">
-        <v>-0.0036</v>
+        <v>-0.0185</v>
       </c>
       <c r="K106" s="8" t="n">
-        <v>-1.72</v>
+        <v>-8.77</v>
       </c>
       <c r="L106" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M106" s="32" t="inlineStr">
@@ -7813,31 +7813,31 @@
         <v>333.04</v>
       </c>
       <c r="E107" s="31" t="n">
-        <v>453.5</v>
+        <v>452</v>
       </c>
       <c r="F107" s="31" t="n">
-        <v>53.5</v>
+        <v>52</v>
       </c>
       <c r="G107" s="30" t="n">
-        <v>1.3617</v>
+        <v>1.3595</v>
       </c>
       <c r="H107" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I107" s="30" t="n">
-        <v>1.3578</v>
+        <v>1.3566</v>
       </c>
       <c r="J107" s="33" t="n">
-        <v>-0.0028</v>
+        <v>-0.0021</v>
       </c>
       <c r="K107" s="8" t="n">
-        <v>-1.3</v>
+        <v>-0.97</v>
       </c>
       <c r="L107" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M107" s="32" t="inlineStr">
@@ -7882,31 +7882,31 @@
         <v>325.61</v>
       </c>
       <c r="E108" s="31" t="n">
-        <v>426.22</v>
+        <v>420.36</v>
       </c>
       <c r="F108" s="31" t="n">
-        <v>26.22</v>
+        <v>20.36</v>
       </c>
       <c r="G108" s="30" t="n">
-        <v>1.309</v>
+        <v>1.303</v>
       </c>
       <c r="H108" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I108" s="30" t="n">
-        <v>1.3032</v>
+        <v>1.2904</v>
       </c>
       <c r="J108" s="33" t="n">
-        <v>-0.0045</v>
+        <v>-0.0097</v>
       </c>
       <c r="K108" s="8" t="n">
-        <v>-1.89</v>
+        <v>-4.1</v>
       </c>
       <c r="L108" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M108" s="32" t="inlineStr">
@@ -7951,31 +7951,31 @@
         <v>275.49</v>
       </c>
       <c r="E109" s="31" t="n">
-        <v>413.62</v>
+        <v>410.81</v>
       </c>
       <c r="F109" s="31" t="n">
-        <v>13.62</v>
+        <v>10.81</v>
       </c>
       <c r="G109" s="30" t="n">
-        <v>1.5014</v>
+        <v>1.4912</v>
       </c>
       <c r="H109" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="I109" s="30" t="n">
-        <v>1.479</v>
+        <v>1.4981</v>
       </c>
       <c r="J109" s="33" t="n">
-        <v>-0.0149</v>
-      </c>
-      <c r="K109" s="8" t="n">
-        <v>-6.17</v>
+        <v>0.0046</v>
+      </c>
+      <c r="K109" s="9" t="n">
+        <v>1.9</v>
       </c>
       <c r="L109" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 16:00</t>
+          <t>2019-11-22 16:00</t>
         </is>
       </c>
       <c r="M109" s="32" t="inlineStr">
@@ -8020,31 +8020,31 @@
         <v>275.96</v>
       </c>
       <c r="E110" s="31" t="n">
-        <v>239.72</v>
+        <v>237.71</v>
       </c>
       <c r="F110" s="31" t="n">
-        <v>10.96</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="G110" s="30" t="n">
-        <v>0.8687</v>
+        <v>0.8683999999999999</v>
       </c>
       <c r="H110" s="32" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="I110" s="30" t="n">
-        <v>0.8686</v>
+        <v>0.8615</v>
       </c>
       <c r="J110" s="33" t="n">
-        <v>-0.0001</v>
+        <v>-0.008</v>
       </c>
       <c r="K110" s="8" t="n">
-        <v>-0.03</v>
+        <v>-1.9</v>
       </c>
       <c r="L110" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21 15:00</t>
+          <t>2019-11-22 15:00</t>
         </is>
       </c>
       <c r="M110" s="32" t="inlineStr">
@@ -8074,6 +8074,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Portfolio/scripts/output/201911/全家/全家整体收益估算.xlsx
+++ b/Portfolio/scripts/output/201911/全家/全家整体收益估算.xlsx
@@ -562,37 +562,37 @@
         <v>90010</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.6535</v>
+        <v>1.6525</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>2211.21</v>
+        <v>2280.92</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>3546.78</v>
+        <v>3667.72</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>-109.41</v>
+        <v>-101.61</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.61</v>
+        <v>1.608</v>
       </c>
       <c r="H2" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.6043</v>
+        <v>1.6048</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>-0.0035</v>
+        <v>-0.002</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>-12.6</v>
+        <v>-7.3</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -631,37 +631,37 @@
         <v>519671</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.4258</v>
+        <v>1.4264</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>2462.53</v>
+        <v>2540.22</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>3499.26</v>
+        <v>3632.51</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>-11.88</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.425</v>
+        <v>1.43</v>
       </c>
       <c r="H3" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.4212</v>
+        <v>1.4235</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>-0.0027</v>
+        <v>-0.0046</v>
       </c>
       <c r="K3" s="8" t="n">
-        <v>-9.359999999999999</v>
+        <v>-16.51</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
@@ -706,31 +706,31 @@
         <v>2260.14</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3269.52</v>
+        <v>3301.61</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>222.58</v>
+        <v>254.67</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.4466</v>
+        <v>1.4608</v>
       </c>
       <c r="H4" s="6" t="inlineStr">
         <is>
-          <t>2019-11-22</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.4532</v>
+        <v>1.4338</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0.0045</v>
-      </c>
-      <c r="K4" s="9" t="n">
-        <v>14.92</v>
+        <v>-0.0185</v>
+      </c>
+      <c r="K4" s="8" t="n">
+        <v>-61.02</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>2019-11-22 16:00</t>
+          <t>2019-11-29 12:00</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
@@ -769,37 +769,37 @@
         <v>3318</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.9344</v>
+        <v>0.9336</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3272.2</v>
+        <v>3390.61</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2985.56</v>
+        <v>3082.4</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-72</v>
+        <v>-83.01000000000001</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.9183</v>
+        <v>0.9091</v>
       </c>
       <c r="H5" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.9124</v>
+        <v>0.9094</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>-0.0065</v>
-      </c>
-      <c r="K5" s="8" t="n">
-        <v>-19.31</v>
+        <v>0.0004</v>
+      </c>
+      <c r="K5" s="9" t="n">
+        <v>1.02</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
@@ -838,37 +838,37 @@
         <v>70023</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.7941</v>
+        <v>1.7965</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1266.95</v>
+        <v>1314.93</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2311.93</v>
+        <v>2419.47</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>38.85</v>
+        <v>57.15</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.8422</v>
+        <v>1.84</v>
       </c>
       <c r="H6" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.8247</v>
+        <v>1.8302</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>-0.0095</v>
+        <v>-0.0053</v>
       </c>
       <c r="K6" s="8" t="n">
-        <v>-22.17</v>
+        <v>-12.89</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
@@ -907,37 +907,37 @@
         <v>530015</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>2.1197</v>
+        <v>2.1218</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>930.7</v>
+        <v>973.88</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1973.83</v>
+        <v>2082.64</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.07</v>
+        <v>16.31</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>2.1379</v>
+        <v>2.1385</v>
       </c>
       <c r="H7" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>2.1202</v>
+        <v>2.1279</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>-0.0083</v>
+        <v>-0.0049</v>
       </c>
       <c r="K7" s="8" t="n">
-        <v>-16.47</v>
+        <v>-10.32</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -976,37 +976,37 @@
         <v>968</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>0.9608</v>
+        <v>0.9605</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>797.84</v>
+        <v>887.74</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>762.58</v>
+        <v>840.6</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-3.99</v>
+        <v>-12.08</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>0.9702</v>
+        <v>0.9469</v>
       </c>
       <c r="H8" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.9556</v>
+        <v>0.9376</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>-0.015</v>
+        <v>-0.0098</v>
       </c>
       <c r="K8" s="8" t="n">
-        <v>-11.65</v>
+        <v>-8.26</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -1051,31 +1051,31 @@
         <v>550.4</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>512.48</v>
+        <v>513.3</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-28.41</v>
+        <v>-27.59</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>0.9334</v>
+        <v>0.9326</v>
       </c>
       <c r="H9" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.9278</v>
+        <v>0.9268999999999999</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>-0.006</v>
+        <v>-0.0061</v>
       </c>
       <c r="K9" s="8" t="n">
-        <v>-3.08</v>
+        <v>-3.14</v>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M9" s="6" t="inlineStr">
@@ -1120,31 +1120,31 @@
         <v>531.87</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>415.39</v>
+        <v>410.5</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>58.61</v>
+        <v>53.72</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>0.8068</v>
+        <v>0.7718</v>
       </c>
       <c r="H10" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.7812</v>
+        <v>0.7577</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>-0.0317</v>
+        <v>-0.0182</v>
       </c>
       <c r="K10" s="8" t="n">
-        <v>-13.62</v>
+        <v>-7.5</v>
       </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M10" s="6" t="inlineStr">
@@ -1189,31 +1189,31 @@
         <v>247.91</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>325.75</v>
+        <v>326.5</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>12.49</v>
+        <v>13.24</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>1.32</v>
+        <v>1.317</v>
       </c>
       <c r="H11" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1.311</v>
+        <v>1.2915</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>-0.0068</v>
+        <v>-0.0194</v>
       </c>
       <c r="K11" s="8" t="n">
-        <v>-2.23</v>
+        <v>-6.32</v>
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M11" s="6" t="inlineStr">
@@ -1258,31 +1258,31 @@
         <v>60.61</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>86.81</v>
+        <v>87.28</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-5.9</v>
+        <v>-5.43</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>1.4361</v>
+        <v>1.44</v>
       </c>
       <c r="H12" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I12" s="4" t="n">
-        <v>1.4323</v>
+        <v>1.4334</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>-0.0027</v>
+        <v>-0.0046</v>
       </c>
       <c r="K12" s="8" t="n">
-        <v>-0.23</v>
+        <v>-0.4</v>
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M12" s="6" t="inlineStr">
@@ -1327,31 +1327,31 @@
         <v>16731.88</v>
       </c>
       <c r="E13" s="13" t="n">
-        <v>9011.790000000001</v>
+        <v>9078.709999999999</v>
       </c>
       <c r="F13" s="13" t="n">
-        <v>-2988.21</v>
+        <v>-2921.28</v>
       </c>
       <c r="G13" s="12" t="n">
-        <v>0.5389</v>
+        <v>0.5426</v>
       </c>
       <c r="H13" s="14" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I13" s="12" t="n">
-        <v>0.5386</v>
+        <v>0.5413</v>
       </c>
       <c r="J13" s="15" t="n">
-        <v>-0.0005999999999999999</v>
+        <v>-0.0024</v>
       </c>
       <c r="K13" s="8" t="n">
-        <v>-5.02</v>
+        <v>-21.75</v>
       </c>
       <c r="L13" s="14" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M13" s="14" t="inlineStr">
@@ -1396,31 +1396,31 @@
         <v>2700</v>
       </c>
       <c r="E14" s="19" t="n">
-        <v>8010.9</v>
+        <v>8040.6</v>
       </c>
       <c r="F14" s="19" t="n">
-        <v>1701</v>
+        <v>1730.7</v>
       </c>
       <c r="G14" s="18" t="n">
-        <v>2.995</v>
+        <v>2.978</v>
       </c>
       <c r="H14" s="20" t="inlineStr">
         <is>
-          <t>2019-11-22</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I14" s="18" t="n">
-        <v>2.967</v>
+        <v>2.943</v>
       </c>
       <c r="J14" s="21" t="n">
-        <v>-0.009299999999999999</v>
+        <v>-0.0118</v>
       </c>
       <c r="K14" s="8" t="n">
-        <v>-75.59999999999999</v>
+        <v>-94.5</v>
       </c>
       <c r="L14" s="20" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:29</t>
         </is>
       </c>
       <c r="M14" s="20" t="inlineStr">
@@ -1465,31 +1465,31 @@
         <v>9100</v>
       </c>
       <c r="E15" s="19" t="n">
-        <v>35562.8</v>
+        <v>35763</v>
       </c>
       <c r="F15" s="19" t="n">
-        <v>4195.1</v>
+        <v>4395.3</v>
       </c>
       <c r="G15" s="18" t="n">
-        <v>3.95</v>
+        <v>3.93</v>
       </c>
       <c r="H15" s="20" t="inlineStr">
         <is>
-          <t>2019-11-22</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I15" s="18" t="n">
-        <v>3.908</v>
+        <v>3.886</v>
       </c>
       <c r="J15" s="21" t="n">
-        <v>-0.0106</v>
+        <v>-0.0112</v>
       </c>
       <c r="K15" s="8" t="n">
-        <v>-382.2</v>
+        <v>-400.4</v>
       </c>
       <c r="L15" s="20" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:29</t>
         </is>
       </c>
       <c r="M15" s="20" t="inlineStr">
@@ -1540,25 +1540,25 @@
         <v>-12066.8</v>
       </c>
       <c r="G16" s="18" t="n">
-        <v>5.345</v>
+        <v>5.29</v>
       </c>
       <c r="H16" s="20" t="inlineStr">
         <is>
-          <t>2019-11-22</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I16" s="18" t="n">
-        <v>5.29</v>
+        <v>5.279</v>
       </c>
       <c r="J16" s="21" t="n">
-        <v>-0.0103</v>
+        <v>-0.0021</v>
       </c>
       <c r="K16" s="8" t="n">
-        <v>-2134</v>
+        <v>-426.8</v>
       </c>
       <c r="L16" s="20" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:29</t>
         </is>
       </c>
       <c r="M16" s="20" t="inlineStr">
@@ -1603,21 +1603,21 @@
         <v>33800</v>
       </c>
       <c r="E17" s="19" t="n">
-        <v>24167</v>
+        <v>24403.6</v>
       </c>
       <c r="F17" s="19" t="n">
-        <v>-5475.6</v>
+        <v>-5239</v>
       </c>
       <c r="G17" s="18" t="n">
-        <v>0.716</v>
+        <v>0.722</v>
       </c>
       <c r="H17" s="20" t="inlineStr">
         <is>
-          <t>2019-11-22</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I17" s="18" t="n">
-        <v>0.715</v>
+        <v>0.721</v>
       </c>
       <c r="J17" s="21" t="n">
         <v>-0.0014</v>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="L17" s="20" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:26</t>
         </is>
       </c>
       <c r="M17" s="20" t="inlineStr">
@@ -1672,31 +1672,31 @@
         <v>32700</v>
       </c>
       <c r="E18" s="19" t="n">
-        <v>29397.3</v>
+        <v>29266.5</v>
       </c>
       <c r="F18" s="19" t="n">
-        <v>3793.2</v>
+        <v>3662.4</v>
       </c>
       <c r="G18" s="18" t="n">
-        <v>0.9</v>
+        <v>0.895</v>
       </c>
       <c r="H18" s="20" t="inlineStr">
         <is>
-          <t>2019-11-22</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I18" s="18" t="n">
         <v>0.899</v>
       </c>
       <c r="J18" s="21" t="n">
-        <v>-0.0011</v>
-      </c>
-      <c r="K18" s="8" t="n">
-        <v>-32.7</v>
+        <v>0.0045</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>130.8</v>
       </c>
       <c r="L18" s="20" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:29</t>
         </is>
       </c>
       <c r="M18" s="20" t="inlineStr">
@@ -1741,31 +1741,31 @@
         <v>34100</v>
       </c>
       <c r="E19" s="19" t="n">
-        <v>26052.4</v>
+        <v>25404.5</v>
       </c>
       <c r="F19" s="19" t="n">
-        <v>-3580.5</v>
+        <v>-4228.4</v>
       </c>
       <c r="G19" s="18" t="n">
-        <v>0.768</v>
+        <v>0.745</v>
       </c>
       <c r="H19" s="20" t="inlineStr">
         <is>
-          <t>2019-11-22</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I19" s="18" t="n">
-        <v>0.764</v>
+        <v>0.745</v>
       </c>
       <c r="J19" s="21" t="n">
-        <v>-0.0052</v>
-      </c>
-      <c r="K19" s="8" t="n">
-        <v>-136.4</v>
+        <v>0</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="L19" s="20" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:29</t>
         </is>
       </c>
       <c r="M19" s="20" t="inlineStr">
@@ -1810,31 +1810,31 @@
         <v>4500</v>
       </c>
       <c r="E20" s="19" t="n">
-        <v>14791.5</v>
+        <v>14674.5</v>
       </c>
       <c r="F20" s="19" t="n">
-        <v>1939.5</v>
+        <v>1822.5</v>
       </c>
       <c r="G20" s="18" t="n">
-        <v>3.294</v>
+        <v>3.261</v>
       </c>
       <c r="H20" s="20" t="inlineStr">
         <is>
-          <t>2019-11-22</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I20" s="18" t="n">
-        <v>3.287</v>
+        <v>3.268</v>
       </c>
       <c r="J20" s="21" t="n">
-        <v>-0.0021</v>
-      </c>
-      <c r="K20" s="8" t="n">
-        <v>-31.5</v>
+        <v>0.0021</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>31.5</v>
       </c>
       <c r="L20" s="20" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:29</t>
         </is>
       </c>
       <c r="M20" s="20" t="inlineStr">
@@ -1879,31 +1879,31 @@
         <v>9200</v>
       </c>
       <c r="E21" s="19" t="n">
-        <v>14848.8</v>
+        <v>14821.2</v>
       </c>
       <c r="F21" s="19" t="n">
-        <v>1978</v>
+        <v>1950.4</v>
       </c>
       <c r="G21" s="18" t="n">
-        <v>1.65</v>
+        <v>1.611</v>
       </c>
       <c r="H21" s="20" t="inlineStr">
         <is>
-          <t>2019-11-22</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I21" s="18" t="n">
-        <v>1.614</v>
+        <v>1.596</v>
       </c>
       <c r="J21" s="21" t="n">
-        <v>-0.0218</v>
+        <v>-0.009299999999999999</v>
       </c>
       <c r="K21" s="8" t="n">
-        <v>-331.2</v>
+        <v>-138</v>
       </c>
       <c r="L21" s="20" t="inlineStr">
         <is>
-          <t>2019-11-22 15:04</t>
+          <t>2019-11-29 12:22</t>
         </is>
       </c>
       <c r="M21" s="20" t="inlineStr">
@@ -1948,31 +1948,31 @@
         <v>14400</v>
       </c>
       <c r="E22" s="19" t="n">
-        <v>19713.6</v>
+        <v>19569.6</v>
       </c>
       <c r="F22" s="19" t="n">
-        <v>1411.2</v>
+        <v>1267.2</v>
       </c>
       <c r="G22" s="18" t="n">
-        <v>1.414</v>
+        <v>1.359</v>
       </c>
       <c r="H22" s="20" t="inlineStr">
         <is>
-          <t>2019-11-22</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I22" s="18" t="n">
-        <v>1.369</v>
+        <v>1.326</v>
       </c>
       <c r="J22" s="21" t="n">
-        <v>-0.0318</v>
+        <v>-0.0243</v>
       </c>
       <c r="K22" s="8" t="n">
-        <v>-648</v>
+        <v>-475.2</v>
       </c>
       <c r="L22" s="20" t="inlineStr">
         <is>
-          <t>2019-11-22 15:04</t>
+          <t>2019-11-29 12:22</t>
         </is>
       </c>
       <c r="M22" s="20" t="inlineStr">
@@ -2017,31 +2017,31 @@
         <v>3813.64</v>
       </c>
       <c r="E23" s="25" t="n">
-        <v>7382.44</v>
+        <v>7368.33</v>
       </c>
       <c r="F23" s="25" t="n">
-        <v>45.44</v>
+        <v>31.33</v>
       </c>
       <c r="G23" s="24" t="n">
-        <v>1.9519</v>
+        <v>1.9321</v>
       </c>
       <c r="H23" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I23" s="24" t="n">
-        <v>1.9363</v>
+        <v>1.9271</v>
       </c>
       <c r="J23" s="27" t="n">
-        <v>-0.008</v>
+        <v>-0.0026</v>
       </c>
       <c r="K23" s="8" t="n">
-        <v>-59.49</v>
+        <v>-19.07</v>
       </c>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M23" s="26" t="inlineStr">
@@ -2086,31 +2086,31 @@
         <v>9722</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>5236.27</v>
+        <v>5275.16</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>-99.73</v>
+        <v>-60.84</v>
       </c>
       <c r="G24" s="24" t="n">
-        <v>0.5389</v>
+        <v>0.5426</v>
       </c>
       <c r="H24" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I24" s="24" t="n">
-        <v>0.5386</v>
+        <v>0.5413</v>
       </c>
       <c r="J24" s="27" t="n">
-        <v>-0.0005999999999999999</v>
+        <v>-0.0024</v>
       </c>
       <c r="K24" s="8" t="n">
-        <v>-2.92</v>
+        <v>-12.64</v>
       </c>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M24" s="26" t="inlineStr">
@@ -2155,31 +2155,31 @@
         <v>4943.96</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>4725.44</v>
+        <v>4681.44</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>56.44</v>
+        <v>12.44</v>
       </c>
       <c r="G25" s="24" t="n">
-        <v>0.9702</v>
+        <v>0.9469</v>
       </c>
       <c r="H25" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I25" s="24" t="n">
-        <v>0.9556</v>
+        <v>0.9376</v>
       </c>
       <c r="J25" s="27" t="n">
-        <v>-0.015</v>
+        <v>-0.0098</v>
       </c>
       <c r="K25" s="8" t="n">
-        <v>-72.18000000000001</v>
+        <v>-45.98</v>
       </c>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M25" s="26" t="inlineStr">
@@ -2224,31 +2224,31 @@
         <v>7379.54</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>4021.85</v>
+        <v>4014.47</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>19.85</v>
+        <v>12.47</v>
       </c>
       <c r="G26" s="24" t="n">
-        <v>0.55</v>
+        <v>0.544</v>
       </c>
       <c r="H26" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I26" s="24" t="n">
-        <v>0.5456</v>
+        <v>0.5426</v>
       </c>
       <c r="J26" s="27" t="n">
-        <v>-0.008</v>
+        <v>-0.0026</v>
       </c>
       <c r="K26" s="8" t="n">
-        <v>-32.47</v>
+        <v>-10.33</v>
       </c>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M26" s="26" t="inlineStr">
@@ -2293,31 +2293,31 @@
         <v>3665.01</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>3991.2</v>
+        <v>4002.19</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>-10.8</v>
+        <v>0.19</v>
       </c>
       <c r="G27" s="24" t="n">
-        <v>1.095</v>
+        <v>1.092</v>
       </c>
       <c r="H27" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I27" s="24" t="n">
-        <v>1.0912</v>
+        <v>1.0898</v>
       </c>
       <c r="J27" s="27" t="n">
-        <v>-0.0035</v>
+        <v>-0.002</v>
       </c>
       <c r="K27" s="8" t="n">
-        <v>-13.93</v>
+        <v>-8.06</v>
       </c>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M27" s="26" t="inlineStr">
@@ -2362,31 +2362,31 @@
         <v>4550.55</v>
       </c>
       <c r="E28" s="25" t="n">
-        <v>3477.99</v>
+        <v>3405.18</v>
       </c>
       <c r="F28" s="25" t="n">
-        <v>142.99</v>
+        <v>70.18000000000001</v>
       </c>
       <c r="G28" s="24" t="n">
-        <v>0.772</v>
+        <v>0.7483</v>
       </c>
       <c r="H28" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I28" s="24" t="n">
-        <v>0.7643</v>
+        <v>0.7485000000000001</v>
       </c>
       <c r="J28" s="27" t="n">
-        <v>-0.01</v>
-      </c>
-      <c r="K28" s="8" t="n">
-        <v>-35.04</v>
+        <v>0.0003</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>0.91</v>
       </c>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M28" s="26" t="inlineStr">
@@ -2431,31 +2431,31 @@
         <v>400.63</v>
       </c>
       <c r="E29" s="25" t="n">
-        <v>696.98</v>
+        <v>694.65</v>
       </c>
       <c r="F29" s="25" t="n">
-        <v>29.98</v>
+        <v>27.65</v>
       </c>
       <c r="G29" s="24" t="n">
-        <v>1.7723</v>
+        <v>1.7339</v>
       </c>
       <c r="H29" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I29" s="24" t="n">
-        <v>1.7395</v>
+        <v>1.7174</v>
       </c>
       <c r="J29" s="27" t="n">
-        <v>-0.0185</v>
+        <v>-0.0095</v>
       </c>
       <c r="K29" s="8" t="n">
-        <v>-13.14</v>
+        <v>-6.61</v>
       </c>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M29" s="26" t="inlineStr">
@@ -2500,31 +2500,31 @@
         <v>736.3</v>
       </c>
       <c r="E30" s="25" t="n">
-        <v>696.25</v>
+        <v>693.37</v>
       </c>
       <c r="F30" s="25" t="n">
-        <v>29.25</v>
+        <v>26.37</v>
       </c>
       <c r="G30" s="24" t="n">
-        <v>0.9631</v>
+        <v>0.9417</v>
       </c>
       <c r="H30" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I30" s="24" t="n">
-        <v>0.9453</v>
+        <v>0.9328</v>
       </c>
       <c r="J30" s="27" t="n">
-        <v>-0.0185</v>
+        <v>-0.0095</v>
       </c>
       <c r="K30" s="8" t="n">
-        <v>-13.11</v>
+        <v>-6.55</v>
       </c>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M30" s="26" t="inlineStr">
@@ -2569,31 +2569,31 @@
         <v>473.85</v>
       </c>
       <c r="E31" s="25" t="n">
-        <v>456.79</v>
+        <v>455.42</v>
       </c>
       <c r="F31" s="25" t="n">
-        <v>-10.11</v>
+        <v>-11.48</v>
       </c>
       <c r="G31" s="24" t="n">
-        <v>0.9671999999999999</v>
+        <v>0.9611</v>
       </c>
       <c r="H31" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I31" s="24" t="n">
-        <v>0.9643</v>
+        <v>0.965</v>
       </c>
       <c r="J31" s="27" t="n">
-        <v>-0.003</v>
-      </c>
-      <c r="K31" s="8" t="n">
-        <v>-1.37</v>
+        <v>0.0041</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>1.85</v>
       </c>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M31" s="26" t="inlineStr">
@@ -2638,31 +2638,31 @@
         <v>5299.96</v>
       </c>
       <c r="E32" s="25" t="n">
-        <v>1982.18</v>
+        <v>1976.89</v>
       </c>
       <c r="F32" s="25" t="n">
-        <v>-18.81</v>
+        <v>-24.11</v>
       </c>
       <c r="G32" s="24" t="n">
-        <v>0.374</v>
+        <v>0.373</v>
       </c>
       <c r="H32" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-27</t>
         </is>
       </c>
       <c r="I32" s="24" t="n">
-        <v>0.3753</v>
+        <v>0.3735</v>
       </c>
       <c r="J32" s="27" t="n">
-        <v>0.0035</v>
+        <v>0.0014</v>
       </c>
       <c r="K32" s="9" t="n">
-        <v>6.89</v>
+        <v>2.65</v>
       </c>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>2019-11-23 05:00</t>
+          <t>2019-11-28 05:00</t>
         </is>
       </c>
       <c r="M32" s="26" t="inlineStr">
@@ -2707,31 +2707,31 @@
         <v>576.8</v>
       </c>
       <c r="E33" s="25" t="n">
-        <v>718.12</v>
+        <v>759.0700000000001</v>
       </c>
       <c r="F33" s="25" t="n">
-        <v>51.12</v>
+        <v>92.06999999999999</v>
       </c>
       <c r="G33" s="24" t="n">
-        <v>1.245</v>
+        <v>1.316</v>
       </c>
       <c r="H33" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-27</t>
         </is>
       </c>
       <c r="I33" s="24" t="n">
-        <v>1.2482</v>
+        <v>1.3174</v>
       </c>
       <c r="J33" s="27" t="n">
-        <v>0.0026</v>
+        <v>0.0011</v>
       </c>
       <c r="K33" s="9" t="n">
-        <v>1.85</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>2019-11-23 05:00</t>
+          <t>2019-11-28 05:00</t>
         </is>
       </c>
       <c r="M33" s="26" t="inlineStr">
@@ -2776,31 +2776,31 @@
         <v>459.67</v>
       </c>
       <c r="E34" s="25" t="n">
-        <v>685.46</v>
+        <v>691.76</v>
       </c>
       <c r="F34" s="25" t="n">
-        <v>18.46</v>
+        <v>24.76</v>
       </c>
       <c r="G34" s="24" t="n">
-        <v>1.4912</v>
+        <v>1.5049</v>
       </c>
       <c r="H34" s="26" t="inlineStr">
         <is>
-          <t>2019-11-22</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I34" s="24" t="n">
-        <v>1.4981</v>
+        <v>1.4767</v>
       </c>
       <c r="J34" s="27" t="n">
-        <v>0.0046</v>
-      </c>
-      <c r="K34" s="9" t="n">
-        <v>3.17</v>
+        <v>-0.0187</v>
+      </c>
+      <c r="K34" s="8" t="n">
+        <v>-12.96</v>
       </c>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>2019-11-22 16:00</t>
+          <t>2019-11-29 12:00</t>
         </is>
       </c>
       <c r="M34" s="26" t="inlineStr">
@@ -2845,10 +2845,10 @@
         <v>611.75</v>
       </c>
       <c r="E35" s="25" t="n">
-        <v>734.71</v>
+        <v>739.61</v>
       </c>
       <c r="F35" s="25" t="n">
-        <v>67.70999999999999</v>
+        <v>72.61</v>
       </c>
       <c r="G35" s="24" t="n">
         <v>0</v>
@@ -2914,31 +2914,31 @@
         <v>1046.73</v>
       </c>
       <c r="E36" s="25" t="n">
-        <v>2026.26</v>
+        <v>2022.39</v>
       </c>
       <c r="F36" s="25" t="n">
-        <v>26.26</v>
+        <v>22.39</v>
       </c>
       <c r="G36" s="24" t="n">
-        <v>1.9519</v>
+        <v>1.9321</v>
       </c>
       <c r="H36" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I36" s="24" t="n">
-        <v>1.9363</v>
+        <v>1.9271</v>
       </c>
       <c r="J36" s="27" t="n">
-        <v>-0.008</v>
+        <v>-0.0026</v>
       </c>
       <c r="K36" s="8" t="n">
-        <v>-16.33</v>
+        <v>-5.23</v>
       </c>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M36" s="26" t="inlineStr">
@@ -2983,31 +2983,31 @@
         <v>1825.9</v>
       </c>
       <c r="E37" s="25" t="n">
-        <v>1988.41</v>
+        <v>1993.88</v>
       </c>
       <c r="F37" s="25" t="n">
-        <v>-11.59</v>
+        <v>-6.12</v>
       </c>
       <c r="G37" s="24" t="n">
-        <v>1.095</v>
+        <v>1.092</v>
       </c>
       <c r="H37" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I37" s="24" t="n">
-        <v>1.0912</v>
+        <v>1.0898</v>
       </c>
       <c r="J37" s="27" t="n">
-        <v>-0.0035</v>
+        <v>-0.002</v>
       </c>
       <c r="K37" s="8" t="n">
-        <v>-6.94</v>
+        <v>-4.02</v>
       </c>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M37" s="26" t="inlineStr">
@@ -3052,31 +3052,31 @@
         <v>1059.17</v>
       </c>
       <c r="E38" s="25" t="n">
-        <v>1060.23</v>
+        <v>1063.41</v>
       </c>
       <c r="F38" s="25" t="n">
-        <v>60.23</v>
+        <v>63.41</v>
       </c>
       <c r="G38" s="24" t="n">
-        <v>1.01</v>
+        <v>1.004</v>
       </c>
       <c r="H38" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I38" s="24" t="n">
-        <v>1.0012</v>
+        <v>0.9925</v>
       </c>
       <c r="J38" s="27" t="n">
-        <v>-0.008699999999999999</v>
+        <v>-0.0115</v>
       </c>
       <c r="K38" s="8" t="n">
-        <v>-9.32</v>
+        <v>-12.18</v>
       </c>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M38" s="26" t="inlineStr">
@@ -3121,31 +3121,31 @@
         <v>1812.7</v>
       </c>
       <c r="E39" s="25" t="n">
-        <v>987.92</v>
+        <v>986.11</v>
       </c>
       <c r="F39" s="25" t="n">
-        <v>-12.08</v>
+        <v>-13.89</v>
       </c>
       <c r="G39" s="24" t="n">
-        <v>0.55</v>
+        <v>0.544</v>
       </c>
       <c r="H39" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I39" s="24" t="n">
-        <v>0.5456</v>
+        <v>0.5426</v>
       </c>
       <c r="J39" s="27" t="n">
-        <v>-0.008</v>
+        <v>-0.0026</v>
       </c>
       <c r="K39" s="8" t="n">
-        <v>-7.98</v>
+        <v>-2.54</v>
       </c>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M39" s="26" t="inlineStr">
@@ -3190,31 +3190,31 @@
         <v>1227.03</v>
       </c>
       <c r="E40" s="25" t="n">
-        <v>937.8200000000001</v>
+        <v>918.1900000000001</v>
       </c>
       <c r="F40" s="25" t="n">
-        <v>-62.18</v>
+        <v>-81.81</v>
       </c>
       <c r="G40" s="24" t="n">
-        <v>0.772</v>
+        <v>0.7483</v>
       </c>
       <c r="H40" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I40" s="24" t="n">
-        <v>0.7643</v>
+        <v>0.7485000000000001</v>
       </c>
       <c r="J40" s="27" t="n">
-        <v>-0.01</v>
-      </c>
-      <c r="K40" s="8" t="n">
-        <v>-9.449999999999999</v>
+        <v>0.0003</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>0.25</v>
       </c>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M40" s="26" t="inlineStr">
@@ -3246,64 +3246,64 @@
     <row r="41">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>华安黄金易ETF联接A</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B41" s="23" t="n">
-        <v>216</v>
+        <v>164906</v>
       </c>
       <c r="C41" s="24" t="n">
-        <v>1.0902</v>
+        <v>1.1113</v>
       </c>
       <c r="D41" s="25" t="n">
-        <v>1834.47</v>
+        <v>899.8200000000001</v>
       </c>
       <c r="E41" s="25" t="n">
-        <v>2240.44</v>
+        <v>1184.16</v>
       </c>
       <c r="F41" s="25" t="n">
-        <v>240.44</v>
+        <v>184.16</v>
       </c>
       <c r="G41" s="24" t="n">
-        <v>1.2202</v>
+        <v>1.316</v>
       </c>
       <c r="H41" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-27</t>
         </is>
       </c>
       <c r="I41" s="24" t="n">
-        <v>1.2219</v>
+        <v>1.3174</v>
       </c>
       <c r="J41" s="27" t="n">
-        <v>0.0014</v>
+        <v>0.0011</v>
       </c>
       <c r="K41" s="9" t="n">
-        <v>3.12</v>
+        <v>1.26</v>
       </c>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2019-11-22 15:30</t>
+          <t>2019-11-28 05:00</t>
         </is>
       </c>
       <c r="M41" s="26" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="N41" s="26" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="O41" s="26" t="inlineStr">
         <is>
-          <t>黄金</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="P41" s="26" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>213</t>
         </is>
       </c>
       <c r="Q41" s="26" t="inlineStr">
@@ -3315,44 +3315,44 @@
     <row r="42">
       <c r="A42" s="22" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>华夏恒生ETF联接A</t>
         </is>
       </c>
       <c r="B42" s="23" t="n">
-        <v>164906</v>
+        <v>71</v>
       </c>
       <c r="C42" s="24" t="n">
-        <v>1.1113</v>
+        <v>1.4513</v>
       </c>
       <c r="D42" s="25" t="n">
-        <v>899.8200000000001</v>
+        <v>689.02</v>
       </c>
       <c r="E42" s="25" t="n">
-        <v>1120.28</v>
+        <v>1036.91</v>
       </c>
       <c r="F42" s="25" t="n">
-        <v>120.28</v>
+        <v>36.91</v>
       </c>
       <c r="G42" s="24" t="n">
-        <v>1.245</v>
+        <v>1.5049</v>
       </c>
       <c r="H42" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I42" s="24" t="n">
-        <v>1.2482</v>
+        <v>1.4767</v>
       </c>
       <c r="J42" s="27" t="n">
-        <v>0.0026</v>
-      </c>
-      <c r="K42" s="9" t="n">
-        <v>2.88</v>
+        <v>-0.0187</v>
+      </c>
+      <c r="K42" s="8" t="n">
+        <v>-19.43</v>
       </c>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>2019-11-23 05:00</t>
+          <t>2019-11-29 12:00</t>
         </is>
       </c>
       <c r="M42" s="26" t="inlineStr">
@@ -3362,17 +3362,17 @@
       </c>
       <c r="N42" s="26" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="O42" s="26" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>恒生</t>
         </is>
       </c>
       <c r="P42" s="26" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>211</t>
         </is>
       </c>
       <c r="Q42" s="26" t="inlineStr">
@@ -3384,64 +3384,64 @@
     <row r="43">
       <c r="A43" s="22" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>华安黄金易ETF联接A</t>
         </is>
       </c>
       <c r="B43" s="23" t="n">
-        <v>71</v>
+        <v>216</v>
       </c>
       <c r="C43" s="24" t="n">
-        <v>1.4513</v>
+        <v>1.0902</v>
       </c>
       <c r="D43" s="25" t="n">
-        <v>689.02</v>
+        <v>1834.47</v>
       </c>
       <c r="E43" s="25" t="n">
-        <v>1027.47</v>
+        <v>2218.42</v>
       </c>
       <c r="F43" s="25" t="n">
-        <v>27.47</v>
+        <v>218.42</v>
       </c>
       <c r="G43" s="24" t="n">
-        <v>1.4912</v>
+        <v>1.2093</v>
       </c>
       <c r="H43" s="26" t="inlineStr">
         <is>
-          <t>2019-11-22</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I43" s="24" t="n">
-        <v>1.4981</v>
+        <v>1.2098</v>
       </c>
       <c r="J43" s="27" t="n">
-        <v>0.0046</v>
+        <v>0.0005</v>
       </c>
       <c r="K43" s="9" t="n">
-        <v>4.75</v>
+        <v>0.92</v>
       </c>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>2019-11-22 16:00</t>
+          <t>2019-11-29 11:35</t>
         </is>
       </c>
       <c r="M43" s="26" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="N43" s="26" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="O43" s="26" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>黄金</t>
         </is>
       </c>
       <c r="P43" s="26" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>511</t>
         </is>
       </c>
       <c r="Q43" s="26" t="inlineStr">
@@ -3466,31 +3466,31 @@
         <v>4757.9</v>
       </c>
       <c r="E44" s="25" t="n">
-        <v>1779.45</v>
+        <v>1774.7</v>
       </c>
       <c r="F44" s="25" t="n">
-        <v>-220.55</v>
+        <v>-225.3</v>
       </c>
       <c r="G44" s="24" t="n">
-        <v>0.374</v>
+        <v>0.373</v>
       </c>
       <c r="H44" s="26" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-27</t>
         </is>
       </c>
       <c r="I44" s="24" t="n">
-        <v>0.3753</v>
+        <v>0.3735</v>
       </c>
       <c r="J44" s="27" t="n">
-        <v>0.0035</v>
+        <v>0.0014</v>
       </c>
       <c r="K44" s="9" t="n">
-        <v>6.19</v>
+        <v>2.38</v>
       </c>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>2019-11-23 05:00</t>
+          <t>2019-11-28 05:00</t>
         </is>
       </c>
       <c r="M44" s="26" t="inlineStr">
@@ -3535,10 +3535,10 @@
         <v>953.96</v>
       </c>
       <c r="E45" s="25" t="n">
-        <v>1145.71</v>
+        <v>1153.34</v>
       </c>
       <c r="F45" s="25" t="n">
-        <v>145.71</v>
+        <v>153.34</v>
       </c>
       <c r="G45" s="24" t="n">
         <v>0</v>
@@ -3604,31 +3604,31 @@
         <v>65064.33</v>
       </c>
       <c r="E46" s="31" t="n">
-        <v>70855.05</v>
+        <v>71050.24000000001</v>
       </c>
       <c r="F46" s="31" t="n">
-        <v>4535.05</v>
+        <v>4730.24</v>
       </c>
       <c r="G46" s="30" t="n">
-        <v>1.095</v>
+        <v>1.092</v>
       </c>
       <c r="H46" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I46" s="30" t="n">
-        <v>1.0912</v>
+        <v>1.0898</v>
       </c>
       <c r="J46" s="33" t="n">
-        <v>-0.0035</v>
+        <v>-0.002</v>
       </c>
       <c r="K46" s="8" t="n">
-        <v>-247.24</v>
+        <v>-143.14</v>
       </c>
       <c r="L46" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M46" s="32" t="inlineStr">
@@ -3673,31 +3673,31 @@
         <v>63490</v>
       </c>
       <c r="E47" s="31" t="n">
-        <v>60683.74</v>
+        <v>60118.68</v>
       </c>
       <c r="F47" s="31" t="n">
-        <v>2483.74</v>
+        <v>1918.68</v>
       </c>
       <c r="G47" s="30" t="n">
-        <v>0.9702</v>
+        <v>0.9469</v>
       </c>
       <c r="H47" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I47" s="30" t="n">
-        <v>0.9556</v>
+        <v>0.9376</v>
       </c>
       <c r="J47" s="33" t="n">
-        <v>-0.015</v>
+        <v>-0.0098</v>
       </c>
       <c r="K47" s="8" t="n">
-        <v>-926.95</v>
+        <v>-590.46</v>
       </c>
       <c r="L47" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M47" s="32" t="inlineStr">
@@ -3742,31 +3742,31 @@
         <v>32370.29</v>
       </c>
       <c r="E48" s="31" t="n">
-        <v>37054.27</v>
+        <v>37080.16</v>
       </c>
       <c r="F48" s="31" t="n">
-        <v>5054.27</v>
+        <v>5080.16</v>
       </c>
       <c r="G48" s="30" t="n">
-        <v>1.1484</v>
+        <v>1.1455</v>
       </c>
       <c r="H48" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I48" s="30" t="n">
-        <v>1.1459</v>
+        <v>1.1442</v>
       </c>
       <c r="J48" s="33" t="n">
-        <v>-0.0022</v>
+        <v>-0.0012</v>
       </c>
       <c r="K48" s="8" t="n">
-        <v>-80.93000000000001</v>
+        <v>-42.08</v>
       </c>
       <c r="L48" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M48" s="32" t="inlineStr">
@@ -3811,31 +3811,31 @@
         <v>41014.88</v>
       </c>
       <c r="E49" s="31" t="n">
-        <v>35051.31</v>
+        <v>34760.11</v>
       </c>
       <c r="F49" s="31" t="n">
-        <v>4491.31</v>
+        <v>4200.11</v>
       </c>
       <c r="G49" s="30" t="n">
-        <v>0.8803</v>
+        <v>0.8475</v>
       </c>
       <c r="H49" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I49" s="30" t="n">
-        <v>0.8542999999999999</v>
+        <v>0.8276</v>
       </c>
       <c r="J49" s="33" t="n">
-        <v>-0.0295</v>
+        <v>-0.0235</v>
       </c>
       <c r="K49" s="8" t="n">
-        <v>-1066.39</v>
+        <v>-816.2</v>
       </c>
       <c r="L49" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M49" s="32" t="inlineStr">
@@ -3886,25 +3886,25 @@
         <v>1765.62</v>
       </c>
       <c r="G50" s="30" t="n">
-        <v>1.688</v>
+        <v>1.681</v>
       </c>
       <c r="H50" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I50" s="30" t="n">
-        <v>1.6841</v>
+        <v>1.678</v>
       </c>
       <c r="J50" s="33" t="n">
-        <v>-0.0023</v>
+        <v>-0.0018</v>
       </c>
       <c r="K50" s="8" t="n">
-        <v>-78.34</v>
+        <v>-60.26</v>
       </c>
       <c r="L50" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M50" s="32" t="inlineStr">
@@ -3949,10 +3949,10 @@
         <v>20716.63</v>
       </c>
       <c r="E51" s="31" t="n">
-        <v>24880.67</v>
+        <v>25046.4</v>
       </c>
       <c r="F51" s="31" t="n">
-        <v>2280.67</v>
+        <v>2446.4</v>
       </c>
       <c r="G51" s="30" t="n">
         <v>0</v>
@@ -4018,31 +4018,31 @@
         <v>14624.61</v>
       </c>
       <c r="E52" s="31" t="n">
-        <v>23501.74</v>
+        <v>23530.99</v>
       </c>
       <c r="F52" s="31" t="n">
-        <v>4301.74</v>
+        <v>4330.99</v>
       </c>
       <c r="G52" s="30" t="n">
-        <v>1.626</v>
+        <v>1.609</v>
       </c>
       <c r="H52" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I52" s="30" t="n">
-        <v>1.6102</v>
+        <v>1.5936</v>
       </c>
       <c r="J52" s="33" t="n">
-        <v>-0.0097</v>
+        <v>-0.009599999999999999</v>
       </c>
       <c r="K52" s="8" t="n">
-        <v>-231.07</v>
+        <v>-225.22</v>
       </c>
       <c r="L52" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M52" s="32" t="inlineStr">
@@ -4087,31 +4087,31 @@
         <v>21163.93</v>
       </c>
       <c r="E53" s="31" t="n">
-        <v>22810.48</v>
+        <v>22840.11</v>
       </c>
       <c r="F53" s="31" t="n">
-        <v>3610.48</v>
+        <v>3640.11</v>
       </c>
       <c r="G53" s="30" t="n">
-        <v>1.0826</v>
+        <v>1.0792</v>
       </c>
       <c r="H53" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I53" s="30" t="n">
-        <v>1.0777</v>
+        <v>1.0764</v>
       </c>
       <c r="J53" s="33" t="n">
-        <v>-0.0046</v>
+        <v>-0.0026</v>
       </c>
       <c r="K53" s="8" t="n">
-        <v>-103.7</v>
+        <v>-59.26</v>
       </c>
       <c r="L53" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M53" s="32" t="inlineStr">
@@ -4156,31 +4156,31 @@
         <v>16778.47</v>
       </c>
       <c r="E54" s="31" t="n">
-        <v>20889.19</v>
+        <v>22080.46</v>
       </c>
       <c r="F54" s="31" t="n">
-        <v>1689.19</v>
+        <v>2880.46</v>
       </c>
       <c r="G54" s="30" t="n">
-        <v>1.245</v>
+        <v>1.316</v>
       </c>
       <c r="H54" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-27</t>
         </is>
       </c>
       <c r="I54" s="30" t="n">
-        <v>1.2482</v>
+        <v>1.3174</v>
       </c>
       <c r="J54" s="33" t="n">
-        <v>0.0026</v>
+        <v>0.0011</v>
       </c>
       <c r="K54" s="9" t="n">
-        <v>53.69</v>
+        <v>23.49</v>
       </c>
       <c r="L54" s="32" t="inlineStr">
         <is>
-          <t>2019-11-23 05:00</t>
+          <t>2019-11-28 05:00</t>
         </is>
       </c>
       <c r="M54" s="32" t="inlineStr">
@@ -4225,31 +4225,31 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E55" s="31" t="n">
-        <v>15133.33</v>
+        <v>15114.27</v>
       </c>
       <c r="F55" s="31" t="n">
-        <v>2333.33</v>
+        <v>2314.27</v>
       </c>
       <c r="G55" s="30" t="n">
-        <v>1.605</v>
+        <v>1.586</v>
       </c>
       <c r="H55" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I55" s="30" t="n">
-        <v>1.5922</v>
+        <v>1.5819</v>
       </c>
       <c r="J55" s="33" t="n">
-        <v>-0.008</v>
+        <v>-0.0026</v>
       </c>
       <c r="K55" s="8" t="n">
-        <v>-121.98</v>
+        <v>-39.07</v>
       </c>
       <c r="L55" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M55" s="32" t="inlineStr">
@@ -4294,31 +4294,31 @@
         <v>37267.45</v>
       </c>
       <c r="E56" s="31" t="n">
-        <v>13938.02</v>
+        <v>13900.75</v>
       </c>
       <c r="F56" s="31" t="n">
-        <v>-5261.98</v>
+        <v>-5299.25</v>
       </c>
       <c r="G56" s="30" t="n">
-        <v>0.374</v>
+        <v>0.373</v>
       </c>
       <c r="H56" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-27</t>
         </is>
       </c>
       <c r="I56" s="30" t="n">
-        <v>0.3753</v>
+        <v>0.3735</v>
       </c>
       <c r="J56" s="33" t="n">
-        <v>0.0035</v>
+        <v>0.0014</v>
       </c>
       <c r="K56" s="9" t="n">
-        <v>48.45</v>
+        <v>18.63</v>
       </c>
       <c r="L56" s="32" t="inlineStr">
         <is>
-          <t>2019-11-23 05:00</t>
+          <t>2019-11-28 05:00</t>
         </is>
       </c>
       <c r="M56" s="32" t="inlineStr">
@@ -4363,31 +4363,31 @@
         <v>6798.52</v>
       </c>
       <c r="E57" s="31" t="n">
-        <v>10137.95</v>
+        <v>10231.09</v>
       </c>
       <c r="F57" s="31" t="n">
-        <v>237.95</v>
+        <v>331.09</v>
       </c>
       <c r="G57" s="30" t="n">
-        <v>1.4912</v>
+        <v>1.5049</v>
       </c>
       <c r="H57" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I57" s="30" t="n">
-        <v>1.4981</v>
+        <v>1.4767</v>
       </c>
       <c r="J57" s="33" t="n">
-        <v>0.0046</v>
-      </c>
-      <c r="K57" s="9" t="n">
-        <v>46.91</v>
+        <v>-0.0187</v>
+      </c>
+      <c r="K57" s="8" t="n">
+        <v>-191.72</v>
       </c>
       <c r="L57" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22 16:00</t>
+          <t>2019-11-29 12:00</t>
         </is>
       </c>
       <c r="M57" s="32" t="inlineStr">
@@ -4432,31 +4432,31 @@
         <v>4791.13</v>
       </c>
       <c r="E58" s="31" t="n">
-        <v>8335.120000000001</v>
+        <v>8307.34</v>
       </c>
       <c r="F58" s="31" t="n">
-        <v>1935.12</v>
+        <v>1907.34</v>
       </c>
       <c r="G58" s="30" t="n">
-        <v>1.7723</v>
+        <v>1.7339</v>
       </c>
       <c r="H58" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I58" s="30" t="n">
-        <v>1.7395</v>
+        <v>1.7174</v>
       </c>
       <c r="J58" s="33" t="n">
-        <v>-0.0185</v>
+        <v>-0.0095</v>
       </c>
       <c r="K58" s="8" t="n">
-        <v>-157.15</v>
+        <v>-79.05</v>
       </c>
       <c r="L58" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M58" s="32" t="inlineStr">
@@ -4501,10 +4501,10 @@
         <v>5609.79</v>
       </c>
       <c r="E59" s="31" t="n">
-        <v>7533.94</v>
+        <v>7567.6</v>
       </c>
       <c r="F59" s="31" t="n">
-        <v>2388.82</v>
+        <v>2422.48</v>
       </c>
       <c r="G59" s="30" t="n">
         <v>0</v>
@@ -4557,64 +4557,64 @@
     <row r="60">
       <c r="A60" s="28" t="inlineStr">
         <is>
-          <t>长信可转债债券A</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B60" s="29" t="n">
-        <v>519977</v>
+        <v>1064</v>
       </c>
       <c r="C60" s="30" t="n">
-        <v>1.2011</v>
+        <v>0.4775</v>
       </c>
       <c r="D60" s="31" t="n">
-        <v>5328.62</v>
+        <v>13403.92</v>
       </c>
       <c r="E60" s="31" t="n">
-        <v>7232</v>
+        <v>7272.96</v>
       </c>
       <c r="F60" s="31" t="n">
-        <v>832</v>
+        <v>872.96</v>
       </c>
       <c r="G60" s="30" t="n">
-        <v>1.3595</v>
+        <v>0.5426</v>
       </c>
       <c r="H60" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I60" s="30" t="n">
-        <v>1.3566</v>
+        <v>0.5413</v>
       </c>
       <c r="J60" s="33" t="n">
-        <v>-0.0021</v>
+        <v>-0.0024</v>
       </c>
       <c r="K60" s="8" t="n">
-        <v>-15.45</v>
+        <v>-17.43</v>
       </c>
       <c r="L60" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M60" s="32" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N60" s="32" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O60" s="32" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="P60" s="32" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>143</t>
         </is>
       </c>
       <c r="Q60" s="32" t="inlineStr">
@@ -4626,64 +4626,64 @@
     <row r="61">
       <c r="A61" s="28" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>长信可转债债券A</t>
         </is>
       </c>
       <c r="B61" s="29" t="n">
-        <v>1064</v>
+        <v>519977</v>
       </c>
       <c r="C61" s="30" t="n">
-        <v>0.4775</v>
+        <v>1.2011</v>
       </c>
       <c r="D61" s="31" t="n">
-        <v>13403.92</v>
+        <v>5328.62</v>
       </c>
       <c r="E61" s="31" t="n">
-        <v>7219.35</v>
+        <v>7229.87</v>
       </c>
       <c r="F61" s="31" t="n">
-        <v>819.35</v>
+        <v>829.87</v>
       </c>
       <c r="G61" s="30" t="n">
-        <v>0.5389</v>
+        <v>1.3568</v>
       </c>
       <c r="H61" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I61" s="30" t="n">
-        <v>0.5386</v>
+        <v>1.355</v>
       </c>
       <c r="J61" s="33" t="n">
-        <v>-0.0005999999999999999</v>
+        <v>-0.0014</v>
       </c>
       <c r="K61" s="8" t="n">
-        <v>-4.02</v>
+        <v>-9.59</v>
       </c>
       <c r="L61" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M61" s="32" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="N61" s="32" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="O61" s="32" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="P61" s="32" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>411</t>
         </is>
       </c>
       <c r="Q61" s="32" t="inlineStr">
@@ -4708,31 +4708,31 @@
         <v>7778.64</v>
       </c>
       <c r="E62" s="31" t="n">
-        <v>6700.52</v>
+        <v>6679.51</v>
       </c>
       <c r="F62" s="31" t="n">
-        <v>-299.48</v>
+        <v>-320.49</v>
       </c>
       <c r="G62" s="30" t="n">
-        <v>0.8683999999999999</v>
+        <v>0.8587</v>
       </c>
       <c r="H62" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I62" s="30" t="n">
-        <v>0.8615</v>
+        <v>0.8565</v>
       </c>
       <c r="J62" s="33" t="n">
-        <v>-0.008</v>
+        <v>-0.0026</v>
       </c>
       <c r="K62" s="8" t="n">
-        <v>-53.67</v>
+        <v>-17.11</v>
       </c>
       <c r="L62" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M62" s="32" t="inlineStr">
@@ -4777,31 +4777,31 @@
         <v>7852.99</v>
       </c>
       <c r="E63" s="31" t="n">
-        <v>6002.04</v>
+        <v>5876.39</v>
       </c>
       <c r="F63" s="31" t="n">
-        <v>-397.96</v>
+        <v>-523.61</v>
       </c>
       <c r="G63" s="30" t="n">
-        <v>0.772</v>
+        <v>0.7483</v>
       </c>
       <c r="H63" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I63" s="30" t="n">
-        <v>0.7643</v>
+        <v>0.7485000000000001</v>
       </c>
       <c r="J63" s="33" t="n">
-        <v>-0.01</v>
-      </c>
-      <c r="K63" s="8" t="n">
-        <v>-60.47</v>
+        <v>0.0003</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>1.57</v>
       </c>
       <c r="L63" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M63" s="32" t="inlineStr">
@@ -4846,31 +4846,31 @@
         <v>3580.2</v>
       </c>
       <c r="E64" s="31" t="n">
-        <v>3327.79</v>
+        <v>3310.25</v>
       </c>
       <c r="F64" s="31" t="n">
-        <v>-172.21</v>
+        <v>-189.75</v>
       </c>
       <c r="G64" s="30" t="n">
-        <v>0.9407</v>
+        <v>0.9246</v>
       </c>
       <c r="H64" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I64" s="30" t="n">
-        <v>0.9288999999999999</v>
+        <v>0.9199000000000001</v>
       </c>
       <c r="J64" s="33" t="n">
-        <v>-0.0125</v>
+        <v>-0.005</v>
       </c>
       <c r="K64" s="8" t="n">
-        <v>-42.25</v>
+        <v>-16.83</v>
       </c>
       <c r="L64" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M64" s="32" t="inlineStr">
@@ -4909,37 +4909,37 @@
         <v>519671</v>
       </c>
       <c r="C65" s="4" t="n">
-        <v>1.4259</v>
+        <v>1.4262</v>
       </c>
       <c r="D65" s="5" t="n">
-        <v>997.72</v>
+        <v>1013.26</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>1417.76</v>
+        <v>1448.96</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>-4.89</v>
+        <v>3.86</v>
       </c>
       <c r="G65" s="4" t="n">
-        <v>1.425</v>
+        <v>1.43</v>
       </c>
       <c r="H65" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I65" s="4" t="n">
-        <v>1.4212</v>
+        <v>1.4235</v>
       </c>
       <c r="J65" s="7" t="n">
-        <v>-0.0027</v>
+        <v>-0.0046</v>
       </c>
       <c r="K65" s="8" t="n">
-        <v>-3.79</v>
+        <v>-6.59</v>
       </c>
       <c r="L65" s="6" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M65" s="6" t="inlineStr">
@@ -4978,37 +4978,37 @@
         <v>90010</v>
       </c>
       <c r="C66" s="4" t="n">
-        <v>1.6533</v>
+        <v>1.6528</v>
       </c>
       <c r="D66" s="5" t="n">
-        <v>845.95</v>
+        <v>859.89</v>
       </c>
       <c r="E66" s="5" t="n">
-        <v>1356.9</v>
+        <v>1382.7</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>-41.7</v>
+        <v>-38.53</v>
       </c>
       <c r="G66" s="4" t="n">
-        <v>1.61</v>
+        <v>1.608</v>
       </c>
       <c r="H66" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I66" s="4" t="n">
-        <v>1.6043</v>
+        <v>1.6048</v>
       </c>
       <c r="J66" s="7" t="n">
-        <v>-0.0035</v>
+        <v>-0.002</v>
       </c>
       <c r="K66" s="8" t="n">
-        <v>-4.82</v>
+        <v>-2.75</v>
       </c>
       <c r="L66" s="6" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M66" s="6" t="inlineStr">
@@ -5053,31 +5053,31 @@
         <v>898.04</v>
       </c>
       <c r="E67" s="5" t="n">
-        <v>1299.1</v>
+        <v>1311.86</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>88.13</v>
+        <v>100.89</v>
       </c>
       <c r="G67" s="4" t="n">
-        <v>1.4466</v>
+        <v>1.4608</v>
       </c>
       <c r="H67" s="6" t="inlineStr">
         <is>
-          <t>2019-11-22</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I67" s="4" t="n">
-        <v>1.4532</v>
+        <v>1.4338</v>
       </c>
       <c r="J67" s="7" t="n">
-        <v>0.0045</v>
-      </c>
-      <c r="K67" s="9" t="n">
-        <v>5.93</v>
+        <v>-0.0185</v>
+      </c>
+      <c r="K67" s="8" t="n">
+        <v>-24.25</v>
       </c>
       <c r="L67" s="6" t="inlineStr">
         <is>
-          <t>2019-11-22 16:00</t>
+          <t>2019-11-29 12:00</t>
         </is>
       </c>
       <c r="M67" s="6" t="inlineStr">
@@ -5116,37 +5116,37 @@
         <v>3318</v>
       </c>
       <c r="C68" s="4" t="n">
-        <v>0.9335</v>
+        <v>0.9331</v>
       </c>
       <c r="D68" s="5" t="n">
-        <v>1288.86</v>
+        <v>1312.53</v>
       </c>
       <c r="E68" s="5" t="n">
-        <v>1175.96</v>
+        <v>1193.22</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>-27.18</v>
+        <v>-31.49</v>
       </c>
       <c r="G68" s="4" t="n">
-        <v>0.9183</v>
+        <v>0.9091</v>
       </c>
       <c r="H68" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I68" s="4" t="n">
-        <v>0.9124</v>
+        <v>0.9094</v>
       </c>
       <c r="J68" s="7" t="n">
-        <v>-0.0065</v>
-      </c>
-      <c r="K68" s="8" t="n">
-        <v>-7.6</v>
+        <v>0.0004</v>
+      </c>
+      <c r="K68" s="9" t="n">
+        <v>0.39</v>
       </c>
       <c r="L68" s="6" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M68" s="6" t="inlineStr">
@@ -5185,37 +5185,37 @@
         <v>70023</v>
       </c>
       <c r="C69" s="4" t="n">
-        <v>1.794</v>
+        <v>1.7954</v>
       </c>
       <c r="D69" s="5" t="n">
-        <v>473.31</v>
+        <v>482.9</v>
       </c>
       <c r="E69" s="5" t="n">
-        <v>863.7</v>
+        <v>888.54</v>
       </c>
       <c r="F69" s="5" t="n">
-        <v>14.56</v>
+        <v>21.55</v>
       </c>
       <c r="G69" s="4" t="n">
-        <v>1.8422</v>
+        <v>1.84</v>
       </c>
       <c r="H69" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I69" s="4" t="n">
-        <v>1.8247</v>
+        <v>1.8302</v>
       </c>
       <c r="J69" s="7" t="n">
-        <v>-0.0095</v>
+        <v>-0.0053</v>
       </c>
       <c r="K69" s="8" t="n">
-        <v>-8.279999999999999</v>
+        <v>-4.73</v>
       </c>
       <c r="L69" s="6" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M69" s="6" t="inlineStr">
@@ -5254,37 +5254,37 @@
         <v>530015</v>
       </c>
       <c r="C70" s="4" t="n">
-        <v>2.1188</v>
+        <v>2.1198</v>
       </c>
       <c r="D70" s="5" t="n">
-        <v>381.21</v>
+        <v>389.84</v>
       </c>
       <c r="E70" s="5" t="n">
-        <v>808.47</v>
+        <v>833.67</v>
       </c>
       <c r="F70" s="5" t="n">
-        <v>0.78</v>
+        <v>7.27</v>
       </c>
       <c r="G70" s="4" t="n">
-        <v>2.1379</v>
+        <v>2.1385</v>
       </c>
       <c r="H70" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I70" s="4" t="n">
-        <v>2.1202</v>
+        <v>2.1279</v>
       </c>
       <c r="J70" s="7" t="n">
-        <v>-0.0083</v>
+        <v>-0.0049</v>
       </c>
       <c r="K70" s="8" t="n">
-        <v>-6.75</v>
+        <v>-4.13</v>
       </c>
       <c r="L70" s="6" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M70" s="6" t="inlineStr">
@@ -5323,37 +5323,37 @@
         <v>968</v>
       </c>
       <c r="C71" s="4" t="n">
-        <v>0.961</v>
+        <v>0.9608</v>
       </c>
       <c r="D71" s="5" t="n">
-        <v>336.9</v>
+        <v>354.88</v>
       </c>
       <c r="E71" s="5" t="n">
-        <v>322.01</v>
+        <v>336.04</v>
       </c>
       <c r="F71" s="5" t="n">
-        <v>-1.75</v>
+        <v>-4.94</v>
       </c>
       <c r="G71" s="4" t="n">
-        <v>0.9702</v>
+        <v>0.9469</v>
       </c>
       <c r="H71" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I71" s="4" t="n">
-        <v>0.9556</v>
+        <v>0.9376</v>
       </c>
       <c r="J71" s="7" t="n">
-        <v>-0.015</v>
+        <v>-0.0098</v>
       </c>
       <c r="K71" s="8" t="n">
-        <v>-4.92</v>
+        <v>-3.3</v>
       </c>
       <c r="L71" s="6" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M71" s="6" t="inlineStr">
@@ -5398,31 +5398,31 @@
         <v>214.89</v>
       </c>
       <c r="E72" s="5" t="n">
-        <v>200.08</v>
+        <v>200.41</v>
       </c>
       <c r="F72" s="5" t="n">
-        <v>-11.14</v>
+        <v>-10.81</v>
       </c>
       <c r="G72" s="4" t="n">
-        <v>0.9334</v>
+        <v>0.9326</v>
       </c>
       <c r="H72" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I72" s="4" t="n">
-        <v>0.9278</v>
+        <v>0.9268999999999999</v>
       </c>
       <c r="J72" s="7" t="n">
-        <v>-0.006</v>
+        <v>-0.0061</v>
       </c>
       <c r="K72" s="8" t="n">
-        <v>-1.2</v>
+        <v>-1.22</v>
       </c>
       <c r="L72" s="6" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M72" s="6" t="inlineStr">
@@ -5467,31 +5467,31 @@
         <v>212.74</v>
       </c>
       <c r="E73" s="5" t="n">
-        <v>166.15</v>
+        <v>164.19</v>
       </c>
       <c r="F73" s="5" t="n">
-        <v>23.45</v>
+        <v>21.49</v>
       </c>
       <c r="G73" s="4" t="n">
-        <v>0.8068</v>
+        <v>0.7718</v>
       </c>
       <c r="H73" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I73" s="4" t="n">
-        <v>0.7812</v>
+        <v>0.7577</v>
       </c>
       <c r="J73" s="7" t="n">
-        <v>-0.0317</v>
+        <v>-0.0182</v>
       </c>
       <c r="K73" s="8" t="n">
-        <v>-5.45</v>
+        <v>-3</v>
       </c>
       <c r="L73" s="6" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M73" s="6" t="inlineStr">
@@ -5536,31 +5536,31 @@
         <v>62.09</v>
       </c>
       <c r="E74" s="5" t="n">
-        <v>81.59</v>
+        <v>81.77</v>
       </c>
       <c r="F74" s="5" t="n">
-        <v>1.55</v>
+        <v>1.73</v>
       </c>
       <c r="G74" s="4" t="n">
-        <v>1.32</v>
+        <v>1.317</v>
       </c>
       <c r="H74" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I74" s="4" t="n">
-        <v>1.311</v>
+        <v>1.2915</v>
       </c>
       <c r="J74" s="7" t="n">
-        <v>-0.0068</v>
+        <v>-0.0194</v>
       </c>
       <c r="K74" s="8" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-1.58</v>
       </c>
       <c r="L74" s="6" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M74" s="6" t="inlineStr">
@@ -5605,31 +5605,31 @@
         <v>24.24</v>
       </c>
       <c r="E75" s="5" t="n">
-        <v>34.72</v>
+        <v>34.91</v>
       </c>
       <c r="F75" s="5" t="n">
-        <v>-2.36</v>
+        <v>-2.17</v>
       </c>
       <c r="G75" s="4" t="n">
-        <v>1.4361</v>
+        <v>1.44</v>
       </c>
       <c r="H75" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I75" s="4" t="n">
-        <v>1.4323</v>
+        <v>1.4334</v>
       </c>
       <c r="J75" s="7" t="n">
-        <v>-0.0027</v>
+        <v>-0.0046</v>
       </c>
       <c r="K75" s="8" t="n">
-        <v>-0.09</v>
+        <v>-0.16</v>
       </c>
       <c r="L75" s="6" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M75" s="6" t="inlineStr">
@@ -5668,37 +5668,37 @@
         <v>90010</v>
       </c>
       <c r="C76" s="4" t="n">
-        <v>1.6593</v>
+        <v>1.6581</v>
       </c>
       <c r="D76" s="5" t="n">
-        <v>890.02</v>
+        <v>917.91</v>
       </c>
       <c r="E76" s="5" t="n">
-        <v>1427.59</v>
+        <v>1476</v>
       </c>
       <c r="F76" s="5" t="n">
-        <v>-49.18</v>
+        <v>-46.03</v>
       </c>
       <c r="G76" s="4" t="n">
-        <v>1.61</v>
+        <v>1.608</v>
       </c>
       <c r="H76" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I76" s="4" t="n">
-        <v>1.6043</v>
+        <v>1.6048</v>
       </c>
       <c r="J76" s="7" t="n">
-        <v>-0.0035</v>
+        <v>-0.002</v>
       </c>
       <c r="K76" s="8" t="n">
-        <v>-5.07</v>
+        <v>-2.94</v>
       </c>
       <c r="L76" s="6" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M76" s="6" t="inlineStr">
@@ -5737,37 +5737,37 @@
         <v>519671</v>
       </c>
       <c r="C77" s="4" t="n">
-        <v>1.4239</v>
+        <v>1.4245</v>
       </c>
       <c r="D77" s="5" t="n">
-        <v>962.45</v>
+        <v>993.53</v>
       </c>
       <c r="E77" s="5" t="n">
-        <v>1367.64</v>
+        <v>1420.75</v>
       </c>
       <c r="F77" s="5" t="n">
-        <v>-2.77</v>
+        <v>5.44</v>
       </c>
       <c r="G77" s="4" t="n">
-        <v>1.425</v>
+        <v>1.43</v>
       </c>
       <c r="H77" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I77" s="4" t="n">
-        <v>1.4212</v>
+        <v>1.4235</v>
       </c>
       <c r="J77" s="7" t="n">
-        <v>-0.0027</v>
+        <v>-0.0046</v>
       </c>
       <c r="K77" s="8" t="n">
-        <v>-3.66</v>
+        <v>-6.46</v>
       </c>
       <c r="L77" s="6" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M77" s="6" t="inlineStr">
@@ -5812,31 +5812,31 @@
         <v>915.97</v>
       </c>
       <c r="E78" s="5" t="n">
-        <v>1325.04</v>
+        <v>1338.05</v>
       </c>
       <c r="F78" s="5" t="n">
-        <v>87.2</v>
+        <v>100.21</v>
       </c>
       <c r="G78" s="4" t="n">
-        <v>1.4466</v>
+        <v>1.4608</v>
       </c>
       <c r="H78" s="6" t="inlineStr">
         <is>
-          <t>2019-11-22</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I78" s="4" t="n">
-        <v>1.4532</v>
+        <v>1.4338</v>
       </c>
       <c r="J78" s="7" t="n">
-        <v>0.0045</v>
-      </c>
-      <c r="K78" s="9" t="n">
-        <v>6.05</v>
+        <v>-0.0185</v>
+      </c>
+      <c r="K78" s="8" t="n">
+        <v>-24.73</v>
       </c>
       <c r="L78" s="6" t="inlineStr">
         <is>
-          <t>2019-11-22 16:00</t>
+          <t>2019-11-29 12:00</t>
         </is>
       </c>
       <c r="M78" s="6" t="inlineStr">
@@ -5875,37 +5875,37 @@
         <v>3318</v>
       </c>
       <c r="C79" s="4" t="n">
-        <v>0.9348</v>
+        <v>0.9339</v>
       </c>
       <c r="D79" s="5" t="n">
-        <v>1272.96</v>
+        <v>1320.32</v>
       </c>
       <c r="E79" s="5" t="n">
-        <v>1161.45</v>
+        <v>1200.3</v>
       </c>
       <c r="F79" s="5" t="n">
-        <v>-28.52</v>
+        <v>-32.81</v>
       </c>
       <c r="G79" s="4" t="n">
-        <v>0.9183</v>
+        <v>0.9091</v>
       </c>
       <c r="H79" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I79" s="4" t="n">
-        <v>0.9124</v>
+        <v>0.9094</v>
       </c>
       <c r="J79" s="7" t="n">
-        <v>-0.0065</v>
-      </c>
-      <c r="K79" s="8" t="n">
-        <v>-7.51</v>
+        <v>0.0004</v>
+      </c>
+      <c r="K79" s="9" t="n">
+        <v>0.4</v>
       </c>
       <c r="L79" s="6" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M79" s="6" t="inlineStr">
@@ -5944,37 +5944,37 @@
         <v>70023</v>
       </c>
       <c r="C80" s="4" t="n">
-        <v>1.7945</v>
+        <v>1.7969</v>
       </c>
       <c r="D80" s="5" t="n">
-        <v>490.43</v>
+        <v>509.62</v>
       </c>
       <c r="E80" s="5" t="n">
-        <v>894.9400000000001</v>
+        <v>937.7</v>
       </c>
       <c r="F80" s="5" t="n">
-        <v>14.87</v>
+        <v>21.94</v>
       </c>
       <c r="G80" s="4" t="n">
-        <v>1.8422</v>
+        <v>1.84</v>
       </c>
       <c r="H80" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I80" s="4" t="n">
-        <v>1.8247</v>
+        <v>1.8302</v>
       </c>
       <c r="J80" s="7" t="n">
-        <v>-0.0095</v>
+        <v>-0.0053</v>
       </c>
       <c r="K80" s="8" t="n">
-        <v>-8.58</v>
+        <v>-4.99</v>
       </c>
       <c r="L80" s="6" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M80" s="6" t="inlineStr">
@@ -6013,37 +6013,37 @@
         <v>530015</v>
       </c>
       <c r="C81" s="4" t="n">
-        <v>2.1185</v>
+        <v>2.1207</v>
       </c>
       <c r="D81" s="5" t="n">
-        <v>355.38</v>
+        <v>372.65</v>
       </c>
       <c r="E81" s="5" t="n">
-        <v>753.6900000000001</v>
+        <v>796.91</v>
       </c>
       <c r="F81" s="5" t="n">
-        <v>0.83</v>
+        <v>6.62</v>
       </c>
       <c r="G81" s="4" t="n">
-        <v>2.1379</v>
+        <v>2.1385</v>
       </c>
       <c r="H81" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I81" s="4" t="n">
-        <v>2.1202</v>
+        <v>2.1279</v>
       </c>
       <c r="J81" s="7" t="n">
-        <v>-0.0083</v>
+        <v>-0.0049</v>
       </c>
       <c r="K81" s="8" t="n">
-        <v>-6.29</v>
+        <v>-3.95</v>
       </c>
       <c r="L81" s="6" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M81" s="6" t="inlineStr">
@@ -6082,37 +6082,37 @@
         <v>968</v>
       </c>
       <c r="C82" s="4" t="n">
-        <v>0.9608</v>
+        <v>0.9605</v>
       </c>
       <c r="D82" s="5" t="n">
-        <v>319.14</v>
+        <v>355.1</v>
       </c>
       <c r="E82" s="5" t="n">
-        <v>305.03</v>
+        <v>336.24</v>
       </c>
       <c r="F82" s="5" t="n">
-        <v>-1.59</v>
+        <v>-4.82</v>
       </c>
       <c r="G82" s="4" t="n">
-        <v>0.9702</v>
+        <v>0.9469</v>
       </c>
       <c r="H82" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I82" s="4" t="n">
-        <v>0.9556</v>
+        <v>0.9376</v>
       </c>
       <c r="J82" s="7" t="n">
-        <v>-0.015</v>
+        <v>-0.0098</v>
       </c>
       <c r="K82" s="8" t="n">
-        <v>-4.66</v>
+        <v>-3.3</v>
       </c>
       <c r="L82" s="6" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M82" s="6" t="inlineStr">
@@ -6157,31 +6157,31 @@
         <v>227.52</v>
       </c>
       <c r="E83" s="5" t="n">
-        <v>211.84</v>
+        <v>212.19</v>
       </c>
       <c r="F83" s="5" t="n">
-        <v>-11.67</v>
+        <v>-11.32</v>
       </c>
       <c r="G83" s="4" t="n">
-        <v>0.9334</v>
+        <v>0.9326</v>
       </c>
       <c r="H83" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I83" s="4" t="n">
-        <v>0.9278</v>
+        <v>0.9268999999999999</v>
       </c>
       <c r="J83" s="7" t="n">
-        <v>-0.006</v>
+        <v>-0.0061</v>
       </c>
       <c r="K83" s="8" t="n">
-        <v>-1.27</v>
+        <v>-1.3</v>
       </c>
       <c r="L83" s="6" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M83" s="6" t="inlineStr">
@@ -6226,31 +6226,31 @@
         <v>142.1</v>
       </c>
       <c r="E84" s="5" t="n">
-        <v>186.72</v>
+        <v>187.15</v>
       </c>
       <c r="F84" s="5" t="n">
-        <v>4.27</v>
+        <v>4.7</v>
       </c>
       <c r="G84" s="4" t="n">
-        <v>1.32</v>
+        <v>1.317</v>
       </c>
       <c r="H84" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I84" s="4" t="n">
-        <v>1.311</v>
+        <v>1.2915</v>
       </c>
       <c r="J84" s="7" t="n">
-        <v>-0.0068</v>
+        <v>-0.0194</v>
       </c>
       <c r="K84" s="8" t="n">
-        <v>-1.28</v>
+        <v>-3.62</v>
       </c>
       <c r="L84" s="6" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M84" s="6" t="inlineStr">
@@ -6295,31 +6295,31 @@
         <v>212.74</v>
       </c>
       <c r="E85" s="5" t="n">
-        <v>166.15</v>
+        <v>164.19</v>
       </c>
       <c r="F85" s="5" t="n">
-        <v>23.45</v>
+        <v>21.49</v>
       </c>
       <c r="G85" s="4" t="n">
-        <v>0.8068</v>
+        <v>0.7718</v>
       </c>
       <c r="H85" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I85" s="4" t="n">
-        <v>0.7812</v>
+        <v>0.7577</v>
       </c>
       <c r="J85" s="7" t="n">
-        <v>-0.0317</v>
+        <v>-0.0182</v>
       </c>
       <c r="K85" s="8" t="n">
-        <v>-5.45</v>
+        <v>-3</v>
       </c>
       <c r="L85" s="6" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M85" s="6" t="inlineStr">
@@ -6364,31 +6364,31 @@
         <v>24.24</v>
       </c>
       <c r="E86" s="5" t="n">
-        <v>34.72</v>
+        <v>34.91</v>
       </c>
       <c r="F86" s="5" t="n">
-        <v>-2.36</v>
+        <v>-2.17</v>
       </c>
       <c r="G86" s="4" t="n">
-        <v>1.4361</v>
+        <v>1.44</v>
       </c>
       <c r="H86" s="6" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I86" s="4" t="n">
-        <v>1.4323</v>
+        <v>1.4334</v>
       </c>
       <c r="J86" s="7" t="n">
-        <v>-0.0027</v>
+        <v>-0.0046</v>
       </c>
       <c r="K86" s="8" t="n">
-        <v>-0.09</v>
+        <v>-0.16</v>
       </c>
       <c r="L86" s="6" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M86" s="6" t="inlineStr">
@@ -6427,37 +6427,37 @@
         <v>162711</v>
       </c>
       <c r="C87" s="30" t="n">
-        <v>1.0519</v>
+        <v>0</v>
       </c>
       <c r="D87" s="31" t="n">
-        <v>9697.57</v>
+        <v>0</v>
       </c>
       <c r="E87" s="31" t="n">
-        <v>10454.95</v>
+        <v>10421.97</v>
       </c>
       <c r="F87" s="31" t="n">
-        <v>254.95</v>
+        <v>221.97</v>
       </c>
       <c r="G87" s="30" t="n">
-        <v>1.0869</v>
+        <v>1.0747</v>
       </c>
       <c r="H87" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I87" s="30" t="n">
-        <v>1.0782</v>
+        <v>1.0719</v>
       </c>
       <c r="J87" s="33" t="n">
-        <v>-0.008</v>
-      </c>
-      <c r="K87" s="8" t="n">
-        <v>-84.37</v>
+        <v>-0.0026</v>
+      </c>
+      <c r="K87" s="9" t="n">
+        <v>-0</v>
       </c>
       <c r="L87" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M87" s="32" t="inlineStr">
@@ -6496,37 +6496,37 @@
         <v>100032</v>
       </c>
       <c r="C88" s="30" t="n">
-        <v>1.0142</v>
+        <v>1.0193</v>
       </c>
       <c r="D88" s="31" t="n">
-        <v>8677.6</v>
+        <v>65064.33</v>
       </c>
       <c r="E88" s="31" t="n">
-        <v>9449.9</v>
+        <v>9475.93</v>
       </c>
       <c r="F88" s="31" t="n">
-        <v>649.9</v>
+        <v>675.9299999999999</v>
       </c>
       <c r="G88" s="30" t="n">
-        <v>1.095</v>
+        <v>1.092</v>
       </c>
       <c r="H88" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I88" s="30" t="n">
-        <v>1.0912</v>
+        <v>1.0898</v>
       </c>
       <c r="J88" s="33" t="n">
-        <v>-0.0035</v>
+        <v>-0.002</v>
       </c>
       <c r="K88" s="8" t="n">
-        <v>-32.97</v>
+        <v>-143.14</v>
       </c>
       <c r="L88" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M88" s="32" t="inlineStr">
@@ -6565,37 +6565,37 @@
         <v>968</v>
       </c>
       <c r="C89" s="30" t="n">
-        <v>0.853</v>
+        <v>0.9167</v>
       </c>
       <c r="D89" s="31" t="n">
-        <v>6096.21</v>
+        <v>63490</v>
       </c>
       <c r="E89" s="31" t="n">
-        <v>5826.75</v>
+        <v>5772.5</v>
       </c>
       <c r="F89" s="31" t="n">
-        <v>626.75</v>
+        <v>572.5</v>
       </c>
       <c r="G89" s="30" t="n">
-        <v>0.9702</v>
+        <v>0.9469</v>
       </c>
       <c r="H89" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I89" s="30" t="n">
-        <v>0.9556</v>
+        <v>0.9376</v>
       </c>
       <c r="J89" s="33" t="n">
-        <v>-0.015</v>
+        <v>-0.0098</v>
       </c>
       <c r="K89" s="8" t="n">
-        <v>-89</v>
+        <v>-590.46</v>
       </c>
       <c r="L89" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M89" s="32" t="inlineStr">
@@ -6634,37 +6634,37 @@
         <v>1180</v>
       </c>
       <c r="C90" s="30" t="n">
-        <v>0.7111</v>
+        <v>0.7451</v>
       </c>
       <c r="D90" s="31" t="n">
-        <v>6750.28</v>
+        <v>41014.88</v>
       </c>
       <c r="E90" s="31" t="n">
-        <v>5768.78</v>
+        <v>5720.86</v>
       </c>
       <c r="F90" s="31" t="n">
-        <v>968.78</v>
+        <v>920.86</v>
       </c>
       <c r="G90" s="30" t="n">
-        <v>0.8803</v>
+        <v>0.8475</v>
       </c>
       <c r="H90" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I90" s="30" t="n">
-        <v>0.8542999999999999</v>
+        <v>0.8276</v>
       </c>
       <c r="J90" s="33" t="n">
-        <v>-0.0295</v>
+        <v>-0.0235</v>
       </c>
       <c r="K90" s="8" t="n">
-        <v>-175.51</v>
+        <v>-816.2</v>
       </c>
       <c r="L90" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M90" s="32" t="inlineStr">
@@ -6703,37 +6703,37 @@
         <v>100038</v>
       </c>
       <c r="C91" s="30" t="n">
-        <v>1.3043</v>
+        <v>1.3129</v>
       </c>
       <c r="D91" s="31" t="n">
-        <v>2760.12</v>
+        <v>14624.61</v>
       </c>
       <c r="E91" s="31" t="n">
-        <v>4435.51</v>
+        <v>4441.03</v>
       </c>
       <c r="F91" s="31" t="n">
-        <v>835.51</v>
+        <v>841.03</v>
       </c>
       <c r="G91" s="30" t="n">
-        <v>1.626</v>
+        <v>1.609</v>
       </c>
       <c r="H91" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I91" s="30" t="n">
-        <v>1.6102</v>
+        <v>1.5936</v>
       </c>
       <c r="J91" s="33" t="n">
-        <v>-0.0097</v>
+        <v>-0.009599999999999999</v>
       </c>
       <c r="K91" s="8" t="n">
-        <v>-43.61</v>
+        <v>-225.22</v>
       </c>
       <c r="L91" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M91" s="32" t="inlineStr">
@@ -6772,37 +6772,37 @@
         <v>4752</v>
       </c>
       <c r="C92" s="30" t="n">
-        <v>0.7235</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="D92" s="31" t="n">
-        <v>4423.48</v>
+        <v>7852.99</v>
       </c>
       <c r="E92" s="31" t="n">
-        <v>3380.86</v>
+        <v>3310.09</v>
       </c>
       <c r="F92" s="31" t="n">
-        <v>180.86</v>
+        <v>110.09</v>
       </c>
       <c r="G92" s="30" t="n">
-        <v>0.772</v>
+        <v>0.7483</v>
       </c>
       <c r="H92" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I92" s="30" t="n">
-        <v>0.7643</v>
+        <v>0.7485000000000001</v>
       </c>
       <c r="J92" s="33" t="n">
-        <v>-0.01</v>
-      </c>
-      <c r="K92" s="8" t="n">
-        <v>-34.06</v>
+        <v>0.0003</v>
+      </c>
+      <c r="K92" s="9" t="n">
+        <v>1.57</v>
       </c>
       <c r="L92" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M92" s="32" t="inlineStr">
@@ -6841,37 +6841,37 @@
         <v>161017</v>
       </c>
       <c r="C93" s="30" t="n">
-        <v>1.325</v>
+        <v>1.3432</v>
       </c>
       <c r="D93" s="31" t="n">
-        <v>2046.97</v>
+        <v>9529.809999999999</v>
       </c>
       <c r="E93" s="31" t="n">
-        <v>3250.58</v>
+        <v>3246.49</v>
       </c>
       <c r="F93" s="31" t="n">
-        <v>538.47</v>
+        <v>534.38</v>
       </c>
       <c r="G93" s="30" t="n">
-        <v>1.605</v>
+        <v>1.586</v>
       </c>
       <c r="H93" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I93" s="30" t="n">
-        <v>1.5922</v>
+        <v>1.5819</v>
       </c>
       <c r="J93" s="33" t="n">
-        <v>-0.008</v>
+        <v>-0.0026</v>
       </c>
       <c r="K93" s="8" t="n">
-        <v>-26.2</v>
+        <v>-39.07</v>
       </c>
       <c r="L93" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M93" s="32" t="inlineStr">
@@ -6910,37 +6910,37 @@
         <v>1064</v>
       </c>
       <c r="C94" s="30" t="n">
-        <v>0.5379</v>
+        <v>0.4775</v>
       </c>
       <c r="D94" s="31" t="n">
-        <v>5949.77</v>
+        <v>13403.92</v>
       </c>
       <c r="E94" s="31" t="n">
-        <v>3204.54</v>
+        <v>3228.34</v>
       </c>
       <c r="F94" s="31" t="n">
-        <v>4.54</v>
+        <v>28.34</v>
       </c>
       <c r="G94" s="30" t="n">
-        <v>0.5389</v>
+        <v>0.5426</v>
       </c>
       <c r="H94" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I94" s="30" t="n">
-        <v>0.5386</v>
+        <v>0.5413</v>
       </c>
       <c r="J94" s="33" t="n">
-        <v>-0.0005999999999999999</v>
+        <v>-0.0024</v>
       </c>
       <c r="K94" s="8" t="n">
-        <v>-1.78</v>
+        <v>-17.43</v>
       </c>
       <c r="L94" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M94" s="32" t="inlineStr">
@@ -6979,10 +6979,10 @@
         <v>110027</v>
       </c>
       <c r="C95" s="30" t="n">
-        <v>1.6007</v>
+        <v>1.5931</v>
       </c>
       <c r="D95" s="31" t="n">
-        <v>1743.65</v>
+        <v>20086.63</v>
       </c>
       <c r="E95" s="31" t="n">
         <v>2931.07</v>
@@ -6991,25 +6991,25 @@
         <v>140.07</v>
       </c>
       <c r="G95" s="30" t="n">
-        <v>1.688</v>
+        <v>1.681</v>
       </c>
       <c r="H95" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I95" s="30" t="n">
-        <v>1.6841</v>
+        <v>1.678</v>
       </c>
       <c r="J95" s="33" t="n">
-        <v>-0.0023</v>
+        <v>-0.0018</v>
       </c>
       <c r="K95" s="8" t="n">
-        <v>-6.8</v>
+        <v>-60.26</v>
       </c>
       <c r="L95" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M95" s="32" t="inlineStr">
@@ -7048,16 +7048,16 @@
         <v>614</v>
       </c>
       <c r="C96" s="30" t="n">
-        <v>1.0612</v>
+        <v>1.091</v>
       </c>
       <c r="D96" s="31" t="n">
-        <v>1884.74</v>
+        <v>20716.63</v>
       </c>
       <c r="E96" s="31" t="n">
-        <v>2263.57</v>
+        <v>2278.65</v>
       </c>
       <c r="F96" s="31" t="n">
-        <v>263.57</v>
+        <v>278.65</v>
       </c>
       <c r="G96" s="30" t="n">
         <v>0</v>
@@ -7117,37 +7117,37 @@
         <v>110026</v>
       </c>
       <c r="C97" s="30" t="n">
-        <v>1.319</v>
+        <v>1.3359</v>
       </c>
       <c r="D97" s="31" t="n">
-        <v>1213.09</v>
+        <v>4791.13</v>
       </c>
       <c r="E97" s="31" t="n">
-        <v>2110.41</v>
+        <v>2103.37</v>
       </c>
       <c r="F97" s="31" t="n">
-        <v>510.41</v>
+        <v>503.37</v>
       </c>
       <c r="G97" s="30" t="n">
-        <v>1.7723</v>
+        <v>1.7339</v>
       </c>
       <c r="H97" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I97" s="30" t="n">
-        <v>1.7395</v>
+        <v>1.7174</v>
       </c>
       <c r="J97" s="33" t="n">
-        <v>-0.0185</v>
+        <v>-0.0095</v>
       </c>
       <c r="K97" s="8" t="n">
-        <v>-39.79</v>
+        <v>-79.05</v>
       </c>
       <c r="L97" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M97" s="32" t="inlineStr">
@@ -7186,37 +7186,37 @@
         <v>340001</v>
       </c>
       <c r="C98" s="30" t="n">
-        <v>0.9816</v>
+        <v>0.9886</v>
       </c>
       <c r="D98" s="31" t="n">
-        <v>1630.08</v>
+        <v>32370.29</v>
       </c>
       <c r="E98" s="31" t="n">
-        <v>1865.95</v>
+        <v>1867.25</v>
       </c>
       <c r="F98" s="31" t="n">
-        <v>265.95</v>
+        <v>267.25</v>
       </c>
       <c r="G98" s="30" t="n">
-        <v>1.1484</v>
+        <v>1.1455</v>
       </c>
       <c r="H98" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I98" s="30" t="n">
-        <v>1.1459</v>
+        <v>1.1442</v>
       </c>
       <c r="J98" s="33" t="n">
-        <v>-0.0022</v>
+        <v>-0.0012</v>
       </c>
       <c r="K98" s="8" t="n">
-        <v>-4.08</v>
+        <v>-42.08</v>
       </c>
       <c r="L98" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M98" s="32" t="inlineStr">
@@ -7255,37 +7255,37 @@
         <v>164906</v>
       </c>
       <c r="C99" s="30" t="n">
-        <v>1.137</v>
+        <v>1.1444</v>
       </c>
       <c r="D99" s="31" t="n">
-        <v>1407.29</v>
+        <v>16778.47</v>
       </c>
       <c r="E99" s="31" t="n">
-        <v>1752.07</v>
+        <v>1851.99</v>
       </c>
       <c r="F99" s="31" t="n">
-        <v>152.07</v>
+        <v>251.99</v>
       </c>
       <c r="G99" s="30" t="n">
-        <v>1.245</v>
+        <v>1.316</v>
       </c>
       <c r="H99" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-27</t>
         </is>
       </c>
       <c r="I99" s="30" t="n">
-        <v>1.2482</v>
+        <v>1.3174</v>
       </c>
       <c r="J99" s="33" t="n">
-        <v>0.0026</v>
+        <v>0.0011</v>
       </c>
       <c r="K99" s="9" t="n">
-        <v>4.5</v>
+        <v>23.49</v>
       </c>
       <c r="L99" s="32" t="inlineStr">
         <is>
-          <t>2019-11-23 05:00</t>
+          <t>2019-11-28 05:00</t>
         </is>
       </c>
       <c r="M99" s="32" t="inlineStr">
@@ -7324,37 +7324,37 @@
         <v>1051</v>
       </c>
       <c r="C100" s="30" t="n">
-        <v>0.8966</v>
+        <v>0</v>
       </c>
       <c r="D100" s="31" t="n">
-        <v>1338.46</v>
+        <v>0</v>
       </c>
       <c r="E100" s="31" t="n">
-        <v>1339.79</v>
+        <v>1343.81</v>
       </c>
       <c r="F100" s="31" t="n">
-        <v>139.79</v>
+        <v>143.81</v>
       </c>
       <c r="G100" s="30" t="n">
-        <v>1.01</v>
+        <v>1.004</v>
       </c>
       <c r="H100" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I100" s="30" t="n">
-        <v>1.0012</v>
+        <v>0.9925</v>
       </c>
       <c r="J100" s="33" t="n">
-        <v>-0.008699999999999999</v>
-      </c>
-      <c r="K100" s="8" t="n">
-        <v>-11.78</v>
+        <v>-0.0115</v>
+      </c>
+      <c r="K100" s="9" t="n">
+        <v>-0</v>
       </c>
       <c r="L100" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M100" s="32" t="inlineStr">
@@ -7393,37 +7393,37 @@
         <v>162411</v>
       </c>
       <c r="C101" s="30" t="n">
-        <v>0.4776</v>
+        <v>0.5152</v>
       </c>
       <c r="D101" s="31" t="n">
-        <v>3350.7</v>
+        <v>37267.45</v>
       </c>
       <c r="E101" s="31" t="n">
-        <v>1253.16</v>
+        <v>1249.81</v>
       </c>
       <c r="F101" s="31" t="n">
-        <v>-346.84</v>
+        <v>-350.19</v>
       </c>
       <c r="G101" s="30" t="n">
-        <v>0.374</v>
+        <v>0.373</v>
       </c>
       <c r="H101" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-27</t>
         </is>
       </c>
       <c r="I101" s="30" t="n">
-        <v>0.3753</v>
+        <v>0.3735</v>
       </c>
       <c r="J101" s="33" t="n">
-        <v>0.0035</v>
+        <v>0.0014</v>
       </c>
       <c r="K101" s="9" t="n">
-        <v>4.36</v>
+        <v>18.63</v>
       </c>
       <c r="L101" s="32" t="inlineStr">
         <is>
-          <t>2019-11-23 05:00</t>
+          <t>2019-11-28 05:00</t>
         </is>
       </c>
       <c r="M101" s="32" t="inlineStr">
@@ -7462,37 +7462,37 @@
         <v>162413</v>
       </c>
       <c r="C102" s="30" t="n">
-        <v>0.8027</v>
+        <v>0</v>
       </c>
       <c r="D102" s="31" t="n">
-        <v>1495.03</v>
+        <v>0</v>
       </c>
       <c r="E102" s="31" t="n">
-        <v>1190.19</v>
+        <v>1180.02</v>
       </c>
       <c r="F102" s="31" t="n">
-        <v>-9.81</v>
+        <v>-19.98</v>
       </c>
       <c r="G102" s="30" t="n">
-        <v>0.8058999999999999</v>
+        <v>0.7893</v>
       </c>
       <c r="H102" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I102" s="30" t="n">
-        <v>0.7958</v>
+        <v>0.7853</v>
       </c>
       <c r="J102" s="33" t="n">
-        <v>-0.0125</v>
-      </c>
-      <c r="K102" s="8" t="n">
-        <v>-15.1</v>
+        <v>-0.005</v>
+      </c>
+      <c r="K102" s="9" t="n">
+        <v>-0</v>
       </c>
       <c r="L102" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M102" s="32" t="inlineStr">
@@ -7531,37 +7531,37 @@
         <v>1469</v>
       </c>
       <c r="C103" s="30" t="n">
-        <v>0.8885999999999999</v>
+        <v>0.9073</v>
       </c>
       <c r="D103" s="31" t="n">
-        <v>900.35</v>
+        <v>21163.93</v>
       </c>
       <c r="E103" s="31" t="n">
-        <v>970.39</v>
+        <v>971.65</v>
       </c>
       <c r="F103" s="31" t="n">
-        <v>170.39</v>
+        <v>171.65</v>
       </c>
       <c r="G103" s="30" t="n">
-        <v>1.0826</v>
+        <v>1.0792</v>
       </c>
       <c r="H103" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I103" s="30" t="n">
-        <v>1.0777</v>
+        <v>1.0764</v>
       </c>
       <c r="J103" s="33" t="n">
-        <v>-0.0046</v>
+        <v>-0.0026</v>
       </c>
       <c r="K103" s="8" t="n">
-        <v>-4.41</v>
+        <v>-59.26</v>
       </c>
       <c r="L103" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M103" s="32" t="inlineStr">
@@ -7600,37 +7600,37 @@
         <v>216</v>
       </c>
       <c r="C104" s="30" t="n">
-        <v>1.0903</v>
+        <v>0</v>
       </c>
       <c r="D104" s="31" t="n">
-        <v>733.79</v>
+        <v>0</v>
       </c>
       <c r="E104" s="31" t="n">
-        <v>896.17</v>
+        <v>887.37</v>
       </c>
       <c r="F104" s="31" t="n">
-        <v>96.17</v>
+        <v>87.37</v>
       </c>
       <c r="G104" s="30" t="n">
-        <v>1.2202</v>
+        <v>1.2093</v>
       </c>
       <c r="H104" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I104" s="30" t="n">
-        <v>1.2219</v>
+        <v>1.2098</v>
       </c>
       <c r="J104" s="33" t="n">
-        <v>0.0014</v>
+        <v>0.0005</v>
       </c>
       <c r="K104" s="9" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="L104" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22 15:30</t>
+          <t>2019-11-29 11:35</t>
         </is>
       </c>
       <c r="M104" s="32" t="inlineStr">
@@ -7669,37 +7669,37 @@
         <v>502010</v>
       </c>
       <c r="C105" s="30" t="n">
-        <v>0.8063</v>
+        <v>0</v>
       </c>
       <c r="D105" s="31" t="n">
-        <v>496.13</v>
+        <v>0</v>
       </c>
       <c r="E105" s="31" t="n">
-        <v>478.26</v>
+        <v>476.83</v>
       </c>
       <c r="F105" s="31" t="n">
-        <v>78.26000000000001</v>
+        <v>76.83</v>
       </c>
       <c r="G105" s="30" t="n">
-        <v>0.9671999999999999</v>
+        <v>0.9611</v>
       </c>
       <c r="H105" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I105" s="30" t="n">
-        <v>0.9643</v>
+        <v>0.965</v>
       </c>
       <c r="J105" s="33" t="n">
-        <v>-0.003</v>
-      </c>
-      <c r="K105" s="8" t="n">
-        <v>-1.44</v>
+        <v>0.0041</v>
+      </c>
+      <c r="K105" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="L105" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M105" s="32" t="inlineStr">
@@ -7738,37 +7738,37 @@
         <v>3765</v>
       </c>
       <c r="C106" s="30" t="n">
-        <v>0.8121</v>
+        <v>0</v>
       </c>
       <c r="D106" s="31" t="n">
-        <v>492.57</v>
+        <v>0</v>
       </c>
       <c r="E106" s="31" t="n">
-        <v>465.77</v>
+        <v>463.85</v>
       </c>
       <c r="F106" s="31" t="n">
-        <v>65.77</v>
+        <v>63.85</v>
       </c>
       <c r="G106" s="30" t="n">
-        <v>0.9631</v>
+        <v>0.9417</v>
       </c>
       <c r="H106" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I106" s="30" t="n">
-        <v>0.9453</v>
+        <v>0.9328</v>
       </c>
       <c r="J106" s="33" t="n">
-        <v>-0.0185</v>
-      </c>
-      <c r="K106" s="8" t="n">
-        <v>-8.77</v>
+        <v>-0.0095</v>
+      </c>
+      <c r="K106" s="9" t="n">
+        <v>-0</v>
       </c>
       <c r="L106" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M106" s="32" t="inlineStr">
@@ -7810,34 +7810,34 @@
         <v>1.2011</v>
       </c>
       <c r="D107" s="31" t="n">
-        <v>333.04</v>
+        <v>5328.62</v>
       </c>
       <c r="E107" s="31" t="n">
-        <v>452</v>
+        <v>451.86</v>
       </c>
       <c r="F107" s="31" t="n">
-        <v>52</v>
+        <v>51.86</v>
       </c>
       <c r="G107" s="30" t="n">
-        <v>1.3595</v>
+        <v>1.3568</v>
       </c>
       <c r="H107" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I107" s="30" t="n">
-        <v>1.3566</v>
+        <v>1.355</v>
       </c>
       <c r="J107" s="33" t="n">
-        <v>-0.0021</v>
+        <v>-0.0014</v>
       </c>
       <c r="K107" s="8" t="n">
-        <v>-0.97</v>
+        <v>-9.59</v>
       </c>
       <c r="L107" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M107" s="32" t="inlineStr">
@@ -7876,37 +7876,37 @@
         <v>51</v>
       </c>
       <c r="C108" s="30" t="n">
-        <v>1.2285</v>
+        <v>0</v>
       </c>
       <c r="D108" s="31" t="n">
-        <v>325.61</v>
+        <v>0</v>
       </c>
       <c r="E108" s="31" t="n">
-        <v>420.36</v>
+        <v>421.66</v>
       </c>
       <c r="F108" s="31" t="n">
-        <v>20.36</v>
+        <v>21.66</v>
       </c>
       <c r="G108" s="30" t="n">
-        <v>1.303</v>
+        <v>1.295</v>
       </c>
       <c r="H108" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I108" s="30" t="n">
-        <v>1.2904</v>
+        <v>1.2826</v>
       </c>
       <c r="J108" s="33" t="n">
-        <v>-0.0097</v>
-      </c>
-      <c r="K108" s="8" t="n">
-        <v>-4.1</v>
+        <v>-0.009599999999999999</v>
+      </c>
+      <c r="K108" s="9" t="n">
+        <v>-0</v>
       </c>
       <c r="L108" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M108" s="32" t="inlineStr">
@@ -7945,37 +7945,37 @@
         <v>71</v>
       </c>
       <c r="C109" s="30" t="n">
-        <v>1.452</v>
+        <v>1.4562</v>
       </c>
       <c r="D109" s="31" t="n">
-        <v>275.49</v>
+        <v>6798.52</v>
       </c>
       <c r="E109" s="31" t="n">
-        <v>410.81</v>
+        <v>414.58</v>
       </c>
       <c r="F109" s="31" t="n">
-        <v>10.81</v>
+        <v>14.58</v>
       </c>
       <c r="G109" s="30" t="n">
-        <v>1.4912</v>
+        <v>1.5049</v>
       </c>
       <c r="H109" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I109" s="30" t="n">
-        <v>1.4981</v>
+        <v>1.4767</v>
       </c>
       <c r="J109" s="33" t="n">
-        <v>0.0046</v>
-      </c>
-      <c r="K109" s="9" t="n">
-        <v>1.9</v>
+        <v>-0.0187</v>
+      </c>
+      <c r="K109" s="8" t="n">
+        <v>-191.72</v>
       </c>
       <c r="L109" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22 16:00</t>
+          <t>2019-11-29 12:00</t>
         </is>
       </c>
       <c r="M109" s="32" t="inlineStr">
@@ -8014,37 +8014,37 @@
         <v>2903</v>
       </c>
       <c r="C110" s="30" t="n">
-        <v>0.829</v>
+        <v>0.9</v>
       </c>
       <c r="D110" s="31" t="n">
-        <v>275.96</v>
+        <v>7778.64</v>
       </c>
       <c r="E110" s="31" t="n">
-        <v>237.71</v>
+        <v>236.96</v>
       </c>
       <c r="F110" s="31" t="n">
-        <v>8.949999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G110" s="30" t="n">
-        <v>0.8683999999999999</v>
+        <v>0.8587</v>
       </c>
       <c r="H110" s="32" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I110" s="30" t="n">
-        <v>0.8615</v>
+        <v>0.8565</v>
       </c>
       <c r="J110" s="33" t="n">
-        <v>-0.008</v>
+        <v>-0.0026</v>
       </c>
       <c r="K110" s="8" t="n">
-        <v>-1.9</v>
+        <v>-17.11</v>
       </c>
       <c r="L110" s="32" t="inlineStr">
         <is>
-          <t>2019-11-22 15:00</t>
+          <t>2019-11-29 11:30</t>
         </is>
       </c>
       <c r="M110" s="32" t="inlineStr">

--- a/Portfolio/scripts/output/201911/全家/全家整体收益估算.xlsx
+++ b/Portfolio/scripts/output/201911/全家/全家整体收益估算.xlsx
@@ -59,17 +59,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F8696B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00DBB6AC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FF7C9E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F8696B"/>
       </patternFill>
     </fill>
     <fill>
@@ -109,7 +109,14 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -118,14 +125,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="7" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="7" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -582,17 +582,17 @@
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.6048</v>
+        <v>1.6013</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>-0.002</v>
+        <v>-0.0042</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>-7.3</v>
+        <v>-15.28</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -651,17 +651,17 @@
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.4235</v>
+        <v>1.4205</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>-0.0046</v>
+        <v>-0.0067</v>
       </c>
       <c r="K3" s="8" t="n">
-        <v>-16.51</v>
+        <v>-24.13</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
@@ -720,17 +720,17 @@
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.4338</v>
+        <v>1.4328</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>-0.0185</v>
+        <v>-0.0192</v>
       </c>
       <c r="K4" s="8" t="n">
-        <v>-61.02</v>
+        <v>-63.28</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 12:00</t>
+          <t>2019-11-29 14:19</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
@@ -789,17 +789,17 @@
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.9094</v>
+        <v>0.9083</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="K5" s="9" t="n">
-        <v>1.02</v>
+        <v>-0.0009</v>
+      </c>
+      <c r="K5" s="8" t="n">
+        <v>-2.71</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
@@ -858,17 +858,17 @@
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.8302</v>
+        <v>1.8278</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>-0.0053</v>
+        <v>-0.0067</v>
       </c>
       <c r="K6" s="8" t="n">
-        <v>-12.89</v>
+        <v>-16.04</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
@@ -927,17 +927,17 @@
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>2.1279</v>
+        <v>2.1247</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>-0.0049</v>
+        <v>-0.0065</v>
       </c>
       <c r="K7" s="8" t="n">
-        <v>-10.32</v>
+        <v>-13.44</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -996,17 +996,17 @@
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.9376</v>
+        <v>0.9375</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>-0.0098</v>
+        <v>-0.009900000000000001</v>
       </c>
       <c r="K8" s="8" t="n">
-        <v>-8.26</v>
+        <v>-8.34</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:17</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -1065,17 +1065,17 @@
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.9268999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>-0.0061</v>
+        <v>-0.008200000000000001</v>
       </c>
       <c r="K9" s="8" t="n">
-        <v>-3.14</v>
+        <v>-4.18</v>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M9" s="6" t="inlineStr">
@@ -1134,17 +1134,17 @@
         </is>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.7577</v>
+        <v>0.7582</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>-0.0182</v>
+        <v>-0.0176</v>
       </c>
       <c r="K10" s="8" t="n">
-        <v>-7.5</v>
+        <v>-7.23</v>
       </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:17</t>
         </is>
       </c>
       <c r="M10" s="6" t="inlineStr">
@@ -1203,17 +1203,17 @@
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1.2915</v>
+        <v>1.2886</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>-0.0194</v>
+        <v>-0.0216</v>
       </c>
       <c r="K11" s="8" t="n">
-        <v>-6.32</v>
+        <v>-7.04</v>
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M11" s="6" t="inlineStr">
@@ -1272,17 +1272,17 @@
         </is>
       </c>
       <c r="I12" s="4" t="n">
-        <v>1.4334</v>
+        <v>1.4304</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>-0.0046</v>
+        <v>-0.0067</v>
       </c>
       <c r="K12" s="8" t="n">
-        <v>-0.4</v>
+        <v>-0.58</v>
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M12" s="6" t="inlineStr">
@@ -1312,690 +1312,690 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="10" t="inlineStr">
+      <c r="A13" s="9" t="inlineStr">
         <is>
           <t>广发中证环保ETF联接基金A</t>
         </is>
       </c>
-      <c r="B13" s="11" t="n">
+      <c r="B13" s="10" t="n">
         <v>1064</v>
       </c>
-      <c r="C13" s="12" t="n">
+      <c r="C13" s="11" t="n">
         <v>0.7171999999999999</v>
       </c>
-      <c r="D13" s="13" t="n">
+      <c r="D13" s="12" t="n">
         <v>16731.88</v>
       </c>
-      <c r="E13" s="13" t="n">
+      <c r="E13" s="12" t="n">
         <v>9078.709999999999</v>
       </c>
-      <c r="F13" s="13" t="n">
+      <c r="F13" s="12" t="n">
         <v>-2921.28</v>
       </c>
-      <c r="G13" s="12" t="n">
+      <c r="G13" s="11" t="n">
         <v>0.5426</v>
       </c>
-      <c r="H13" s="14" t="inlineStr">
-        <is>
-          <t>2019-11-28</t>
-        </is>
-      </c>
-      <c r="I13" s="12" t="n">
-        <v>0.5413</v>
-      </c>
-      <c r="J13" s="15" t="n">
-        <v>-0.0024</v>
+      <c r="H13" s="13" t="inlineStr">
+        <is>
+          <t>2019-11-28</t>
+        </is>
+      </c>
+      <c r="I13" s="11" t="n">
+        <v>0.5412</v>
+      </c>
+      <c r="J13" s="14" t="n">
+        <v>-0.0027</v>
       </c>
       <c r="K13" s="8" t="n">
-        <v>-21.75</v>
-      </c>
-      <c r="L13" s="14" t="inlineStr">
-        <is>
-          <t>2019-11-29 11:30</t>
-        </is>
-      </c>
-      <c r="M13" s="14" t="inlineStr">
+        <v>-23.42</v>
+      </c>
+      <c r="L13" s="13" t="inlineStr">
+        <is>
+          <t>2019-11-29 14:17</t>
+        </is>
+      </c>
+      <c r="M13" s="13" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N13" s="14" t="inlineStr">
+      <c r="N13" s="13" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O13" s="14" t="inlineStr">
+      <c r="O13" s="13" t="inlineStr">
         <is>
           <t>中证环保</t>
         </is>
       </c>
-      <c r="P13" s="14" t="inlineStr">
+      <c r="P13" s="13" t="inlineStr">
         <is>
           <t>143</t>
         </is>
       </c>
-      <c r="Q13" s="14" t="inlineStr">
+      <c r="Q13" s="13" t="inlineStr">
         <is>
           <t>支付宝</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="16" t="inlineStr">
+      <c r="A14" s="15" t="inlineStr">
         <is>
           <t>50ETF</t>
         </is>
       </c>
-      <c r="B14" s="17" t="n">
+      <c r="B14" s="16" t="n">
         <v>510050</v>
       </c>
-      <c r="C14" s="18" t="n">
+      <c r="C14" s="17" t="n">
         <v>2.337</v>
       </c>
-      <c r="D14" s="19" t="n">
+      <c r="D14" s="18" t="n">
         <v>2700</v>
       </c>
-      <c r="E14" s="19" t="n">
+      <c r="E14" s="18" t="n">
         <v>8040.6</v>
       </c>
-      <c r="F14" s="19" t="n">
+      <c r="F14" s="18" t="n">
         <v>1730.7</v>
       </c>
-      <c r="G14" s="18" t="n">
+      <c r="G14" s="17" t="n">
         <v>2.978</v>
       </c>
-      <c r="H14" s="20" t="inlineStr">
-        <is>
-          <t>2019-11-28</t>
-        </is>
-      </c>
-      <c r="I14" s="18" t="n">
-        <v>2.943</v>
-      </c>
-      <c r="J14" s="21" t="n">
-        <v>-0.0118</v>
+      <c r="H14" s="19" t="inlineStr">
+        <is>
+          <t>2019-11-28</t>
+        </is>
+      </c>
+      <c r="I14" s="17" t="n">
+        <v>2.934</v>
+      </c>
+      <c r="J14" s="20" t="n">
+        <v>-0.0148</v>
       </c>
       <c r="K14" s="8" t="n">
-        <v>-94.5</v>
-      </c>
-      <c r="L14" s="20" t="inlineStr">
-        <is>
-          <t>2019-11-29 11:29</t>
-        </is>
-      </c>
-      <c r="M14" s="20" t="inlineStr">
+        <v>-118.8</v>
+      </c>
+      <c r="L14" s="19" t="inlineStr">
+        <is>
+          <t>2019-11-29 14:19</t>
+        </is>
+      </c>
+      <c r="M14" s="19" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N14" s="20" t="inlineStr">
+      <c r="N14" s="19" t="inlineStr">
         <is>
           <t>大盘股</t>
         </is>
       </c>
-      <c r="O14" s="20" t="inlineStr">
+      <c r="O14" s="19" t="inlineStr">
         <is>
           <t>上证50</t>
         </is>
       </c>
-      <c r="P14" s="20" t="inlineStr">
+      <c r="P14" s="19" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Q14" s="20" t="inlineStr">
+      <c r="Q14" s="19" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="16" t="inlineStr">
+      <c r="A15" s="15" t="inlineStr">
         <is>
           <t>300ETF</t>
         </is>
       </c>
-      <c r="B15" s="17" t="n">
+      <c r="B15" s="16" t="n">
         <v>510300</v>
       </c>
-      <c r="C15" s="18" t="n">
+      <c r="C15" s="17" t="n">
         <v>3.447</v>
       </c>
-      <c r="D15" s="19" t="n">
+      <c r="D15" s="18" t="n">
         <v>9100</v>
       </c>
-      <c r="E15" s="19" t="n">
+      <c r="E15" s="18" t="n">
         <v>35763</v>
       </c>
-      <c r="F15" s="19" t="n">
+      <c r="F15" s="18" t="n">
         <v>4395.3</v>
       </c>
-      <c r="G15" s="18" t="n">
+      <c r="G15" s="17" t="n">
         <v>3.93</v>
       </c>
-      <c r="H15" s="20" t="inlineStr">
-        <is>
-          <t>2019-11-28</t>
-        </is>
-      </c>
-      <c r="I15" s="18" t="n">
-        <v>3.886</v>
-      </c>
-      <c r="J15" s="21" t="n">
-        <v>-0.0112</v>
+      <c r="H15" s="19" t="inlineStr">
+        <is>
+          <t>2019-11-28</t>
+        </is>
+      </c>
+      <c r="I15" s="17" t="n">
+        <v>3.878</v>
+      </c>
+      <c r="J15" s="20" t="n">
+        <v>-0.0132</v>
       </c>
       <c r="K15" s="8" t="n">
-        <v>-400.4</v>
-      </c>
-      <c r="L15" s="20" t="inlineStr">
-        <is>
-          <t>2019-11-29 11:29</t>
-        </is>
-      </c>
-      <c r="M15" s="20" t="inlineStr">
+        <v>-473.2</v>
+      </c>
+      <c r="L15" s="19" t="inlineStr">
+        <is>
+          <t>2019-11-29 14:19</t>
+        </is>
+      </c>
+      <c r="M15" s="19" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N15" s="20" t="inlineStr">
+      <c r="N15" s="19" t="inlineStr">
         <is>
           <t>大盘股</t>
         </is>
       </c>
-      <c r="O15" s="20" t="inlineStr">
+      <c r="O15" s="19" t="inlineStr">
         <is>
           <t>沪深300</t>
         </is>
       </c>
-      <c r="P15" s="20" t="inlineStr">
+      <c r="P15" s="19" t="inlineStr">
         <is>
           <t>113</t>
         </is>
       </c>
-      <c r="Q15" s="20" t="inlineStr">
+      <c r="Q15" s="19" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="16" t="inlineStr">
+      <c r="A16" s="15" t="inlineStr">
         <is>
           <t>500ETF</t>
         </is>
       </c>
-      <c r="B16" s="17" t="n">
+      <c r="B16" s="16" t="n">
         <v>510500</v>
       </c>
-      <c r="C16" s="18" t="n">
+      <c r="C16" s="17" t="n">
         <v>5.601</v>
       </c>
-      <c r="D16" s="19" t="n">
+      <c r="D16" s="18" t="n">
         <v>38800</v>
       </c>
-      <c r="E16" s="19" t="n">
+      <c r="E16" s="18" t="n">
         <v>205252</v>
       </c>
-      <c r="F16" s="19" t="n">
+      <c r="F16" s="18" t="n">
         <v>-12066.8</v>
       </c>
-      <c r="G16" s="18" t="n">
+      <c r="G16" s="17" t="n">
         <v>5.29</v>
       </c>
-      <c r="H16" s="20" t="inlineStr">
-        <is>
-          <t>2019-11-28</t>
-        </is>
-      </c>
-      <c r="I16" s="18" t="n">
-        <v>5.279</v>
-      </c>
-      <c r="J16" s="21" t="n">
-        <v>-0.0021</v>
+      <c r="H16" s="19" t="inlineStr">
+        <is>
+          <t>2019-11-28</t>
+        </is>
+      </c>
+      <c r="I16" s="17" t="n">
+        <v>5.268</v>
+      </c>
+      <c r="J16" s="20" t="n">
+        <v>-0.0042</v>
       </c>
       <c r="K16" s="8" t="n">
-        <v>-426.8</v>
-      </c>
-      <c r="L16" s="20" t="inlineStr">
-        <is>
-          <t>2019-11-29 11:29</t>
-        </is>
-      </c>
-      <c r="M16" s="20" t="inlineStr">
+        <v>-853.6</v>
+      </c>
+      <c r="L16" s="19" t="inlineStr">
+        <is>
+          <t>2019-11-29 14:19</t>
+        </is>
+      </c>
+      <c r="M16" s="19" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N16" s="20" t="inlineStr">
+      <c r="N16" s="19" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="O16" s="20" t="inlineStr">
+      <c r="O16" s="19" t="inlineStr">
         <is>
           <t>中证500</t>
         </is>
       </c>
-      <c r="P16" s="20" t="inlineStr">
+      <c r="P16" s="19" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="Q16" s="20" t="inlineStr">
+      <c r="Q16" s="19" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="16" t="inlineStr">
+      <c r="A17" s="15" t="inlineStr">
         <is>
           <t>环保ETF</t>
         </is>
       </c>
-      <c r="B17" s="17" t="n">
+      <c r="B17" s="16" t="n">
         <v>512580</v>
       </c>
-      <c r="C17" s="18" t="n">
+      <c r="C17" s="17" t="n">
         <v>0.877</v>
       </c>
-      <c r="D17" s="19" t="n">
+      <c r="D17" s="18" t="n">
         <v>33800</v>
       </c>
-      <c r="E17" s="19" t="n">
+      <c r="E17" s="18" t="n">
         <v>24403.6</v>
       </c>
-      <c r="F17" s="19" t="n">
+      <c r="F17" s="18" t="n">
         <v>-5239</v>
       </c>
-      <c r="G17" s="18" t="n">
+      <c r="G17" s="17" t="n">
         <v>0.722</v>
       </c>
-      <c r="H17" s="20" t="inlineStr">
-        <is>
-          <t>2019-11-28</t>
-        </is>
-      </c>
-      <c r="I17" s="18" t="n">
-        <v>0.721</v>
-      </c>
-      <c r="J17" s="21" t="n">
-        <v>-0.0014</v>
+      <c r="H17" s="19" t="inlineStr">
+        <is>
+          <t>2019-11-28</t>
+        </is>
+      </c>
+      <c r="I17" s="17" t="n">
+        <v>0.719</v>
+      </c>
+      <c r="J17" s="20" t="n">
+        <v>-0.0042</v>
       </c>
       <c r="K17" s="8" t="n">
-        <v>-33.8</v>
-      </c>
-      <c r="L17" s="20" t="inlineStr">
-        <is>
-          <t>2019-11-29 11:26</t>
-        </is>
-      </c>
-      <c r="M17" s="20" t="inlineStr">
+        <v>-101.4</v>
+      </c>
+      <c r="L17" s="19" t="inlineStr">
+        <is>
+          <t>2019-11-29 14:19</t>
+        </is>
+      </c>
+      <c r="M17" s="19" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N17" s="20" t="inlineStr">
+      <c r="N17" s="19" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O17" s="20" t="inlineStr">
+      <c r="O17" s="19" t="inlineStr">
         <is>
           <t>中证环保</t>
         </is>
       </c>
-      <c r="P17" s="20" t="inlineStr">
+      <c r="P17" s="19" t="inlineStr">
         <is>
           <t>143</t>
         </is>
       </c>
-      <c r="Q17" s="20" t="inlineStr">
+      <c r="Q17" s="19" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="16" t="inlineStr">
+      <c r="A18" s="15" t="inlineStr">
         <is>
           <t>证券ETF</t>
         </is>
       </c>
-      <c r="B18" s="17" t="n">
+      <c r="B18" s="16" t="n">
         <v>512880</v>
       </c>
-      <c r="C18" s="18" t="n">
+      <c r="C18" s="17" t="n">
         <v>0.783</v>
       </c>
-      <c r="D18" s="19" t="n">
+      <c r="D18" s="18" t="n">
         <v>32700</v>
       </c>
-      <c r="E18" s="19" t="n">
+      <c r="E18" s="18" t="n">
         <v>29266.5</v>
       </c>
-      <c r="F18" s="19" t="n">
+      <c r="F18" s="18" t="n">
         <v>3662.4</v>
       </c>
-      <c r="G18" s="18" t="n">
+      <c r="G18" s="17" t="n">
         <v>0.895</v>
       </c>
-      <c r="H18" s="20" t="inlineStr">
-        <is>
-          <t>2019-11-28</t>
-        </is>
-      </c>
-      <c r="I18" s="18" t="n">
-        <v>0.899</v>
-      </c>
-      <c r="J18" s="21" t="n">
-        <v>0.0045</v>
-      </c>
-      <c r="K18" s="9" t="n">
-        <v>130.8</v>
-      </c>
-      <c r="L18" s="20" t="inlineStr">
-        <is>
-          <t>2019-11-29 11:29</t>
-        </is>
-      </c>
-      <c r="M18" s="20" t="inlineStr">
+      <c r="H18" s="19" t="inlineStr">
+        <is>
+          <t>2019-11-28</t>
+        </is>
+      </c>
+      <c r="I18" s="17" t="n">
+        <v>0.898</v>
+      </c>
+      <c r="J18" s="20" t="n">
+        <v>0.0034</v>
+      </c>
+      <c r="K18" s="21" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="L18" s="19" t="inlineStr">
+        <is>
+          <t>2019-11-29 14:19</t>
+        </is>
+      </c>
+      <c r="M18" s="19" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N18" s="20" t="inlineStr">
+      <c r="N18" s="19" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O18" s="20" t="inlineStr">
+      <c r="O18" s="19" t="inlineStr">
         <is>
           <t>证券公司</t>
         </is>
       </c>
-      <c r="P18" s="20" t="inlineStr">
+      <c r="P18" s="19" t="inlineStr">
         <is>
           <t>145</t>
         </is>
       </c>
-      <c r="Q18" s="20" t="inlineStr">
+      <c r="Q18" s="19" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="16" t="inlineStr">
+      <c r="A19" s="15" t="inlineStr">
         <is>
           <t>传媒ETF</t>
         </is>
       </c>
-      <c r="B19" s="17" t="n">
+      <c r="B19" s="16" t="n">
         <v>512980</v>
       </c>
-      <c r="C19" s="18" t="n">
+      <c r="C19" s="17" t="n">
         <v>0.869</v>
       </c>
-      <c r="D19" s="19" t="n">
+      <c r="D19" s="18" t="n">
         <v>34100</v>
       </c>
-      <c r="E19" s="19" t="n">
+      <c r="E19" s="18" t="n">
         <v>25404.5</v>
       </c>
-      <c r="F19" s="19" t="n">
+      <c r="F19" s="18" t="n">
         <v>-4228.4</v>
       </c>
-      <c r="G19" s="18" t="n">
+      <c r="G19" s="17" t="n">
         <v>0.745</v>
       </c>
-      <c r="H19" s="20" t="inlineStr">
-        <is>
-          <t>2019-11-28</t>
-        </is>
-      </c>
-      <c r="I19" s="18" t="n">
-        <v>0.745</v>
-      </c>
-      <c r="J19" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" s="20" t="inlineStr">
-        <is>
-          <t>2019-11-29 11:29</t>
-        </is>
-      </c>
-      <c r="M19" s="20" t="inlineStr">
+      <c r="H19" s="19" t="inlineStr">
+        <is>
+          <t>2019-11-28</t>
+        </is>
+      </c>
+      <c r="I19" s="17" t="n">
+        <v>0.744</v>
+      </c>
+      <c r="J19" s="20" t="n">
+        <v>-0.0013</v>
+      </c>
+      <c r="K19" s="8" t="n">
+        <v>-34.1</v>
+      </c>
+      <c r="L19" s="19" t="inlineStr">
+        <is>
+          <t>2019-11-29 14:19</t>
+        </is>
+      </c>
+      <c r="M19" s="19" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N19" s="20" t="inlineStr">
+      <c r="N19" s="19" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O19" s="20" t="inlineStr">
+      <c r="O19" s="19" t="inlineStr">
         <is>
           <t>中证传媒</t>
         </is>
       </c>
-      <c r="P19" s="20" t="inlineStr">
+      <c r="P19" s="19" t="inlineStr">
         <is>
           <t>144</t>
         </is>
       </c>
-      <c r="Q19" s="20" t="inlineStr">
+      <c r="Q19" s="19" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="16" t="inlineStr">
+      <c r="A20" s="15" t="inlineStr">
         <is>
           <t>黄金ETF</t>
         </is>
       </c>
-      <c r="B20" s="17" t="n">
+      <c r="B20" s="16" t="n">
         <v>518880</v>
       </c>
-      <c r="C20" s="18" t="n">
+      <c r="C20" s="17" t="n">
         <v>2.856</v>
       </c>
-      <c r="D20" s="19" t="n">
+      <c r="D20" s="18" t="n">
         <v>4500</v>
       </c>
-      <c r="E20" s="19" t="n">
+      <c r="E20" s="18" t="n">
         <v>14674.5</v>
       </c>
-      <c r="F20" s="19" t="n">
+      <c r="F20" s="18" t="n">
         <v>1822.5</v>
       </c>
-      <c r="G20" s="18" t="n">
+      <c r="G20" s="17" t="n">
         <v>3.261</v>
       </c>
-      <c r="H20" s="20" t="inlineStr">
-        <is>
-          <t>2019-11-28</t>
-        </is>
-      </c>
-      <c r="I20" s="18" t="n">
+      <c r="H20" s="19" t="inlineStr">
+        <is>
+          <t>2019-11-28</t>
+        </is>
+      </c>
+      <c r="I20" s="17" t="n">
         <v>3.268</v>
       </c>
-      <c r="J20" s="21" t="n">
+      <c r="J20" s="20" t="n">
         <v>0.0021</v>
       </c>
-      <c r="K20" s="9" t="n">
+      <c r="K20" s="21" t="n">
         <v>31.5</v>
       </c>
-      <c r="L20" s="20" t="inlineStr">
-        <is>
-          <t>2019-11-29 11:29</t>
-        </is>
-      </c>
-      <c r="M20" s="20" t="inlineStr">
+      <c r="L20" s="19" t="inlineStr">
+        <is>
+          <t>2019-11-29 14:19</t>
+        </is>
+      </c>
+      <c r="M20" s="19" t="inlineStr">
         <is>
           <t>商品</t>
         </is>
       </c>
-      <c r="N20" s="20" t="inlineStr">
+      <c r="N20" s="19" t="inlineStr">
         <is>
           <t>商品</t>
         </is>
       </c>
-      <c r="O20" s="20" t="inlineStr">
+      <c r="O20" s="19" t="inlineStr">
         <is>
           <t>黄金</t>
         </is>
       </c>
-      <c r="P20" s="20" t="inlineStr">
+      <c r="P20" s="19" t="inlineStr">
         <is>
           <t>511</t>
         </is>
       </c>
-      <c r="Q20" s="20" t="inlineStr">
+      <c r="Q20" s="19" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="16" t="inlineStr">
+      <c r="A21" s="15" t="inlineStr">
         <is>
           <t>创业板</t>
         </is>
       </c>
-      <c r="B21" s="17" t="n">
+      <c r="B21" s="16" t="n">
         <v>159915</v>
       </c>
-      <c r="C21" s="18" t="n">
+      <c r="C21" s="17" t="n">
         <v>1.399</v>
       </c>
-      <c r="D21" s="19" t="n">
+      <c r="D21" s="18" t="n">
         <v>9200</v>
       </c>
-      <c r="E21" s="19" t="n">
+      <c r="E21" s="18" t="n">
         <v>14821.2</v>
       </c>
-      <c r="F21" s="19" t="n">
+      <c r="F21" s="18" t="n">
         <v>1950.4</v>
       </c>
-      <c r="G21" s="18" t="n">
+      <c r="G21" s="17" t="n">
         <v>1.611</v>
       </c>
-      <c r="H21" s="20" t="inlineStr">
-        <is>
-          <t>2019-11-28</t>
-        </is>
-      </c>
-      <c r="I21" s="18" t="n">
-        <v>1.596</v>
-      </c>
-      <c r="J21" s="21" t="n">
-        <v>-0.009299999999999999</v>
+      <c r="H21" s="19" t="inlineStr">
+        <is>
+          <t>2019-11-28</t>
+        </is>
+      </c>
+      <c r="I21" s="17" t="n">
+        <v>1.595</v>
+      </c>
+      <c r="J21" s="20" t="n">
+        <v>-0.009900000000000001</v>
       </c>
       <c r="K21" s="8" t="n">
-        <v>-138</v>
-      </c>
-      <c r="L21" s="20" t="inlineStr">
-        <is>
-          <t>2019-11-29 12:22</t>
-        </is>
-      </c>
-      <c r="M21" s="20" t="inlineStr">
+        <v>-147.2</v>
+      </c>
+      <c r="L21" s="19" t="inlineStr">
+        <is>
+          <t>2019-11-29 14:19</t>
+        </is>
+      </c>
+      <c r="M21" s="19" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N21" s="20" t="inlineStr">
+      <c r="N21" s="19" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="O21" s="20" t="inlineStr">
+      <c r="O21" s="19" t="inlineStr">
         <is>
           <t>创业板</t>
         </is>
       </c>
-      <c r="P21" s="20" t="inlineStr">
+      <c r="P21" s="19" t="inlineStr">
         <is>
           <t>124</t>
         </is>
       </c>
-      <c r="Q21" s="20" t="inlineStr">
+      <c r="Q21" s="19" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="16" t="inlineStr">
+      <c r="A22" s="15" t="inlineStr">
         <is>
           <t>广发医药</t>
         </is>
       </c>
-      <c r="B22" s="17" t="n">
+      <c r="B22" s="16" t="n">
         <v>159938</v>
       </c>
-      <c r="C22" s="18" t="n">
+      <c r="C22" s="17" t="n">
         <v>1.271</v>
       </c>
-      <c r="D22" s="19" t="n">
+      <c r="D22" s="18" t="n">
         <v>14400</v>
       </c>
-      <c r="E22" s="19" t="n">
+      <c r="E22" s="18" t="n">
         <v>19569.6</v>
       </c>
-      <c r="F22" s="19" t="n">
+      <c r="F22" s="18" t="n">
         <v>1267.2</v>
       </c>
-      <c r="G22" s="18" t="n">
+      <c r="G22" s="17" t="n">
         <v>1.359</v>
       </c>
-      <c r="H22" s="20" t="inlineStr">
-        <is>
-          <t>2019-11-28</t>
-        </is>
-      </c>
-      <c r="I22" s="18" t="n">
-        <v>1.326</v>
-      </c>
-      <c r="J22" s="21" t="n">
-        <v>-0.0243</v>
+      <c r="H22" s="19" t="inlineStr">
+        <is>
+          <t>2019-11-28</t>
+        </is>
+      </c>
+      <c r="I22" s="17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="J22" s="20" t="n">
+        <v>-0.0213</v>
       </c>
       <c r="K22" s="8" t="n">
-        <v>-475.2</v>
-      </c>
-      <c r="L22" s="20" t="inlineStr">
-        <is>
-          <t>2019-11-29 12:22</t>
-        </is>
-      </c>
-      <c r="M22" s="20" t="inlineStr">
+        <v>-417.6</v>
+      </c>
+      <c r="L22" s="19" t="inlineStr">
+        <is>
+          <t>2019-11-29 14:19</t>
+        </is>
+      </c>
+      <c r="M22" s="19" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N22" s="20" t="inlineStr">
+      <c r="N22" s="19" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O22" s="20" t="inlineStr">
+      <c r="O22" s="19" t="inlineStr">
         <is>
           <t>全指医药</t>
         </is>
       </c>
-      <c r="P22" s="20" t="inlineStr">
+      <c r="P22" s="19" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="Q22" s="20" t="inlineStr">
+      <c r="Q22" s="19" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
@@ -2031,17 +2031,17 @@
         </is>
       </c>
       <c r="I23" s="24" t="n">
-        <v>1.9271</v>
+        <v>1.9251</v>
       </c>
       <c r="J23" s="27" t="n">
-        <v>-0.0026</v>
+        <v>-0.0036</v>
       </c>
       <c r="K23" s="8" t="n">
-        <v>-19.07</v>
+        <v>-26.7</v>
       </c>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:17</t>
         </is>
       </c>
       <c r="M23" s="26" t="inlineStr">
@@ -2100,17 +2100,17 @@
         </is>
       </c>
       <c r="I24" s="24" t="n">
-        <v>0.5413</v>
+        <v>0.5412</v>
       </c>
       <c r="J24" s="27" t="n">
-        <v>-0.0024</v>
+        <v>-0.0027</v>
       </c>
       <c r="K24" s="8" t="n">
-        <v>-12.64</v>
+        <v>-13.61</v>
       </c>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:17</t>
         </is>
       </c>
       <c r="M24" s="26" t="inlineStr">
@@ -2169,17 +2169,17 @@
         </is>
       </c>
       <c r="I25" s="24" t="n">
-        <v>0.9376</v>
+        <v>0.9375</v>
       </c>
       <c r="J25" s="27" t="n">
-        <v>-0.0098</v>
+        <v>-0.009900000000000001</v>
       </c>
       <c r="K25" s="8" t="n">
-        <v>-45.98</v>
+        <v>-46.47</v>
       </c>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:17</t>
         </is>
       </c>
       <c r="M25" s="26" t="inlineStr">
@@ -2238,17 +2238,17 @@
         </is>
       </c>
       <c r="I26" s="24" t="n">
-        <v>0.5426</v>
+        <v>0.542</v>
       </c>
       <c r="J26" s="27" t="n">
-        <v>-0.0026</v>
+        <v>-0.0036</v>
       </c>
       <c r="K26" s="8" t="n">
-        <v>-10.33</v>
+        <v>-14.76</v>
       </c>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:17</t>
         </is>
       </c>
       <c r="M26" s="26" t="inlineStr">
@@ -2307,17 +2307,17 @@
         </is>
       </c>
       <c r="I27" s="24" t="n">
-        <v>1.0898</v>
+        <v>1.0874</v>
       </c>
       <c r="J27" s="27" t="n">
-        <v>-0.002</v>
+        <v>-0.0042</v>
       </c>
       <c r="K27" s="8" t="n">
-        <v>-8.06</v>
+        <v>-16.86</v>
       </c>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M27" s="26" t="inlineStr">
@@ -2376,17 +2376,17 @@
         </is>
       </c>
       <c r="I28" s="24" t="n">
-        <v>0.7485000000000001</v>
+        <v>0.7476</v>
       </c>
       <c r="J28" s="27" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="K28" s="9" t="n">
-        <v>0.91</v>
+        <v>-0.001</v>
+      </c>
+      <c r="K28" s="8" t="n">
+        <v>-3.19</v>
       </c>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M28" s="26" t="inlineStr">
@@ -2445,17 +2445,17 @@
         </is>
       </c>
       <c r="I29" s="24" t="n">
-        <v>1.7174</v>
+        <v>1.7184</v>
       </c>
       <c r="J29" s="27" t="n">
-        <v>-0.0095</v>
+        <v>-0.0089</v>
       </c>
       <c r="K29" s="8" t="n">
-        <v>-6.61</v>
+        <v>-6.21</v>
       </c>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M29" s="26" t="inlineStr">
@@ -2514,17 +2514,17 @@
         </is>
       </c>
       <c r="I30" s="24" t="n">
-        <v>0.9328</v>
+        <v>0.9333</v>
       </c>
       <c r="J30" s="27" t="n">
-        <v>-0.0095</v>
+        <v>-0.0089</v>
       </c>
       <c r="K30" s="8" t="n">
-        <v>-6.55</v>
+        <v>-6.18</v>
       </c>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M30" s="26" t="inlineStr">
@@ -2583,17 +2583,17 @@
         </is>
       </c>
       <c r="I31" s="24" t="n">
-        <v>0.965</v>
+        <v>0.9635</v>
       </c>
       <c r="J31" s="27" t="n">
-        <v>0.0041</v>
-      </c>
-      <c r="K31" s="9" t="n">
-        <v>1.85</v>
+        <v>0.0025</v>
+      </c>
+      <c r="K31" s="21" t="n">
+        <v>1.14</v>
       </c>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M31" s="26" t="inlineStr">
@@ -2657,7 +2657,7 @@
       <c r="J32" s="27" t="n">
         <v>0.0014</v>
       </c>
-      <c r="K32" s="9" t="n">
+      <c r="K32" s="21" t="n">
         <v>2.65</v>
       </c>
       <c r="L32" s="26" t="inlineStr">
@@ -2726,7 +2726,7 @@
       <c r="J33" s="27" t="n">
         <v>0.0011</v>
       </c>
-      <c r="K33" s="9" t="n">
+      <c r="K33" s="21" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="L33" s="26" t="inlineStr">
@@ -2790,17 +2790,17 @@
         </is>
       </c>
       <c r="I34" s="24" t="n">
-        <v>1.4767</v>
+        <v>1.4755</v>
       </c>
       <c r="J34" s="27" t="n">
-        <v>-0.0187</v>
+        <v>-0.0195</v>
       </c>
       <c r="K34" s="8" t="n">
-        <v>-12.96</v>
+        <v>-13.51</v>
       </c>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>2019-11-29 12:00</t>
+          <t>2019-11-29 14:20</t>
         </is>
       </c>
       <c r="M34" s="26" t="inlineStr">
@@ -2864,7 +2864,7 @@
       <c r="J35" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="K35" s="9" t="n">
+      <c r="K35" s="21" t="n">
         <v>0</v>
       </c>
       <c r="L35" s="26" t="inlineStr">
@@ -2928,17 +2928,17 @@
         </is>
       </c>
       <c r="I36" s="24" t="n">
-        <v>1.9271</v>
+        <v>1.9251</v>
       </c>
       <c r="J36" s="27" t="n">
-        <v>-0.0026</v>
+        <v>-0.0036</v>
       </c>
       <c r="K36" s="8" t="n">
-        <v>-5.23</v>
+        <v>-7.33</v>
       </c>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:17</t>
         </is>
       </c>
       <c r="M36" s="26" t="inlineStr">
@@ -2997,17 +2997,17 @@
         </is>
       </c>
       <c r="I37" s="24" t="n">
-        <v>1.0898</v>
+        <v>1.0874</v>
       </c>
       <c r="J37" s="27" t="n">
-        <v>-0.002</v>
+        <v>-0.0042</v>
       </c>
       <c r="K37" s="8" t="n">
-        <v>-4.02</v>
+        <v>-8.4</v>
       </c>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M37" s="26" t="inlineStr">
@@ -3066,17 +3066,17 @@
         </is>
       </c>
       <c r="I38" s="24" t="n">
-        <v>0.9925</v>
+        <v>0.9893999999999999</v>
       </c>
       <c r="J38" s="27" t="n">
-        <v>-0.0115</v>
+        <v>-0.0145</v>
       </c>
       <c r="K38" s="8" t="n">
-        <v>-12.18</v>
+        <v>-15.46</v>
       </c>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:17</t>
         </is>
       </c>
       <c r="M38" s="26" t="inlineStr">
@@ -3135,17 +3135,17 @@
         </is>
       </c>
       <c r="I39" s="24" t="n">
-        <v>0.5426</v>
+        <v>0.542</v>
       </c>
       <c r="J39" s="27" t="n">
-        <v>-0.0026</v>
+        <v>-0.0036</v>
       </c>
       <c r="K39" s="8" t="n">
-        <v>-2.54</v>
+        <v>-3.63</v>
       </c>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:17</t>
         </is>
       </c>
       <c r="M39" s="26" t="inlineStr">
@@ -3204,17 +3204,17 @@
         </is>
       </c>
       <c r="I40" s="24" t="n">
-        <v>0.7485000000000001</v>
+        <v>0.7476</v>
       </c>
       <c r="J40" s="27" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="K40" s="9" t="n">
-        <v>0.25</v>
+        <v>-0.001</v>
+      </c>
+      <c r="K40" s="8" t="n">
+        <v>-0.86</v>
       </c>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M40" s="26" t="inlineStr">
@@ -3278,7 +3278,7 @@
       <c r="J41" s="27" t="n">
         <v>0.0011</v>
       </c>
-      <c r="K41" s="9" t="n">
+      <c r="K41" s="21" t="n">
         <v>1.26</v>
       </c>
       <c r="L41" s="26" t="inlineStr">
@@ -3342,17 +3342,17 @@
         </is>
       </c>
       <c r="I42" s="24" t="n">
-        <v>1.4767</v>
+        <v>1.4755</v>
       </c>
       <c r="J42" s="27" t="n">
-        <v>-0.0187</v>
+        <v>-0.0195</v>
       </c>
       <c r="K42" s="8" t="n">
-        <v>-19.43</v>
+        <v>-20.26</v>
       </c>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>2019-11-29 12:00</t>
+          <t>2019-11-29 14:20</t>
         </is>
       </c>
       <c r="M42" s="26" t="inlineStr">
@@ -3411,17 +3411,17 @@
         </is>
       </c>
       <c r="I43" s="24" t="n">
-        <v>1.2098</v>
+        <v>1.2103</v>
       </c>
       <c r="J43" s="27" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="K43" s="9" t="n">
-        <v>0.92</v>
+        <v>0.0008</v>
+      </c>
+      <c r="K43" s="21" t="n">
+        <v>1.83</v>
       </c>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>2019-11-29 11:35</t>
+          <t>2019-11-29 14:19</t>
         </is>
       </c>
       <c r="M43" s="26" t="inlineStr">
@@ -3485,7 +3485,7 @@
       <c r="J44" s="27" t="n">
         <v>0.0014</v>
       </c>
-      <c r="K44" s="9" t="n">
+      <c r="K44" s="21" t="n">
         <v>2.38</v>
       </c>
       <c r="L44" s="26" t="inlineStr">
@@ -3554,7 +3554,7 @@
       <c r="J45" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="K45" s="9" t="n">
+      <c r="K45" s="21" t="n">
         <v>0</v>
       </c>
       <c r="L45" s="26" t="inlineStr">
@@ -3618,17 +3618,17 @@
         </is>
       </c>
       <c r="I46" s="30" t="n">
-        <v>1.0898</v>
+        <v>1.0874</v>
       </c>
       <c r="J46" s="33" t="n">
-        <v>-0.002</v>
+        <v>-0.0042</v>
       </c>
       <c r="K46" s="8" t="n">
-        <v>-143.14</v>
+        <v>-299.3</v>
       </c>
       <c r="L46" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M46" s="32" t="inlineStr">
@@ -3687,17 +3687,17 @@
         </is>
       </c>
       <c r="I47" s="30" t="n">
-        <v>0.9376</v>
+        <v>0.9375</v>
       </c>
       <c r="J47" s="33" t="n">
-        <v>-0.0098</v>
+        <v>-0.009900000000000001</v>
       </c>
       <c r="K47" s="8" t="n">
-        <v>-590.46</v>
+        <v>-596.8099999999999</v>
       </c>
       <c r="L47" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:17</t>
         </is>
       </c>
       <c r="M47" s="32" t="inlineStr">
@@ -3756,17 +3756,17 @@
         </is>
       </c>
       <c r="I48" s="30" t="n">
-        <v>1.1442</v>
+        <v>1.1438</v>
       </c>
       <c r="J48" s="33" t="n">
-        <v>-0.0012</v>
+        <v>-0.0014</v>
       </c>
       <c r="K48" s="8" t="n">
-        <v>-42.08</v>
+        <v>-55.03</v>
       </c>
       <c r="L48" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M48" s="32" t="inlineStr">
@@ -3825,17 +3825,17 @@
         </is>
       </c>
       <c r="I49" s="30" t="n">
-        <v>0.8276</v>
+        <v>0.8290999999999999</v>
       </c>
       <c r="J49" s="33" t="n">
-        <v>-0.0235</v>
+        <v>-0.0218</v>
       </c>
       <c r="K49" s="8" t="n">
-        <v>-816.2</v>
+        <v>-754.67</v>
       </c>
       <c r="L49" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:17</t>
         </is>
       </c>
       <c r="M49" s="32" t="inlineStr">
@@ -3894,17 +3894,17 @@
         </is>
       </c>
       <c r="I50" s="30" t="n">
-        <v>1.678</v>
+        <v>1.6772</v>
       </c>
       <c r="J50" s="33" t="n">
-        <v>-0.0018</v>
+        <v>-0.0023</v>
       </c>
       <c r="K50" s="8" t="n">
-        <v>-60.26</v>
+        <v>-76.33</v>
       </c>
       <c r="L50" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M50" s="32" t="inlineStr">
@@ -3968,7 +3968,7 @@
       <c r="J51" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="K51" s="9" t="n">
+      <c r="K51" s="21" t="n">
         <v>0</v>
       </c>
       <c r="L51" s="32" t="inlineStr">
@@ -4032,17 +4032,17 @@
         </is>
       </c>
       <c r="I52" s="30" t="n">
-        <v>1.5936</v>
+        <v>1.5908</v>
       </c>
       <c r="J52" s="33" t="n">
-        <v>-0.009599999999999999</v>
+        <v>-0.0113</v>
       </c>
       <c r="K52" s="8" t="n">
-        <v>-225.22</v>
+        <v>-266.17</v>
       </c>
       <c r="L52" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M52" s="32" t="inlineStr">
@@ -4101,17 +4101,17 @@
         </is>
       </c>
       <c r="I53" s="30" t="n">
-        <v>1.0764</v>
+        <v>1.0735</v>
       </c>
       <c r="J53" s="33" t="n">
-        <v>-0.0026</v>
+        <v>-0.0053</v>
       </c>
       <c r="K53" s="8" t="n">
-        <v>-59.26</v>
+        <v>-120.63</v>
       </c>
       <c r="L53" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:17</t>
         </is>
       </c>
       <c r="M53" s="32" t="inlineStr">
@@ -4175,7 +4175,7 @@
       <c r="J54" s="33" t="n">
         <v>0.0011</v>
       </c>
-      <c r="K54" s="9" t="n">
+      <c r="K54" s="21" t="n">
         <v>23.49</v>
       </c>
       <c r="L54" s="32" t="inlineStr">
@@ -4239,17 +4239,17 @@
         </is>
       </c>
       <c r="I55" s="30" t="n">
-        <v>1.5819</v>
+        <v>1.5803</v>
       </c>
       <c r="J55" s="33" t="n">
-        <v>-0.0026</v>
+        <v>-0.0036</v>
       </c>
       <c r="K55" s="8" t="n">
-        <v>-39.07</v>
+        <v>-54.32</v>
       </c>
       <c r="L55" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M55" s="32" t="inlineStr">
@@ -4313,7 +4313,7 @@
       <c r="J56" s="33" t="n">
         <v>0.0014</v>
       </c>
-      <c r="K56" s="9" t="n">
+      <c r="K56" s="21" t="n">
         <v>18.63</v>
       </c>
       <c r="L56" s="32" t="inlineStr">
@@ -4377,17 +4377,17 @@
         </is>
       </c>
       <c r="I57" s="30" t="n">
-        <v>1.4767</v>
+        <v>1.4755</v>
       </c>
       <c r="J57" s="33" t="n">
-        <v>-0.0187</v>
+        <v>-0.0195</v>
       </c>
       <c r="K57" s="8" t="n">
-        <v>-191.72</v>
+        <v>-199.88</v>
       </c>
       <c r="L57" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 12:00</t>
+          <t>2019-11-29 14:20</t>
         </is>
       </c>
       <c r="M57" s="32" t="inlineStr">
@@ -4446,17 +4446,17 @@
         </is>
       </c>
       <c r="I58" s="30" t="n">
-        <v>1.7174</v>
+        <v>1.7184</v>
       </c>
       <c r="J58" s="33" t="n">
-        <v>-0.0095</v>
+        <v>-0.0089</v>
       </c>
       <c r="K58" s="8" t="n">
-        <v>-79.05</v>
+        <v>-74.26000000000001</v>
       </c>
       <c r="L58" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M58" s="32" t="inlineStr">
@@ -4520,7 +4520,7 @@
       <c r="J59" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="K59" s="9" t="n">
+      <c r="K59" s="21" t="n">
         <v>0</v>
       </c>
       <c r="L59" s="32" t="inlineStr">
@@ -4584,17 +4584,17 @@
         </is>
       </c>
       <c r="I60" s="30" t="n">
-        <v>0.5413</v>
+        <v>0.5412</v>
       </c>
       <c r="J60" s="33" t="n">
-        <v>-0.0024</v>
+        <v>-0.0027</v>
       </c>
       <c r="K60" s="8" t="n">
-        <v>-17.43</v>
+        <v>-18.77</v>
       </c>
       <c r="L60" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:17</t>
         </is>
       </c>
       <c r="M60" s="32" t="inlineStr">
@@ -4653,17 +4653,17 @@
         </is>
       </c>
       <c r="I61" s="30" t="n">
-        <v>1.355</v>
+        <v>1.3532</v>
       </c>
       <c r="J61" s="33" t="n">
-        <v>-0.0014</v>
+        <v>-0.0026</v>
       </c>
       <c r="K61" s="8" t="n">
-        <v>-9.59</v>
+        <v>-19.18</v>
       </c>
       <c r="L61" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M61" s="32" t="inlineStr">
@@ -4722,17 +4722,17 @@
         </is>
       </c>
       <c r="I62" s="30" t="n">
-        <v>0.8565</v>
+        <v>0.8556</v>
       </c>
       <c r="J62" s="33" t="n">
-        <v>-0.0026</v>
+        <v>-0.0036</v>
       </c>
       <c r="K62" s="8" t="n">
-        <v>-17.11</v>
+        <v>-24.11</v>
       </c>
       <c r="L62" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M62" s="32" t="inlineStr">
@@ -4791,17 +4791,17 @@
         </is>
       </c>
       <c r="I63" s="30" t="n">
-        <v>0.7485000000000001</v>
+        <v>0.7476</v>
       </c>
       <c r="J63" s="33" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="K63" s="9" t="n">
-        <v>1.57</v>
+        <v>-0.001</v>
+      </c>
+      <c r="K63" s="8" t="n">
+        <v>-5.5</v>
       </c>
       <c r="L63" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M63" s="32" t="inlineStr">
@@ -4860,17 +4860,17 @@
         </is>
       </c>
       <c r="I64" s="30" t="n">
-        <v>0.9199000000000001</v>
+        <v>0.9202</v>
       </c>
       <c r="J64" s="33" t="n">
-        <v>-0.005</v>
+        <v>-0.0048</v>
       </c>
       <c r="K64" s="8" t="n">
-        <v>-16.83</v>
+        <v>-15.75</v>
       </c>
       <c r="L64" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M64" s="32" t="inlineStr">
@@ -4929,17 +4929,17 @@
         </is>
       </c>
       <c r="I65" s="4" t="n">
-        <v>1.4235</v>
+        <v>1.4205</v>
       </c>
       <c r="J65" s="7" t="n">
-        <v>-0.0046</v>
+        <v>-0.0067</v>
       </c>
       <c r="K65" s="8" t="n">
-        <v>-6.59</v>
+        <v>-9.630000000000001</v>
       </c>
       <c r="L65" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M65" s="6" t="inlineStr">
@@ -4998,17 +4998,17 @@
         </is>
       </c>
       <c r="I66" s="4" t="n">
-        <v>1.6048</v>
+        <v>1.6013</v>
       </c>
       <c r="J66" s="7" t="n">
-        <v>-0.002</v>
+        <v>-0.0042</v>
       </c>
       <c r="K66" s="8" t="n">
-        <v>-2.75</v>
+        <v>-5.76</v>
       </c>
       <c r="L66" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M66" s="6" t="inlineStr">
@@ -5067,17 +5067,17 @@
         </is>
       </c>
       <c r="I67" s="4" t="n">
-        <v>1.4338</v>
+        <v>1.4328</v>
       </c>
       <c r="J67" s="7" t="n">
-        <v>-0.0185</v>
+        <v>-0.0192</v>
       </c>
       <c r="K67" s="8" t="n">
-        <v>-24.25</v>
+        <v>-25.15</v>
       </c>
       <c r="L67" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 12:00</t>
+          <t>2019-11-29 14:19</t>
         </is>
       </c>
       <c r="M67" s="6" t="inlineStr">
@@ -5136,17 +5136,17 @@
         </is>
       </c>
       <c r="I68" s="4" t="n">
-        <v>0.9094</v>
+        <v>0.9083</v>
       </c>
       <c r="J68" s="7" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="K68" s="9" t="n">
-        <v>0.39</v>
+        <v>-0.0009</v>
+      </c>
+      <c r="K68" s="8" t="n">
+        <v>-1.05</v>
       </c>
       <c r="L68" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M68" s="6" t="inlineStr">
@@ -5205,17 +5205,17 @@
         </is>
       </c>
       <c r="I69" s="4" t="n">
-        <v>1.8302</v>
+        <v>1.8278</v>
       </c>
       <c r="J69" s="7" t="n">
-        <v>-0.0053</v>
+        <v>-0.0067</v>
       </c>
       <c r="K69" s="8" t="n">
-        <v>-4.73</v>
+        <v>-5.89</v>
       </c>
       <c r="L69" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M69" s="6" t="inlineStr">
@@ -5274,17 +5274,17 @@
         </is>
       </c>
       <c r="I70" s="4" t="n">
-        <v>2.1279</v>
+        <v>2.1247</v>
       </c>
       <c r="J70" s="7" t="n">
-        <v>-0.0049</v>
+        <v>-0.0065</v>
       </c>
       <c r="K70" s="8" t="n">
-        <v>-4.13</v>
+        <v>-5.38</v>
       </c>
       <c r="L70" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M70" s="6" t="inlineStr">
@@ -5343,17 +5343,17 @@
         </is>
       </c>
       <c r="I71" s="4" t="n">
-        <v>0.9376</v>
+        <v>0.9375</v>
       </c>
       <c r="J71" s="7" t="n">
-        <v>-0.0098</v>
+        <v>-0.009900000000000001</v>
       </c>
       <c r="K71" s="8" t="n">
-        <v>-3.3</v>
+        <v>-3.34</v>
       </c>
       <c r="L71" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:17</t>
         </is>
       </c>
       <c r="M71" s="6" t="inlineStr">
@@ -5412,17 +5412,17 @@
         </is>
       </c>
       <c r="I72" s="4" t="n">
-        <v>0.9268999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="J72" s="7" t="n">
-        <v>-0.0061</v>
+        <v>-0.008200000000000001</v>
       </c>
       <c r="K72" s="8" t="n">
-        <v>-1.22</v>
+        <v>-1.63</v>
       </c>
       <c r="L72" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M72" s="6" t="inlineStr">
@@ -5481,17 +5481,17 @@
         </is>
       </c>
       <c r="I73" s="4" t="n">
-        <v>0.7577</v>
+        <v>0.7582</v>
       </c>
       <c r="J73" s="7" t="n">
-        <v>-0.0182</v>
+        <v>-0.0176</v>
       </c>
       <c r="K73" s="8" t="n">
-        <v>-3</v>
+        <v>-2.89</v>
       </c>
       <c r="L73" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:17</t>
         </is>
       </c>
       <c r="M73" s="6" t="inlineStr">
@@ -5550,17 +5550,17 @@
         </is>
       </c>
       <c r="I74" s="4" t="n">
-        <v>1.2915</v>
+        <v>1.2886</v>
       </c>
       <c r="J74" s="7" t="n">
-        <v>-0.0194</v>
+        <v>-0.0216</v>
       </c>
       <c r="K74" s="8" t="n">
-        <v>-1.58</v>
+        <v>-1.76</v>
       </c>
       <c r="L74" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M74" s="6" t="inlineStr">
@@ -5619,17 +5619,17 @@
         </is>
       </c>
       <c r="I75" s="4" t="n">
-        <v>1.4334</v>
+        <v>1.4304</v>
       </c>
       <c r="J75" s="7" t="n">
-        <v>-0.0046</v>
+        <v>-0.0067</v>
       </c>
       <c r="K75" s="8" t="n">
-        <v>-0.16</v>
+        <v>-0.23</v>
       </c>
       <c r="L75" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M75" s="6" t="inlineStr">
@@ -5688,17 +5688,17 @@
         </is>
       </c>
       <c r="I76" s="4" t="n">
-        <v>1.6048</v>
+        <v>1.6013</v>
       </c>
       <c r="J76" s="7" t="n">
-        <v>-0.002</v>
+        <v>-0.0042</v>
       </c>
       <c r="K76" s="8" t="n">
-        <v>-2.94</v>
+        <v>-6.15</v>
       </c>
       <c r="L76" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M76" s="6" t="inlineStr">
@@ -5757,17 +5757,17 @@
         </is>
       </c>
       <c r="I77" s="4" t="n">
-        <v>1.4235</v>
+        <v>1.4205</v>
       </c>
       <c r="J77" s="7" t="n">
-        <v>-0.0046</v>
+        <v>-0.0067</v>
       </c>
       <c r="K77" s="8" t="n">
-        <v>-6.46</v>
+        <v>-9.44</v>
       </c>
       <c r="L77" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M77" s="6" t="inlineStr">
@@ -5826,17 +5826,17 @@
         </is>
       </c>
       <c r="I78" s="4" t="n">
-        <v>1.4338</v>
+        <v>1.4328</v>
       </c>
       <c r="J78" s="7" t="n">
-        <v>-0.0185</v>
+        <v>-0.0192</v>
       </c>
       <c r="K78" s="8" t="n">
-        <v>-24.73</v>
+        <v>-25.65</v>
       </c>
       <c r="L78" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 12:00</t>
+          <t>2019-11-29 14:19</t>
         </is>
       </c>
       <c r="M78" s="6" t="inlineStr">
@@ -5895,17 +5895,17 @@
         </is>
       </c>
       <c r="I79" s="4" t="n">
-        <v>0.9094</v>
+        <v>0.9083</v>
       </c>
       <c r="J79" s="7" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="K79" s="9" t="n">
-        <v>0.4</v>
+        <v>-0.0009</v>
+      </c>
+      <c r="K79" s="8" t="n">
+        <v>-1.06</v>
       </c>
       <c r="L79" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M79" s="6" t="inlineStr">
@@ -5964,17 +5964,17 @@
         </is>
       </c>
       <c r="I80" s="4" t="n">
-        <v>1.8302</v>
+        <v>1.8278</v>
       </c>
       <c r="J80" s="7" t="n">
-        <v>-0.0053</v>
+        <v>-0.0067</v>
       </c>
       <c r="K80" s="8" t="n">
-        <v>-4.99</v>
+        <v>-6.22</v>
       </c>
       <c r="L80" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M80" s="6" t="inlineStr">
@@ -6033,17 +6033,17 @@
         </is>
       </c>
       <c r="I81" s="4" t="n">
-        <v>2.1279</v>
+        <v>2.1247</v>
       </c>
       <c r="J81" s="7" t="n">
-        <v>-0.0049</v>
+        <v>-0.0065</v>
       </c>
       <c r="K81" s="8" t="n">
-        <v>-3.95</v>
+        <v>-5.14</v>
       </c>
       <c r="L81" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M81" s="6" t="inlineStr">
@@ -6102,17 +6102,17 @@
         </is>
       </c>
       <c r="I82" s="4" t="n">
-        <v>0.9376</v>
+        <v>0.9375</v>
       </c>
       <c r="J82" s="7" t="n">
-        <v>-0.0098</v>
+        <v>-0.009900000000000001</v>
       </c>
       <c r="K82" s="8" t="n">
-        <v>-3.3</v>
+        <v>-3.34</v>
       </c>
       <c r="L82" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:17</t>
         </is>
       </c>
       <c r="M82" s="6" t="inlineStr">
@@ -6171,17 +6171,17 @@
         </is>
       </c>
       <c r="I83" s="4" t="n">
-        <v>0.9268999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="J83" s="7" t="n">
-        <v>-0.0061</v>
+        <v>-0.008200000000000001</v>
       </c>
       <c r="K83" s="8" t="n">
-        <v>-1.3</v>
+        <v>-1.73</v>
       </c>
       <c r="L83" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M83" s="6" t="inlineStr">
@@ -6240,17 +6240,17 @@
         </is>
       </c>
       <c r="I84" s="4" t="n">
-        <v>1.2915</v>
+        <v>1.2886</v>
       </c>
       <c r="J84" s="7" t="n">
-        <v>-0.0194</v>
+        <v>-0.0216</v>
       </c>
       <c r="K84" s="8" t="n">
-        <v>-3.62</v>
+        <v>-4.04</v>
       </c>
       <c r="L84" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M84" s="6" t="inlineStr">
@@ -6309,17 +6309,17 @@
         </is>
       </c>
       <c r="I85" s="4" t="n">
-        <v>0.7577</v>
+        <v>0.7582</v>
       </c>
       <c r="J85" s="7" t="n">
-        <v>-0.0182</v>
+        <v>-0.0176</v>
       </c>
       <c r="K85" s="8" t="n">
-        <v>-3</v>
+        <v>-2.89</v>
       </c>
       <c r="L85" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:17</t>
         </is>
       </c>
       <c r="M85" s="6" t="inlineStr">
@@ -6378,17 +6378,17 @@
         </is>
       </c>
       <c r="I86" s="4" t="n">
-        <v>1.4334</v>
+        <v>1.4304</v>
       </c>
       <c r="J86" s="7" t="n">
-        <v>-0.0046</v>
+        <v>-0.0067</v>
       </c>
       <c r="K86" s="8" t="n">
-        <v>-0.16</v>
+        <v>-0.23</v>
       </c>
       <c r="L86" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M86" s="6" t="inlineStr">
@@ -6447,17 +6447,17 @@
         </is>
       </c>
       <c r="I87" s="30" t="n">
-        <v>1.0719</v>
+        <v>1.0708</v>
       </c>
       <c r="J87" s="33" t="n">
-        <v>-0.0026</v>
-      </c>
-      <c r="K87" s="9" t="n">
+        <v>-0.0036</v>
+      </c>
+      <c r="K87" s="21" t="n">
         <v>-0</v>
       </c>
       <c r="L87" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M87" s="32" t="inlineStr">
@@ -6516,17 +6516,17 @@
         </is>
       </c>
       <c r="I88" s="30" t="n">
-        <v>1.0898</v>
+        <v>1.0874</v>
       </c>
       <c r="J88" s="33" t="n">
-        <v>-0.002</v>
+        <v>-0.0042</v>
       </c>
       <c r="K88" s="8" t="n">
-        <v>-143.14</v>
+        <v>-299.3</v>
       </c>
       <c r="L88" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M88" s="32" t="inlineStr">
@@ -6585,17 +6585,17 @@
         </is>
       </c>
       <c r="I89" s="30" t="n">
-        <v>0.9376</v>
+        <v>0.9375</v>
       </c>
       <c r="J89" s="33" t="n">
-        <v>-0.0098</v>
+        <v>-0.009900000000000001</v>
       </c>
       <c r="K89" s="8" t="n">
-        <v>-590.46</v>
+        <v>-596.8099999999999</v>
       </c>
       <c r="L89" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:17</t>
         </is>
       </c>
       <c r="M89" s="32" t="inlineStr">
@@ -6654,17 +6654,17 @@
         </is>
       </c>
       <c r="I90" s="30" t="n">
-        <v>0.8276</v>
+        <v>0.8290999999999999</v>
       </c>
       <c r="J90" s="33" t="n">
-        <v>-0.0235</v>
+        <v>-0.0218</v>
       </c>
       <c r="K90" s="8" t="n">
-        <v>-816.2</v>
+        <v>-754.67</v>
       </c>
       <c r="L90" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:17</t>
         </is>
       </c>
       <c r="M90" s="32" t="inlineStr">
@@ -6723,17 +6723,17 @@
         </is>
       </c>
       <c r="I91" s="30" t="n">
-        <v>1.5936</v>
+        <v>1.5908</v>
       </c>
       <c r="J91" s="33" t="n">
-        <v>-0.009599999999999999</v>
+        <v>-0.0113</v>
       </c>
       <c r="K91" s="8" t="n">
-        <v>-225.22</v>
+        <v>-266.17</v>
       </c>
       <c r="L91" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M91" s="32" t="inlineStr">
@@ -6792,17 +6792,17 @@
         </is>
       </c>
       <c r="I92" s="30" t="n">
-        <v>0.7485000000000001</v>
+        <v>0.7476</v>
       </c>
       <c r="J92" s="33" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="K92" s="9" t="n">
-        <v>1.57</v>
+        <v>-0.001</v>
+      </c>
+      <c r="K92" s="8" t="n">
+        <v>-5.5</v>
       </c>
       <c r="L92" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M92" s="32" t="inlineStr">
@@ -6861,17 +6861,17 @@
         </is>
       </c>
       <c r="I93" s="30" t="n">
-        <v>1.5819</v>
+        <v>1.5803</v>
       </c>
       <c r="J93" s="33" t="n">
-        <v>-0.0026</v>
+        <v>-0.0036</v>
       </c>
       <c r="K93" s="8" t="n">
-        <v>-39.07</v>
+        <v>-54.32</v>
       </c>
       <c r="L93" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M93" s="32" t="inlineStr">
@@ -6930,17 +6930,17 @@
         </is>
       </c>
       <c r="I94" s="30" t="n">
-        <v>0.5413</v>
+        <v>0.5412</v>
       </c>
       <c r="J94" s="33" t="n">
-        <v>-0.0024</v>
+        <v>-0.0027</v>
       </c>
       <c r="K94" s="8" t="n">
-        <v>-17.43</v>
+        <v>-18.77</v>
       </c>
       <c r="L94" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:17</t>
         </is>
       </c>
       <c r="M94" s="32" t="inlineStr">
@@ -6999,17 +6999,17 @@
         </is>
       </c>
       <c r="I95" s="30" t="n">
-        <v>1.678</v>
+        <v>1.6772</v>
       </c>
       <c r="J95" s="33" t="n">
-        <v>-0.0018</v>
+        <v>-0.0023</v>
       </c>
       <c r="K95" s="8" t="n">
-        <v>-60.26</v>
+        <v>-76.33</v>
       </c>
       <c r="L95" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M95" s="32" t="inlineStr">
@@ -7073,7 +7073,7 @@
       <c r="J96" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="K96" s="9" t="n">
+      <c r="K96" s="21" t="n">
         <v>0</v>
       </c>
       <c r="L96" s="32" t="inlineStr">
@@ -7137,17 +7137,17 @@
         </is>
       </c>
       <c r="I97" s="30" t="n">
-        <v>1.7174</v>
+        <v>1.7184</v>
       </c>
       <c r="J97" s="33" t="n">
-        <v>-0.0095</v>
+        <v>-0.0089</v>
       </c>
       <c r="K97" s="8" t="n">
-        <v>-79.05</v>
+        <v>-74.26000000000001</v>
       </c>
       <c r="L97" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M97" s="32" t="inlineStr">
@@ -7206,17 +7206,17 @@
         </is>
       </c>
       <c r="I98" s="30" t="n">
-        <v>1.1442</v>
+        <v>1.1438</v>
       </c>
       <c r="J98" s="33" t="n">
-        <v>-0.0012</v>
+        <v>-0.0014</v>
       </c>
       <c r="K98" s="8" t="n">
-        <v>-42.08</v>
+        <v>-55.03</v>
       </c>
       <c r="L98" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M98" s="32" t="inlineStr">
@@ -7280,7 +7280,7 @@
       <c r="J99" s="33" t="n">
         <v>0.0011</v>
       </c>
-      <c r="K99" s="9" t="n">
+      <c r="K99" s="21" t="n">
         <v>23.49</v>
       </c>
       <c r="L99" s="32" t="inlineStr">
@@ -7344,17 +7344,17 @@
         </is>
       </c>
       <c r="I100" s="30" t="n">
-        <v>0.9925</v>
+        <v>0.9893999999999999</v>
       </c>
       <c r="J100" s="33" t="n">
-        <v>-0.0115</v>
-      </c>
-      <c r="K100" s="9" t="n">
+        <v>-0.0145</v>
+      </c>
+      <c r="K100" s="21" t="n">
         <v>-0</v>
       </c>
       <c r="L100" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:17</t>
         </is>
       </c>
       <c r="M100" s="32" t="inlineStr">
@@ -7418,7 +7418,7 @@
       <c r="J101" s="33" t="n">
         <v>0.0014</v>
       </c>
-      <c r="K101" s="9" t="n">
+      <c r="K101" s="21" t="n">
         <v>18.63</v>
       </c>
       <c r="L101" s="32" t="inlineStr">
@@ -7482,17 +7482,17 @@
         </is>
       </c>
       <c r="I102" s="30" t="n">
-        <v>0.7853</v>
+        <v>0.7856</v>
       </c>
       <c r="J102" s="33" t="n">
-        <v>-0.005</v>
-      </c>
-      <c r="K102" s="9" t="n">
+        <v>-0.0048</v>
+      </c>
+      <c r="K102" s="21" t="n">
         <v>-0</v>
       </c>
       <c r="L102" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M102" s="32" t="inlineStr">
@@ -7551,17 +7551,17 @@
         </is>
       </c>
       <c r="I103" s="30" t="n">
-        <v>1.0764</v>
+        <v>1.0735</v>
       </c>
       <c r="J103" s="33" t="n">
-        <v>-0.0026</v>
+        <v>-0.0053</v>
       </c>
       <c r="K103" s="8" t="n">
-        <v>-59.26</v>
+        <v>-120.63</v>
       </c>
       <c r="L103" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:17</t>
         </is>
       </c>
       <c r="M103" s="32" t="inlineStr">
@@ -7620,17 +7620,17 @@
         </is>
       </c>
       <c r="I104" s="30" t="n">
-        <v>1.2098</v>
+        <v>1.2103</v>
       </c>
       <c r="J104" s="33" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="K104" s="9" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="K104" s="21" t="n">
         <v>0</v>
       </c>
       <c r="L104" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 11:35</t>
+          <t>2019-11-29 14:19</t>
         </is>
       </c>
       <c r="M104" s="32" t="inlineStr">
@@ -7689,17 +7689,17 @@
         </is>
       </c>
       <c r="I105" s="30" t="n">
-        <v>0.965</v>
+        <v>0.9635</v>
       </c>
       <c r="J105" s="33" t="n">
-        <v>0.0041</v>
-      </c>
-      <c r="K105" s="9" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="K105" s="21" t="n">
         <v>0</v>
       </c>
       <c r="L105" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M105" s="32" t="inlineStr">
@@ -7758,17 +7758,17 @@
         </is>
       </c>
       <c r="I106" s="30" t="n">
-        <v>0.9328</v>
+        <v>0.9333</v>
       </c>
       <c r="J106" s="33" t="n">
-        <v>-0.0095</v>
-      </c>
-      <c r="K106" s="9" t="n">
+        <v>-0.0089</v>
+      </c>
+      <c r="K106" s="21" t="n">
         <v>-0</v>
       </c>
       <c r="L106" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M106" s="32" t="inlineStr">
@@ -7827,17 +7827,17 @@
         </is>
       </c>
       <c r="I107" s="30" t="n">
-        <v>1.355</v>
+        <v>1.3532</v>
       </c>
       <c r="J107" s="33" t="n">
-        <v>-0.0014</v>
+        <v>-0.0026</v>
       </c>
       <c r="K107" s="8" t="n">
-        <v>-9.59</v>
+        <v>-19.18</v>
       </c>
       <c r="L107" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M107" s="32" t="inlineStr">
@@ -7896,17 +7896,17 @@
         </is>
       </c>
       <c r="I108" s="30" t="n">
-        <v>1.2826</v>
+        <v>1.2804</v>
       </c>
       <c r="J108" s="33" t="n">
-        <v>-0.009599999999999999</v>
-      </c>
-      <c r="K108" s="9" t="n">
+        <v>-0.0113</v>
+      </c>
+      <c r="K108" s="21" t="n">
         <v>-0</v>
       </c>
       <c r="L108" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:19</t>
         </is>
       </c>
       <c r="M108" s="32" t="inlineStr">
@@ -7965,17 +7965,17 @@
         </is>
       </c>
       <c r="I109" s="30" t="n">
-        <v>1.4767</v>
+        <v>1.4755</v>
       </c>
       <c r="J109" s="33" t="n">
-        <v>-0.0187</v>
+        <v>-0.0195</v>
       </c>
       <c r="K109" s="8" t="n">
-        <v>-191.72</v>
+        <v>-199.88</v>
       </c>
       <c r="L109" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 12:00</t>
+          <t>2019-11-29 14:20</t>
         </is>
       </c>
       <c r="M109" s="32" t="inlineStr">
@@ -8034,17 +8034,17 @@
         </is>
       </c>
       <c r="I110" s="30" t="n">
-        <v>0.8565</v>
+        <v>0.8556</v>
       </c>
       <c r="J110" s="33" t="n">
-        <v>-0.0026</v>
+        <v>-0.0036</v>
       </c>
       <c r="K110" s="8" t="n">
-        <v>-17.11</v>
+        <v>-24.11</v>
       </c>
       <c r="L110" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 11:30</t>
+          <t>2019-11-29 14:18</t>
         </is>
       </c>
       <c r="M110" s="32" t="inlineStr">

--- a/Portfolio/scripts/output/201911/全家/全家整体收益估算.xlsx
+++ b/Portfolio/scripts/output/201911/全家/全家整体收益估算.xlsx
@@ -59,17 +59,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00F8696B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00DBB6AC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FF7C9E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F8696B"/>
       </patternFill>
     </fill>
     <fill>
@@ -109,14 +109,7 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -125,7 +118,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="7" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="7" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -568,10 +568,10 @@
         <v>2280.92</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>3667.72</v>
+        <v>3660.88</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>-101.61</v>
+        <v>-108.45</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>1.608</v>
@@ -582,17 +582,17 @@
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.6013</v>
+        <v>1.6051</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>-0.0042</v>
+        <v>-0.0018</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>-15.28</v>
+        <v>-6.61</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -637,10 +637,10 @@
         <v>2540.22</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>3632.51</v>
+        <v>3614.73</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>9.130000000000001</v>
+        <v>-8.65</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>1.43</v>
@@ -651,17 +651,17 @@
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.4205</v>
+        <v>1.4231</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>-0.0067</v>
+        <v>-0.0048</v>
       </c>
       <c r="K3" s="8" t="n">
-        <v>-24.13</v>
+        <v>-17.53</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
@@ -706,31 +706,31 @@
         <v>2260.14</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3301.61</v>
+        <v>3235.62</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>254.67</v>
+        <v>188.68</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.4608</v>
+        <v>1.4316</v>
       </c>
       <c r="H4" s="6" t="inlineStr">
         <is>
-          <t>2019-11-28</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.4328</v>
+        <v>1.4043</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>-0.0192</v>
+        <v>-0.0191</v>
       </c>
       <c r="K4" s="8" t="n">
-        <v>-63.28</v>
+        <v>-61.7</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 14:19</t>
+          <t>2019-11-29 16:00</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
@@ -775,10 +775,10 @@
         <v>3390.61</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3082.4</v>
+        <v>3092.91</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-83.01000000000001</v>
+        <v>-72.5</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>0.9091</v>
@@ -789,17 +789,17 @@
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.9083</v>
+        <v>0.9123</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>-0.0009</v>
-      </c>
-      <c r="K5" s="8" t="n">
-        <v>-2.71</v>
+        <v>0.0035</v>
+      </c>
+      <c r="K5" s="9" t="n">
+        <v>10.85</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
@@ -844,10 +844,10 @@
         <v>1314.93</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2419.47</v>
+        <v>2411.58</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>57.15</v>
+        <v>49.26</v>
       </c>
       <c r="G6" s="4" t="n">
         <v>1.84</v>
@@ -858,17 +858,17 @@
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.8278</v>
+        <v>1.8341</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>-0.0067</v>
+        <v>-0.0032</v>
       </c>
       <c r="K6" s="8" t="n">
-        <v>-16.04</v>
+        <v>-7.76</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
@@ -913,10 +913,10 @@
         <v>973.88</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2082.64</v>
+        <v>2075.44</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16.31</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="G7" s="4" t="n">
         <v>2.1385</v>
@@ -927,17 +927,17 @@
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>2.1247</v>
+        <v>2.1312</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>-0.0065</v>
+        <v>-0.0034</v>
       </c>
       <c r="K7" s="8" t="n">
-        <v>-13.44</v>
+        <v>-7.11</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -982,10 +982,10 @@
         <v>887.74</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>840.6</v>
+        <v>835.9</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-12.08</v>
+        <v>-16.78</v>
       </c>
       <c r="G8" s="4" t="n">
         <v>0.9469</v>
@@ -996,17 +996,17 @@
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.9375</v>
+        <v>0.9415</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>-0.009900000000000001</v>
+        <v>-0.0057</v>
       </c>
       <c r="K8" s="8" t="n">
-        <v>-8.34</v>
+        <v>-4.79</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 14:17</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -1051,10 +1051,10 @@
         <v>550.4</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>513.3</v>
+        <v>512.59</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-27.59</v>
+        <v>-28.3</v>
       </c>
       <c r="G9" s="4" t="n">
         <v>0.9326</v>
@@ -1065,17 +1065,17 @@
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.925</v>
+        <v>0.9272</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>-0.008200000000000001</v>
+        <v>-0.0058</v>
       </c>
       <c r="K9" s="8" t="n">
-        <v>-4.18</v>
+        <v>-2.97</v>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M9" s="6" t="inlineStr">
@@ -1120,10 +1120,10 @@
         <v>531.87</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>410.5</v>
+        <v>405.18</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>53.72</v>
+        <v>48.4</v>
       </c>
       <c r="G10" s="4" t="n">
         <v>0.7718</v>
@@ -1134,17 +1134,17 @@
         </is>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.7582</v>
+        <v>0.7615</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>-0.0176</v>
+        <v>-0.0134</v>
       </c>
       <c r="K10" s="8" t="n">
-        <v>-7.23</v>
+        <v>-5.48</v>
       </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 14:17</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M10" s="6" t="inlineStr">
@@ -1189,10 +1189,10 @@
         <v>247.91</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>326.5</v>
+        <v>320.3</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13.24</v>
+        <v>7.04</v>
       </c>
       <c r="G11" s="4" t="n">
         <v>1.317</v>
@@ -1203,17 +1203,17 @@
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1.2886</v>
+        <v>1.2917</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>-0.0216</v>
+        <v>-0.0192</v>
       </c>
       <c r="K11" s="8" t="n">
-        <v>-7.04</v>
+        <v>-6.27</v>
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M11" s="6" t="inlineStr">
@@ -1258,10 +1258,10 @@
         <v>60.61</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>87.28</v>
+        <v>86.86</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-5.43</v>
+        <v>-5.85</v>
       </c>
       <c r="G12" s="4" t="n">
         <v>1.44</v>
@@ -1272,17 +1272,17 @@
         </is>
       </c>
       <c r="I12" s="4" t="n">
-        <v>1.4304</v>
+        <v>1.433</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>-0.0067</v>
+        <v>-0.0048</v>
       </c>
       <c r="K12" s="8" t="n">
-        <v>-0.58</v>
+        <v>-0.42</v>
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M12" s="6" t="inlineStr">
@@ -1312,690 +1312,690 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="inlineStr">
+      <c r="A13" s="10" t="inlineStr">
         <is>
           <t>广发中证环保ETF联接基金A</t>
         </is>
       </c>
-      <c r="B13" s="10" t="n">
+      <c r="B13" s="11" t="n">
         <v>1064</v>
       </c>
-      <c r="C13" s="11" t="n">
+      <c r="C13" s="12" t="n">
         <v>0.7171999999999999</v>
       </c>
-      <c r="D13" s="12" t="n">
+      <c r="D13" s="13" t="n">
         <v>16731.88</v>
       </c>
-      <c r="E13" s="12" t="n">
-        <v>9078.709999999999</v>
-      </c>
-      <c r="F13" s="12" t="n">
-        <v>-2921.28</v>
-      </c>
-      <c r="G13" s="11" t="n">
+      <c r="E13" s="13" t="n">
+        <v>9097.120000000001</v>
+      </c>
+      <c r="F13" s="13" t="n">
+        <v>-2902.88</v>
+      </c>
+      <c r="G13" s="12" t="n">
         <v>0.5426</v>
       </c>
-      <c r="H13" s="13" t="inlineStr">
-        <is>
-          <t>2019-11-28</t>
-        </is>
-      </c>
-      <c r="I13" s="11" t="n">
-        <v>0.5412</v>
-      </c>
-      <c r="J13" s="14" t="n">
-        <v>-0.0027</v>
-      </c>
-      <c r="K13" s="8" t="n">
-        <v>-23.42</v>
-      </c>
-      <c r="L13" s="13" t="inlineStr">
-        <is>
-          <t>2019-11-29 14:17</t>
-        </is>
-      </c>
-      <c r="M13" s="13" t="inlineStr">
+      <c r="H13" s="14" t="inlineStr">
+        <is>
+          <t>2019-11-28</t>
+        </is>
+      </c>
+      <c r="I13" s="12" t="n">
+        <v>0.5437</v>
+      </c>
+      <c r="J13" s="15" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="K13" s="9" t="n">
+        <v>18.41</v>
+      </c>
+      <c r="L13" s="14" t="inlineStr">
+        <is>
+          <t>2019-11-29 15:00</t>
+        </is>
+      </c>
+      <c r="M13" s="14" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N13" s="13" t="inlineStr">
+      <c r="N13" s="14" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O13" s="13" t="inlineStr">
+      <c r="O13" s="14" t="inlineStr">
         <is>
           <t>中证环保</t>
         </is>
       </c>
-      <c r="P13" s="13" t="inlineStr">
+      <c r="P13" s="14" t="inlineStr">
         <is>
           <t>143</t>
         </is>
       </c>
-      <c r="Q13" s="13" t="inlineStr">
+      <c r="Q13" s="14" t="inlineStr">
         <is>
           <t>支付宝</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="15" t="inlineStr">
+      <c r="A14" s="16" t="inlineStr">
         <is>
           <t>50ETF</t>
         </is>
       </c>
-      <c r="B14" s="16" t="n">
+      <c r="B14" s="17" t="n">
         <v>510050</v>
       </c>
-      <c r="C14" s="17" t="n">
+      <c r="C14" s="18" t="n">
         <v>2.337</v>
       </c>
-      <c r="D14" s="18" t="n">
+      <c r="D14" s="19" t="n">
         <v>2700</v>
       </c>
-      <c r="E14" s="18" t="n">
-        <v>8040.6</v>
-      </c>
-      <c r="F14" s="18" t="n">
-        <v>1730.7</v>
-      </c>
-      <c r="G14" s="17" t="n">
+      <c r="E14" s="19" t="n">
+        <v>7932.6</v>
+      </c>
+      <c r="F14" s="19" t="n">
+        <v>1622.7</v>
+      </c>
+      <c r="G14" s="18" t="n">
         <v>2.978</v>
       </c>
-      <c r="H14" s="19" t="inlineStr">
-        <is>
-          <t>2019-11-28</t>
-        </is>
-      </c>
-      <c r="I14" s="17" t="n">
-        <v>2.934</v>
-      </c>
-      <c r="J14" s="20" t="n">
-        <v>-0.0148</v>
+      <c r="H14" s="20" t="inlineStr">
+        <is>
+          <t>2019-11-28</t>
+        </is>
+      </c>
+      <c r="I14" s="18" t="n">
+        <v>2.938</v>
+      </c>
+      <c r="J14" s="21" t="n">
+        <v>-0.0134</v>
       </c>
       <c r="K14" s="8" t="n">
-        <v>-118.8</v>
-      </c>
-      <c r="L14" s="19" t="inlineStr">
-        <is>
-          <t>2019-11-29 14:19</t>
-        </is>
-      </c>
-      <c r="M14" s="19" t="inlineStr">
+        <v>-108</v>
+      </c>
+      <c r="L14" s="20" t="inlineStr">
+        <is>
+          <t>2019-11-29 15:00</t>
+        </is>
+      </c>
+      <c r="M14" s="20" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N14" s="19" t="inlineStr">
+      <c r="N14" s="20" t="inlineStr">
         <is>
           <t>大盘股</t>
         </is>
       </c>
-      <c r="O14" s="19" t="inlineStr">
+      <c r="O14" s="20" t="inlineStr">
         <is>
           <t>上证50</t>
         </is>
       </c>
-      <c r="P14" s="19" t="inlineStr">
+      <c r="P14" s="20" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Q14" s="19" t="inlineStr">
+      <c r="Q14" s="20" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="15" t="inlineStr">
+      <c r="A15" s="16" t="inlineStr">
         <is>
           <t>300ETF</t>
         </is>
       </c>
-      <c r="B15" s="16" t="n">
+      <c r="B15" s="17" t="n">
         <v>510300</v>
       </c>
-      <c r="C15" s="17" t="n">
+      <c r="C15" s="18" t="n">
         <v>3.447</v>
       </c>
-      <c r="D15" s="18" t="n">
+      <c r="D15" s="19" t="n">
         <v>9100</v>
       </c>
-      <c r="E15" s="18" t="n">
-        <v>35763</v>
-      </c>
-      <c r="F15" s="18" t="n">
-        <v>4395.3</v>
-      </c>
-      <c r="G15" s="17" t="n">
+      <c r="E15" s="19" t="n">
+        <v>35371.7</v>
+      </c>
+      <c r="F15" s="19" t="n">
+        <v>4004</v>
+      </c>
+      <c r="G15" s="18" t="n">
         <v>3.93</v>
       </c>
-      <c r="H15" s="19" t="inlineStr">
-        <is>
-          <t>2019-11-28</t>
-        </is>
-      </c>
-      <c r="I15" s="17" t="n">
-        <v>3.878</v>
-      </c>
-      <c r="J15" s="20" t="n">
-        <v>-0.0132</v>
+      <c r="H15" s="20" t="inlineStr">
+        <is>
+          <t>2019-11-29</t>
+        </is>
+      </c>
+      <c r="I15" s="18" t="n">
+        <v>3.887</v>
+      </c>
+      <c r="J15" s="21" t="n">
+        <v>-0.0109</v>
       </c>
       <c r="K15" s="8" t="n">
-        <v>-473.2</v>
-      </c>
-      <c r="L15" s="19" t="inlineStr">
-        <is>
-          <t>2019-11-29 14:19</t>
-        </is>
-      </c>
-      <c r="M15" s="19" t="inlineStr">
+        <v>-391.3</v>
+      </c>
+      <c r="L15" s="20" t="inlineStr">
+        <is>
+          <t>2019-11-29 15:00</t>
+        </is>
+      </c>
+      <c r="M15" s="20" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N15" s="19" t="inlineStr">
+      <c r="N15" s="20" t="inlineStr">
         <is>
           <t>大盘股</t>
         </is>
       </c>
-      <c r="O15" s="19" t="inlineStr">
+      <c r="O15" s="20" t="inlineStr">
         <is>
           <t>沪深300</t>
         </is>
       </c>
-      <c r="P15" s="19" t="inlineStr">
+      <c r="P15" s="20" t="inlineStr">
         <is>
           <t>113</t>
         </is>
       </c>
-      <c r="Q15" s="19" t="inlineStr">
+      <c r="Q15" s="20" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="15" t="inlineStr">
+      <c r="A16" s="16" t="inlineStr">
         <is>
           <t>500ETF</t>
         </is>
       </c>
-      <c r="B16" s="16" t="n">
+      <c r="B16" s="17" t="n">
         <v>510500</v>
       </c>
-      <c r="C16" s="17" t="n">
+      <c r="C16" s="18" t="n">
         <v>5.601</v>
       </c>
-      <c r="D16" s="18" t="n">
+      <c r="D16" s="19" t="n">
         <v>38800</v>
       </c>
-      <c r="E16" s="18" t="n">
+      <c r="E16" s="19" t="n">
         <v>205252</v>
       </c>
-      <c r="F16" s="18" t="n">
+      <c r="F16" s="19" t="n">
         <v>-12066.8</v>
       </c>
-      <c r="G16" s="17" t="n">
+      <c r="G16" s="18" t="n">
         <v>5.29</v>
       </c>
-      <c r="H16" s="19" t="inlineStr">
-        <is>
-          <t>2019-11-28</t>
-        </is>
-      </c>
-      <c r="I16" s="17" t="n">
-        <v>5.268</v>
-      </c>
-      <c r="J16" s="20" t="n">
-        <v>-0.0042</v>
-      </c>
-      <c r="K16" s="8" t="n">
-        <v>-853.6</v>
-      </c>
-      <c r="L16" s="19" t="inlineStr">
-        <is>
-          <t>2019-11-29 14:19</t>
-        </is>
-      </c>
-      <c r="M16" s="19" t="inlineStr">
+      <c r="H16" s="20" t="inlineStr">
+        <is>
+          <t>2019-11-28</t>
+        </is>
+      </c>
+      <c r="I16" s="18" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="J16" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="20" t="inlineStr">
+        <is>
+          <t>2019-11-29 15:00</t>
+        </is>
+      </c>
+      <c r="M16" s="20" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N16" s="19" t="inlineStr">
+      <c r="N16" s="20" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="O16" s="19" t="inlineStr">
+      <c r="O16" s="20" t="inlineStr">
         <is>
           <t>中证500</t>
         </is>
       </c>
-      <c r="P16" s="19" t="inlineStr">
+      <c r="P16" s="20" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="Q16" s="19" t="inlineStr">
+      <c r="Q16" s="20" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="15" t="inlineStr">
+      <c r="A17" s="16" t="inlineStr">
         <is>
           <t>环保ETF</t>
         </is>
       </c>
-      <c r="B17" s="16" t="n">
+      <c r="B17" s="17" t="n">
         <v>512580</v>
       </c>
-      <c r="C17" s="17" t="n">
+      <c r="C17" s="18" t="n">
         <v>0.877</v>
       </c>
-      <c r="D17" s="18" t="n">
+      <c r="D17" s="19" t="n">
         <v>33800</v>
       </c>
-      <c r="E17" s="18" t="n">
-        <v>24403.6</v>
-      </c>
-      <c r="F17" s="18" t="n">
-        <v>-5239</v>
-      </c>
-      <c r="G17" s="17" t="n">
+      <c r="E17" s="19" t="n">
+        <v>24505</v>
+      </c>
+      <c r="F17" s="19" t="n">
+        <v>-5137.6</v>
+      </c>
+      <c r="G17" s="18" t="n">
         <v>0.722</v>
       </c>
-      <c r="H17" s="19" t="inlineStr">
-        <is>
-          <t>2019-11-28</t>
-        </is>
-      </c>
-      <c r="I17" s="17" t="n">
-        <v>0.719</v>
-      </c>
-      <c r="J17" s="20" t="n">
-        <v>-0.0042</v>
-      </c>
-      <c r="K17" s="8" t="n">
-        <v>-101.4</v>
-      </c>
-      <c r="L17" s="19" t="inlineStr">
-        <is>
-          <t>2019-11-29 14:19</t>
-        </is>
-      </c>
-      <c r="M17" s="19" t="inlineStr">
+      <c r="H17" s="20" t="inlineStr">
+        <is>
+          <t>2019-11-29</t>
+        </is>
+      </c>
+      <c r="I17" s="18" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="J17" s="21" t="n">
+        <v>0.0042</v>
+      </c>
+      <c r="K17" s="9" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="L17" s="20" t="inlineStr">
+        <is>
+          <t>2019-11-29 15:00</t>
+        </is>
+      </c>
+      <c r="M17" s="20" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N17" s="19" t="inlineStr">
+      <c r="N17" s="20" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O17" s="19" t="inlineStr">
+      <c r="O17" s="20" t="inlineStr">
         <is>
           <t>中证环保</t>
         </is>
       </c>
-      <c r="P17" s="19" t="inlineStr">
+      <c r="P17" s="20" t="inlineStr">
         <is>
           <t>143</t>
         </is>
       </c>
-      <c r="Q17" s="19" t="inlineStr">
+      <c r="Q17" s="20" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="15" t="inlineStr">
+      <c r="A18" s="16" t="inlineStr">
         <is>
           <t>证券ETF</t>
         </is>
       </c>
-      <c r="B18" s="16" t="n">
+      <c r="B18" s="17" t="n">
         <v>512880</v>
       </c>
-      <c r="C18" s="17" t="n">
+      <c r="C18" s="18" t="n">
         <v>0.783</v>
       </c>
-      <c r="D18" s="18" t="n">
+      <c r="D18" s="19" t="n">
         <v>32700</v>
       </c>
-      <c r="E18" s="18" t="n">
-        <v>29266.5</v>
-      </c>
-      <c r="F18" s="18" t="n">
-        <v>3662.4</v>
-      </c>
-      <c r="G18" s="17" t="n">
+      <c r="E18" s="19" t="n">
+        <v>29364.6</v>
+      </c>
+      <c r="F18" s="19" t="n">
+        <v>3760.5</v>
+      </c>
+      <c r="G18" s="18" t="n">
         <v>0.895</v>
       </c>
-      <c r="H18" s="19" t="inlineStr">
-        <is>
-          <t>2019-11-28</t>
-        </is>
-      </c>
-      <c r="I18" s="17" t="n">
+      <c r="H18" s="20" t="inlineStr">
+        <is>
+          <t>2019-11-29</t>
+        </is>
+      </c>
+      <c r="I18" s="18" t="n">
         <v>0.898</v>
       </c>
-      <c r="J18" s="20" t="n">
+      <c r="J18" s="21" t="n">
         <v>0.0034</v>
       </c>
-      <c r="K18" s="21" t="n">
+      <c r="K18" s="9" t="n">
         <v>98.09999999999999</v>
       </c>
-      <c r="L18" s="19" t="inlineStr">
-        <is>
-          <t>2019-11-29 14:19</t>
-        </is>
-      </c>
-      <c r="M18" s="19" t="inlineStr">
+      <c r="L18" s="20" t="inlineStr">
+        <is>
+          <t>2019-11-29 15:00</t>
+        </is>
+      </c>
+      <c r="M18" s="20" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N18" s="19" t="inlineStr">
+      <c r="N18" s="20" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O18" s="19" t="inlineStr">
+      <c r="O18" s="20" t="inlineStr">
         <is>
           <t>证券公司</t>
         </is>
       </c>
-      <c r="P18" s="19" t="inlineStr">
+      <c r="P18" s="20" t="inlineStr">
         <is>
           <t>145</t>
         </is>
       </c>
-      <c r="Q18" s="19" t="inlineStr">
+      <c r="Q18" s="20" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="15" t="inlineStr">
+      <c r="A19" s="16" t="inlineStr">
         <is>
           <t>传媒ETF</t>
         </is>
       </c>
-      <c r="B19" s="16" t="n">
+      <c r="B19" s="17" t="n">
         <v>512980</v>
       </c>
-      <c r="C19" s="17" t="n">
+      <c r="C19" s="18" t="n">
         <v>0.869</v>
       </c>
-      <c r="D19" s="18" t="n">
+      <c r="D19" s="19" t="n">
         <v>34100</v>
       </c>
-      <c r="E19" s="18" t="n">
-        <v>25404.5</v>
-      </c>
-      <c r="F19" s="18" t="n">
-        <v>-4228.4</v>
-      </c>
-      <c r="G19" s="17" t="n">
+      <c r="E19" s="19" t="n">
+        <v>25472.7</v>
+      </c>
+      <c r="F19" s="19" t="n">
+        <v>-4160.2</v>
+      </c>
+      <c r="G19" s="18" t="n">
         <v>0.745</v>
       </c>
-      <c r="H19" s="19" t="inlineStr">
-        <is>
-          <t>2019-11-28</t>
-        </is>
-      </c>
-      <c r="I19" s="17" t="n">
-        <v>0.744</v>
-      </c>
-      <c r="J19" s="20" t="n">
-        <v>-0.0013</v>
-      </c>
-      <c r="K19" s="8" t="n">
-        <v>-34.1</v>
-      </c>
-      <c r="L19" s="19" t="inlineStr">
-        <is>
-          <t>2019-11-29 14:19</t>
-        </is>
-      </c>
-      <c r="M19" s="19" t="inlineStr">
+      <c r="H19" s="20" t="inlineStr">
+        <is>
+          <t>2019-11-29</t>
+        </is>
+      </c>
+      <c r="I19" s="18" t="n">
+        <v>0.747</v>
+      </c>
+      <c r="J19" s="21" t="n">
+        <v>0.0027</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="L19" s="20" t="inlineStr">
+        <is>
+          <t>2019-11-29 15:00</t>
+        </is>
+      </c>
+      <c r="M19" s="20" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N19" s="19" t="inlineStr">
+      <c r="N19" s="20" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O19" s="19" t="inlineStr">
+      <c r="O19" s="20" t="inlineStr">
         <is>
           <t>中证传媒</t>
         </is>
       </c>
-      <c r="P19" s="19" t="inlineStr">
+      <c r="P19" s="20" t="inlineStr">
         <is>
           <t>144</t>
         </is>
       </c>
-      <c r="Q19" s="19" t="inlineStr">
+      <c r="Q19" s="20" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="15" t="inlineStr">
+      <c r="A20" s="16" t="inlineStr">
         <is>
           <t>黄金ETF</t>
         </is>
       </c>
-      <c r="B20" s="16" t="n">
+      <c r="B20" s="17" t="n">
         <v>518880</v>
       </c>
-      <c r="C20" s="17" t="n">
+      <c r="C20" s="18" t="n">
         <v>2.856</v>
       </c>
-      <c r="D20" s="18" t="n">
+      <c r="D20" s="19" t="n">
         <v>4500</v>
       </c>
-      <c r="E20" s="18" t="n">
-        <v>14674.5</v>
-      </c>
-      <c r="F20" s="18" t="n">
-        <v>1822.5</v>
-      </c>
-      <c r="G20" s="17" t="n">
+      <c r="E20" s="19" t="n">
+        <v>14692.5</v>
+      </c>
+      <c r="F20" s="19" t="n">
+        <v>1840.5</v>
+      </c>
+      <c r="G20" s="18" t="n">
         <v>3.261</v>
       </c>
-      <c r="H20" s="19" t="inlineStr">
-        <is>
-          <t>2019-11-28</t>
-        </is>
-      </c>
-      <c r="I20" s="17" t="n">
-        <v>3.268</v>
-      </c>
-      <c r="J20" s="20" t="n">
-        <v>0.0021</v>
-      </c>
-      <c r="K20" s="21" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="L20" s="19" t="inlineStr">
-        <is>
-          <t>2019-11-29 14:19</t>
-        </is>
-      </c>
-      <c r="M20" s="19" t="inlineStr">
+      <c r="H20" s="20" t="inlineStr">
+        <is>
+          <t>2019-11-29</t>
+        </is>
+      </c>
+      <c r="I20" s="18" t="n">
+        <v>3.265</v>
+      </c>
+      <c r="J20" s="21" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="L20" s="20" t="inlineStr">
+        <is>
+          <t>2019-11-29 15:00</t>
+        </is>
+      </c>
+      <c r="M20" s="20" t="inlineStr">
         <is>
           <t>商品</t>
         </is>
       </c>
-      <c r="N20" s="19" t="inlineStr">
+      <c r="N20" s="20" t="inlineStr">
         <is>
           <t>商品</t>
         </is>
       </c>
-      <c r="O20" s="19" t="inlineStr">
+      <c r="O20" s="20" t="inlineStr">
         <is>
           <t>黄金</t>
         </is>
       </c>
-      <c r="P20" s="19" t="inlineStr">
+      <c r="P20" s="20" t="inlineStr">
         <is>
           <t>511</t>
         </is>
       </c>
-      <c r="Q20" s="19" t="inlineStr">
+      <c r="Q20" s="20" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="15" t="inlineStr">
+      <c r="A21" s="16" t="inlineStr">
         <is>
           <t>创业板</t>
         </is>
       </c>
-      <c r="B21" s="16" t="n">
+      <c r="B21" s="17" t="n">
         <v>159915</v>
       </c>
-      <c r="C21" s="17" t="n">
+      <c r="C21" s="18" t="n">
         <v>1.399</v>
       </c>
-      <c r="D21" s="18" t="n">
+      <c r="D21" s="19" t="n">
         <v>9200</v>
       </c>
-      <c r="E21" s="18" t="n">
-        <v>14821.2</v>
-      </c>
-      <c r="F21" s="18" t="n">
-        <v>1950.4</v>
-      </c>
-      <c r="G21" s="17" t="n">
+      <c r="E21" s="19" t="n">
+        <v>14720</v>
+      </c>
+      <c r="F21" s="19" t="n">
+        <v>1849.2</v>
+      </c>
+      <c r="G21" s="18" t="n">
         <v>1.611</v>
       </c>
-      <c r="H21" s="19" t="inlineStr">
-        <is>
-          <t>2019-11-28</t>
-        </is>
-      </c>
-      <c r="I21" s="17" t="n">
-        <v>1.595</v>
-      </c>
-      <c r="J21" s="20" t="n">
-        <v>-0.009900000000000001</v>
+      <c r="H21" s="20" t="inlineStr">
+        <is>
+          <t>2019-11-29</t>
+        </is>
+      </c>
+      <c r="I21" s="18" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J21" s="21" t="n">
+        <v>-0.0068</v>
       </c>
       <c r="K21" s="8" t="n">
-        <v>-147.2</v>
-      </c>
-      <c r="L21" s="19" t="inlineStr">
-        <is>
-          <t>2019-11-29 14:19</t>
-        </is>
-      </c>
-      <c r="M21" s="19" t="inlineStr">
+        <v>-101.2</v>
+      </c>
+      <c r="L21" s="20" t="inlineStr">
+        <is>
+          <t>2019-11-29 15:04</t>
+        </is>
+      </c>
+      <c r="M21" s="20" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N21" s="19" t="inlineStr">
+      <c r="N21" s="20" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="O21" s="19" t="inlineStr">
+      <c r="O21" s="20" t="inlineStr">
         <is>
           <t>创业板</t>
         </is>
       </c>
-      <c r="P21" s="19" t="inlineStr">
+      <c r="P21" s="20" t="inlineStr">
         <is>
           <t>124</t>
         </is>
       </c>
-      <c r="Q21" s="19" t="inlineStr">
+      <c r="Q21" s="20" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="15" t="inlineStr">
+      <c r="A22" s="16" t="inlineStr">
         <is>
           <t>广发医药</t>
         </is>
       </c>
-      <c r="B22" s="16" t="n">
+      <c r="B22" s="17" t="n">
         <v>159938</v>
       </c>
-      <c r="C22" s="17" t="n">
+      <c r="C22" s="18" t="n">
         <v>1.271</v>
       </c>
-      <c r="D22" s="18" t="n">
+      <c r="D22" s="19" t="n">
         <v>14400</v>
       </c>
-      <c r="E22" s="18" t="n">
-        <v>19569.6</v>
-      </c>
-      <c r="F22" s="18" t="n">
-        <v>1267.2</v>
-      </c>
-      <c r="G22" s="17" t="n">
+      <c r="E22" s="19" t="n">
+        <v>19209.6</v>
+      </c>
+      <c r="F22" s="19" t="n">
+        <v>907.2</v>
+      </c>
+      <c r="G22" s="18" t="n">
         <v>1.359</v>
       </c>
-      <c r="H22" s="19" t="inlineStr">
-        <is>
-          <t>2019-11-28</t>
-        </is>
-      </c>
-      <c r="I22" s="17" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="J22" s="20" t="n">
-        <v>-0.0213</v>
+      <c r="H22" s="20" t="inlineStr">
+        <is>
+          <t>2019-11-29</t>
+        </is>
+      </c>
+      <c r="I22" s="18" t="n">
+        <v>1.334</v>
+      </c>
+      <c r="J22" s="21" t="n">
+        <v>-0.0184</v>
       </c>
       <c r="K22" s="8" t="n">
-        <v>-417.6</v>
-      </c>
-      <c r="L22" s="19" t="inlineStr">
-        <is>
-          <t>2019-11-29 14:19</t>
-        </is>
-      </c>
-      <c r="M22" s="19" t="inlineStr">
+        <v>-360</v>
+      </c>
+      <c r="L22" s="20" t="inlineStr">
+        <is>
+          <t>2019-11-29 15:04</t>
+        </is>
+      </c>
+      <c r="M22" s="20" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N22" s="19" t="inlineStr">
+      <c r="N22" s="20" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O22" s="19" t="inlineStr">
+      <c r="O22" s="20" t="inlineStr">
         <is>
           <t>全指医药</t>
         </is>
       </c>
-      <c r="P22" s="19" t="inlineStr">
+      <c r="P22" s="20" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="Q22" s="19" t="inlineStr">
+      <c r="Q22" s="20" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
@@ -2017,10 +2017,10 @@
         <v>3813.64</v>
       </c>
       <c r="E23" s="25" t="n">
-        <v>7368.33</v>
+        <v>7369.86</v>
       </c>
       <c r="F23" s="25" t="n">
-        <v>31.33</v>
+        <v>32.86</v>
       </c>
       <c r="G23" s="24" t="n">
         <v>1.9321</v>
@@ -2031,17 +2031,17 @@
         </is>
       </c>
       <c r="I23" s="24" t="n">
-        <v>1.9251</v>
+        <v>1.9343</v>
       </c>
       <c r="J23" s="27" t="n">
-        <v>-0.0036</v>
-      </c>
-      <c r="K23" s="8" t="n">
-        <v>-26.7</v>
+        <v>0.0011</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>8.390000000000001</v>
       </c>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>2019-11-29 14:17</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M23" s="26" t="inlineStr">
@@ -2086,10 +2086,10 @@
         <v>9722</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>5275.16</v>
+        <v>5285.85</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>-60.84</v>
+        <v>-50.15</v>
       </c>
       <c r="G24" s="24" t="n">
         <v>0.5426</v>
@@ -2100,17 +2100,17 @@
         </is>
       </c>
       <c r="I24" s="24" t="n">
-        <v>0.5412</v>
+        <v>0.5437</v>
       </c>
       <c r="J24" s="27" t="n">
-        <v>-0.0027</v>
-      </c>
-      <c r="K24" s="8" t="n">
-        <v>-13.61</v>
+        <v>0.002</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>10.69</v>
       </c>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>2019-11-29 14:17</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M24" s="26" t="inlineStr">
@@ -2155,10 +2155,10 @@
         <v>4943.96</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>4681.44</v>
+        <v>4655.23</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>12.44</v>
+        <v>-13.77</v>
       </c>
       <c r="G25" s="24" t="n">
         <v>0.9469</v>
@@ -2169,17 +2169,17 @@
         </is>
       </c>
       <c r="I25" s="24" t="n">
-        <v>0.9375</v>
+        <v>0.9415</v>
       </c>
       <c r="J25" s="27" t="n">
-        <v>-0.009900000000000001</v>
+        <v>-0.0057</v>
       </c>
       <c r="K25" s="8" t="n">
-        <v>-46.47</v>
+        <v>-26.7</v>
       </c>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>2019-11-29 14:17</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M25" s="26" t="inlineStr">
@@ -2238,17 +2238,17 @@
         </is>
       </c>
       <c r="I26" s="24" t="n">
-        <v>0.542</v>
+        <v>0.5446</v>
       </c>
       <c r="J26" s="27" t="n">
-        <v>-0.0036</v>
-      </c>
-      <c r="K26" s="8" t="n">
-        <v>-14.76</v>
+        <v>0.0011</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>4.43</v>
       </c>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>2019-11-29 14:17</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M26" s="26" t="inlineStr">
@@ -2293,10 +2293,10 @@
         <v>3665.01</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>4002.19</v>
+        <v>3991.2</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>0.19</v>
+        <v>-10.8</v>
       </c>
       <c r="G27" s="24" t="n">
         <v>1.092</v>
@@ -2307,17 +2307,17 @@
         </is>
       </c>
       <c r="I27" s="24" t="n">
-        <v>1.0874</v>
+        <v>1.09</v>
       </c>
       <c r="J27" s="27" t="n">
-        <v>-0.0042</v>
+        <v>-0.0018</v>
       </c>
       <c r="K27" s="8" t="n">
-        <v>-16.86</v>
+        <v>-7.33</v>
       </c>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M27" s="26" t="inlineStr">
@@ -2362,10 +2362,10 @@
         <v>4550.55</v>
       </c>
       <c r="E28" s="25" t="n">
-        <v>3405.18</v>
+        <v>3420.19</v>
       </c>
       <c r="F28" s="25" t="n">
-        <v>70.18000000000001</v>
+        <v>85.19</v>
       </c>
       <c r="G28" s="24" t="n">
         <v>0.7483</v>
@@ -2376,17 +2376,17 @@
         </is>
       </c>
       <c r="I28" s="24" t="n">
-        <v>0.7476</v>
+        <v>0.7518</v>
       </c>
       <c r="J28" s="27" t="n">
-        <v>-0.001</v>
-      </c>
-      <c r="K28" s="8" t="n">
-        <v>-3.19</v>
+        <v>0.0047</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>15.93</v>
       </c>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M28" s="26" t="inlineStr">
@@ -2431,10 +2431,10 @@
         <v>400.63</v>
       </c>
       <c r="E29" s="25" t="n">
-        <v>694.65</v>
+        <v>691.17</v>
       </c>
       <c r="F29" s="25" t="n">
-        <v>27.65</v>
+        <v>24.17</v>
       </c>
       <c r="G29" s="24" t="n">
         <v>1.7339</v>
@@ -2445,17 +2445,17 @@
         </is>
       </c>
       <c r="I29" s="24" t="n">
-        <v>1.7184</v>
+        <v>1.7252</v>
       </c>
       <c r="J29" s="27" t="n">
-        <v>-0.0089</v>
+        <v>-0.005</v>
       </c>
       <c r="K29" s="8" t="n">
-        <v>-6.21</v>
+        <v>-3.49</v>
       </c>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M29" s="26" t="inlineStr">
@@ -2500,10 +2500,10 @@
         <v>736.3</v>
       </c>
       <c r="E30" s="25" t="n">
-        <v>693.37</v>
+        <v>690.0599999999999</v>
       </c>
       <c r="F30" s="25" t="n">
-        <v>26.37</v>
+        <v>23.06</v>
       </c>
       <c r="G30" s="24" t="n">
         <v>0.9417</v>
@@ -2514,17 +2514,17 @@
         </is>
       </c>
       <c r="I30" s="24" t="n">
-        <v>0.9333</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="J30" s="27" t="n">
-        <v>-0.0089</v>
+        <v>-0.005</v>
       </c>
       <c r="K30" s="8" t="n">
-        <v>-6.18</v>
+        <v>-3.46</v>
       </c>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M30" s="26" t="inlineStr">
@@ -2569,10 +2569,10 @@
         <v>473.85</v>
       </c>
       <c r="E31" s="25" t="n">
-        <v>455.42</v>
+        <v>457.17</v>
       </c>
       <c r="F31" s="25" t="n">
-        <v>-11.48</v>
+        <v>-9.73</v>
       </c>
       <c r="G31" s="24" t="n">
         <v>0.9611</v>
@@ -2583,17 +2583,17 @@
         </is>
       </c>
       <c r="I31" s="24" t="n">
-        <v>0.9635</v>
+        <v>0.965</v>
       </c>
       <c r="J31" s="27" t="n">
-        <v>0.0025</v>
-      </c>
-      <c r="K31" s="21" t="n">
-        <v>1.14</v>
+        <v>0.0041</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>1.85</v>
       </c>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M31" s="26" t="inlineStr">
@@ -2648,21 +2648,21 @@
       </c>
       <c r="H32" s="26" t="inlineStr">
         <is>
-          <t>2019-11-27</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I32" s="24" t="n">
-        <v>0.3735</v>
+        <v>0.3716</v>
       </c>
       <c r="J32" s="27" t="n">
-        <v>0.0014</v>
-      </c>
-      <c r="K32" s="21" t="n">
-        <v>2.65</v>
+        <v>-0.0038</v>
+      </c>
+      <c r="K32" s="8" t="n">
+        <v>-7.42</v>
       </c>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>2019-11-28 05:00</t>
+          <t>2019-11-30 03:33</t>
         </is>
       </c>
       <c r="M32" s="26" t="inlineStr">
@@ -2707,31 +2707,31 @@
         <v>576.8</v>
       </c>
       <c r="E33" s="25" t="n">
-        <v>759.0700000000001</v>
+        <v>760.22</v>
       </c>
       <c r="F33" s="25" t="n">
-        <v>92.06999999999999</v>
+        <v>93.22</v>
       </c>
       <c r="G33" s="24" t="n">
-        <v>1.316</v>
+        <v>1.318</v>
       </c>
       <c r="H33" s="26" t="inlineStr">
         <is>
-          <t>2019-11-27</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I33" s="24" t="n">
-        <v>1.3174</v>
+        <v>1.3143</v>
       </c>
       <c r="J33" s="27" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="K33" s="21" t="n">
-        <v>0.8100000000000001</v>
+        <v>-0.0028</v>
+      </c>
+      <c r="K33" s="8" t="n">
+        <v>-2.13</v>
       </c>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>2019-11-28 05:00</t>
+          <t>2019-11-30 03:33</t>
         </is>
       </c>
       <c r="M33" s="26" t="inlineStr">
@@ -2776,31 +2776,31 @@
         <v>459.67</v>
       </c>
       <c r="E34" s="25" t="n">
-        <v>691.76</v>
+        <v>678.79</v>
       </c>
       <c r="F34" s="25" t="n">
-        <v>24.76</v>
+        <v>11.79</v>
       </c>
       <c r="G34" s="24" t="n">
-        <v>1.5049</v>
+        <v>1.4767</v>
       </c>
       <c r="H34" s="26" t="inlineStr">
         <is>
-          <t>2019-11-28</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="I34" s="24" t="n">
-        <v>1.4755</v>
+        <v>1.4482</v>
       </c>
       <c r="J34" s="27" t="n">
-        <v>-0.0195</v>
+        <v>-0.0193</v>
       </c>
       <c r="K34" s="8" t="n">
-        <v>-13.51</v>
+        <v>-13.1</v>
       </c>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>2019-11-29 14:20</t>
+          <t>2019-11-29 16:00</t>
         </is>
       </c>
       <c r="M34" s="26" t="inlineStr">
@@ -2845,10 +2845,10 @@
         <v>611.75</v>
       </c>
       <c r="E35" s="25" t="n">
-        <v>739.61</v>
+        <v>735.9400000000001</v>
       </c>
       <c r="F35" s="25" t="n">
-        <v>72.61</v>
+        <v>68.94</v>
       </c>
       <c r="G35" s="24" t="n">
         <v>0</v>
@@ -2864,7 +2864,7 @@
       <c r="J35" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="K35" s="21" t="n">
+      <c r="K35" s="9" t="n">
         <v>0</v>
       </c>
       <c r="L35" s="26" t="inlineStr">
@@ -2914,10 +2914,10 @@
         <v>1046.73</v>
       </c>
       <c r="E36" s="25" t="n">
-        <v>2022.39</v>
+        <v>2022.81</v>
       </c>
       <c r="F36" s="25" t="n">
-        <v>22.39</v>
+        <v>22.81</v>
       </c>
       <c r="G36" s="24" t="n">
         <v>1.9321</v>
@@ -2928,17 +2928,17 @@
         </is>
       </c>
       <c r="I36" s="24" t="n">
-        <v>1.9251</v>
+        <v>1.9343</v>
       </c>
       <c r="J36" s="27" t="n">
-        <v>-0.0036</v>
-      </c>
-      <c r="K36" s="8" t="n">
-        <v>-7.33</v>
+        <v>0.0011</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>2.3</v>
       </c>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>2019-11-29 14:17</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M36" s="26" t="inlineStr">
@@ -2983,10 +2983,10 @@
         <v>1825.9</v>
       </c>
       <c r="E37" s="25" t="n">
-        <v>1993.88</v>
+        <v>1988.41</v>
       </c>
       <c r="F37" s="25" t="n">
-        <v>-6.12</v>
+        <v>-11.59</v>
       </c>
       <c r="G37" s="24" t="n">
         <v>1.092</v>
@@ -2997,17 +2997,17 @@
         </is>
       </c>
       <c r="I37" s="24" t="n">
-        <v>1.0874</v>
+        <v>1.09</v>
       </c>
       <c r="J37" s="27" t="n">
-        <v>-0.0042</v>
+        <v>-0.0018</v>
       </c>
       <c r="K37" s="8" t="n">
-        <v>-8.4</v>
+        <v>-3.65</v>
       </c>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M37" s="26" t="inlineStr">
@@ -3052,10 +3052,10 @@
         <v>1059.17</v>
       </c>
       <c r="E38" s="25" t="n">
-        <v>1063.41</v>
+        <v>1050.7</v>
       </c>
       <c r="F38" s="25" t="n">
-        <v>63.41</v>
+        <v>50.7</v>
       </c>
       <c r="G38" s="24" t="n">
         <v>1.004</v>
@@ -3066,17 +3066,17 @@
         </is>
       </c>
       <c r="I38" s="24" t="n">
-        <v>0.9893999999999999</v>
+        <v>0.9923999999999999</v>
       </c>
       <c r="J38" s="27" t="n">
-        <v>-0.0145</v>
+        <v>-0.0116</v>
       </c>
       <c r="K38" s="8" t="n">
-        <v>-15.46</v>
+        <v>-12.29</v>
       </c>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>2019-11-29 14:17</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M38" s="26" t="inlineStr">
@@ -3135,17 +3135,17 @@
         </is>
       </c>
       <c r="I39" s="24" t="n">
-        <v>0.542</v>
+        <v>0.5446</v>
       </c>
       <c r="J39" s="27" t="n">
-        <v>-0.0036</v>
-      </c>
-      <c r="K39" s="8" t="n">
-        <v>-3.63</v>
+        <v>0.0011</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>1.09</v>
       </c>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>2019-11-29 14:17</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M39" s="26" t="inlineStr">
@@ -3190,10 +3190,10 @@
         <v>1227.03</v>
       </c>
       <c r="E40" s="25" t="n">
-        <v>918.1900000000001</v>
+        <v>922.24</v>
       </c>
       <c r="F40" s="25" t="n">
-        <v>-81.81</v>
+        <v>-77.76000000000001</v>
       </c>
       <c r="G40" s="24" t="n">
         <v>0.7483</v>
@@ -3204,17 +3204,17 @@
         </is>
       </c>
       <c r="I40" s="24" t="n">
-        <v>0.7476</v>
+        <v>0.7518</v>
       </c>
       <c r="J40" s="27" t="n">
-        <v>-0.001</v>
-      </c>
-      <c r="K40" s="8" t="n">
-        <v>-0.86</v>
+        <v>0.0047</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>4.29</v>
       </c>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M40" s="26" t="inlineStr">
@@ -3246,64 +3246,64 @@
     <row r="41">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>华安黄金易ETF联接A</t>
         </is>
       </c>
       <c r="B41" s="23" t="n">
-        <v>164906</v>
+        <v>216</v>
       </c>
       <c r="C41" s="24" t="n">
-        <v>1.1113</v>
+        <v>1.0902</v>
       </c>
       <c r="D41" s="25" t="n">
-        <v>899.8200000000001</v>
+        <v>1834.47</v>
       </c>
       <c r="E41" s="25" t="n">
-        <v>1184.16</v>
+        <v>2225.4</v>
       </c>
       <c r="F41" s="25" t="n">
-        <v>184.16</v>
+        <v>225.4</v>
       </c>
       <c r="G41" s="24" t="n">
-        <v>1.316</v>
+        <v>1.2093</v>
       </c>
       <c r="H41" s="26" t="inlineStr">
         <is>
-          <t>2019-11-27</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I41" s="24" t="n">
-        <v>1.3174</v>
+        <v>1.2133</v>
       </c>
       <c r="J41" s="27" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="K41" s="21" t="n">
-        <v>1.26</v>
+        <v>0.0033</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>7.34</v>
       </c>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2019-11-28 05:00</t>
+          <t>2019-11-29 15:30</t>
         </is>
       </c>
       <c r="M41" s="26" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="N41" s="26" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="O41" s="26" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>黄金</t>
         </is>
       </c>
       <c r="P41" s="26" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>511</t>
         </is>
       </c>
       <c r="Q41" s="26" t="inlineStr">
@@ -3315,26 +3315,26 @@
     <row r="42">
       <c r="A42" s="22" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B42" s="23" t="n">
-        <v>71</v>
+        <v>164906</v>
       </c>
       <c r="C42" s="24" t="n">
-        <v>1.4513</v>
+        <v>1.1113</v>
       </c>
       <c r="D42" s="25" t="n">
-        <v>689.02</v>
+        <v>899.8200000000001</v>
       </c>
       <c r="E42" s="25" t="n">
-        <v>1036.91</v>
+        <v>1185.96</v>
       </c>
       <c r="F42" s="25" t="n">
-        <v>36.91</v>
+        <v>185.96</v>
       </c>
       <c r="G42" s="24" t="n">
-        <v>1.5049</v>
+        <v>1.318</v>
       </c>
       <c r="H42" s="26" t="inlineStr">
         <is>
@@ -3342,17 +3342,17 @@
         </is>
       </c>
       <c r="I42" s="24" t="n">
-        <v>1.4755</v>
+        <v>1.3143</v>
       </c>
       <c r="J42" s="27" t="n">
-        <v>-0.0195</v>
+        <v>-0.0028</v>
       </c>
       <c r="K42" s="8" t="n">
-        <v>-20.26</v>
+        <v>-3.33</v>
       </c>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>2019-11-29 14:20</t>
+          <t>2019-11-30 03:33</t>
         </is>
       </c>
       <c r="M42" s="26" t="inlineStr">
@@ -3362,17 +3362,17 @@
       </c>
       <c r="N42" s="26" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="O42" s="26" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="P42" s="26" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>213</t>
         </is>
       </c>
       <c r="Q42" s="26" t="inlineStr">
@@ -3384,64 +3384,64 @@
     <row r="43">
       <c r="A43" s="22" t="inlineStr">
         <is>
-          <t>华安黄金易ETF联接A</t>
+          <t>华夏恒生ETF联接A</t>
         </is>
       </c>
       <c r="B43" s="23" t="n">
-        <v>216</v>
+        <v>71</v>
       </c>
       <c r="C43" s="24" t="n">
-        <v>1.0902</v>
+        <v>1.4513</v>
       </c>
       <c r="D43" s="25" t="n">
-        <v>1834.47</v>
+        <v>689.02</v>
       </c>
       <c r="E43" s="25" t="n">
-        <v>2218.42</v>
+        <v>1017.48</v>
       </c>
       <c r="F43" s="25" t="n">
-        <v>218.42</v>
+        <v>17.48</v>
       </c>
       <c r="G43" s="24" t="n">
-        <v>1.2093</v>
+        <v>1.4767</v>
       </c>
       <c r="H43" s="26" t="inlineStr">
         <is>
-          <t>2019-11-28</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="I43" s="24" t="n">
-        <v>1.2103</v>
+        <v>1.4482</v>
       </c>
       <c r="J43" s="27" t="n">
-        <v>0.0008</v>
-      </c>
-      <c r="K43" s="21" t="n">
-        <v>1.83</v>
+        <v>-0.0193</v>
+      </c>
+      <c r="K43" s="8" t="n">
+        <v>-19.64</v>
       </c>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>2019-11-29 14:19</t>
+          <t>2019-11-29 16:00</t>
         </is>
       </c>
       <c r="M43" s="26" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="N43" s="26" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="O43" s="26" t="inlineStr">
         <is>
-          <t>黄金</t>
+          <t>恒生</t>
         </is>
       </c>
       <c r="P43" s="26" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>211</t>
         </is>
       </c>
       <c r="Q43" s="26" t="inlineStr">
@@ -3476,21 +3476,21 @@
       </c>
       <c r="H44" s="26" t="inlineStr">
         <is>
-          <t>2019-11-27</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I44" s="24" t="n">
-        <v>0.3735</v>
+        <v>0.3716</v>
       </c>
       <c r="J44" s="27" t="n">
-        <v>0.0014</v>
-      </c>
-      <c r="K44" s="21" t="n">
-        <v>2.38</v>
+        <v>-0.0038</v>
+      </c>
+      <c r="K44" s="8" t="n">
+        <v>-6.66</v>
       </c>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>2019-11-28 05:00</t>
+          <t>2019-11-30 03:33</t>
         </is>
       </c>
       <c r="M44" s="26" t="inlineStr">
@@ -3535,10 +3535,10 @@
         <v>953.96</v>
       </c>
       <c r="E45" s="25" t="n">
-        <v>1153.34</v>
+        <v>1147.61</v>
       </c>
       <c r="F45" s="25" t="n">
-        <v>153.34</v>
+        <v>147.61</v>
       </c>
       <c r="G45" s="24" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
       <c r="J45" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="K45" s="21" t="n">
+      <c r="K45" s="9" t="n">
         <v>0</v>
       </c>
       <c r="L45" s="26" t="inlineStr">
@@ -3604,10 +3604,10 @@
         <v>65064.33</v>
       </c>
       <c r="E46" s="31" t="n">
-        <v>71050.24000000001</v>
+        <v>70855.05</v>
       </c>
       <c r="F46" s="31" t="n">
-        <v>4730.24</v>
+        <v>4535.05</v>
       </c>
       <c r="G46" s="30" t="n">
         <v>1.092</v>
@@ -3618,17 +3618,17 @@
         </is>
       </c>
       <c r="I46" s="30" t="n">
-        <v>1.0874</v>
+        <v>1.09</v>
       </c>
       <c r="J46" s="33" t="n">
-        <v>-0.0042</v>
+        <v>-0.0018</v>
       </c>
       <c r="K46" s="8" t="n">
-        <v>-299.3</v>
+        <v>-130.13</v>
       </c>
       <c r="L46" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M46" s="32" t="inlineStr">
@@ -3673,10 +3673,10 @@
         <v>63490</v>
       </c>
       <c r="E47" s="31" t="n">
-        <v>60118.68</v>
+        <v>59782.18</v>
       </c>
       <c r="F47" s="31" t="n">
-        <v>1918.68</v>
+        <v>1582.18</v>
       </c>
       <c r="G47" s="30" t="n">
         <v>0.9469</v>
@@ -3687,17 +3687,17 @@
         </is>
       </c>
       <c r="I47" s="30" t="n">
-        <v>0.9375</v>
+        <v>0.9415</v>
       </c>
       <c r="J47" s="33" t="n">
-        <v>-0.009900000000000001</v>
+        <v>-0.0057</v>
       </c>
       <c r="K47" s="8" t="n">
-        <v>-596.8099999999999</v>
+        <v>-342.85</v>
       </c>
       <c r="L47" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 14:17</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M47" s="32" t="inlineStr">
@@ -3742,10 +3742,10 @@
         <v>32370.29</v>
       </c>
       <c r="E48" s="31" t="n">
-        <v>37080.16</v>
+        <v>37018.66</v>
       </c>
       <c r="F48" s="31" t="n">
-        <v>5080.16</v>
+        <v>5018.66</v>
       </c>
       <c r="G48" s="30" t="n">
         <v>1.1455</v>
@@ -3756,17 +3756,17 @@
         </is>
       </c>
       <c r="I48" s="30" t="n">
-        <v>1.1438</v>
+        <v>1.1446</v>
       </c>
       <c r="J48" s="33" t="n">
-        <v>-0.0014</v>
+        <v>-0.0008</v>
       </c>
       <c r="K48" s="8" t="n">
-        <v>-55.03</v>
+        <v>-29.13</v>
       </c>
       <c r="L48" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M48" s="32" t="inlineStr">
@@ -3811,10 +3811,10 @@
         <v>41014.88</v>
       </c>
       <c r="E49" s="31" t="n">
-        <v>34760.11</v>
+        <v>34148.98</v>
       </c>
       <c r="F49" s="31" t="n">
-        <v>4200.11</v>
+        <v>3588.98</v>
       </c>
       <c r="G49" s="30" t="n">
         <v>0.8475</v>
@@ -3825,17 +3825,17 @@
         </is>
       </c>
       <c r="I49" s="30" t="n">
-        <v>0.8290999999999999</v>
+        <v>0.8324</v>
       </c>
       <c r="J49" s="33" t="n">
-        <v>-0.0218</v>
+        <v>-0.0178</v>
       </c>
       <c r="K49" s="8" t="n">
-        <v>-754.67</v>
+        <v>-619.3200000000001</v>
       </c>
       <c r="L49" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 14:17</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M49" s="32" t="inlineStr">
@@ -3880,10 +3880,10 @@
         <v>20086.63</v>
       </c>
       <c r="E50" s="31" t="n">
-        <v>33765.62</v>
+        <v>33685.27</v>
       </c>
       <c r="F50" s="31" t="n">
-        <v>1765.62</v>
+        <v>1685.27</v>
       </c>
       <c r="G50" s="30" t="n">
         <v>1.681</v>
@@ -3894,17 +3894,17 @@
         </is>
       </c>
       <c r="I50" s="30" t="n">
-        <v>1.6772</v>
+        <v>1.6791</v>
       </c>
       <c r="J50" s="33" t="n">
-        <v>-0.0023</v>
+        <v>-0.0011</v>
       </c>
       <c r="K50" s="8" t="n">
-        <v>-76.33</v>
+        <v>-38.16</v>
       </c>
       <c r="L50" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M50" s="32" t="inlineStr">
@@ -3968,7 +3968,7 @@
       <c r="J51" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="K51" s="21" t="n">
+      <c r="K51" s="9" t="n">
         <v>0</v>
       </c>
       <c r="L51" s="32" t="inlineStr">
@@ -4018,10 +4018,10 @@
         <v>14624.61</v>
       </c>
       <c r="E52" s="31" t="n">
-        <v>23530.99</v>
+        <v>23340.87</v>
       </c>
       <c r="F52" s="31" t="n">
-        <v>4330.99</v>
+        <v>4140.87</v>
       </c>
       <c r="G52" s="30" t="n">
         <v>1.609</v>
@@ -4032,17 +4032,17 @@
         </is>
       </c>
       <c r="I52" s="30" t="n">
-        <v>1.5908</v>
+        <v>1.5957</v>
       </c>
       <c r="J52" s="33" t="n">
-        <v>-0.0113</v>
+        <v>-0.0083</v>
       </c>
       <c r="K52" s="8" t="n">
-        <v>-266.17</v>
+        <v>-194.51</v>
       </c>
       <c r="L52" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M52" s="32" t="inlineStr">
@@ -4087,10 +4087,10 @@
         <v>21163.93</v>
       </c>
       <c r="E53" s="31" t="n">
-        <v>22840.11</v>
+        <v>22763.92</v>
       </c>
       <c r="F53" s="31" t="n">
-        <v>3640.11</v>
+        <v>3563.92</v>
       </c>
       <c r="G53" s="30" t="n">
         <v>1.0792</v>
@@ -4101,17 +4101,17 @@
         </is>
       </c>
       <c r="I53" s="30" t="n">
-        <v>1.0735</v>
+        <v>1.0755</v>
       </c>
       <c r="J53" s="33" t="n">
-        <v>-0.0053</v>
+        <v>-0.0034</v>
       </c>
       <c r="K53" s="8" t="n">
-        <v>-120.63</v>
+        <v>-78.31</v>
       </c>
       <c r="L53" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 14:17</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M53" s="32" t="inlineStr">
@@ -4156,31 +4156,31 @@
         <v>16778.47</v>
       </c>
       <c r="E54" s="31" t="n">
-        <v>22080.46</v>
+        <v>22114.02</v>
       </c>
       <c r="F54" s="31" t="n">
-        <v>2880.46</v>
+        <v>2914.02</v>
       </c>
       <c r="G54" s="30" t="n">
-        <v>1.316</v>
+        <v>1.318</v>
       </c>
       <c r="H54" s="32" t="inlineStr">
         <is>
-          <t>2019-11-27</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I54" s="30" t="n">
-        <v>1.3174</v>
+        <v>1.3143</v>
       </c>
       <c r="J54" s="33" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="K54" s="21" t="n">
-        <v>23.49</v>
+        <v>-0.0028</v>
+      </c>
+      <c r="K54" s="8" t="n">
+        <v>-62.08</v>
       </c>
       <c r="L54" s="32" t="inlineStr">
         <is>
-          <t>2019-11-28 05:00</t>
+          <t>2019-11-30 03:33</t>
         </is>
       </c>
       <c r="M54" s="32" t="inlineStr">
@@ -4225,10 +4225,10 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E55" s="31" t="n">
-        <v>15114.27</v>
+        <v>15152.39</v>
       </c>
       <c r="F55" s="31" t="n">
-        <v>2314.27</v>
+        <v>2352.39</v>
       </c>
       <c r="G55" s="30" t="n">
         <v>1.586</v>
@@ -4239,17 +4239,17 @@
         </is>
       </c>
       <c r="I55" s="30" t="n">
-        <v>1.5803</v>
+        <v>1.5878</v>
       </c>
       <c r="J55" s="33" t="n">
-        <v>-0.0036</v>
-      </c>
-      <c r="K55" s="8" t="n">
-        <v>-54.32</v>
+        <v>0.0011</v>
+      </c>
+      <c r="K55" s="9" t="n">
+        <v>17.15</v>
       </c>
       <c r="L55" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M55" s="32" t="inlineStr">
@@ -4304,21 +4304,21 @@
       </c>
       <c r="H56" s="32" t="inlineStr">
         <is>
-          <t>2019-11-27</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I56" s="30" t="n">
-        <v>0.3735</v>
+        <v>0.3716</v>
       </c>
       <c r="J56" s="33" t="n">
-        <v>0.0014</v>
-      </c>
-      <c r="K56" s="21" t="n">
-        <v>18.63</v>
+        <v>-0.0038</v>
+      </c>
+      <c r="K56" s="8" t="n">
+        <v>-52.17</v>
       </c>
       <c r="L56" s="32" t="inlineStr">
         <is>
-          <t>2019-11-28 05:00</t>
+          <t>2019-11-30 03:33</t>
         </is>
       </c>
       <c r="M56" s="32" t="inlineStr">
@@ -4363,31 +4363,31 @@
         <v>6798.52</v>
       </c>
       <c r="E57" s="31" t="n">
-        <v>10231.09</v>
+        <v>10039.37</v>
       </c>
       <c r="F57" s="31" t="n">
-        <v>331.09</v>
+        <v>139.37</v>
       </c>
       <c r="G57" s="30" t="n">
-        <v>1.5049</v>
+        <v>1.4767</v>
       </c>
       <c r="H57" s="32" t="inlineStr">
         <is>
-          <t>2019-11-28</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="I57" s="30" t="n">
-        <v>1.4755</v>
+        <v>1.4482</v>
       </c>
       <c r="J57" s="33" t="n">
-        <v>-0.0195</v>
+        <v>-0.0193</v>
       </c>
       <c r="K57" s="8" t="n">
-        <v>-199.88</v>
+        <v>-193.76</v>
       </c>
       <c r="L57" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 14:20</t>
+          <t>2019-11-29 16:00</t>
         </is>
       </c>
       <c r="M57" s="32" t="inlineStr">
@@ -4432,10 +4432,10 @@
         <v>4791.13</v>
       </c>
       <c r="E58" s="31" t="n">
-        <v>8307.34</v>
+        <v>8265.65</v>
       </c>
       <c r="F58" s="31" t="n">
-        <v>1907.34</v>
+        <v>1865.65</v>
       </c>
       <c r="G58" s="30" t="n">
         <v>1.7339</v>
@@ -4446,17 +4446,17 @@
         </is>
       </c>
       <c r="I58" s="30" t="n">
-        <v>1.7184</v>
+        <v>1.7252</v>
       </c>
       <c r="J58" s="33" t="n">
-        <v>-0.0089</v>
+        <v>-0.005</v>
       </c>
       <c r="K58" s="8" t="n">
-        <v>-74.26000000000001</v>
+        <v>-41.68</v>
       </c>
       <c r="L58" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M58" s="32" t="inlineStr">
@@ -4520,7 +4520,7 @@
       <c r="J59" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="K59" s="21" t="n">
+      <c r="K59" s="9" t="n">
         <v>0</v>
       </c>
       <c r="L59" s="32" t="inlineStr">
@@ -4570,10 +4570,10 @@
         <v>13403.92</v>
       </c>
       <c r="E60" s="31" t="n">
-        <v>7272.96</v>
+        <v>7287.71</v>
       </c>
       <c r="F60" s="31" t="n">
-        <v>872.96</v>
+        <v>887.71</v>
       </c>
       <c r="G60" s="30" t="n">
         <v>0.5426</v>
@@ -4584,17 +4584,17 @@
         </is>
       </c>
       <c r="I60" s="30" t="n">
-        <v>0.5412</v>
+        <v>0.5437</v>
       </c>
       <c r="J60" s="33" t="n">
-        <v>-0.0027</v>
-      </c>
-      <c r="K60" s="8" t="n">
-        <v>-18.77</v>
+        <v>0.002</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>14.74</v>
       </c>
       <c r="L60" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 14:17</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M60" s="32" t="inlineStr">
@@ -4639,10 +4639,10 @@
         <v>5328.62</v>
       </c>
       <c r="E61" s="31" t="n">
-        <v>7229.87</v>
+        <v>7225.07</v>
       </c>
       <c r="F61" s="31" t="n">
-        <v>829.87</v>
+        <v>825.0700000000001</v>
       </c>
       <c r="G61" s="30" t="n">
         <v>1.3568</v>
@@ -4653,17 +4653,17 @@
         </is>
       </c>
       <c r="I61" s="30" t="n">
-        <v>1.3532</v>
+        <v>1.3554</v>
       </c>
       <c r="J61" s="33" t="n">
-        <v>-0.0026</v>
+        <v>-0.001</v>
       </c>
       <c r="K61" s="8" t="n">
-        <v>-19.18</v>
+        <v>-7.46</v>
       </c>
       <c r="L61" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M61" s="32" t="inlineStr">
@@ -4708,10 +4708,10 @@
         <v>7778.64</v>
       </c>
       <c r="E62" s="31" t="n">
-        <v>6679.51</v>
+        <v>6686.51</v>
       </c>
       <c r="F62" s="31" t="n">
-        <v>-320.49</v>
+        <v>-313.49</v>
       </c>
       <c r="G62" s="30" t="n">
         <v>0.8587</v>
@@ -4722,17 +4722,17 @@
         </is>
       </c>
       <c r="I62" s="30" t="n">
-        <v>0.8556</v>
+        <v>0.8597</v>
       </c>
       <c r="J62" s="33" t="n">
-        <v>-0.0036</v>
-      </c>
-      <c r="K62" s="8" t="n">
-        <v>-24.11</v>
+        <v>0.0011</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>7.78</v>
       </c>
       <c r="L62" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M62" s="32" t="inlineStr">
@@ -4777,10 +4777,10 @@
         <v>7852.99</v>
       </c>
       <c r="E63" s="31" t="n">
-        <v>5876.39</v>
+        <v>5902.3</v>
       </c>
       <c r="F63" s="31" t="n">
-        <v>-523.61</v>
+        <v>-497.7</v>
       </c>
       <c r="G63" s="30" t="n">
         <v>0.7483</v>
@@ -4791,17 +4791,17 @@
         </is>
       </c>
       <c r="I63" s="30" t="n">
-        <v>0.7476</v>
+        <v>0.7518</v>
       </c>
       <c r="J63" s="33" t="n">
-        <v>-0.001</v>
-      </c>
-      <c r="K63" s="8" t="n">
-        <v>-5.5</v>
+        <v>0.0047</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>27.49</v>
       </c>
       <c r="L63" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M63" s="32" t="inlineStr">
@@ -4860,17 +4860,17 @@
         </is>
       </c>
       <c r="I64" s="30" t="n">
-        <v>0.9202</v>
+        <v>0.9238</v>
       </c>
       <c r="J64" s="33" t="n">
-        <v>-0.0048</v>
+        <v>-0.0009</v>
       </c>
       <c r="K64" s="8" t="n">
-        <v>-15.75</v>
+        <v>-2.86</v>
       </c>
       <c r="L64" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M64" s="32" t="inlineStr">
@@ -4915,10 +4915,10 @@
         <v>1013.26</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>1448.96</v>
+        <v>1441.87</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>3.86</v>
+        <v>-3.23</v>
       </c>
       <c r="G65" s="4" t="n">
         <v>1.43</v>
@@ -4929,17 +4929,17 @@
         </is>
       </c>
       <c r="I65" s="4" t="n">
-        <v>1.4205</v>
+        <v>1.4231</v>
       </c>
       <c r="J65" s="7" t="n">
-        <v>-0.0067</v>
+        <v>-0.0048</v>
       </c>
       <c r="K65" s="8" t="n">
-        <v>-9.630000000000001</v>
+        <v>-6.99</v>
       </c>
       <c r="L65" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M65" s="6" t="inlineStr">
@@ -4984,10 +4984,10 @@
         <v>859.89</v>
       </c>
       <c r="E66" s="5" t="n">
-        <v>1382.7</v>
+        <v>1380.12</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>-38.53</v>
+        <v>-41.11</v>
       </c>
       <c r="G66" s="4" t="n">
         <v>1.608</v>
@@ -4998,17 +4998,17 @@
         </is>
       </c>
       <c r="I66" s="4" t="n">
-        <v>1.6013</v>
+        <v>1.6051</v>
       </c>
       <c r="J66" s="7" t="n">
-        <v>-0.0042</v>
+        <v>-0.0018</v>
       </c>
       <c r="K66" s="8" t="n">
-        <v>-5.76</v>
+        <v>-2.49</v>
       </c>
       <c r="L66" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M66" s="6" t="inlineStr">
@@ -5053,31 +5053,31 @@
         <v>898.04</v>
       </c>
       <c r="E67" s="5" t="n">
-        <v>1311.86</v>
+        <v>1285.63</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>100.89</v>
+        <v>74.66</v>
       </c>
       <c r="G67" s="4" t="n">
-        <v>1.4608</v>
+        <v>1.4316</v>
       </c>
       <c r="H67" s="6" t="inlineStr">
         <is>
-          <t>2019-11-28</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="I67" s="4" t="n">
-        <v>1.4328</v>
+        <v>1.4043</v>
       </c>
       <c r="J67" s="7" t="n">
-        <v>-0.0192</v>
+        <v>-0.0191</v>
       </c>
       <c r="K67" s="8" t="n">
-        <v>-25.15</v>
+        <v>-24.52</v>
       </c>
       <c r="L67" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 14:19</t>
+          <t>2019-11-29 16:00</t>
         </is>
       </c>
       <c r="M67" s="6" t="inlineStr">
@@ -5122,10 +5122,10 @@
         <v>1312.53</v>
       </c>
       <c r="E68" s="5" t="n">
-        <v>1193.22</v>
+        <v>1197.29</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>-31.49</v>
+        <v>-27.42</v>
       </c>
       <c r="G68" s="4" t="n">
         <v>0.9091</v>
@@ -5136,17 +5136,17 @@
         </is>
       </c>
       <c r="I68" s="4" t="n">
-        <v>0.9083</v>
+        <v>0.9123</v>
       </c>
       <c r="J68" s="7" t="n">
-        <v>-0.0009</v>
-      </c>
-      <c r="K68" s="8" t="n">
-        <v>-1.05</v>
+        <v>0.0035</v>
+      </c>
+      <c r="K68" s="9" t="n">
+        <v>4.2</v>
       </c>
       <c r="L68" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M68" s="6" t="inlineStr">
@@ -5191,10 +5191,10 @@
         <v>482.9</v>
       </c>
       <c r="E69" s="5" t="n">
-        <v>888.54</v>
+        <v>885.64</v>
       </c>
       <c r="F69" s="5" t="n">
-        <v>21.55</v>
+        <v>18.65</v>
       </c>
       <c r="G69" s="4" t="n">
         <v>1.84</v>
@@ -5205,17 +5205,17 @@
         </is>
       </c>
       <c r="I69" s="4" t="n">
-        <v>1.8278</v>
+        <v>1.8341</v>
       </c>
       <c r="J69" s="7" t="n">
-        <v>-0.0067</v>
+        <v>-0.0032</v>
       </c>
       <c r="K69" s="8" t="n">
-        <v>-5.89</v>
+        <v>-2.85</v>
       </c>
       <c r="L69" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M69" s="6" t="inlineStr">
@@ -5260,10 +5260,10 @@
         <v>389.84</v>
       </c>
       <c r="E70" s="5" t="n">
-        <v>833.67</v>
+        <v>830.79</v>
       </c>
       <c r="F70" s="5" t="n">
-        <v>7.27</v>
+        <v>4.39</v>
       </c>
       <c r="G70" s="4" t="n">
         <v>2.1385</v>
@@ -5274,17 +5274,17 @@
         </is>
       </c>
       <c r="I70" s="4" t="n">
-        <v>2.1247</v>
+        <v>2.1312</v>
       </c>
       <c r="J70" s="7" t="n">
-        <v>-0.0065</v>
+        <v>-0.0034</v>
       </c>
       <c r="K70" s="8" t="n">
-        <v>-5.38</v>
+        <v>-2.85</v>
       </c>
       <c r="L70" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M70" s="6" t="inlineStr">
@@ -5329,10 +5329,10 @@
         <v>354.88</v>
       </c>
       <c r="E71" s="5" t="n">
-        <v>336.04</v>
+        <v>334.16</v>
       </c>
       <c r="F71" s="5" t="n">
-        <v>-4.94</v>
+        <v>-6.83</v>
       </c>
       <c r="G71" s="4" t="n">
         <v>0.9469</v>
@@ -5343,17 +5343,17 @@
         </is>
       </c>
       <c r="I71" s="4" t="n">
-        <v>0.9375</v>
+        <v>0.9415</v>
       </c>
       <c r="J71" s="7" t="n">
-        <v>-0.009900000000000001</v>
+        <v>-0.0057</v>
       </c>
       <c r="K71" s="8" t="n">
-        <v>-3.34</v>
+        <v>-1.92</v>
       </c>
       <c r="L71" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 14:17</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M71" s="6" t="inlineStr">
@@ -5398,10 +5398,10 @@
         <v>214.89</v>
       </c>
       <c r="E72" s="5" t="n">
-        <v>200.41</v>
+        <v>200.13</v>
       </c>
       <c r="F72" s="5" t="n">
-        <v>-10.81</v>
+        <v>-11.09</v>
       </c>
       <c r="G72" s="4" t="n">
         <v>0.9326</v>
@@ -5412,17 +5412,17 @@
         </is>
       </c>
       <c r="I72" s="4" t="n">
-        <v>0.925</v>
+        <v>0.9272</v>
       </c>
       <c r="J72" s="7" t="n">
-        <v>-0.008200000000000001</v>
+        <v>-0.0058</v>
       </c>
       <c r="K72" s="8" t="n">
-        <v>-1.63</v>
+        <v>-1.16</v>
       </c>
       <c r="L72" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M72" s="6" t="inlineStr">
@@ -5467,10 +5467,10 @@
         <v>212.74</v>
       </c>
       <c r="E73" s="5" t="n">
-        <v>164.19</v>
+        <v>162.07</v>
       </c>
       <c r="F73" s="5" t="n">
-        <v>21.49</v>
+        <v>19.37</v>
       </c>
       <c r="G73" s="4" t="n">
         <v>0.7718</v>
@@ -5481,17 +5481,17 @@
         </is>
       </c>
       <c r="I73" s="4" t="n">
-        <v>0.7582</v>
+        <v>0.7615</v>
       </c>
       <c r="J73" s="7" t="n">
-        <v>-0.0176</v>
+        <v>-0.0134</v>
       </c>
       <c r="K73" s="8" t="n">
-        <v>-2.89</v>
+        <v>-2.19</v>
       </c>
       <c r="L73" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 14:17</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M73" s="6" t="inlineStr">
@@ -5536,10 +5536,10 @@
         <v>62.09</v>
       </c>
       <c r="E74" s="5" t="n">
-        <v>81.77</v>
+        <v>80.22</v>
       </c>
       <c r="F74" s="5" t="n">
-        <v>1.73</v>
+        <v>0.18</v>
       </c>
       <c r="G74" s="4" t="n">
         <v>1.317</v>
@@ -5550,17 +5550,17 @@
         </is>
       </c>
       <c r="I74" s="4" t="n">
-        <v>1.2886</v>
+        <v>1.2917</v>
       </c>
       <c r="J74" s="7" t="n">
-        <v>-0.0216</v>
+        <v>-0.0192</v>
       </c>
       <c r="K74" s="8" t="n">
-        <v>-1.76</v>
+        <v>-1.57</v>
       </c>
       <c r="L74" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M74" s="6" t="inlineStr">
@@ -5605,10 +5605,10 @@
         <v>24.24</v>
       </c>
       <c r="E75" s="5" t="n">
-        <v>34.91</v>
+        <v>34.74</v>
       </c>
       <c r="F75" s="5" t="n">
-        <v>-2.17</v>
+        <v>-2.34</v>
       </c>
       <c r="G75" s="4" t="n">
         <v>1.44</v>
@@ -5619,17 +5619,17 @@
         </is>
       </c>
       <c r="I75" s="4" t="n">
-        <v>1.4304</v>
+        <v>1.433</v>
       </c>
       <c r="J75" s="7" t="n">
-        <v>-0.0067</v>
+        <v>-0.0048</v>
       </c>
       <c r="K75" s="8" t="n">
-        <v>-0.23</v>
+        <v>-0.17</v>
       </c>
       <c r="L75" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M75" s="6" t="inlineStr">
@@ -5674,10 +5674,10 @@
         <v>917.91</v>
       </c>
       <c r="E76" s="5" t="n">
-        <v>1476</v>
+        <v>1473.25</v>
       </c>
       <c r="F76" s="5" t="n">
-        <v>-46.03</v>
+        <v>-48.78</v>
       </c>
       <c r="G76" s="4" t="n">
         <v>1.608</v>
@@ -5688,17 +5688,17 @@
         </is>
       </c>
       <c r="I76" s="4" t="n">
-        <v>1.6013</v>
+        <v>1.6051</v>
       </c>
       <c r="J76" s="7" t="n">
-        <v>-0.0042</v>
+        <v>-0.0018</v>
       </c>
       <c r="K76" s="8" t="n">
-        <v>-6.15</v>
+        <v>-2.66</v>
       </c>
       <c r="L76" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M76" s="6" t="inlineStr">
@@ -5743,10 +5743,10 @@
         <v>993.53</v>
       </c>
       <c r="E77" s="5" t="n">
-        <v>1420.75</v>
+        <v>1413.79</v>
       </c>
       <c r="F77" s="5" t="n">
-        <v>5.44</v>
+        <v>-1.52</v>
       </c>
       <c r="G77" s="4" t="n">
         <v>1.43</v>
@@ -5757,17 +5757,17 @@
         </is>
       </c>
       <c r="I77" s="4" t="n">
-        <v>1.4205</v>
+        <v>1.4231</v>
       </c>
       <c r="J77" s="7" t="n">
-        <v>-0.0067</v>
+        <v>-0.0048</v>
       </c>
       <c r="K77" s="8" t="n">
-        <v>-9.44</v>
+        <v>-6.86</v>
       </c>
       <c r="L77" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M77" s="6" t="inlineStr">
@@ -5812,31 +5812,31 @@
         <v>915.97</v>
       </c>
       <c r="E78" s="5" t="n">
-        <v>1338.05</v>
+        <v>1311.3</v>
       </c>
       <c r="F78" s="5" t="n">
-        <v>100.21</v>
+        <v>73.45999999999999</v>
       </c>
       <c r="G78" s="4" t="n">
-        <v>1.4608</v>
+        <v>1.4316</v>
       </c>
       <c r="H78" s="6" t="inlineStr">
         <is>
-          <t>2019-11-28</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="I78" s="4" t="n">
-        <v>1.4328</v>
+        <v>1.4043</v>
       </c>
       <c r="J78" s="7" t="n">
-        <v>-0.0192</v>
+        <v>-0.0191</v>
       </c>
       <c r="K78" s="8" t="n">
-        <v>-25.65</v>
+        <v>-25.01</v>
       </c>
       <c r="L78" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 14:19</t>
+          <t>2019-11-29 16:00</t>
         </is>
       </c>
       <c r="M78" s="6" t="inlineStr">
@@ -5881,10 +5881,10 @@
         <v>1320.32</v>
       </c>
       <c r="E79" s="5" t="n">
-        <v>1200.3</v>
+        <v>1204.4</v>
       </c>
       <c r="F79" s="5" t="n">
-        <v>-32.81</v>
+        <v>-28.71</v>
       </c>
       <c r="G79" s="4" t="n">
         <v>0.9091</v>
@@ -5895,17 +5895,17 @@
         </is>
       </c>
       <c r="I79" s="4" t="n">
-        <v>0.9083</v>
+        <v>0.9123</v>
       </c>
       <c r="J79" s="7" t="n">
-        <v>-0.0009</v>
-      </c>
-      <c r="K79" s="8" t="n">
-        <v>-1.06</v>
+        <v>0.0035</v>
+      </c>
+      <c r="K79" s="9" t="n">
+        <v>4.23</v>
       </c>
       <c r="L79" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M79" s="6" t="inlineStr">
@@ -5950,10 +5950,10 @@
         <v>509.62</v>
       </c>
       <c r="E80" s="5" t="n">
-        <v>937.7</v>
+        <v>934.64</v>
       </c>
       <c r="F80" s="5" t="n">
-        <v>21.94</v>
+        <v>18.88</v>
       </c>
       <c r="G80" s="4" t="n">
         <v>1.84</v>
@@ -5964,17 +5964,17 @@
         </is>
       </c>
       <c r="I80" s="4" t="n">
-        <v>1.8278</v>
+        <v>1.8341</v>
       </c>
       <c r="J80" s="7" t="n">
-        <v>-0.0067</v>
+        <v>-0.0032</v>
       </c>
       <c r="K80" s="8" t="n">
-        <v>-6.22</v>
+        <v>-3.01</v>
       </c>
       <c r="L80" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M80" s="6" t="inlineStr">
@@ -6019,10 +6019,10 @@
         <v>372.65</v>
       </c>
       <c r="E81" s="5" t="n">
-        <v>796.91</v>
+        <v>794.15</v>
       </c>
       <c r="F81" s="5" t="n">
-        <v>6.62</v>
+        <v>3.86</v>
       </c>
       <c r="G81" s="4" t="n">
         <v>2.1385</v>
@@ -6033,17 +6033,17 @@
         </is>
       </c>
       <c r="I81" s="4" t="n">
-        <v>2.1247</v>
+        <v>2.1312</v>
       </c>
       <c r="J81" s="7" t="n">
-        <v>-0.0065</v>
+        <v>-0.0034</v>
       </c>
       <c r="K81" s="8" t="n">
-        <v>-5.14</v>
+        <v>-2.72</v>
       </c>
       <c r="L81" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M81" s="6" t="inlineStr">
@@ -6088,10 +6088,10 @@
         <v>355.1</v>
       </c>
       <c r="E82" s="5" t="n">
-        <v>336.24</v>
+        <v>334.36</v>
       </c>
       <c r="F82" s="5" t="n">
-        <v>-4.82</v>
+        <v>-6.7</v>
       </c>
       <c r="G82" s="4" t="n">
         <v>0.9469</v>
@@ -6102,17 +6102,17 @@
         </is>
       </c>
       <c r="I82" s="4" t="n">
-        <v>0.9375</v>
+        <v>0.9415</v>
       </c>
       <c r="J82" s="7" t="n">
-        <v>-0.009900000000000001</v>
+        <v>-0.0057</v>
       </c>
       <c r="K82" s="8" t="n">
-        <v>-3.34</v>
+        <v>-1.92</v>
       </c>
       <c r="L82" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 14:17</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M82" s="6" t="inlineStr">
@@ -6157,10 +6157,10 @@
         <v>227.52</v>
       </c>
       <c r="E83" s="5" t="n">
-        <v>212.19</v>
+        <v>211.89</v>
       </c>
       <c r="F83" s="5" t="n">
-        <v>-11.32</v>
+        <v>-11.62</v>
       </c>
       <c r="G83" s="4" t="n">
         <v>0.9326</v>
@@ -6171,17 +6171,17 @@
         </is>
       </c>
       <c r="I83" s="4" t="n">
-        <v>0.925</v>
+        <v>0.9272</v>
       </c>
       <c r="J83" s="7" t="n">
-        <v>-0.008200000000000001</v>
+        <v>-0.0058</v>
       </c>
       <c r="K83" s="8" t="n">
-        <v>-1.73</v>
+        <v>-1.23</v>
       </c>
       <c r="L83" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M83" s="6" t="inlineStr">
@@ -6226,10 +6226,10 @@
         <v>142.1</v>
       </c>
       <c r="E84" s="5" t="n">
-        <v>187.15</v>
+        <v>183.59</v>
       </c>
       <c r="F84" s="5" t="n">
-        <v>4.7</v>
+        <v>1.14</v>
       </c>
       <c r="G84" s="4" t="n">
         <v>1.317</v>
@@ -6240,17 +6240,17 @@
         </is>
       </c>
       <c r="I84" s="4" t="n">
-        <v>1.2886</v>
+        <v>1.2917</v>
       </c>
       <c r="J84" s="7" t="n">
-        <v>-0.0216</v>
+        <v>-0.0192</v>
       </c>
       <c r="K84" s="8" t="n">
-        <v>-4.04</v>
+        <v>-3.6</v>
       </c>
       <c r="L84" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M84" s="6" t="inlineStr">
@@ -6295,10 +6295,10 @@
         <v>212.74</v>
       </c>
       <c r="E85" s="5" t="n">
-        <v>164.19</v>
+        <v>162.07</v>
       </c>
       <c r="F85" s="5" t="n">
-        <v>21.49</v>
+        <v>19.37</v>
       </c>
       <c r="G85" s="4" t="n">
         <v>0.7718</v>
@@ -6309,17 +6309,17 @@
         </is>
       </c>
       <c r="I85" s="4" t="n">
-        <v>0.7582</v>
+        <v>0.7615</v>
       </c>
       <c r="J85" s="7" t="n">
-        <v>-0.0176</v>
+        <v>-0.0134</v>
       </c>
       <c r="K85" s="8" t="n">
-        <v>-2.89</v>
+        <v>-2.19</v>
       </c>
       <c r="L85" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 14:17</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M85" s="6" t="inlineStr">
@@ -6364,10 +6364,10 @@
         <v>24.24</v>
       </c>
       <c r="E86" s="5" t="n">
-        <v>34.91</v>
+        <v>34.74</v>
       </c>
       <c r="F86" s="5" t="n">
-        <v>-2.17</v>
+        <v>-2.34</v>
       </c>
       <c r="G86" s="4" t="n">
         <v>1.44</v>
@@ -6378,17 +6378,17 @@
         </is>
       </c>
       <c r="I86" s="4" t="n">
-        <v>1.4304</v>
+        <v>1.433</v>
       </c>
       <c r="J86" s="7" t="n">
-        <v>-0.0067</v>
+        <v>-0.0048</v>
       </c>
       <c r="K86" s="8" t="n">
-        <v>-0.23</v>
+        <v>-0.17</v>
       </c>
       <c r="L86" s="6" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M86" s="6" t="inlineStr">
@@ -6427,16 +6427,16 @@
         <v>162711</v>
       </c>
       <c r="C87" s="30" t="n">
-        <v>0</v>
+        <v>1.0519</v>
       </c>
       <c r="D87" s="31" t="n">
-        <v>0</v>
+        <v>9697.57</v>
       </c>
       <c r="E87" s="31" t="n">
-        <v>10421.97</v>
+        <v>10433.61</v>
       </c>
       <c r="F87" s="31" t="n">
-        <v>221.97</v>
+        <v>233.61</v>
       </c>
       <c r="G87" s="30" t="n">
         <v>1.0747</v>
@@ -6447,17 +6447,17 @@
         </is>
       </c>
       <c r="I87" s="30" t="n">
-        <v>1.0708</v>
+        <v>1.0759</v>
       </c>
       <c r="J87" s="33" t="n">
-        <v>-0.0036</v>
-      </c>
-      <c r="K87" s="21" t="n">
-        <v>-0</v>
+        <v>0.0011</v>
+      </c>
+      <c r="K87" s="9" t="n">
+        <v>11.64</v>
       </c>
       <c r="L87" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M87" s="32" t="inlineStr">
@@ -6496,16 +6496,16 @@
         <v>100032</v>
       </c>
       <c r="C88" s="30" t="n">
-        <v>1.0193</v>
+        <v>1.0142</v>
       </c>
       <c r="D88" s="31" t="n">
-        <v>65064.33</v>
+        <v>8677.6</v>
       </c>
       <c r="E88" s="31" t="n">
-        <v>9475.93</v>
+        <v>9449.9</v>
       </c>
       <c r="F88" s="31" t="n">
-        <v>675.9299999999999</v>
+        <v>649.9</v>
       </c>
       <c r="G88" s="30" t="n">
         <v>1.092</v>
@@ -6516,17 +6516,17 @@
         </is>
       </c>
       <c r="I88" s="30" t="n">
-        <v>1.0874</v>
+        <v>1.09</v>
       </c>
       <c r="J88" s="33" t="n">
-        <v>-0.0042</v>
+        <v>-0.0018</v>
       </c>
       <c r="K88" s="8" t="n">
-        <v>-299.3</v>
+        <v>-17.36</v>
       </c>
       <c r="L88" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M88" s="32" t="inlineStr">
@@ -6565,16 +6565,16 @@
         <v>968</v>
       </c>
       <c r="C89" s="30" t="n">
-        <v>0.9167</v>
+        <v>0.853</v>
       </c>
       <c r="D89" s="31" t="n">
-        <v>63490</v>
+        <v>6096.21</v>
       </c>
       <c r="E89" s="31" t="n">
-        <v>5772.5</v>
+        <v>5740.19</v>
       </c>
       <c r="F89" s="31" t="n">
-        <v>572.5</v>
+        <v>540.1900000000001</v>
       </c>
       <c r="G89" s="30" t="n">
         <v>0.9469</v>
@@ -6585,17 +6585,17 @@
         </is>
       </c>
       <c r="I89" s="30" t="n">
-        <v>0.9375</v>
+        <v>0.9415</v>
       </c>
       <c r="J89" s="33" t="n">
-        <v>-0.009900000000000001</v>
+        <v>-0.0057</v>
       </c>
       <c r="K89" s="8" t="n">
-        <v>-596.8099999999999</v>
+        <v>-32.92</v>
       </c>
       <c r="L89" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 14:17</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M89" s="32" t="inlineStr">
@@ -6634,16 +6634,16 @@
         <v>1180</v>
       </c>
       <c r="C90" s="30" t="n">
-        <v>0.7451</v>
+        <v>0.7111</v>
       </c>
       <c r="D90" s="31" t="n">
-        <v>41014.88</v>
+        <v>6750.28</v>
       </c>
       <c r="E90" s="31" t="n">
-        <v>5720.86</v>
+        <v>5620.28</v>
       </c>
       <c r="F90" s="31" t="n">
-        <v>920.86</v>
+        <v>820.28</v>
       </c>
       <c r="G90" s="30" t="n">
         <v>0.8475</v>
@@ -6654,17 +6654,17 @@
         </is>
       </c>
       <c r="I90" s="30" t="n">
-        <v>0.8290999999999999</v>
+        <v>0.8324</v>
       </c>
       <c r="J90" s="33" t="n">
-        <v>-0.0218</v>
+        <v>-0.0178</v>
       </c>
       <c r="K90" s="8" t="n">
-        <v>-754.67</v>
+        <v>-101.93</v>
       </c>
       <c r="L90" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 14:17</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M90" s="32" t="inlineStr">
@@ -6703,16 +6703,16 @@
         <v>100038</v>
       </c>
       <c r="C91" s="30" t="n">
-        <v>1.3129</v>
+        <v>1.3043</v>
       </c>
       <c r="D91" s="31" t="n">
-        <v>14624.61</v>
+        <v>2760.12</v>
       </c>
       <c r="E91" s="31" t="n">
-        <v>4441.03</v>
+        <v>4405.15</v>
       </c>
       <c r="F91" s="31" t="n">
-        <v>841.03</v>
+        <v>805.15</v>
       </c>
       <c r="G91" s="30" t="n">
         <v>1.609</v>
@@ -6723,17 +6723,17 @@
         </is>
       </c>
       <c r="I91" s="30" t="n">
-        <v>1.5908</v>
+        <v>1.5957</v>
       </c>
       <c r="J91" s="33" t="n">
-        <v>-0.0113</v>
+        <v>-0.0083</v>
       </c>
       <c r="K91" s="8" t="n">
-        <v>-266.17</v>
+        <v>-36.71</v>
       </c>
       <c r="L91" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M91" s="32" t="inlineStr">
@@ -6772,16 +6772,16 @@
         <v>4752</v>
       </c>
       <c r="C92" s="30" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.7235</v>
       </c>
       <c r="D92" s="31" t="n">
-        <v>7852.99</v>
+        <v>4423.48</v>
       </c>
       <c r="E92" s="31" t="n">
-        <v>3310.09</v>
+        <v>3324.68</v>
       </c>
       <c r="F92" s="31" t="n">
-        <v>110.09</v>
+        <v>124.68</v>
       </c>
       <c r="G92" s="30" t="n">
         <v>0.7483</v>
@@ -6792,17 +6792,17 @@
         </is>
       </c>
       <c r="I92" s="30" t="n">
-        <v>0.7476</v>
+        <v>0.7518</v>
       </c>
       <c r="J92" s="33" t="n">
-        <v>-0.001</v>
-      </c>
-      <c r="K92" s="8" t="n">
-        <v>-5.5</v>
+        <v>0.0047</v>
+      </c>
+      <c r="K92" s="9" t="n">
+        <v>15.48</v>
       </c>
       <c r="L92" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M92" s="32" t="inlineStr">
@@ -6841,16 +6841,16 @@
         <v>161017</v>
       </c>
       <c r="C93" s="30" t="n">
-        <v>1.3432</v>
+        <v>1.325</v>
       </c>
       <c r="D93" s="31" t="n">
-        <v>9529.809999999999</v>
+        <v>2046.97</v>
       </c>
       <c r="E93" s="31" t="n">
-        <v>3246.49</v>
+        <v>3254.68</v>
       </c>
       <c r="F93" s="31" t="n">
-        <v>534.38</v>
+        <v>542.5700000000001</v>
       </c>
       <c r="G93" s="30" t="n">
         <v>1.586</v>
@@ -6861,17 +6861,17 @@
         </is>
       </c>
       <c r="I93" s="30" t="n">
-        <v>1.5803</v>
+        <v>1.5878</v>
       </c>
       <c r="J93" s="33" t="n">
-        <v>-0.0036</v>
-      </c>
-      <c r="K93" s="8" t="n">
-        <v>-54.32</v>
+        <v>0.0011</v>
+      </c>
+      <c r="K93" s="9" t="n">
+        <v>3.68</v>
       </c>
       <c r="L93" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M93" s="32" t="inlineStr">
@@ -6910,16 +6910,16 @@
         <v>1064</v>
       </c>
       <c r="C94" s="30" t="n">
-        <v>0.4775</v>
+        <v>0.5379</v>
       </c>
       <c r="D94" s="31" t="n">
-        <v>13403.92</v>
+        <v>5949.77</v>
       </c>
       <c r="E94" s="31" t="n">
-        <v>3228.34</v>
+        <v>3234.88</v>
       </c>
       <c r="F94" s="31" t="n">
-        <v>28.34</v>
+        <v>34.88</v>
       </c>
       <c r="G94" s="30" t="n">
         <v>0.5426</v>
@@ -6930,17 +6930,17 @@
         </is>
       </c>
       <c r="I94" s="30" t="n">
-        <v>0.5412</v>
+        <v>0.5437</v>
       </c>
       <c r="J94" s="33" t="n">
-        <v>-0.0027</v>
-      </c>
-      <c r="K94" s="8" t="n">
-        <v>-18.77</v>
+        <v>0.002</v>
+      </c>
+      <c r="K94" s="9" t="n">
+        <v>6.54</v>
       </c>
       <c r="L94" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 14:17</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M94" s="32" t="inlineStr">
@@ -6979,16 +6979,16 @@
         <v>110027</v>
       </c>
       <c r="C95" s="30" t="n">
-        <v>1.5931</v>
+        <v>1.6007</v>
       </c>
       <c r="D95" s="31" t="n">
-        <v>20086.63</v>
+        <v>1743.65</v>
       </c>
       <c r="E95" s="31" t="n">
-        <v>2931.07</v>
+        <v>2924.1</v>
       </c>
       <c r="F95" s="31" t="n">
-        <v>140.07</v>
+        <v>133.1</v>
       </c>
       <c r="G95" s="30" t="n">
         <v>1.681</v>
@@ -6999,17 +6999,17 @@
         </is>
       </c>
       <c r="I95" s="30" t="n">
-        <v>1.6772</v>
+        <v>1.6791</v>
       </c>
       <c r="J95" s="33" t="n">
-        <v>-0.0023</v>
+        <v>-0.0011</v>
       </c>
       <c r="K95" s="8" t="n">
-        <v>-76.33</v>
+        <v>-3.31</v>
       </c>
       <c r="L95" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M95" s="32" t="inlineStr">
@@ -7048,10 +7048,10 @@
         <v>614</v>
       </c>
       <c r="C96" s="30" t="n">
-        <v>1.091</v>
+        <v>1.0612</v>
       </c>
       <c r="D96" s="31" t="n">
-        <v>20716.63</v>
+        <v>1884.74</v>
       </c>
       <c r="E96" s="31" t="n">
         <v>2278.65</v>
@@ -7073,7 +7073,7 @@
       <c r="J96" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="K96" s="21" t="n">
+      <c r="K96" s="9" t="n">
         <v>0</v>
       </c>
       <c r="L96" s="32" t="inlineStr">
@@ -7117,16 +7117,16 @@
         <v>110026</v>
       </c>
       <c r="C97" s="30" t="n">
-        <v>1.3359</v>
+        <v>1.319</v>
       </c>
       <c r="D97" s="31" t="n">
-        <v>4791.13</v>
+        <v>1213.09</v>
       </c>
       <c r="E97" s="31" t="n">
-        <v>2103.37</v>
+        <v>2092.82</v>
       </c>
       <c r="F97" s="31" t="n">
-        <v>503.37</v>
+        <v>492.82</v>
       </c>
       <c r="G97" s="30" t="n">
         <v>1.7339</v>
@@ -7137,17 +7137,17 @@
         </is>
       </c>
       <c r="I97" s="30" t="n">
-        <v>1.7184</v>
+        <v>1.7252</v>
       </c>
       <c r="J97" s="33" t="n">
-        <v>-0.0089</v>
+        <v>-0.005</v>
       </c>
       <c r="K97" s="8" t="n">
-        <v>-74.26000000000001</v>
+        <v>-10.55</v>
       </c>
       <c r="L97" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M97" s="32" t="inlineStr">
@@ -7186,16 +7186,16 @@
         <v>340001</v>
       </c>
       <c r="C98" s="30" t="n">
-        <v>0.9886</v>
+        <v>0.9816</v>
       </c>
       <c r="D98" s="31" t="n">
-        <v>32370.29</v>
+        <v>1630.08</v>
       </c>
       <c r="E98" s="31" t="n">
-        <v>1867.25</v>
+        <v>1864.15</v>
       </c>
       <c r="F98" s="31" t="n">
-        <v>267.25</v>
+        <v>264.15</v>
       </c>
       <c r="G98" s="30" t="n">
         <v>1.1455</v>
@@ -7206,17 +7206,17 @@
         </is>
       </c>
       <c r="I98" s="30" t="n">
-        <v>1.1438</v>
+        <v>1.1446</v>
       </c>
       <c r="J98" s="33" t="n">
-        <v>-0.0014</v>
+        <v>-0.0008</v>
       </c>
       <c r="K98" s="8" t="n">
-        <v>-55.03</v>
+        <v>-1.47</v>
       </c>
       <c r="L98" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M98" s="32" t="inlineStr">
@@ -7255,37 +7255,37 @@
         <v>164906</v>
       </c>
       <c r="C99" s="30" t="n">
-        <v>1.1444</v>
+        <v>1.137</v>
       </c>
       <c r="D99" s="31" t="n">
-        <v>16778.47</v>
+        <v>1407.29</v>
       </c>
       <c r="E99" s="31" t="n">
-        <v>1851.99</v>
+        <v>1854.8</v>
       </c>
       <c r="F99" s="31" t="n">
-        <v>251.99</v>
+        <v>254.8</v>
       </c>
       <c r="G99" s="30" t="n">
-        <v>1.316</v>
+        <v>1.318</v>
       </c>
       <c r="H99" s="32" t="inlineStr">
         <is>
-          <t>2019-11-27</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I99" s="30" t="n">
-        <v>1.3174</v>
+        <v>1.3143</v>
       </c>
       <c r="J99" s="33" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="K99" s="21" t="n">
-        <v>23.49</v>
+        <v>-0.0028</v>
+      </c>
+      <c r="K99" s="8" t="n">
+        <v>-5.21</v>
       </c>
       <c r="L99" s="32" t="inlineStr">
         <is>
-          <t>2019-11-28 05:00</t>
+          <t>2019-11-30 03:33</t>
         </is>
       </c>
       <c r="M99" s="32" t="inlineStr">
@@ -7324,16 +7324,16 @@
         <v>1051</v>
       </c>
       <c r="C100" s="30" t="n">
-        <v>0</v>
+        <v>0.8966</v>
       </c>
       <c r="D100" s="31" t="n">
-        <v>0</v>
+        <v>1338.46</v>
       </c>
       <c r="E100" s="31" t="n">
-        <v>1343.81</v>
+        <v>1327.75</v>
       </c>
       <c r="F100" s="31" t="n">
-        <v>143.81</v>
+        <v>127.75</v>
       </c>
       <c r="G100" s="30" t="n">
         <v>1.004</v>
@@ -7344,17 +7344,17 @@
         </is>
       </c>
       <c r="I100" s="30" t="n">
-        <v>0.9893999999999999</v>
+        <v>0.9923999999999999</v>
       </c>
       <c r="J100" s="33" t="n">
-        <v>-0.0145</v>
-      </c>
-      <c r="K100" s="21" t="n">
-        <v>-0</v>
+        <v>-0.0116</v>
+      </c>
+      <c r="K100" s="8" t="n">
+        <v>-15.53</v>
       </c>
       <c r="L100" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 14:17</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M100" s="32" t="inlineStr">
@@ -7393,10 +7393,10 @@
         <v>162411</v>
       </c>
       <c r="C101" s="30" t="n">
-        <v>0.5152</v>
+        <v>0.4776</v>
       </c>
       <c r="D101" s="31" t="n">
-        <v>37267.45</v>
+        <v>3350.7</v>
       </c>
       <c r="E101" s="31" t="n">
         <v>1249.81</v>
@@ -7409,21 +7409,21 @@
       </c>
       <c r="H101" s="32" t="inlineStr">
         <is>
-          <t>2019-11-27</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="I101" s="30" t="n">
-        <v>0.3735</v>
+        <v>0.3716</v>
       </c>
       <c r="J101" s="33" t="n">
-        <v>0.0014</v>
-      </c>
-      <c r="K101" s="21" t="n">
-        <v>18.63</v>
+        <v>-0.0038</v>
+      </c>
+      <c r="K101" s="8" t="n">
+        <v>-4.69</v>
       </c>
       <c r="L101" s="32" t="inlineStr">
         <is>
-          <t>2019-11-28 05:00</t>
+          <t>2019-11-30 03:33</t>
         </is>
       </c>
       <c r="M101" s="32" t="inlineStr">
@@ -7462,16 +7462,16 @@
         <v>162413</v>
       </c>
       <c r="C102" s="30" t="n">
-        <v>0</v>
+        <v>0.8027</v>
       </c>
       <c r="D102" s="31" t="n">
-        <v>0</v>
+        <v>1495.03</v>
       </c>
       <c r="E102" s="31" t="n">
-        <v>1180.02</v>
+        <v>1179.27</v>
       </c>
       <c r="F102" s="31" t="n">
-        <v>-19.98</v>
+        <v>-20.73</v>
       </c>
       <c r="G102" s="30" t="n">
         <v>0.7893</v>
@@ -7482,17 +7482,17 @@
         </is>
       </c>
       <c r="I102" s="30" t="n">
-        <v>0.7856</v>
+        <v>0.7886</v>
       </c>
       <c r="J102" s="33" t="n">
-        <v>-0.0048</v>
-      </c>
-      <c r="K102" s="21" t="n">
-        <v>-0</v>
+        <v>-0.0009</v>
+      </c>
+      <c r="K102" s="8" t="n">
+        <v>-1.05</v>
       </c>
       <c r="L102" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M102" s="32" t="inlineStr">
@@ -7531,16 +7531,16 @@
         <v>1469</v>
       </c>
       <c r="C103" s="30" t="n">
-        <v>0.9073</v>
+        <v>0.8885999999999999</v>
       </c>
       <c r="D103" s="31" t="n">
-        <v>21163.93</v>
+        <v>900.35</v>
       </c>
       <c r="E103" s="31" t="n">
-        <v>971.65</v>
+        <v>968.41</v>
       </c>
       <c r="F103" s="31" t="n">
-        <v>171.65</v>
+        <v>168.41</v>
       </c>
       <c r="G103" s="30" t="n">
         <v>1.0792</v>
@@ -7551,17 +7551,17 @@
         </is>
       </c>
       <c r="I103" s="30" t="n">
-        <v>1.0735</v>
+        <v>1.0755</v>
       </c>
       <c r="J103" s="33" t="n">
-        <v>-0.0053</v>
+        <v>-0.0034</v>
       </c>
       <c r="K103" s="8" t="n">
-        <v>-120.63</v>
+        <v>-3.33</v>
       </c>
       <c r="L103" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 14:17</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M103" s="32" t="inlineStr">
@@ -7600,16 +7600,16 @@
         <v>216</v>
       </c>
       <c r="C104" s="30" t="n">
-        <v>0</v>
+        <v>1.0903</v>
       </c>
       <c r="D104" s="31" t="n">
-        <v>0</v>
+        <v>733.79</v>
       </c>
       <c r="E104" s="31" t="n">
-        <v>887.37</v>
+        <v>890.16</v>
       </c>
       <c r="F104" s="31" t="n">
-        <v>87.37</v>
+        <v>90.16</v>
       </c>
       <c r="G104" s="30" t="n">
         <v>1.2093</v>
@@ -7620,17 +7620,17 @@
         </is>
       </c>
       <c r="I104" s="30" t="n">
-        <v>1.2103</v>
+        <v>1.2133</v>
       </c>
       <c r="J104" s="33" t="n">
-        <v>0.0008</v>
-      </c>
-      <c r="K104" s="21" t="n">
-        <v>0</v>
+        <v>0.0033</v>
+      </c>
+      <c r="K104" s="9" t="n">
+        <v>2.94</v>
       </c>
       <c r="L104" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 14:19</t>
+          <t>2019-11-29 15:30</t>
         </is>
       </c>
       <c r="M104" s="32" t="inlineStr">
@@ -7669,16 +7669,16 @@
         <v>502010</v>
       </c>
       <c r="C105" s="30" t="n">
-        <v>0</v>
+        <v>0.8063</v>
       </c>
       <c r="D105" s="31" t="n">
-        <v>0</v>
+        <v>496.13</v>
       </c>
       <c r="E105" s="31" t="n">
-        <v>476.83</v>
+        <v>478.66</v>
       </c>
       <c r="F105" s="31" t="n">
-        <v>76.83</v>
+        <v>78.66</v>
       </c>
       <c r="G105" s="30" t="n">
         <v>0.9611</v>
@@ -7689,17 +7689,17 @@
         </is>
       </c>
       <c r="I105" s="30" t="n">
-        <v>0.9635</v>
+        <v>0.965</v>
       </c>
       <c r="J105" s="33" t="n">
-        <v>0.0025</v>
-      </c>
-      <c r="K105" s="21" t="n">
-        <v>0</v>
+        <v>0.0041</v>
+      </c>
+      <c r="K105" s="9" t="n">
+        <v>1.93</v>
       </c>
       <c r="L105" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M105" s="32" t="inlineStr">
@@ -7738,16 +7738,16 @@
         <v>3765</v>
       </c>
       <c r="C106" s="30" t="n">
-        <v>0</v>
+        <v>0.8121</v>
       </c>
       <c r="D106" s="31" t="n">
-        <v>0</v>
+        <v>492.57</v>
       </c>
       <c r="E106" s="31" t="n">
-        <v>463.85</v>
+        <v>461.63</v>
       </c>
       <c r="F106" s="31" t="n">
-        <v>63.85</v>
+        <v>61.63</v>
       </c>
       <c r="G106" s="30" t="n">
         <v>0.9417</v>
@@ -7758,17 +7758,17 @@
         </is>
       </c>
       <c r="I106" s="30" t="n">
-        <v>0.9333</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="J106" s="33" t="n">
-        <v>-0.0089</v>
-      </c>
-      <c r="K106" s="21" t="n">
-        <v>-0</v>
+        <v>-0.005</v>
+      </c>
+      <c r="K106" s="8" t="n">
+        <v>-2.32</v>
       </c>
       <c r="L106" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M106" s="32" t="inlineStr">
@@ -7810,13 +7810,13 @@
         <v>1.2011</v>
       </c>
       <c r="D107" s="31" t="n">
-        <v>5328.62</v>
+        <v>333.04</v>
       </c>
       <c r="E107" s="31" t="n">
-        <v>451.86</v>
+        <v>451.56</v>
       </c>
       <c r="F107" s="31" t="n">
-        <v>51.86</v>
+        <v>51.56</v>
       </c>
       <c r="G107" s="30" t="n">
         <v>1.3568</v>
@@ -7827,17 +7827,17 @@
         </is>
       </c>
       <c r="I107" s="30" t="n">
-        <v>1.3532</v>
+        <v>1.3554</v>
       </c>
       <c r="J107" s="33" t="n">
-        <v>-0.0026</v>
+        <v>-0.001</v>
       </c>
       <c r="K107" s="8" t="n">
-        <v>-19.18</v>
+        <v>-0.47</v>
       </c>
       <c r="L107" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M107" s="32" t="inlineStr">
@@ -7876,16 +7876,16 @@
         <v>51</v>
       </c>
       <c r="C108" s="30" t="n">
-        <v>0</v>
+        <v>1.2285</v>
       </c>
       <c r="D108" s="31" t="n">
-        <v>0</v>
+        <v>325.61</v>
       </c>
       <c r="E108" s="31" t="n">
-        <v>421.66</v>
+        <v>418.08</v>
       </c>
       <c r="F108" s="31" t="n">
-        <v>21.66</v>
+        <v>18.08</v>
       </c>
       <c r="G108" s="30" t="n">
         <v>1.295</v>
@@ -7896,17 +7896,17 @@
         </is>
       </c>
       <c r="I108" s="30" t="n">
-        <v>1.2804</v>
+        <v>1.2843</v>
       </c>
       <c r="J108" s="33" t="n">
-        <v>-0.0113</v>
-      </c>
-      <c r="K108" s="21" t="n">
-        <v>-0</v>
+        <v>-0.0083</v>
+      </c>
+      <c r="K108" s="8" t="n">
+        <v>-3.48</v>
       </c>
       <c r="L108" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 14:19</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M108" s="32" t="inlineStr">
@@ -7945,37 +7945,37 @@
         <v>71</v>
       </c>
       <c r="C109" s="30" t="n">
-        <v>1.4562</v>
+        <v>1.452</v>
       </c>
       <c r="D109" s="31" t="n">
-        <v>6798.52</v>
+        <v>275.49</v>
       </c>
       <c r="E109" s="31" t="n">
-        <v>414.58</v>
+        <v>406.81</v>
       </c>
       <c r="F109" s="31" t="n">
-        <v>14.58</v>
+        <v>6.81</v>
       </c>
       <c r="G109" s="30" t="n">
-        <v>1.5049</v>
+        <v>1.4767</v>
       </c>
       <c r="H109" s="32" t="inlineStr">
         <is>
-          <t>2019-11-28</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="I109" s="30" t="n">
-        <v>1.4755</v>
+        <v>1.4482</v>
       </c>
       <c r="J109" s="33" t="n">
-        <v>-0.0195</v>
+        <v>-0.0193</v>
       </c>
       <c r="K109" s="8" t="n">
-        <v>-199.88</v>
+        <v>-7.85</v>
       </c>
       <c r="L109" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 14:20</t>
+          <t>2019-11-29 16:00</t>
         </is>
       </c>
       <c r="M109" s="32" t="inlineStr">
@@ -8014,16 +8014,16 @@
         <v>2903</v>
       </c>
       <c r="C110" s="30" t="n">
-        <v>0.9</v>
+        <v>0.829</v>
       </c>
       <c r="D110" s="31" t="n">
-        <v>7778.64</v>
+        <v>275.96</v>
       </c>
       <c r="E110" s="31" t="n">
-        <v>236.96</v>
+        <v>237.21</v>
       </c>
       <c r="F110" s="31" t="n">
-        <v>8.199999999999999</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="G110" s="30" t="n">
         <v>0.8587</v>
@@ -8034,17 +8034,17 @@
         </is>
       </c>
       <c r="I110" s="30" t="n">
-        <v>0.8556</v>
+        <v>0.8597</v>
       </c>
       <c r="J110" s="33" t="n">
-        <v>-0.0036</v>
-      </c>
-      <c r="K110" s="8" t="n">
-        <v>-24.11</v>
+        <v>0.0011</v>
+      </c>
+      <c r="K110" s="9" t="n">
+        <v>0.28</v>
       </c>
       <c r="L110" s="32" t="inlineStr">
         <is>
-          <t>2019-11-29 14:18</t>
+          <t>2019-11-29 15:00</t>
         </is>
       </c>
       <c r="M110" s="32" t="inlineStr">
